--- a/on_trucks/Processed_Stand_Alone/4_455-55R22.xlsx
+++ b/on_trucks/Processed_Stand_Alone/4_455-55R22.xlsx
@@ -10567,19 +10567,19 @@
         <v>0.5</v>
       </c>
       <c r="C2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D2">
         <v>124</v>
       </c>
       <c r="E2">
-        <v>0.04702703144149802</v>
+        <v>0.04615289647583285</v>
       </c>
       <c r="F2">
         <v>0.5065399864906953</v>
       </c>
       <c r="G2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H2">
         <v>4</v>
@@ -10608,19 +10608,19 @@
         <v>0.5</v>
       </c>
       <c r="C3">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D3">
         <v>143</v>
       </c>
       <c r="E3">
-        <v>0.04541328848678733</v>
+        <v>0.03959320895107479</v>
       </c>
       <c r="F3">
         <v>0.5080497496536239</v>
       </c>
       <c r="G3">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="H3">
         <v>4</v>
@@ -10649,19 +10649,19 @@
         <v>0.5</v>
       </c>
       <c r="C4">
-        <v>52</v>
+        <v>87</v>
       </c>
       <c r="D4">
         <v>131</v>
       </c>
       <c r="E4">
-        <v>0.04724634730889476</v>
+        <v>0.06818682133623107</v>
       </c>
       <c r="F4">
         <v>0.5061851637961855</v>
       </c>
       <c r="G4">
-        <v>79</v>
+        <v>44</v>
       </c>
       <c r="H4">
         <v>4</v>
@@ -10690,19 +10690,19 @@
         <v>0.5</v>
       </c>
       <c r="C5">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D5">
         <v>131</v>
       </c>
       <c r="E5">
-        <v>0.02334778504915876</v>
+        <v>0.02313440193116293</v>
       </c>
       <c r="F5">
         <v>0.5028205920560749</v>
       </c>
       <c r="G5">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H5">
         <v>4</v>
@@ -10731,19 +10731,19 @@
         <v>0.5</v>
       </c>
       <c r="C6">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D6">
         <v>123</v>
       </c>
       <c r="E6">
-        <v>0.04694794697232114</v>
+        <v>0.04659958260154852</v>
       </c>
       <c r="F6">
         <v>0.5116940829248977</v>
       </c>
       <c r="G6">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H6">
         <v>4</v>
@@ -10826,19 +10826,19 @@
         <v>0.7</v>
       </c>
       <c r="C2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D2">
         <v>147</v>
       </c>
       <c r="E2">
-        <v>0.04702703144149802</v>
+        <v>0.04615289647583285</v>
       </c>
       <c r="F2">
         <v>0.7016331705557574</v>
       </c>
       <c r="G2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H2">
         <v>4</v>
@@ -10867,19 +10867,19 @@
         <v>0.7</v>
       </c>
       <c r="C3">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D3">
         <v>161</v>
       </c>
       <c r="E3">
-        <v>0.04541328848678733</v>
+        <v>0.03959320895107479</v>
       </c>
       <c r="F3">
         <v>0.7125728485304073</v>
       </c>
       <c r="G3">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="H3">
         <v>4</v>
@@ -10908,19 +10908,19 @@
         <v>0.7</v>
       </c>
       <c r="C4">
-        <v>52</v>
+        <v>87</v>
       </c>
       <c r="D4">
         <v>151</v>
       </c>
       <c r="E4">
-        <v>0.04724634730889476</v>
+        <v>0.06818682133623107</v>
       </c>
       <c r="F4">
         <v>0.7144244619815096</v>
       </c>
       <c r="G4">
-        <v>99</v>
+        <v>64</v>
       </c>
       <c r="H4">
         <v>4</v>
@@ -10949,19 +10949,19 @@
         <v>0.7</v>
       </c>
       <c r="C5">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D5">
         <v>150</v>
       </c>
       <c r="E5">
-        <v>0.02334778504915876</v>
+        <v>0.02313440193116293</v>
       </c>
       <c r="F5">
         <v>0.7102876433938399</v>
       </c>
       <c r="G5">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="H5">
         <v>4</v>
@@ -10990,19 +10990,19 @@
         <v>0.7</v>
       </c>
       <c r="C6">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D6">
         <v>143</v>
       </c>
       <c r="E6">
-        <v>0.04694794697232114</v>
+        <v>0.04659958260154852</v>
       </c>
       <c r="F6">
         <v>0.7154928698917379</v>
       </c>
       <c r="G6">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="H6">
         <v>4</v>
@@ -11085,19 +11085,19 @@
         <v>0.8</v>
       </c>
       <c r="C2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D2">
         <v>159</v>
       </c>
       <c r="E2">
-        <v>0.04702703144149802</v>
+        <v>0.04615289647583285</v>
       </c>
       <c r="F2">
         <v>0.8009578989929955</v>
       </c>
       <c r="G2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H2">
         <v>4</v>
@@ -11126,19 +11126,19 @@
         <v>0.8</v>
       </c>
       <c r="C3">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D3">
         <v>169</v>
       </c>
       <c r="E3">
-        <v>0.04541328848678733</v>
+        <v>0.03959320895107479</v>
       </c>
       <c r="F3">
         <v>0.8063070019645078</v>
       </c>
       <c r="G3">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="H3">
         <v>4</v>
@@ -11167,19 +11167,19 @@
         <v>0.8</v>
       </c>
       <c r="C4">
-        <v>52</v>
+        <v>87</v>
       </c>
       <c r="D4">
         <v>158</v>
       </c>
       <c r="E4">
-        <v>0.04724634730889476</v>
+        <v>0.06818682133623107</v>
       </c>
       <c r="F4">
         <v>0.817797586559978</v>
       </c>
       <c r="G4">
-        <v>106</v>
+        <v>71</v>
       </c>
       <c r="H4">
         <v>4</v>
@@ -11208,19 +11208,19 @@
         <v>0.8</v>
       </c>
       <c r="C5">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D5">
         <v>157</v>
       </c>
       <c r="E5">
-        <v>0.02334778504915876</v>
+        <v>0.02313440193116293</v>
       </c>
       <c r="F5">
         <v>0.8038798236828415</v>
       </c>
       <c r="G5">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="H5">
         <v>4</v>
@@ -11249,19 +11249,19 @@
         <v>0.8</v>
       </c>
       <c r="C6">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D6">
         <v>158</v>
       </c>
       <c r="E6">
-        <v>0.04694794697232114</v>
+        <v>0.04659958260154852</v>
       </c>
       <c r="F6">
         <v>0.8036921769505414</v>
       </c>
       <c r="G6">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H6">
         <v>4</v>
@@ -11344,19 +11344,19 @@
         <v>0.9</v>
       </c>
       <c r="C2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D2">
         <v>183</v>
       </c>
       <c r="E2">
-        <v>0.04702703144149802</v>
+        <v>0.04615289647583285</v>
       </c>
       <c r="F2">
         <v>0.9044611855749187</v>
       </c>
       <c r="G2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H2">
         <v>4</v>
@@ -11385,19 +11385,19 @@
         <v>0.9</v>
       </c>
       <c r="C3">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D3">
         <v>189</v>
       </c>
       <c r="E3">
-        <v>0.04541328848678733</v>
+        <v>0.03959320895107479</v>
       </c>
       <c r="F3">
         <v>0.9158659495449106</v>
       </c>
       <c r="G3">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="H3">
         <v>4</v>
@@ -11426,19 +11426,19 @@
         <v>0.9</v>
       </c>
       <c r="C4">
-        <v>52</v>
+        <v>87</v>
       </c>
       <c r="D4">
         <v>183</v>
       </c>
       <c r="E4">
-        <v>0.04724634730889476</v>
+        <v>0.06818682133623107</v>
       </c>
       <c r="F4">
         <v>0.9085260043945209</v>
       </c>
       <c r="G4">
-        <v>131</v>
+        <v>96</v>
       </c>
       <c r="H4">
         <v>4</v>
@@ -11467,19 +11467,19 @@
         <v>0.9</v>
       </c>
       <c r="C5">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D5">
         <v>181</v>
       </c>
       <c r="E5">
-        <v>0.02334778504915876</v>
+        <v>0.02313440193116293</v>
       </c>
       <c r="F5">
         <v>0.9045609589423698</v>
       </c>
       <c r="G5">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H5">
         <v>4</v>
@@ -11508,19 +11508,19 @@
         <v>0.9</v>
       </c>
       <c r="C6">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D6">
         <v>183</v>
       </c>
       <c r="E6">
-        <v>0.04694794697232114</v>
+        <v>0.04659958260154852</v>
       </c>
       <c r="F6">
         <v>0.9126591856382564</v>
       </c>
       <c r="G6">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="H6">
         <v>4</v>

--- a/on_trucks/Processed_Stand_Alone/4_455-55R22.xlsx
+++ b/on_trucks/Processed_Stand_Alone/4_455-55R22.xlsx
@@ -1994,604 +1994,604 @@
         <v>257</v>
       </c>
       <c r="B2">
-        <v>0.0004264866425219234</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>0.0003697400808558077</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>0.0002561957275220721</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>0.0001246655636602615</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>2.640787077535215E-05</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>8.639817953670638E-07</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>6.448397189329108E-05</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>0.0001879078655170963</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0.0004129176121235279</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>0.0006039407177320897</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0.0007044879806842224</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>0.0008834478259385991</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>0.00102647163013787</v>
+        <v>7.873759801109503E-05</v>
       </c>
       <c r="O2">
-        <v>0.0009752804286348635</v>
+        <v>1.992983774179788E-05</v>
       </c>
       <c r="P2">
-        <v>0.0009579318281254975</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>0.0008473362248783391</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>0.0006005172776315752</v>
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>0.000310745409123686</v>
+        <v>0</v>
       </c>
       <c r="T2">
-        <v>0.0002336107068589613</v>
+        <v>0</v>
       </c>
       <c r="U2">
-        <v>0.0001301003638198307</v>
+        <v>0</v>
       </c>
       <c r="V2">
-        <v>1.500022244041622E-05</v>
+        <v>0</v>
       </c>
       <c r="W2">
-        <v>1.660453448751986E-06</v>
+        <v>0</v>
       </c>
       <c r="X2">
-        <v>3.571108104850041E-05</v>
+        <v>0</v>
       </c>
       <c r="Y2">
-        <v>0.0001634205347981325</v>
+        <v>0</v>
       </c>
       <c r="Z2">
-        <v>0.0003480711702195945</v>
+        <v>0</v>
       </c>
       <c r="AA2">
-        <v>0.0005501631161531446</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>0.0007259318613138285</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>0.001032505430315027</v>
+        <v>8.566914608796946E-05</v>
       </c>
       <c r="AD2">
-        <v>0.0009646275283220875</v>
+        <v>7.691929871445229E-06</v>
       </c>
       <c r="AE2">
-        <v>0.001029817630236111</v>
+        <v>8.258143769176403E-05</v>
       </c>
       <c r="AF2">
-        <v>0.0008990572263969011</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>0.0007057771207220723</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>0.0003970510516576754</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>0.0002275692266815795</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <v>8.333197244668056E-05</v>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <v>9.096953867092443E-07</v>
+        <v>0</v>
       </c>
       <c r="AL2">
-        <v>2.013158759107642E-05</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>5.275009754877695E-05</v>
+        <v>0</v>
       </c>
       <c r="AN2">
-        <v>0.0002603477376439778</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>0.0005168243151742959</v>
+        <v>0</v>
       </c>
       <c r="AP2">
-        <v>0.0008343914244982714</v>
+        <v>0</v>
       </c>
       <c r="AQ2">
-        <v>0.0008859374260116953</v>
+        <v>0</v>
       </c>
       <c r="AR2">
-        <v>0.001056182031010187</v>
+        <v>0.0001128685048994846</v>
       </c>
       <c r="AS2">
-        <v>0.001254190936823856</v>
+        <v>0.0003403384591569986</v>
       </c>
       <c r="AT2">
-        <v>0.00124826953665</v>
+        <v>0.0003335360346844599</v>
       </c>
       <c r="AU2">
-        <v>0.001152587633840718</v>
+        <v>0.000223617958192585</v>
       </c>
       <c r="AV2">
-        <v>0.0009875170289941381</v>
+        <v>3.398707881665618E-05</v>
       </c>
       <c r="AW2">
-        <v>0.0008473362248783391</v>
+        <v>0</v>
       </c>
       <c r="AX2">
-        <v>0.0005889503172919618</v>
+        <v>0</v>
       </c>
       <c r="AY2">
-        <v>0.0002626035077102087</v>
+        <v>0</v>
       </c>
       <c r="AZ2">
-        <v>0.000181838335338891</v>
+        <v>0</v>
       </c>
       <c r="BA2">
-        <v>4.78057464036076E-05</v>
+        <v>0</v>
       </c>
       <c r="BB2">
-        <v>2.092772461445152E-08</v>
+        <v>0</v>
       </c>
       <c r="BC2">
-        <v>1.911083656110651E-05</v>
+        <v>0</v>
       </c>
       <c r="BD2">
-        <v>9.710227285098546E-05</v>
+        <v>0</v>
       </c>
       <c r="BE2">
-        <v>0.0003255445695581989</v>
+        <v>0</v>
       </c>
       <c r="BF2">
-        <v>0.0004689811137695886</v>
+        <v>0</v>
       </c>
       <c r="BG2">
-        <v>0.0008691926755200586</v>
+        <v>0</v>
       </c>
       <c r="BH2">
-        <v>0.001042390730605265</v>
+        <v>9.702524542906867E-05</v>
       </c>
       <c r="BI2">
-        <v>0.001178055534588472</v>
+        <v>0.0002528751382892118</v>
       </c>
       <c r="BJ2">
-        <v>0.001234252536238452</v>
+        <v>0.0003174334940975089</v>
       </c>
       <c r="BK2">
-        <v>0.0009602995281950147</v>
+        <v>2.719981832612138E-06</v>
       </c>
       <c r="BL2">
-        <v>0.0007244291712697086</v>
+        <v>0</v>
       </c>
       <c r="BM2">
-        <v>0.0005773215869505348</v>
+        <v>0</v>
       </c>
       <c r="BN2">
-        <v>0.0002955609886778616</v>
+        <v>0</v>
       </c>
       <c r="BO2">
-        <v>0.0001332184639113802</v>
+        <v>0</v>
       </c>
       <c r="BP2">
-        <v>4.250955424810798E-05</v>
+        <v>0</v>
       </c>
       <c r="BQ2">
-        <v>1.770061751970157E-06</v>
+        <v>0</v>
       </c>
       <c r="BR2">
-        <v>1.414820341540039E-05</v>
+        <v>0</v>
       </c>
       <c r="BS2">
-        <v>0.0001418091441636081</v>
+        <v>0</v>
       </c>
       <c r="BT2">
-        <v>0.0002197500764520042</v>
+        <v>0</v>
       </c>
       <c r="BU2">
-        <v>0.0004511840132470542</v>
+        <v>0</v>
       </c>
       <c r="BV2">
-        <v>0.0007148936209897386</v>
+        <v>0</v>
       </c>
       <c r="BW2">
-        <v>0.0008384260246167297</v>
+        <v>0</v>
       </c>
       <c r="BX2">
-        <v>0.001046231430718031</v>
+        <v>0.000101437389798927</v>
       </c>
       <c r="BY2">
-        <v>0.001251228536736878</v>
+        <v>0.0003369352939836531</v>
       </c>
       <c r="BZ2">
-        <v>0.001229610436102157</v>
+        <v>0.0003121007122141753</v>
       </c>
       <c r="CA2">
-        <v>0.001060720431143437</v>
+        <v>0.0001180821576211668</v>
       </c>
       <c r="CB2">
-        <v>0.0009631200282778264</v>
+        <v>5.960134199416442E-06</v>
       </c>
       <c r="CC2">
-        <v>0.0007480940219645239</v>
+        <v>0</v>
       </c>
       <c r="CD2">
-        <v>0.0005136577650813239</v>
+        <v>0</v>
       </c>
       <c r="CE2">
-        <v>0.0002712642379644933</v>
+        <v>0</v>
       </c>
       <c r="CF2">
-        <v>0.0001241241036443639</v>
+        <v>0</v>
       </c>
       <c r="CG2">
-        <v>6.073141578311361E-05</v>
+        <v>0</v>
       </c>
       <c r="CH2">
-        <v>3.022804888751505E-06</v>
+        <v>0</v>
       </c>
       <c r="CI2">
-        <v>4.287415125881278E-05</v>
+        <v>0</v>
       </c>
       <c r="CJ2">
-        <v>0.000182493565358129</v>
+        <v>0</v>
       </c>
       <c r="CK2">
-        <v>0.0003998356517394331</v>
+        <v>0</v>
       </c>
       <c r="CL2">
-        <v>0.0006224144182744894</v>
+        <v>0</v>
       </c>
       <c r="CM2">
-        <v>0.0007616929223637964</v>
+        <v>0</v>
       </c>
       <c r="CN2">
-        <v>0.0008741349656651673</v>
+        <v>0</v>
       </c>
       <c r="CO2">
-        <v>0.0005307055655818583</v>
+        <v>0</v>
       </c>
       <c r="CP2">
-        <v>0.02421769771104725</v>
+        <v>0.02672050461410833</v>
       </c>
       <c r="CQ2">
-        <v>0.06087546178734289</v>
+        <v>0.06883244843477895</v>
       </c>
       <c r="CR2">
-        <v>0.0938287427548725</v>
+        <v>0.1066887321383652</v>
       </c>
       <c r="CS2">
-        <v>0.001870961054932625</v>
+        <v>0.001048875633164845</v>
       </c>
       <c r="CT2">
-        <v>0.004522436432781655</v>
+        <v>0.004094854703832518</v>
       </c>
       <c r="CU2">
-        <v>0.02862782684053149</v>
+        <v>0.03178680134066827</v>
       </c>
       <c r="CV2">
-        <v>0.001829844053725404</v>
+        <v>0.001001640978009414</v>
       </c>
       <c r="CW2">
-        <v>0.02511154173729109</v>
+        <v>0.02774734054821712</v>
       </c>
       <c r="CX2">
-        <v>0.004349625127707805</v>
+        <v>0.003896331412676507</v>
       </c>
       <c r="CY2">
-        <v>2.849199983654353E-05</v>
+        <v>0</v>
       </c>
       <c r="CZ2">
-        <v>0.00734716221571743</v>
+        <v>0.007339861497815132</v>
       </c>
       <c r="DA2">
-        <v>0.01581027046419976</v>
+        <v>0.0170621658469449</v>
       </c>
       <c r="DB2">
-        <v>0.01877575755126838</v>
+        <v>0.02046887732426361</v>
       </c>
       <c r="DC2">
-        <v>0.0175399955149856</v>
+        <v>0.0190492506023679</v>
       </c>
       <c r="DD2">
-        <v>0.01818507453392554</v>
+        <v>0.01979030865896274</v>
       </c>
       <c r="DE2">
-        <v>0.04304525426383648</v>
+        <v>0.04834934706563845</v>
       </c>
       <c r="DF2">
-        <v>0.01401306241143257</v>
+        <v>0.01499755753110031</v>
       </c>
       <c r="DG2">
-        <v>0.04026260718213616</v>
+        <v>0.04515267971480316</v>
       </c>
       <c r="DH2">
-        <v>0.0001464987743012987</v>
+        <v>0</v>
       </c>
       <c r="DI2">
-        <v>0.0003988655117109492</v>
+        <v>0</v>
       </c>
       <c r="DJ2">
-        <v>0.008299942243691667</v>
+        <v>0.00843440231399801</v>
       </c>
       <c r="DK2">
-        <v>0.002487751073041979</v>
+        <v>0.001757435668024349</v>
       </c>
       <c r="DL2">
-        <v>0.005988791175834778</v>
+        <v>0.005779383210047595</v>
       </c>
       <c r="DM2">
-        <v>0.0006365966586908892</v>
+        <v>0</v>
       </c>
       <c r="DN2">
-        <v>0.0008925934962071217</v>
+        <v>0</v>
       </c>
       <c r="DO2">
-        <v>4.514316332543245E-05</v>
+        <v>0</v>
       </c>
       <c r="DP2">
-        <v>0.003599391105680449</v>
+        <v>0.003034472710050353</v>
       </c>
       <c r="DQ2">
-        <v>0.003003634788188658</v>
+        <v>0.002350075906120703</v>
       </c>
       <c r="DR2">
-        <v>3.740066709810775E-06</v>
+        <v>0</v>
       </c>
       <c r="DS2">
-        <v>0.001511205244369962</v>
+        <v>0.000635593021272777</v>
       </c>
       <c r="DT2">
-        <v>0.0001387492040737663</v>
+        <v>0</v>
       </c>
       <c r="DU2">
-        <v>0.01158753334021747</v>
+        <v>0.01221114252308667</v>
       </c>
       <c r="DV2">
-        <v>0.01852428454388496</v>
+        <v>0.02017998853286584</v>
       </c>
       <c r="DW2">
-        <v>0.002522662774067009</v>
+        <v>0.001797541758215508</v>
       </c>
       <c r="DX2">
-        <v>0.0001913657556186222</v>
+        <v>0</v>
       </c>
       <c r="DY2">
-        <v>0.0001578547746347182</v>
+        <v>0</v>
       </c>
       <c r="DZ2">
-        <v>0.0001194259735064238</v>
+        <v>0</v>
       </c>
       <c r="EA2">
-        <v>5.604214864543369E-05</v>
+        <v>0</v>
       </c>
       <c r="EB2">
-        <v>3.52126380338658E-05</v>
+        <v>0</v>
       </c>
       <c r="EC2">
-        <v>4.000096417445415E-05</v>
+        <v>0</v>
       </c>
       <c r="ED2">
-        <v>0.008802323258441899</v>
+        <v>0.009011530832412306</v>
       </c>
       <c r="EE2">
-        <v>0.0009133352268161124</v>
+        <v>0</v>
       </c>
       <c r="EF2">
-        <v>0.006277763984319206</v>
+        <v>0.006111351266017128</v>
       </c>
       <c r="EG2">
-        <v>0.003051224089585911</v>
+        <v>0.002404745852240029</v>
       </c>
       <c r="EH2">
-        <v>0.003283164096395819</v>
+        <v>0.002671195396631659</v>
       </c>
       <c r="EI2">
-        <v>0.001477490843380086</v>
+        <v>0.0005968623731765575</v>
       </c>
       <c r="EJ2">
-        <v>0.007079406207855941</v>
+        <v>0.00703226701558643</v>
       </c>
       <c r="EK2">
-        <v>0.009825130288472173</v>
+        <v>0.01018651772191204</v>
       </c>
       <c r="EL2">
-        <v>0.0006998598205483366</v>
+        <v>0</v>
       </c>
       <c r="EM2">
-        <v>0.002195276364454732</v>
+        <v>0.001421444676556389</v>
       </c>
       <c r="EN2">
-        <v>0.02359332969271541</v>
+        <v>0.02600323907503481</v>
       </c>
       <c r="EO2">
-        <v>0.06111154479427444</v>
+        <v>0.06910365740170406</v>
       </c>
       <c r="EP2">
-        <v>0.0347287180196576</v>
+        <v>0.03879542265365005</v>
       </c>
       <c r="EQ2">
-        <v>0.006469317189943332</v>
+        <v>0.006331404999166903</v>
       </c>
       <c r="ER2">
-        <v>0.003938450615635455</v>
+        <v>0.003423979691582879</v>
       </c>
       <c r="ES2">
-        <v>7.280186213750971E-05</v>
+        <v>0</v>
       </c>
       <c r="ET2">
-        <v>0.002135554862701271</v>
+        <v>0.001352837422674417</v>
       </c>
       <c r="EU2">
-        <v>0.0009778960287116594</v>
+        <v>2.293460375158827E-05</v>
       </c>
       <c r="EV2">
-        <v>0.003960789716291346</v>
+        <v>0.00344964254842999</v>
       </c>
       <c r="EW2">
-        <v>0.01907514056005845</v>
+        <v>0.02081280447761619</v>
       </c>
       <c r="EX2">
-        <v>0.007467224219242528</v>
+        <v>0.007477787104432135</v>
       </c>
       <c r="EY2">
-        <v>0.01601439947019312</v>
+        <v>0.01729666648955556</v>
       </c>
       <c r="EZ2">
-        <v>0.03206134094134169</v>
+        <v>0.03573117592444978</v>
       </c>
       <c r="FA2">
-        <v>0.006983485205039638</v>
+        <v>0.006922074264238713</v>
       </c>
       <c r="FB2">
-        <v>0.000443947483034585</v>
+        <v>0</v>
       </c>
       <c r="FC2">
-        <v>5.338791156750358E-06</v>
+        <v>0</v>
       </c>
       <c r="FD2">
-        <v>0.01012680929732966</v>
+        <v>0.01053308248910409</v>
       </c>
       <c r="FE2">
-        <v>0.02184421664136032</v>
+        <v>0.02399388164665041</v>
       </c>
       <c r="FF2">
-        <v>0.006043455177439748</v>
+        <v>0.005842180476127719</v>
       </c>
       <c r="FG2">
-        <v>0.003315632597349115</v>
+        <v>0.002708494771608289</v>
       </c>
       <c r="FH2">
-        <v>0.0009108074267418946</v>
+        <v>0</v>
       </c>
       <c r="FI2">
-        <v>0.008102208237886068</v>
+        <v>0.008207248161153591</v>
       </c>
       <c r="FJ2">
-        <v>0.005827950171112383</v>
+        <v>0.00559461123811738</v>
       </c>
       <c r="FK2">
-        <v>0.008473020248773349</v>
+        <v>0.00863323198651769</v>
       </c>
       <c r="FL2">
-        <v>0.004147306721767605</v>
+        <v>0.003663910762930695</v>
       </c>
       <c r="FM2">
-        <v>0.0004429251830045696</v>
+        <v>0</v>
       </c>
       <c r="FN2">
-        <v>0.0007291377614079558</v>
+        <v>0</v>
       </c>
       <c r="FO2">
-        <v>0.0001164746734197717</v>
+        <v>0</v>
       </c>
       <c r="FP2">
-        <v>0.0005930199174114479</v>
+        <v>0</v>
       </c>
       <c r="FQ2">
-        <v>1.414820341540039E-05</v>
+        <v>0</v>
       </c>
       <c r="FR2">
-        <v>0.003071291890175114</v>
+        <v>0.002427799470274617</v>
       </c>
       <c r="FS2">
-        <v>0.005901150173261582</v>
+        <v>0.005678702411047738</v>
       </c>
       <c r="FT2">
-        <v>0.001531883144977079</v>
+        <v>0.0006593475139604363</v>
       </c>
       <c r="FU2">
-        <v>0.009972974292812969</v>
+        <v>0.01035635891550106</v>
       </c>
       <c r="FV2">
-        <v>0.005632091465361845</v>
+        <v>0.005369611404625369</v>
       </c>
       <c r="FW2">
-        <v>0.0002026190359490258</v>
+        <v>0</v>
       </c>
       <c r="FX2">
-        <v>0.0009150224268656496</v>
+        <v>0</v>
       </c>
       <c r="FY2">
-        <v>0.004646624536427899</v>
+        <v>0.004237520318490887</v>
       </c>
       <c r="FZ2">
-        <v>0.00480388714104523</v>
+        <v>0.004418181472754244</v>
       </c>
       <c r="GA2">
-        <v>0.0003170429393085855</v>
+        <v>0</v>
       </c>
       <c r="GB2">
-        <v>0.005948396574648767</v>
+        <v>0.005732978438270919</v>
       </c>
       <c r="GC2">
-        <v>0.008030191235771604</v>
+        <v>0.008124516002671004</v>
       </c>
       <c r="GD2">
-        <v>0.0074606192190486</v>
+        <v>0.00747019936949764</v>
       </c>
       <c r="GE2">
-        <v>0.009353215274616444</v>
+        <v>0.009644388133477209</v>
       </c>
       <c r="GF2">
-        <v>0.002029880259598596</v>
+        <v>0.001231439867169684</v>
       </c>
       <c r="GG2">
-        <v>0.000316179109283223</v>
+        <v>0</v>
       </c>
       <c r="GH2">
-        <v>0.0001492128243809849</v>
+        <v>0</v>
       </c>
       <c r="GI2">
-        <v>0.00689980080258261</v>
+        <v>0.006825938753965853</v>
       </c>
       <c r="GJ2">
-        <v>0.01311549238507933</v>
+        <v>0.01396644121843499</v>
       </c>
       <c r="GK2">
-        <v>0.01401881041160133</v>
+        <v>0.01500416075599107</v>
       </c>
       <c r="GL2">
-        <v>0.0122175683587157</v>
+        <v>0.0129349182353432</v>
       </c>
       <c r="GM2">
-        <v>0.004631422635981561</v>
+        <v>0.004220056580761788</v>
       </c>
       <c r="GN2">
-        <v>0.001381509840562022</v>
+        <v>0.0004866006946379139</v>
       </c>
       <c r="GO2">
-        <v>0.003615713506159685</v>
+        <v>0.003053223663070005</v>
       </c>
       <c r="GP2">
-        <v>0.002972735387281432</v>
+        <v>0.002314579092065452</v>
       </c>
       <c r="GQ2">
-        <v>0.002573363075555603</v>
+        <v>0.001855785579184374</v>
       </c>
       <c r="GR2">
-        <v>0.005654602466022783</v>
+        <v>0.005395471737874486</v>
       </c>
       <c r="GS2">
-        <v>0.001118497632839813</v>
+        <v>0.0001844558258811654</v>
       </c>
       <c r="GT2">
         <v>0</v>
@@ -2767,604 +2767,604 @@
         <v>258</v>
       </c>
       <c r="B3">
-        <v>0.00103660447073904</v>
+        <v>0.00101103349321049</v>
       </c>
       <c r="C3">
-        <v>0.001954082344840749</v>
+        <v>0.001933986223310638</v>
       </c>
       <c r="D3">
-        <v>0.001389624160774106</v>
+        <v>0.001366159753902039</v>
       </c>
       <c r="E3">
-        <v>0.001844612147930841</v>
+        <v>0.001823862786054428</v>
       </c>
       <c r="F3">
-        <v>0.002266862636011681</v>
+        <v>0.002248632964999503</v>
       </c>
       <c r="G3">
-        <v>0.00160907725457945</v>
+        <v>0.001586922387829179</v>
       </c>
       <c r="H3">
-        <v>0.0006637740112631862</v>
+        <v>0.0006359782464835422</v>
       </c>
       <c r="I3">
-        <v>2.886371918524358E-07</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0.0009625608728291203</v>
+        <v>0.0009365480557231741</v>
       </c>
       <c r="K3">
-        <v>0.001364848461473467</v>
+        <v>0.001341236210833435</v>
       </c>
       <c r="L3">
-        <v>0.001225187365415778</v>
+        <v>0.0012007417165968</v>
       </c>
       <c r="M3">
-        <v>0.001163370167160736</v>
+        <v>0.001138555637229497</v>
       </c>
       <c r="N3">
-        <v>0.0004708855267079845</v>
+        <v>0.0004419387405178996</v>
       </c>
       <c r="O3">
-        <v>0.0001033682070821532</v>
+        <v>7.222833868411472E-05</v>
       </c>
       <c r="P3">
-        <v>3.156831910889895E-05</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>2.905420617986658E-05</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>2.684123224233375E-05</v>
+        <v>0</v>
       </c>
       <c r="S3">
-        <v>0.0001715527251574611</v>
+        <v>0.000140819733511792</v>
       </c>
       <c r="T3">
-        <v>1.709110351755745E-05</v>
+        <v>0</v>
       </c>
       <c r="U3">
-        <v>1.047153870441254E-06</v>
+        <v>0</v>
       </c>
       <c r="V3">
-        <v>4.16450188244569E-06</v>
+        <v>0</v>
       </c>
       <c r="W3">
-        <v>9.532193730928094E-06</v>
+        <v>0</v>
       </c>
       <c r="X3">
-        <v>6.610798813392353E-05</v>
+        <v>3.474577722608707E-05</v>
       </c>
       <c r="Y3">
-        <v>0.0009021339145348343</v>
+        <v>0.000875760512280817</v>
       </c>
       <c r="Z3">
-        <v>0.001391696360715612</v>
+        <v>0.001368244319260304</v>
       </c>
       <c r="AA3">
-        <v>0.00111837556843083</v>
+        <v>0.001093292542707259</v>
       </c>
       <c r="AB3">
-        <v>0.0003195025409811781</v>
+        <v>0.0002896524087041051</v>
       </c>
       <c r="AC3">
-        <v>6.909331404965465E-05</v>
+        <v>3.774891744552882E-05</v>
       </c>
       <c r="AD3">
-        <v>0.001009819571495116</v>
+        <v>0.0009840887607210644</v>
       </c>
       <c r="AE3">
-        <v>0.0007497443388364415</v>
+        <v>0.0007224615838817625</v>
       </c>
       <c r="AF3">
-        <v>0.0003649210196991188</v>
+        <v>0.0003353419126289396</v>
       </c>
       <c r="AG3">
-        <v>0.0002445856730959089</v>
+        <v>0.0002142884901867676</v>
       </c>
       <c r="AH3">
-        <v>0.0003810925292426343</v>
+        <v>0.0003516099222500344</v>
       </c>
       <c r="AI3">
-        <v>0.001252705264639011</v>
+        <v>0.001228423823088545</v>
       </c>
       <c r="AJ3">
-        <v>0.0008654066255715612</v>
+        <v>0.0008388140609551994</v>
       </c>
       <c r="AK3">
-        <v>0.000137982656105067</v>
+        <v>0.0001070493421419801</v>
       </c>
       <c r="AL3">
-        <v>0.0005991943830861206</v>
+        <v>0.000571013252975407</v>
       </c>
       <c r="AM3">
-        <v>0.0003696331895661051</v>
+        <v>0.0003400822013772528</v>
       </c>
       <c r="AN3">
-        <v>0.0005761280837372291</v>
+        <v>0.0005478093103427734</v>
       </c>
       <c r="AO3">
-        <v>3.508273100969519E-05</v>
+        <v>3.535383413700459E-06</v>
       </c>
       <c r="AP3">
-        <v>0.0001503184557568557</v>
+        <v>0.0001194587530803465</v>
       </c>
       <c r="AQ3">
-        <v>0.0003100486512480397</v>
+        <v>0.0002801421048749158</v>
       </c>
       <c r="AR3">
-        <v>7.075519300274363E-06</v>
+        <v>0</v>
       </c>
       <c r="AS3">
-        <v>4.405636575639011E-05</v>
+        <v>1.256256643595335E-05</v>
       </c>
       <c r="AT3">
-        <v>7.279458494517629E-06</v>
+        <v>0</v>
       </c>
       <c r="AU3">
-        <v>3.986618187466937E-05</v>
+        <v>8.347378514345694E-06</v>
       </c>
       <c r="AV3">
-        <v>0.0001039650170653067</v>
+        <v>7.282871000515806E-05</v>
       </c>
       <c r="AW3">
-        <v>0.0001473189558415247</v>
+        <v>0.0001164413542809472</v>
       </c>
       <c r="AX3">
-        <v>0.0001171666066926562</v>
+        <v>8.610907733843423E-05</v>
       </c>
       <c r="AY3">
-        <v>4.059041285422599E-05</v>
+        <v>9.07593118975418E-06</v>
       </c>
       <c r="AZ3">
-        <v>8.492466760277194E-05</v>
+        <v>5.367474126698751E-05</v>
       </c>
       <c r="BA3">
-        <v>0.000286390491915855</v>
+        <v>0.0002563427704591809</v>
       </c>
       <c r="BB3">
-        <v>0.0005296003550506</v>
+        <v>0.0005010039372336637</v>
       </c>
       <c r="BC3">
-        <v>9.915524720107541E-05</v>
+        <v>6.799023885217031E-05</v>
       </c>
       <c r="BD3">
-        <v>1.637030353790398E-06</v>
+        <v>0</v>
       </c>
       <c r="BE3">
-        <v>3.677840696183015E-06</v>
+        <v>0</v>
       </c>
       <c r="BF3">
-        <v>0.000126405906431852</v>
+        <v>9.540351065308333E-05</v>
       </c>
       <c r="BG3">
-        <v>0.0001892041746592013</v>
+        <v>0.0001585765143211458</v>
       </c>
       <c r="BH3">
-        <v>0.0001324679962607331</v>
+        <v>0.0001015017747263791</v>
       </c>
       <c r="BI3">
-        <v>2.216548137431943E-06</v>
+        <v>0</v>
       </c>
       <c r="BJ3">
-        <v>0.0003777265893376471</v>
+        <v>0.0003482238968075106</v>
       </c>
       <c r="BK3">
-        <v>0.0006170274825827332</v>
+        <v>0.0005889527677377233</v>
       </c>
       <c r="BL3">
-        <v>0.0004456291874209129</v>
+        <v>0.000416531689344964</v>
       </c>
       <c r="BM3">
-        <v>0.0005634086840962685</v>
+        <v>0.0005350140103630837</v>
       </c>
       <c r="BN3">
-        <v>0.0004156194482680188</v>
+        <v>0.0003863428733935436</v>
       </c>
       <c r="BO3">
-        <v>0.0002774436621684035</v>
+        <v>0.0002473425523893595</v>
       </c>
       <c r="BP3">
-        <v>0.0003844136891488856</v>
+        <v>0.0003549509004786101</v>
       </c>
       <c r="BQ3">
-        <v>0.0001873553047113906</v>
+        <v>0.0001567166116312824</v>
       </c>
       <c r="BR3">
-        <v>3.199747909678475E-05</v>
+        <v>4.317209097350227E-07</v>
       </c>
       <c r="BS3">
-        <v>5.362073848640987E-05</v>
+        <v>2.218401254604074E-05</v>
       </c>
       <c r="BT3">
-        <v>0.0004230552180581241</v>
+        <v>0.0003938230145739434</v>
       </c>
       <c r="BU3">
-        <v>0.0001865954647328392</v>
+        <v>0.0001559522374676766</v>
       </c>
       <c r="BV3">
-        <v>5.58736524228153E-05</v>
+        <v>2.445037027191168E-05</v>
       </c>
       <c r="BW3">
-        <v>0.000235154153362139</v>
+        <v>0.0002048006898452072</v>
       </c>
       <c r="BX3">
-        <v>0.0002463747430454076</v>
+        <v>0.0002160882360344226</v>
       </c>
       <c r="BY3">
-        <v>0.000224195063671489</v>
+        <v>0.0001937762040947458</v>
       </c>
       <c r="BZ3">
-        <v>0.0003533801300248917</v>
+        <v>0.0003237321551260227</v>
       </c>
       <c r="CA3">
-        <v>0.0001590948655091178</v>
+        <v>0.0001282875342095467</v>
       </c>
       <c r="CB3">
-        <v>0.0001992824243747155</v>
+        <v>0.0001687149038694192</v>
       </c>
       <c r="CC3">
-        <v>0.0001576578455496816</v>
+        <v>0.0001268419391361302</v>
       </c>
       <c r="CD3">
-        <v>0.0001373306661234711</v>
+        <v>0.0001063934615474742</v>
       </c>
       <c r="CE3">
-        <v>0.0001184058666576747</v>
+        <v>8.735573232631339E-05</v>
       </c>
       <c r="CF3">
-        <v>0.0001106673168761162</v>
+        <v>7.957100437862496E-05</v>
       </c>
       <c r="CG3">
-        <v>0.0003294714506997787</v>
+        <v>0.0002996808057920596</v>
       </c>
       <c r="CH3">
-        <v>0.0002566358527557601</v>
+        <v>0.0002264105767560443</v>
       </c>
       <c r="CI3">
-        <v>0.0004672090468117631</v>
+        <v>0.0004382403220021418</v>
       </c>
       <c r="CJ3">
-        <v>0.0002118322940204615</v>
+        <v>0.0001813396622193499</v>
       </c>
       <c r="CK3">
-        <v>8.283357766179859E-06</v>
+        <v>0</v>
       </c>
       <c r="CL3">
-        <v>0.0001057031230162439</v>
+        <v>7.457718773732299E-05</v>
       </c>
       <c r="CM3">
-        <v>0.0009851285721920861</v>
+        <v>0.0009592504230794681</v>
       </c>
       <c r="CN3">
-        <v>0.002045066242272483</v>
+        <v>0.00202551304798964</v>
       </c>
       <c r="CO3">
-        <v>0.003449745102621629</v>
+        <v>0.00343857403362109</v>
       </c>
       <c r="CP3">
-        <v>0.00237033443309091</v>
+        <v>0.002352722208237272</v>
       </c>
       <c r="CQ3">
-        <v>0.004490753873236345</v>
+        <v>0.00448579480484433</v>
       </c>
       <c r="CR3">
-        <v>0.04252555479960139</v>
+        <v>0.04274756039583957</v>
       </c>
       <c r="CS3">
-        <v>0.001983570144008377</v>
+        <v>0.001963649984709847</v>
       </c>
       <c r="CT3">
-        <v>0.02337862534007517</v>
+        <v>0.0234863756669906</v>
       </c>
       <c r="CU3">
-        <v>0.0005161450854304113</v>
+        <v>0.0004874683761256145</v>
       </c>
       <c r="CV3">
-        <v>0.06841814806871303</v>
+        <v>0.06879466226246189</v>
       </c>
       <c r="CW3">
-        <v>0.01161606017210534</v>
+        <v>0.01165361986850563</v>
       </c>
       <c r="CX3">
-        <v>0.002843121419745221</v>
+        <v>0.002828330451668376</v>
       </c>
       <c r="CY3">
-        <v>0.0004659428868475039</v>
+        <v>0.0004369666064949415</v>
       </c>
       <c r="CZ3">
-        <v>0.0009096261743233451</v>
+        <v>0.0008832974805517914</v>
       </c>
       <c r="DA3">
-        <v>0.0003777265893376471</v>
+        <v>0.0003482238968075106</v>
       </c>
       <c r="DB3">
-        <v>0.02786158721353147</v>
+        <v>0.02799608867134223</v>
       </c>
       <c r="DC3">
-        <v>0.05536461043718437</v>
+        <v>0.05566323039411276</v>
       </c>
       <c r="DD3">
-        <v>0.001898952746396931</v>
+        <v>0.001878527650598064</v>
       </c>
       <c r="DE3">
-        <v>0.009233805739350901</v>
+        <v>0.009257149834112034</v>
       </c>
       <c r="DF3">
-        <v>0.008606739757051531</v>
+        <v>0.008626341967619576</v>
       </c>
       <c r="DG3">
-        <v>0.03676942896208358</v>
+        <v>0.03695708608959149</v>
       </c>
       <c r="DH3">
-        <v>0.0009332649736560761</v>
+        <v>0.000907077339441353</v>
       </c>
       <c r="DI3">
-        <v>0.002374041932986256</v>
+        <v>0.002356451831857466</v>
       </c>
       <c r="DJ3">
-        <v>0.0002057823841912366</v>
+        <v>0.0001752536508272933</v>
       </c>
       <c r="DK3">
-        <v>0.001666779452950649</v>
+        <v>0.001644968911917426</v>
       </c>
       <c r="DL3">
-        <v>1.655098753280369E-05</v>
+        <v>0</v>
       </c>
       <c r="DM3">
-        <v>0.006963444203437985</v>
+        <v>0.006973240393857895</v>
       </c>
       <c r="DN3">
-        <v>2.46289353047818E-05</v>
+        <v>0</v>
       </c>
       <c r="DO3">
-        <v>0.002333417234132998</v>
+        <v>0.002315584713669116</v>
       </c>
       <c r="DP3">
-        <v>0.003084391312934726</v>
+        <v>0.003071040072135517</v>
       </c>
       <c r="DQ3">
-        <v>0.002233388736956572</v>
+        <v>0.002214959317501183</v>
       </c>
       <c r="DR3">
-        <v>0.00652728981574962</v>
+        <v>0.006534483346712462</v>
       </c>
       <c r="DS3">
-        <v>0.008768014752499109</v>
+        <v>0.008788579337638953</v>
       </c>
       <c r="DT3">
-        <v>0.01776851849843559</v>
+        <v>0.01784279169422793</v>
       </c>
       <c r="DU3">
-        <v>0.01125786518221636</v>
+        <v>0.01129328742544817</v>
       </c>
       <c r="DV3">
-        <v>6.860694806338364E-05</v>
+        <v>3.725964917266046E-05</v>
       </c>
       <c r="DW3">
-        <v>0.002099715540729859</v>
+        <v>0.00208048845462675</v>
       </c>
       <c r="DX3">
-        <v>0.0008321412765105655</v>
+        <v>0.0008053502079291625</v>
       </c>
       <c r="DY3">
-        <v>4.687921167670767E-05</v>
+        <v>1.54022570948262E-05</v>
       </c>
       <c r="DZ3">
-        <v>0.0002556976927822422</v>
+        <v>0.0002254668185104552</v>
       </c>
       <c r="EA3">
-        <v>0.0009514221231435415</v>
+        <v>0.0009253428378945996</v>
       </c>
       <c r="EB3">
-        <v>1.025031871065708E-05</v>
+        <v>0</v>
       </c>
       <c r="EC3">
-        <v>0.002026176242805705</v>
+        <v>0.002006510326429162</v>
       </c>
       <c r="ED3">
-        <v>0.001038394370688515</v>
+        <v>0.001012834074010971</v>
       </c>
       <c r="EE3">
-        <v>0.001618251054320495</v>
+        <v>0.001596150930288232</v>
       </c>
       <c r="EF3">
-        <v>0.008205449768379024</v>
+        <v>0.008222657365448898</v>
       </c>
       <c r="EG3">
-        <v>1.987080943909275E-05</v>
+        <v>0</v>
       </c>
       <c r="EH3">
-        <v>0.0009684743426621967</v>
+        <v>0.0009424968129421385</v>
       </c>
       <c r="EI3">
-        <v>0.006165104825973269</v>
+        <v>0.006170137094283578</v>
       </c>
       <c r="EJ3">
-        <v>0.01287735313650194</v>
+        <v>0.01292243933304663</v>
       </c>
       <c r="EK3">
-        <v>0.01644718953573367</v>
+        <v>0.01651357797920493</v>
       </c>
       <c r="EL3">
-        <v>0.02181423938423419</v>
+        <v>0.02191265456740831</v>
       </c>
       <c r="EM3">
-        <v>0.01327340362532234</v>
+        <v>0.01332085316975325</v>
       </c>
       <c r="EN3">
-        <v>0.01250006314715196</v>
+        <v>0.01254289794514019</v>
       </c>
       <c r="EO3">
-        <v>0.0002463747430454076</v>
+        <v>0.0002160882360344226</v>
       </c>
       <c r="EP3">
-        <v>0.01213031065758923</v>
+        <v>0.01217093903546362</v>
       </c>
       <c r="EQ3">
-        <v>0.0354062390005633</v>
+        <v>0.03558576157905536</v>
       </c>
       <c r="ER3">
-        <v>0.02892919518339535</v>
+        <v>0.02907006736693452</v>
       </c>
       <c r="ES3">
-        <v>0.01681760052527782</v>
+        <v>0.01688619931832288</v>
       </c>
       <c r="ET3">
-        <v>0.008141651770179894</v>
+        <v>0.008158478666130984</v>
       </c>
       <c r="EU3">
-        <v>0.009354898735932723</v>
+        <v>0.009378965427649507</v>
       </c>
       <c r="EV3">
-        <v>0.01146069567649092</v>
+        <v>0.01149732826798245</v>
       </c>
       <c r="EW3">
-        <v>0.0003987234887449529</v>
+        <v>0.0003693460907902101</v>
       </c>
       <c r="EX3">
-        <v>0.005423763646899626</v>
+        <v>0.005424372117845759</v>
       </c>
       <c r="EY3">
-        <v>0.009650009727602419</v>
+        <v>0.009675837432013411</v>
       </c>
       <c r="EZ3">
-        <v>0.006225021824281951</v>
+        <v>0.006230411634661511</v>
       </c>
       <c r="FA3">
-        <v>0.01459394958804637</v>
+        <v>0.01464927921241088</v>
       </c>
       <c r="FB3">
-        <v>0.01206976865929819</v>
+        <v>0.01211003576554755</v>
       </c>
       <c r="FC3">
-        <v>0.005106191855863947</v>
+        <v>0.005104905284025764</v>
       </c>
       <c r="FD3">
-        <v>0.0007995278774311669</v>
+        <v>0.0007725421952589412</v>
       </c>
       <c r="FE3">
-        <v>0.004291510578860526</v>
+        <v>0.004285362568068749</v>
       </c>
       <c r="FF3">
-        <v>0.0234776653372795</v>
+        <v>0.02358600666452103</v>
       </c>
       <c r="FG3">
-        <v>0.02527198528662998</v>
+        <v>0.02539103384029637</v>
       </c>
       <c r="FH3">
-        <v>0.01976485944208347</v>
+        <v>0.01985104538203977</v>
       </c>
       <c r="FI3">
-        <v>0.00900482074581462</v>
+        <v>0.009026798420849672</v>
       </c>
       <c r="FJ3">
-        <v>4.330170877769234E-05</v>
+        <v>1.180340620066137E-05</v>
       </c>
       <c r="FK3">
-        <v>0.0002025193642833441</v>
+        <v>0.0001719711595352727</v>
       </c>
       <c r="FL3">
-        <v>0.008931072747896356</v>
+        <v>0.008952610347284711</v>
       </c>
       <c r="FM3">
-        <v>0.01892601846576203</v>
+        <v>0.01900719879884693</v>
       </c>
       <c r="FN3">
-        <v>0.01158957567285293</v>
+        <v>0.01162697732858141</v>
       </c>
       <c r="FO3">
-        <v>0.004607662469936285</v>
+        <v>0.004603401028974836</v>
       </c>
       <c r="FP3">
-        <v>0.0009479032332428717</v>
+        <v>0.0009218029497595043</v>
       </c>
       <c r="FQ3">
-        <v>0.0002683519224250424</v>
+        <v>0.000238196559603745</v>
       </c>
       <c r="FR3">
-        <v>0.001535133456666713</v>
+        <v>0.001512537345874512</v>
       </c>
       <c r="FS3">
-        <v>2.205540937742652E-05</v>
+        <v>0</v>
       </c>
       <c r="FT3">
-        <v>0.0008952876447280888</v>
+        <v>0.0008688733888007825</v>
       </c>
       <c r="FU3">
-        <v>0.0007367320792037478</v>
+        <v>0.0007093716763300134</v>
       </c>
       <c r="FV3">
-        <v>0.0003381360304551975</v>
+        <v>0.0003083970896024611</v>
       </c>
       <c r="FW3">
-        <v>0.001556773356055868</v>
+        <v>0.001534306376806041</v>
       </c>
       <c r="FX3">
-        <v>0.0006303350822070903</v>
+        <v>0.0006023397776603391</v>
       </c>
       <c r="FY3">
-        <v>6.481086817053824E-06</v>
+        <v>0</v>
       </c>
       <c r="FZ3">
-        <v>0.002075368941417108</v>
+        <v>0.002055996572109845</v>
       </c>
       <c r="GA3">
-        <v>0.006093587827992029</v>
+        <v>0.00609819333367793</v>
       </c>
       <c r="GB3">
-        <v>0.005730727838234733</v>
+        <v>0.005733168053347865</v>
       </c>
       <c r="GC3">
-        <v>6.335207421171663E-05</v>
+        <v>3.197341796792812E-05</v>
       </c>
       <c r="GD3">
-        <v>0.006178441325596811</v>
+        <v>0.006183553176660038</v>
       </c>
       <c r="GE3">
-        <v>0.01395038460621273</v>
+        <v>0.01400187389207902</v>
       </c>
       <c r="GF3">
-        <v>0.02373497933001612</v>
+        <v>0.02384485612432053</v>
       </c>
       <c r="GG3">
-        <v>0.02304229834956891</v>
+        <v>0.02314804171599691</v>
       </c>
       <c r="GH3">
-        <v>0.01714495551603733</v>
+        <v>0.01721550773105079</v>
       </c>
       <c r="GI3">
-        <v>0.01386509860862015</v>
+        <v>0.01391607896825652</v>
       </c>
       <c r="GJ3">
-        <v>0.003358695905191739</v>
+        <v>0.003346981519279944</v>
       </c>
       <c r="GK3">
-        <v>0.0006995461102534222</v>
+        <v>0.0006719638079411157</v>
       </c>
       <c r="GL3">
-        <v>0.006297304122241587</v>
+        <v>0.006303125262012009</v>
       </c>
       <c r="GM3">
-        <v>0.01308986463050323</v>
+        <v>0.01313621894463475</v>
       </c>
       <c r="GN3">
-        <v>0.01253412964619035</v>
+        <v>0.01257716772883739</v>
       </c>
       <c r="GO3">
-        <v>0.00958655072939372</v>
+        <v>0.009611999755596982</v>
       </c>
       <c r="GP3">
-        <v>0.00958655072939372</v>
+        <v>0.009611999755596982</v>
       </c>
       <c r="GQ3">
-        <v>0.008071534772159135</v>
+        <v>0.008087943259690752</v>
       </c>
       <c r="GR3">
-        <v>0.003320291506275807</v>
+        <v>0.003308347950201214</v>
       </c>
       <c r="GS3">
-        <v>0.003724483694866391</v>
+        <v>0.003714952070556794</v>
       </c>
       <c r="GT3">
         <v>0</v>
@@ -3540,604 +3540,604 @@
         <v>259</v>
       </c>
       <c r="B4">
-        <v>2.156403543200183E-06</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>8.79796599223865E-06</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>0.0001381911555852621</v>
+        <v>2.362666825940258E-05</v>
       </c>
       <c r="E4">
-        <v>0.0006066052084132143</v>
+        <v>0.0005021507014960244</v>
       </c>
       <c r="F4">
-        <v>0.001543573374084915</v>
+        <v>0.001459341850960159</v>
       </c>
       <c r="G4">
-        <v>0.002119258039010896</v>
+        <v>0.002047451763695926</v>
       </c>
       <c r="H4">
-        <v>0.00227235445627718</v>
+        <v>0.002203852526273489</v>
       </c>
       <c r="I4">
-        <v>0.002134606940741952</v>
+        <v>0.00206313194732354</v>
       </c>
       <c r="J4">
-        <v>0.001394038957220355</v>
+        <v>0.001306579968959155</v>
       </c>
       <c r="K4">
-        <v>0.0009054409321160446</v>
+        <v>0.0008074363241585596</v>
       </c>
       <c r="L4">
-        <v>0.000514284958001294</v>
+        <v>0.0004078378637196707</v>
       </c>
       <c r="M4">
-        <v>0.0003645246411112566</v>
+        <v>0.0002548452059965317</v>
       </c>
       <c r="N4">
-        <v>0.0002835338819770816</v>
+        <v>0.0001721063887432922</v>
       </c>
       <c r="O4">
-        <v>0.0001421312360296261</v>
+        <v>2.765178914151744E-05</v>
       </c>
       <c r="P4">
-        <v>0.0001150636579769322</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>5.654511137718366E-05</v>
+        <v>0</v>
       </c>
       <c r="R4">
-        <v>5.493269919533506E-06</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>0.0002366693766916811</v>
+        <v>0.0001242303868398101</v>
       </c>
       <c r="T4">
-        <v>0.0008462269954378697</v>
+        <v>0.0007469443478141486</v>
       </c>
       <c r="U4">
-        <v>0.001422263460403527</v>
+        <v>0.001335413653639986</v>
       </c>
       <c r="V4">
-        <v>0.00202813652873417</v>
+        <v>0.001954363538974694</v>
       </c>
       <c r="W4">
-        <v>0.002608235494157998</v>
+        <v>0.002546983027939857</v>
       </c>
       <c r="X4">
-        <v>0.002617514795204522</v>
+        <v>0.002556462608101023</v>
       </c>
       <c r="Y4">
-        <v>0.002768226512201859</v>
+        <v>0.002710427200406009</v>
       </c>
       <c r="Z4">
-        <v>0.002504220282427115</v>
+        <v>0.002440722811503299</v>
       </c>
       <c r="AA4">
-        <v>0.001801829103211115</v>
+        <v>0.001723171623704669</v>
       </c>
       <c r="AB4">
-        <v>0.001005341213382844</v>
+        <v>0.0009094927958306862</v>
       </c>
       <c r="AC4">
-        <v>0.0003644436811021259</v>
+        <v>0.0002547624985929723</v>
       </c>
       <c r="AD4">
-        <v>6.94628778340553E-05</v>
+        <v>0</v>
       </c>
       <c r="AE4">
-        <v>1.642867785283384E-05</v>
+        <v>0</v>
       </c>
       <c r="AF4">
-        <v>3.144888654681989E-07</v>
+        <v>0</v>
       </c>
       <c r="AG4">
-        <v>5.768840050612433E-05</v>
+        <v>0</v>
       </c>
       <c r="AH4">
-        <v>0.000166153888738912</v>
+        <v>5.219293301644803E-05</v>
       </c>
       <c r="AI4">
-        <v>0.00031385259539644</v>
+        <v>0.0002030794838935898</v>
       </c>
       <c r="AJ4">
-        <v>0.0004220892476034194</v>
+        <v>0.0003136522539576363</v>
       </c>
       <c r="AK4">
-        <v>0.000502686716693239</v>
+        <v>0.0003959892926196474</v>
       </c>
       <c r="AL4">
-        <v>0.0005720871345202501</v>
+        <v>0.0004668876092828453</v>
       </c>
       <c r="AM4">
-        <v>0.0007267909519678178</v>
+        <v>0.0006249304652458005</v>
       </c>
       <c r="AN4">
-        <v>0.001210715536545055</v>
+        <v>0.001119299800657929</v>
       </c>
       <c r="AO4">
-        <v>0.001287700845227493</v>
+        <v>0.001197946716112914</v>
       </c>
       <c r="AP4">
-        <v>0.001153505630092895</v>
+        <v>0.001060855108379167</v>
       </c>
       <c r="AQ4">
-        <v>0.001139164228475466</v>
+        <v>0.001046204170170105</v>
       </c>
       <c r="AR4">
-        <v>0.001167936831720453</v>
+        <v>0.0010755977847903</v>
       </c>
       <c r="AS4">
-        <v>0.001320478348924155</v>
+        <v>0.001231431670660415</v>
       </c>
       <c r="AT4">
-        <v>0.0005505829620949996</v>
+        <v>0.0004449193031267399</v>
       </c>
       <c r="AU4">
-        <v>0.0001381911555852621</v>
+        <v>2.362666825940258E-05</v>
       </c>
       <c r="AV4">
-        <v>4.052474457039933E-06</v>
+        <v>0</v>
       </c>
       <c r="AW4">
-        <v>0.0001076761621437671</v>
+        <v>0</v>
       </c>
       <c r="AX4">
-        <v>0.0006714893757308806</v>
+        <v>0.0005684352914877204</v>
       </c>
       <c r="AY4">
-        <v>0.001399534357840128</v>
+        <v>0.001312193979155794</v>
       </c>
       <c r="AZ4">
-        <v>0.001670737088426497</v>
+        <v>0.001589250194018419</v>
       </c>
       <c r="BA4">
-        <v>0.001767319699319128</v>
+        <v>0.001687917388620799</v>
       </c>
       <c r="BB4">
-        <v>0.001590111779333538</v>
+        <v>0.001506884714470599</v>
       </c>
       <c r="BC4">
-        <v>0.001317028248535052</v>
+        <v>0.001227907105282204</v>
       </c>
       <c r="BD4">
-        <v>0.001195874934871325</v>
+        <v>0.001104138887944706</v>
       </c>
       <c r="BE4">
-        <v>0.0008800028992471316</v>
+        <v>0.0007814492513699706</v>
       </c>
       <c r="BF4">
-        <v>0.0006848839272415242</v>
+        <v>0.0005821189433200516</v>
       </c>
       <c r="BG4">
-        <v>0.0002890935626041049</v>
+        <v>0.0001777860663300103</v>
       </c>
       <c r="BH4">
-        <v>0.0001086200822502228</v>
+        <v>0</v>
       </c>
       <c r="BI4">
-        <v>0.000190319351464304</v>
+        <v>7.687996923700987E-05</v>
       </c>
       <c r="BJ4">
-        <v>0.0001249587240929024</v>
+        <v>1.010863555089842E-05</v>
       </c>
       <c r="BK4">
-        <v>8.966262511219208E-05</v>
+        <v>0</v>
       </c>
       <c r="BL4">
-        <v>6.746019760819209E-05</v>
+        <v>0</v>
       </c>
       <c r="BM4">
-        <v>1.546225174383986E-05</v>
+        <v>0</v>
       </c>
       <c r="BN4">
-        <v>2.656466899597558E-07</v>
+        <v>0</v>
       </c>
       <c r="BO4">
-        <v>7.10198080096466E-05</v>
+        <v>0</v>
       </c>
       <c r="BP4">
-        <v>0.0001692885490924404</v>
+        <v>5.539525008217513E-05</v>
       </c>
       <c r="BQ4">
-        <v>0.0006591124243350022</v>
+        <v>0.0005557912030677158</v>
       </c>
       <c r="BR4">
-        <v>0.001722002394208222</v>
+        <v>0.00164162198077348</v>
       </c>
       <c r="BS4">
-        <v>0.001805864103666184</v>
+        <v>0.00172729371329659</v>
       </c>
       <c r="BT4">
-        <v>0.001661030887331827</v>
+        <v>0.001579334499843178</v>
       </c>
       <c r="BU4">
-        <v>0.001437296462098956</v>
+        <v>0.001350771119026687</v>
       </c>
       <c r="BV4">
-        <v>0.001051072618540453</v>
+        <v>0.000956211241422742</v>
       </c>
       <c r="BW4">
-        <v>0.0005562771127371885</v>
+        <v>0.0004507363530523491</v>
       </c>
       <c r="BX4">
-        <v>0.0001542837874001965</v>
+        <v>4.006663421469993E-05</v>
       </c>
       <c r="BY4">
-        <v>2.770407712447855E-05</v>
+        <v>0</v>
       </c>
       <c r="BZ4">
-        <v>0.0002723664807176169</v>
+        <v>0.0001606979566964989</v>
       </c>
       <c r="CA4">
-        <v>0.0004151929468256514</v>
+        <v>0.0003066071073770266</v>
       </c>
       <c r="CB4">
-        <v>0.0006230041702626967</v>
+        <v>0.0005189036091377388</v>
       </c>
       <c r="CC4">
-        <v>0.0008002222502494332</v>
+        <v>0.0006999466625767257</v>
       </c>
       <c r="CD4">
-        <v>0.0008053657908295241</v>
+        <v>0.000705201218388281</v>
       </c>
       <c r="CE4">
-        <v>0.0008002222502494332</v>
+        <v>0.0006999466625767257</v>
       </c>
       <c r="CF4">
-        <v>0.0004844445546358796</v>
+        <v>0.0003773534021933413</v>
       </c>
       <c r="CG4">
-        <v>0.0002738665508867955</v>
+        <v>0.0001622304035203283</v>
       </c>
       <c r="CH4">
-        <v>0.0002809212016824222</v>
+        <v>0.0001694373178548118</v>
       </c>
       <c r="CI4">
-        <v>0.0001512398470568995</v>
+        <v>3.695699520790193E-05</v>
       </c>
       <c r="CJ4">
-        <v>0.0001649315286010536</v>
+        <v>5.094419015806393E-05</v>
       </c>
       <c r="CK4">
-        <v>0.0001353111252604509</v>
+        <v>2.068447701097177E-05</v>
       </c>
       <c r="CL4">
-        <v>0.0001747886497127443</v>
+        <v>6.101406172146164E-05</v>
       </c>
       <c r="CM4">
-        <v>0.0001140468288622538</v>
+        <v>0</v>
       </c>
       <c r="CN4">
-        <v>0.09705148094551064</v>
+        <v>0.09902863735169891</v>
       </c>
       <c r="CO4">
-        <v>0.0403782695538798</v>
+        <v>0.04113222385200446</v>
       </c>
       <c r="CP4">
-        <v>0.01681578389649184</v>
+        <v>0.01706117901083973</v>
       </c>
       <c r="CQ4">
-        <v>0.001083552022203495</v>
+        <v>0.0009893916619163768</v>
       </c>
       <c r="CR4">
-        <v>0.05338320602058252</v>
+        <v>0.05441785141262413</v>
       </c>
       <c r="CS4">
-        <v>4.452203502121558E-05</v>
+        <v>0</v>
       </c>
       <c r="CT4">
-        <v>0.0001638221184759338</v>
+        <v>4.981083516074738E-05</v>
       </c>
       <c r="CU4">
-        <v>0.005407837609898413</v>
+        <v>0.00540701015093897</v>
       </c>
       <c r="CV4">
-        <v>0.004583102516884409</v>
+        <v>0.004564474448437752</v>
       </c>
       <c r="CW4">
-        <v>3.136542853740745E-06</v>
+        <v>0</v>
       </c>
       <c r="CX4">
-        <v>0.06671662752433193</v>
+        <v>0.06803905384303363</v>
       </c>
       <c r="CY4">
-        <v>0.01605611881081646</v>
+        <v>0.01628511774941565</v>
       </c>
       <c r="CZ4">
-        <v>0.0007422557337119429</v>
+        <v>0.000640729029974261</v>
       </c>
       <c r="DA4">
-        <v>0.000662892774761352</v>
+        <v>0.0005596531464106691</v>
       </c>
       <c r="DB4">
-        <v>0.002790781514745622</v>
+        <v>0.002733469017195542</v>
       </c>
       <c r="DC4">
-        <v>0.0121858813743293</v>
+        <v>0.01233134732662384</v>
       </c>
       <c r="DD4">
-        <v>0.01048266418223969</v>
+        <v>0.01059136887099019</v>
       </c>
       <c r="DE4">
-        <v>0.02809531716860279</v>
+        <v>0.02858416326336322</v>
       </c>
       <c r="DF4">
-        <v>0.0007162258807762841</v>
+        <v>0.0006141373636138526</v>
       </c>
       <c r="DG4">
-        <v>0.0005293931597052039</v>
+        <v>0.0004232721521887291</v>
       </c>
       <c r="DH4">
-        <v>0.001362431353655634</v>
+        <v>0.001274290164997425</v>
       </c>
       <c r="DI4">
-        <v>0.005861983661117212</v>
+        <v>0.005870958230198511</v>
       </c>
       <c r="DJ4">
-        <v>0.001412172059265414</v>
+        <v>0.001325104445484372</v>
       </c>
       <c r="DK4">
-        <v>0.001563679676352513</v>
+        <v>0.001479882116130426</v>
       </c>
       <c r="DL4">
-        <v>0.002256315654468317</v>
+        <v>0.002187467552160257</v>
       </c>
       <c r="DM4">
-        <v>0.00242908887395376</v>
+        <v>0.002363969809776805</v>
       </c>
       <c r="DN4">
-        <v>0.007066914197009833</v>
+        <v>0.007101895296079155</v>
       </c>
       <c r="DO4">
-        <v>0.004548063112932648</v>
+        <v>0.004528678774076628</v>
       </c>
       <c r="DP4">
-        <v>0.01130998327554511</v>
+        <v>0.0114365443453639</v>
       </c>
       <c r="DQ4">
-        <v>0.006211889700579776</v>
+        <v>0.006228416441041255</v>
       </c>
       <c r="DR4">
-        <v>0.0002432967574391202</v>
+        <v>0.0001310008091743085</v>
       </c>
       <c r="DS4">
-        <v>0.01017255264726516</v>
+        <v>0.01027456406640907</v>
       </c>
       <c r="DT4">
-        <v>0.002147206242162907</v>
+        <v>0.002076003184844106</v>
       </c>
       <c r="DU4">
-        <v>0.000763006386052211</v>
+        <v>0.0006619275524998078</v>
       </c>
       <c r="DV4">
-        <v>1.319430948806029E-06</v>
+        <v>0</v>
       </c>
       <c r="DW4">
-        <v>0.003134834253548048</v>
+        <v>0.003084947593091969</v>
       </c>
       <c r="DX4">
-        <v>0.0004844445546358796</v>
+        <v>0.0003773534021933413</v>
       </c>
       <c r="DY4">
-        <v>0.001172967232287784</v>
+        <v>0.001080736758639915</v>
       </c>
       <c r="DZ4">
-        <v>4.67704282747904E-05</v>
+        <v>0</v>
       </c>
       <c r="EA4">
-        <v>0.009123862028993355</v>
+        <v>0.009203239110970233</v>
       </c>
       <c r="EB4">
-        <v>0.00836854294380812</v>
+        <v>0.008431617651619632</v>
       </c>
       <c r="EC4">
-        <v>0.002051366231354027</v>
+        <v>0.001978094618180006</v>
       </c>
       <c r="ED4">
-        <v>0.001801829103211115</v>
+        <v>0.001723171623704669</v>
       </c>
       <c r="EE4">
-        <v>0.004840608545926057</v>
+        <v>0.004827538340000833</v>
       </c>
       <c r="EF4">
-        <v>0.004944305057620997</v>
+        <v>0.00493347297776256</v>
       </c>
       <c r="EG4">
-        <v>0.009963083123641095</v>
+        <v>0.01006057347266068</v>
       </c>
       <c r="EH4">
-        <v>0.009978189125344757</v>
+        <v>0.01007600551364595</v>
       </c>
       <c r="EI4">
-        <v>0.008538230962945615</v>
+        <v>0.008604968119692441</v>
       </c>
       <c r="EJ4">
-        <v>0.008451783953196079</v>
+        <v>0.008516655287238228</v>
       </c>
       <c r="EK4">
-        <v>0.00379082582753108</v>
+        <v>0.003755097713175787</v>
       </c>
       <c r="EL4">
-        <v>0.04655619125062865</v>
+        <v>0.04744348626930459</v>
       </c>
       <c r="EM4">
-        <v>0.03655205712235781</v>
+        <v>0.03722342864464865</v>
       </c>
       <c r="EN4">
-        <v>0.02141292441495946</v>
+        <v>0.02175754157505302</v>
       </c>
       <c r="EO4">
-        <v>0.01213870136900832</v>
+        <v>0.01228314901511286</v>
       </c>
       <c r="EP4">
-        <v>0.002738063108800017</v>
+        <v>0.002679612767395618</v>
       </c>
       <c r="EQ4">
-        <v>0.003153257855625871</v>
+        <v>0.003103768839636134</v>
       </c>
       <c r="ER4">
-        <v>0.002516347483794826</v>
+        <v>0.002453111759433692</v>
       </c>
       <c r="ES4">
-        <v>0.0007137987805025546</v>
+        <v>0.0006116578781990942</v>
       </c>
       <c r="ET4">
-        <v>0.004781846939298897</v>
+        <v>0.00476750845653997</v>
       </c>
       <c r="EU4">
-        <v>0.006970946086186505</v>
+        <v>0.007003855864563326</v>
       </c>
       <c r="EV4">
-        <v>0.01634494184339005</v>
+        <v>0.01658017457276316</v>
       </c>
       <c r="EW4">
-        <v>0.02018750227675579</v>
+        <v>0.02050567062786338</v>
       </c>
       <c r="EX4">
-        <v>0.009987258126367563</v>
+        <v>0.01008527025478824</v>
       </c>
       <c r="EY4">
-        <v>0.008255448931053327</v>
+        <v>0.008316082682522078</v>
       </c>
       <c r="EZ4">
-        <v>0.00016498593860719</v>
+        <v>5.099977451858349E-05</v>
       </c>
       <c r="FA4">
-        <v>0.008170066921423904</v>
+        <v>0.008228857836540085</v>
       </c>
       <c r="FB4">
-        <v>0.03076778347000477</v>
+        <v>0.03131431054548489</v>
       </c>
       <c r="FC4">
-        <v>0.02584007891425598</v>
+        <v>0.02628024923929798</v>
       </c>
       <c r="FD4">
-        <v>0.01406285658601543</v>
+        <v>0.01424883409534618</v>
       </c>
       <c r="FE4">
-        <v>0.001113636325596417</v>
+        <v>0.001020125287668597</v>
       </c>
       <c r="FF4">
-        <v>0.0008587180968466217</v>
+        <v>0.0007597050499954709</v>
       </c>
       <c r="FG4">
-        <v>0.001040310317326676</v>
+        <v>0.0009452166528688081</v>
       </c>
       <c r="FH4">
-        <v>0.01053582618823532</v>
+        <v>0.01064567829524934</v>
       </c>
       <c r="FI4">
-        <v>0.007558800852485036</v>
+        <v>0.007604398551163437</v>
       </c>
       <c r="FJ4">
-        <v>0.003470303691382446</v>
+        <v>0.003427657610972455</v>
       </c>
       <c r="FK4">
-        <v>0.000317076895760078</v>
+        <v>0.0002063733757080207</v>
       </c>
       <c r="FL4">
-        <v>5.696907642499863E-05</v>
+        <v>0</v>
       </c>
       <c r="FM4">
-        <v>0.0003063932845551755</v>
+        <v>0.0001954591755630056</v>
       </c>
       <c r="FN4">
-        <v>0.001043239917657077</v>
+        <v>0.0009482094840134148</v>
       </c>
       <c r="FO4">
-        <v>0.0009098707726156441</v>
+        <v>0.0008119617757961985</v>
       </c>
       <c r="FP4">
-        <v>0.001356853353026545</v>
+        <v>0.001268591772000217</v>
       </c>
       <c r="FQ4">
-        <v>0.001139021228459338</v>
+        <v>0.001046058083723601</v>
       </c>
       <c r="FR4">
-        <v>0.004454687502401704</v>
+        <v>0.004433287797893403</v>
       </c>
       <c r="FS4">
-        <v>0.002520902784308575</v>
+        <v>0.002457765378942508</v>
       </c>
       <c r="FT4">
-        <v>0.0001363690353797625</v>
+        <v>2.176522045587599E-05</v>
       </c>
       <c r="FU4">
-        <v>0.0003021711340789994</v>
+        <v>0.0001911458966112023</v>
       </c>
       <c r="FV4">
-        <v>0.004282989083037478</v>
+        <v>0.004257883538267783</v>
       </c>
       <c r="FW4">
-        <v>0.004599503718734144</v>
+        <v>0.0045812296444266</v>
       </c>
       <c r="FX4">
-        <v>0.003244188465881067</v>
+        <v>0.0031966620440592</v>
       </c>
       <c r="FY4">
-        <v>8.432150950981862E-09</v>
+        <v>0</v>
       </c>
       <c r="FZ4">
-        <v>0.004570535515467097</v>
+        <v>0.004551636208065592</v>
       </c>
       <c r="GA4">
-        <v>0.01002921113109904</v>
+        <v>0.01012812874912525</v>
       </c>
       <c r="GB4">
-        <v>0.01281797444561705</v>
+        <v>0.01297708313242946</v>
       </c>
       <c r="GC4">
-        <v>0.008574223967004921</v>
+        <v>0.008641737976119203</v>
       </c>
       <c r="GD4">
-        <v>0.006995876788998201</v>
+        <v>0.007029324657373558</v>
       </c>
       <c r="GE4">
-        <v>0.004266887481221532</v>
+        <v>0.004241434408708115</v>
       </c>
       <c r="GF4">
-        <v>0.0004122022264883566</v>
+        <v>0.0003035518370463332</v>
       </c>
       <c r="GG4">
-        <v>0.003450725389174396</v>
+        <v>0.003407656741912357</v>
       </c>
       <c r="GH4">
-        <v>0.01273637143641383</v>
+        <v>0.01289371885065264</v>
       </c>
       <c r="GI4">
-        <v>0.01231648738905911</v>
+        <v>0.01246477226670868</v>
       </c>
       <c r="GJ4">
-        <v>0.00553090262377774</v>
+        <v>0.005532731329533684</v>
       </c>
       <c r="GK4">
-        <v>0.004294877884378302</v>
+        <v>0.004270028940681766</v>
       </c>
       <c r="GL4">
-        <v>0.00489337755187737</v>
+        <v>0.004881446281927982</v>
       </c>
       <c r="GM4">
-        <v>0.002644113998204392</v>
+        <v>0.002583635913051061</v>
       </c>
       <c r="GN4">
-        <v>0.00292829503025446</v>
+        <v>0.002873950545596665</v>
       </c>
       <c r="GO4">
-        <v>0.005882850663470602</v>
+        <v>0.005892275613969168</v>
       </c>
       <c r="GP4">
-        <v>0.002474241479046091</v>
+        <v>0.002410096962814758</v>
       </c>
       <c r="GQ4">
-        <v>1.570111077077849E-05</v>
+        <v>0</v>
       </c>
       <c r="GR4">
-        <v>0.003574196403099513</v>
+        <v>0.003533792683425119</v>
       </c>
       <c r="GS4">
-        <v>0.01048266418223969</v>
+        <v>0.01059136887099019</v>
       </c>
       <c r="GT4">
         <v>0</v>
@@ -4313,604 +4313,604 @@
         <v>260</v>
       </c>
       <c r="B5">
-        <v>6.11950808591576E-05</v>
+        <v>4.62551384813629E-05</v>
       </c>
       <c r="C5">
-        <v>3.042115442710241E-07</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>0.0001746829224524873</v>
+        <v>0.0001600670183783332</v>
       </c>
       <c r="E5">
-        <v>0.0003785321353144592</v>
+        <v>0.000364498275556303</v>
       </c>
       <c r="F5">
-        <v>0.0005656513079415472</v>
+        <v>0.0005521517237359562</v>
       </c>
       <c r="G5">
-        <v>0.0006999908498276274</v>
+        <v>0.0006868748411368533</v>
       </c>
       <c r="H5">
-        <v>0.000465636706537377</v>
+        <v>0.0004518515537517223</v>
       </c>
       <c r="I5">
-        <v>0.0001740634524437902</v>
+        <v>0.0001594457796161912</v>
       </c>
       <c r="J5">
-        <v>1.229365367259861E-05</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>1.592757122361755E-07</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>4.40836306189188E-06</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>7.135962600186427E-07</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>3.316208046558404E-05</v>
+        <v>1.814209633383618E-05</v>
       </c>
       <c r="O5">
-        <v>2.380537433421916E-05</v>
+        <v>8.758674290529506E-06</v>
       </c>
       <c r="P5">
-        <v>1.507163721160053E-05</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>4.437806362305254E-05</v>
+        <v>2.939010413909938E-05</v>
       </c>
       <c r="R5">
-        <v>6.267176087988966E-05</v>
+        <v>4.773603482062055E-05</v>
       </c>
       <c r="S5">
-        <v>4.310418760516776E-06</v>
+        <v>0</v>
       </c>
       <c r="T5">
-        <v>5.303553274460038E-05</v>
+        <v>3.807229266290724E-05</v>
       </c>
       <c r="U5">
-        <v>0.0001524957321409869</v>
+        <v>0.0001378164776725513</v>
       </c>
       <c r="V5">
-        <v>3.024933742469015E-05</v>
+        <v>1.522103662834931E-05</v>
       </c>
       <c r="W5">
-        <v>7.451038104609977E-05</v>
+        <v>5.960845743070698E-05</v>
       </c>
       <c r="X5">
-        <v>0.0002306669632384837</v>
+        <v>0.0002162109086543943</v>
       </c>
       <c r="Y5">
-        <v>0.0005139287772153809</v>
+        <v>0.0005002815112768289</v>
       </c>
       <c r="Z5">
-        <v>0.0005819786081707768</v>
+        <v>0.000568525642797609</v>
       </c>
       <c r="AA5">
-        <v>0.000405019105686327</v>
+        <v>0.000391060873350698</v>
       </c>
       <c r="AB5">
-        <v>0.0002392958133596298</v>
+        <v>0.0002248643964628589</v>
       </c>
       <c r="AC5">
-        <v>0.0003330134046753921</v>
+        <v>0.0003188495767016713</v>
       </c>
       <c r="AD5">
-        <v>0.0001389260919504739</v>
+        <v>0.0001242080925105364</v>
       </c>
       <c r="AE5">
-        <v>5.778383681126493E-06</v>
+        <v>0</v>
       </c>
       <c r="AF5">
-        <v>0.0001673220223491428</v>
+        <v>0.0001526851009259118</v>
       </c>
       <c r="AG5">
-        <v>0.0003135901044026957</v>
+        <v>0.0002993708176839402</v>
       </c>
       <c r="AH5">
-        <v>0.0006076853685316907</v>
+        <v>0.0005943058028716772</v>
       </c>
       <c r="AI5">
-        <v>0.0005967491083781494</v>
+        <v>0.0005833383167547324</v>
       </c>
       <c r="AJ5">
-        <v>0.0008208466115244002</v>
+        <v>0.0008080756785303315</v>
       </c>
       <c r="AK5">
-        <v>0.0006711280494224038</v>
+        <v>0.0006579296296755173</v>
       </c>
       <c r="AL5">
-        <v>0.0003794454053272812</v>
+        <v>0.0003654141532005819</v>
       </c>
       <c r="AM5">
-        <v>0.0003886383254563466</v>
+        <v>0.0003746333215885119</v>
       </c>
       <c r="AN5">
-        <v>0.0002581355536241332</v>
+        <v>0.0002437579292516594</v>
       </c>
       <c r="AO5">
-        <v>0.0001369811019231669</v>
+        <v>0.0001222575490137106</v>
       </c>
       <c r="AP5">
-        <v>0.0001202322766880192</v>
+        <v>0.0001054609013789034</v>
       </c>
       <c r="AQ5">
-        <v>1.990476427945595E-08</v>
+        <v>0</v>
       </c>
       <c r="AR5">
-        <v>8.667163621683956E-06</v>
+        <v>0</v>
       </c>
       <c r="AS5">
-        <v>1.002881914080112E-05</v>
+        <v>0</v>
       </c>
       <c r="AT5">
-        <v>2.484648234883595E-05</v>
+        <v>9.802754948472904E-06</v>
       </c>
       <c r="AU5">
-        <v>1.47996982077826E-05</v>
+        <v>0</v>
       </c>
       <c r="AV5">
-        <v>1.13313141590877E-05</v>
+        <v>0</v>
       </c>
       <c r="AW5">
-        <v>6.379083089560103E-05</v>
+        <v>4.885830008213494E-05</v>
       </c>
       <c r="AX5">
-        <v>0.0003169468844498237</v>
+        <v>0.0003027371822407117</v>
       </c>
       <c r="AY5">
-        <v>0.0006711645094229157</v>
+        <v>0.0006579661937791344</v>
       </c>
       <c r="AZ5">
-        <v>0.0007326703702864365</v>
+        <v>0.0007196476704138106</v>
       </c>
       <c r="BA5">
-        <v>0.001085271715236837</v>
+        <v>0.001073255787015473</v>
       </c>
       <c r="BB5">
-        <v>0.001292097318140596</v>
+        <v>0.001280671932629125</v>
       </c>
       <c r="BC5">
-        <v>0.00101235991421318</v>
+        <v>0.001000135803194546</v>
       </c>
       <c r="BD5">
-        <v>0.0003317305246573809</v>
+        <v>0.0003175630337162535</v>
       </c>
       <c r="BE5">
-        <v>0.0001389260919504739</v>
+        <v>0.0001242080925105364</v>
       </c>
       <c r="BF5">
-        <v>5.15194487233151E-05</v>
+        <v>3.655187981407941E-05</v>
       </c>
       <c r="BG5">
-        <v>4.862728568271014E-06</v>
+        <v>0</v>
       </c>
       <c r="BH5">
-        <v>4.405675361854146E-05</v>
+        <v>2.906787670812796E-05</v>
       </c>
       <c r="BI5">
-        <v>0.0001259570117683925</v>
+        <v>0.0001112019821172626</v>
       </c>
       <c r="BJ5">
-        <v>0.0002738175438443029</v>
+        <v>0.0002594846957706582</v>
       </c>
       <c r="BK5">
-        <v>0.0003287213046151325</v>
+        <v>0.0003145452215416314</v>
       </c>
       <c r="BL5">
-        <v>0.0003287213046151325</v>
+        <v>0.0003145452215416314</v>
       </c>
       <c r="BM5">
-        <v>0.0001921492126977079</v>
+        <v>0.0001775831795787372</v>
       </c>
       <c r="BN5">
-        <v>9.796698137542227E-05</v>
+        <v>8.313203266124512E-05</v>
       </c>
       <c r="BO5">
-        <v>0.0001622039322772867</v>
+        <v>0.0001475523973306906</v>
       </c>
       <c r="BP5">
-        <v>0.0002843972239928379</v>
+        <v>0.0002700945837508011</v>
       </c>
       <c r="BQ5">
-        <v>0.0002911613840878043</v>
+        <v>0.0002768780573416624</v>
       </c>
       <c r="BR5">
-        <v>0.0002943720641328812</v>
+        <v>0.0002800979047415918</v>
       </c>
       <c r="BS5">
-        <v>0.000221826093114361</v>
+        <v>0.0002073447954688343</v>
       </c>
       <c r="BT5">
-        <v>0.0003622819550863123</v>
+        <v>0.0003482016966940729</v>
       </c>
       <c r="BU5">
-        <v>0.000478376056716233</v>
+        <v>0.0004646272782008393</v>
       </c>
       <c r="BV5">
-        <v>0.0002899619340709644</v>
+        <v>0.0002756751825725028</v>
       </c>
       <c r="BW5">
-        <v>0.0002317154632532043</v>
+        <v>0.0002172624024185895</v>
       </c>
       <c r="BX5">
-        <v>0.0001215216617061218</v>
+        <v>0.000106753967937937</v>
       </c>
       <c r="BY5">
-        <v>3.248214045603793E-05</v>
+        <v>1.746021491273287E-05</v>
       </c>
       <c r="BZ5">
-        <v>2.252382331622663E-06</v>
+        <v>0</v>
       </c>
       <c r="CA5">
-        <v>2.168065330438881E-05</v>
+        <v>6.627886610840027E-06</v>
       </c>
       <c r="CB5">
-        <v>6.739987094627069E-05</v>
+        <v>5.247764491258868E-05</v>
       </c>
       <c r="CC5">
-        <v>0.0002425724834056331</v>
+        <v>0.0002281504222829115</v>
       </c>
       <c r="CD5">
-        <v>0.0006106146085728162</v>
+        <v>0.0005972434066807671</v>
       </c>
       <c r="CE5">
-        <v>0.0005819786081707768</v>
+        <v>0.000568525642797609</v>
       </c>
       <c r="CF5">
-        <v>0.0007168841600648037</v>
+        <v>0.0007038163863172206</v>
       </c>
       <c r="CG5">
-        <v>0.0005392241075705184</v>
+        <v>0.0005256490666018242</v>
       </c>
       <c r="CH5">
-        <v>0.0003377383447417286</v>
+        <v>0.0003235880077423924</v>
       </c>
       <c r="CI5">
-        <v>0.0001074879415090932</v>
+        <v>9.268017769620091E-05</v>
       </c>
       <c r="CJ5">
-        <v>3.316208046558404E-05</v>
+        <v>1.814209633383618E-05</v>
       </c>
       <c r="CK5">
-        <v>0.000119990656684627</v>
+        <v>0.000105218591485432</v>
       </c>
       <c r="CL5">
-        <v>9.339246131119759E-05</v>
+        <v>7.85444511121885E-05</v>
       </c>
       <c r="CM5">
-        <v>0.002232681331346067</v>
+        <v>0.002223941566107142</v>
       </c>
       <c r="CN5">
-        <v>0.1193529416756737</v>
+        <v>0.1196786117463352</v>
       </c>
       <c r="CO5">
-        <v>0.04520349663464134</v>
+        <v>0.04531745010157109</v>
       </c>
       <c r="CP5">
-        <v>0.0311114064367933</v>
+        <v>0.03118512319696795</v>
       </c>
       <c r="CQ5">
-        <v>0.0008397706117900866</v>
+        <v>0.0008270537119052752</v>
       </c>
       <c r="CR5">
-        <v>0.03776779453024667</v>
+        <v>0.03786051706827288</v>
       </c>
       <c r="CS5">
-        <v>0.0002600232336506355</v>
+        <v>0.0002456509991122182</v>
       </c>
       <c r="CT5">
-        <v>0.02081514029223731</v>
+        <v>0.02085945844399301</v>
       </c>
       <c r="CU5">
-        <v>0.0001476114620724134</v>
+        <v>0.0001329182616995944</v>
       </c>
       <c r="CV5">
-        <v>0.003670536251533049</v>
+        <v>0.003665901948717916</v>
       </c>
       <c r="CW5">
-        <v>0.002290684732160415</v>
+        <v>0.002282110582227424</v>
       </c>
       <c r="CX5">
-        <v>0.01752826824609078</v>
+        <v>0.01756320149434348</v>
       </c>
       <c r="CY5">
-        <v>0.01266511017781373</v>
+        <v>0.01268615780212068</v>
       </c>
       <c r="CZ5">
-        <v>0.001058349914858864</v>
+        <v>0.001046257117658384</v>
       </c>
       <c r="DA5">
-        <v>0.03755385852724308</v>
+        <v>0.03764597022045519</v>
       </c>
       <c r="DB5">
-        <v>0.01698598523847731</v>
+        <v>0.0170193701229281</v>
       </c>
       <c r="DC5">
-        <v>0.005720243080310218</v>
+        <v>0.005721461241639548</v>
       </c>
       <c r="DD5">
-        <v>0.04449318362466878</v>
+        <v>0.04460510895695809</v>
       </c>
       <c r="DE5">
-        <v>0.002567960236053266</v>
+        <v>0.002560177782240856</v>
       </c>
       <c r="DF5">
-        <v>0.001741185224445633</v>
+        <v>0.001731042105662488</v>
       </c>
       <c r="DG5">
-        <v>0.005958508283655378</v>
+        <v>0.005960406756207696</v>
       </c>
       <c r="DH5">
-        <v>0.0002142278030076836</v>
+        <v>0.0001997248102007884</v>
       </c>
       <c r="DI5">
-        <v>0.01442209120248113</v>
+        <v>0.01444815548005039</v>
       </c>
       <c r="DJ5">
-        <v>0.000137805911934747</v>
+        <v>0.0001230847140796579</v>
       </c>
       <c r="DK5">
-        <v>0.002156798330280696</v>
+        <v>0.002147841898669452</v>
       </c>
       <c r="DL5">
-        <v>5.948769083518644E-06</v>
+        <v>0</v>
       </c>
       <c r="DM5">
-        <v>0.001239476817401822</v>
+        <v>0.001227901186211548</v>
       </c>
       <c r="DN5">
-        <v>0.007699414108097089</v>
+        <v>0.007706283334892593</v>
       </c>
       <c r="DO5">
-        <v>3.168501644484659E-05</v>
+        <v>1.666081489814988E-05</v>
       </c>
       <c r="DP5">
-        <v>0.0007453846704649409</v>
+        <v>0.0007323982733380891</v>
       </c>
       <c r="DQ5">
-        <v>8.132882114182828E-05</v>
+        <v>6.644636600632793E-05</v>
       </c>
       <c r="DR5">
-        <v>0.004424893062123956</v>
+        <v>0.004422412650843033</v>
       </c>
       <c r="DS5">
-        <v>0.02383435933462609</v>
+        <v>0.0238872981685895</v>
       </c>
       <c r="DT5">
-        <v>0.006108008085754304</v>
+        <v>0.006110333420440808</v>
       </c>
       <c r="DU5">
-        <v>2.484648234883595E-05</v>
+        <v>9.802754948472904E-06</v>
       </c>
       <c r="DV5">
-        <v>0.0008174900114772748</v>
+        <v>0.0008047094944875111</v>
       </c>
       <c r="DW5">
-        <v>0.0001563020221944259</v>
+        <v>0.0001416336357075711</v>
       </c>
       <c r="DX5">
-        <v>0.000446602186270139</v>
+        <v>0.0004327626848109047</v>
       </c>
       <c r="DY5">
-        <v>0.0004646249665231725</v>
+        <v>0.0004508369249477292</v>
       </c>
       <c r="DZ5">
-        <v>8.616828620977269E-08</v>
+        <v>0</v>
       </c>
       <c r="EA5">
-        <v>0.00344677224839148</v>
+        <v>0.003441499039179188</v>
       </c>
       <c r="EB5">
-        <v>0.003049921242819831</v>
+        <v>0.003043514917276855</v>
       </c>
       <c r="EC5">
-        <v>0.003428812148139327</v>
+        <v>0.0034234876580115</v>
       </c>
       <c r="ED5">
-        <v>0.006107899085752774</v>
+        <v>0.006110224109214964</v>
       </c>
       <c r="EE5">
-        <v>0.0009731927136632865</v>
+        <v>0.0009608567697553636</v>
       </c>
       <c r="EF5">
-        <v>0.002476155334764358</v>
+        <v>0.00246811075327323</v>
       </c>
       <c r="EG5">
-        <v>0.005863042082315066</v>
+        <v>0.005864667973192527</v>
       </c>
       <c r="EH5">
-        <v>0.01220997317142377</v>
+        <v>0.01222972125719509</v>
       </c>
       <c r="EI5">
-        <v>0.002473821634731593</v>
+        <v>0.00246577038989936</v>
       </c>
       <c r="EJ5">
-        <v>1.46144012051811E-05</v>
+        <v>0</v>
       </c>
       <c r="EK5">
-        <v>0.01325502818609597</v>
+        <v>0.01327776018494038</v>
       </c>
       <c r="EL5">
-        <v>0.05564438678122779</v>
+        <v>0.05578815179699042</v>
       </c>
       <c r="EM5">
-        <v>0.0506124607105813</v>
+        <v>0.05074185822437117</v>
       </c>
       <c r="EN5">
-        <v>0.00867962512185891</v>
+        <v>0.008689293114668902</v>
       </c>
       <c r="EO5">
-        <v>0.001651295123183608</v>
+        <v>0.001640895343990694</v>
       </c>
       <c r="EP5">
-        <v>5.721431480326903E-05</v>
+        <v>4.226300626799147E-05</v>
       </c>
       <c r="EQ5">
-        <v>0.0001005373514115094</v>
+        <v>8.570974179493533E-05</v>
       </c>
       <c r="ER5">
-        <v>0.000630444568851222</v>
+        <v>0.0006171299868278713</v>
       </c>
       <c r="ES5">
-        <v>0.004678054065678248</v>
+        <v>0.004676296497135259</v>
       </c>
       <c r="ET5">
-        <v>0.02242195831479648</v>
+        <v>0.02247086436406594</v>
       </c>
       <c r="EU5">
-        <v>0.01618853622728141</v>
+        <v>0.01621964418037814</v>
       </c>
       <c r="EV5">
-        <v>0.01556789321856779</v>
+        <v>0.01559722906898915</v>
       </c>
       <c r="EW5">
-        <v>0.02892566540610626</v>
+        <v>0.02899314128791158</v>
       </c>
       <c r="EX5">
-        <v>0.01242604017445727</v>
+        <v>0.01244640518962079</v>
       </c>
       <c r="EY5">
-        <v>0.001822366325585388</v>
+        <v>0.001812455000674887</v>
       </c>
       <c r="EZ5">
-        <v>1.743407524476834E-05</v>
+        <v>2.369183428991502E-06</v>
       </c>
       <c r="FA5">
-        <v>0.007001805698302911</v>
+        <v>0.00700668306550763</v>
       </c>
       <c r="FB5">
-        <v>0.02783097539073719</v>
+        <v>0.02789532563819603</v>
       </c>
       <c r="FC5">
-        <v>0.01675123023518143</v>
+        <v>0.01678394483097424</v>
       </c>
       <c r="FD5">
-        <v>0.006357875089262349</v>
+        <v>0.006360913861430928</v>
       </c>
       <c r="FE5">
-        <v>0.0004040472356726823</v>
+        <v>0.0003900862283868369</v>
       </c>
       <c r="FF5">
-        <v>0.006904132096931608</v>
+        <v>0.006908730579740832</v>
       </c>
       <c r="FG5">
-        <v>0.003772209452960505</v>
+        <v>0.003767865454474485</v>
       </c>
       <c r="FH5">
-        <v>0.004941554069377696</v>
+        <v>0.004940548864198125</v>
       </c>
       <c r="FI5">
-        <v>0.003271421945929623</v>
+        <v>0.003265648064453634</v>
       </c>
       <c r="FJ5">
-        <v>5.493113777121402E-05</v>
+        <v>3.997331015158354E-05</v>
       </c>
       <c r="FK5">
-        <v>0.003659176651373564</v>
+        <v>0.003654509913845478</v>
       </c>
       <c r="FL5">
-        <v>0.00150777392116862</v>
+        <v>0.001496964350352353</v>
       </c>
       <c r="FM5">
-        <v>0.001287834518080748</v>
+        <v>0.001276396961128876</v>
       </c>
       <c r="FN5">
-        <v>2.059587928915897E-05</v>
+        <v>5.540015274110419E-06</v>
       </c>
       <c r="FO5">
-        <v>0.001368172519208665</v>
+        <v>0.001356964348852202</v>
       </c>
       <c r="FP5">
-        <v>0.00495300406953845</v>
+        <v>0.004952031557188143</v>
       </c>
       <c r="FQ5">
-        <v>0.001622824822783895</v>
+        <v>0.001612343753227924</v>
       </c>
       <c r="FR5">
-        <v>0.003721872052253786</v>
+        <v>0.00371738432695346</v>
       </c>
       <c r="FS5">
-        <v>0.003749109852636195</v>
+        <v>0.003744699898579968</v>
       </c>
       <c r="FT5">
-        <v>0.0001329105018660171</v>
+        <v>0.0001181753262988488</v>
       </c>
       <c r="FU5">
-        <v>0.003639424251096248</v>
+        <v>0.003634701115154122</v>
       </c>
       <c r="FV5">
-        <v>0.01021508014341616</v>
+        <v>0.01022913227318318</v>
       </c>
       <c r="FW5">
-        <v>0.009573557134409404</v>
+        <v>0.009585777543485757</v>
       </c>
       <c r="FX5">
-        <v>0.005540727677789885</v>
+        <v>0.005541433274374892</v>
       </c>
       <c r="FY5">
-        <v>0.001278592217950989</v>
+        <v>0.001267128271747073</v>
       </c>
       <c r="FZ5">
-        <v>0.005953077783579137</v>
+        <v>0.005954960750593523</v>
       </c>
       <c r="GA5">
-        <v>0.005047543070865745</v>
+        <v>0.00504684049278494</v>
       </c>
       <c r="GB5">
-        <v>0.007950461111621702</v>
+        <v>0.007958047145116619</v>
       </c>
       <c r="GC5">
-        <v>0.002448153734371225</v>
+        <v>0.002440029200781589</v>
       </c>
       <c r="GD5">
-        <v>0.0003368509447292698</v>
+        <v>0.000322698073964284</v>
       </c>
       <c r="GE5">
-        <v>0.0001781095925005966</v>
+        <v>0.0001635034724908315</v>
       </c>
       <c r="GF5">
-        <v>0.002393980033610645</v>
+        <v>0.002385700819538501</v>
       </c>
       <c r="GG5">
-        <v>0.01073841415076359</v>
+        <v>0.01075396053984154</v>
       </c>
       <c r="GH5">
-        <v>0.0173733442439157</v>
+        <v>0.01740783514248447</v>
       </c>
       <c r="GI5">
-        <v>0.01317160968492481</v>
+        <v>0.01319410350151786</v>
       </c>
       <c r="GJ5">
-        <v>0.008441044118509317</v>
+        <v>0.008450030898402393</v>
       </c>
       <c r="GK5">
-        <v>0.001028845014444625</v>
+        <v>0.001016667972819852</v>
       </c>
       <c r="GL5">
-        <v>0.0004981005369931579</v>
+        <v>0.0004844080771726956</v>
       </c>
       <c r="GM5">
-        <v>0.0007537714705826886</v>
+        <v>0.0007408090200253104</v>
       </c>
       <c r="GN5">
-        <v>3.522317749452113E-06</v>
+        <v>0</v>
       </c>
       <c r="GO5">
-        <v>0.0008922650125270898</v>
+        <v>0.0008796979982716695</v>
       </c>
       <c r="GP5">
-        <v>0.0001207626816954659</v>
+        <v>0.0001059928208352677</v>
       </c>
       <c r="GQ5">
-        <v>0.00262773403689247</v>
+        <v>0.00262012225335411</v>
       </c>
       <c r="GR5">
-        <v>0.01017230914281567</v>
+        <v>0.01018623914987522</v>
       </c>
       <c r="GS5">
-        <v>0.01126222015811764</v>
+        <v>0.01127926215419345</v>
       </c>
       <c r="GT5">
         <v>0</v>
@@ -5086,604 +5086,604 @@
         <v>261</v>
       </c>
       <c r="B6">
-        <v>0.002477549634375423</v>
+        <v>0.002428040909688223</v>
       </c>
       <c r="C6">
-        <v>0.002688447628789221</v>
+        <v>0.002642267078578834</v>
       </c>
       <c r="D6">
-        <v>0.002715884428062484</v>
+        <v>0.00267013685710029</v>
       </c>
       <c r="E6">
-        <v>0.001858074650783887</v>
+        <v>0.001798790011275194</v>
       </c>
       <c r="F6">
-        <v>0.0009352527352273116</v>
+        <v>0.0008614050727058324</v>
       </c>
       <c r="G6">
-        <v>0.0004424015282818036</v>
+        <v>0.0003607761966915336</v>
       </c>
       <c r="H6">
-        <v>0.0002388679236729395</v>
+        <v>0.0001540306348048598</v>
       </c>
       <c r="I6">
-        <v>0.0001179614868754722</v>
+        <v>3.121617741122641E-05</v>
       </c>
       <c r="J6">
-        <v>0.0001009080873271774</v>
+        <v>1.389365871233339E-05</v>
       </c>
       <c r="K6">
-        <v>6.310219832856826E-06</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>8.723027768947107E-05</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>6.470885828601155E-05</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>0.000101917967300428</v>
+        <v>1.491947556900936E-05</v>
       </c>
       <c r="O6">
-        <v>0.0002087988644693995</v>
+        <v>0.0001234870567437028</v>
       </c>
       <c r="P6">
-        <v>8.589101772494497E-05</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>2.049634645709904E-05</v>
+        <v>0</v>
       </c>
       <c r="R6">
-        <v>5.969751841875038E-07</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>7.807305793202471E-05</v>
+        <v>0</v>
       </c>
       <c r="T6">
-        <v>0.0006974652415257539</v>
+        <v>0.0006198650622027639</v>
       </c>
       <c r="U6">
-        <v>0.002235591940784324</v>
+        <v>0.002182264889505084</v>
       </c>
       <c r="V6">
-        <v>0.002598625331168407</v>
+        <v>0.002551027298163927</v>
       </c>
       <c r="W6">
-        <v>0.00163091055680094</v>
+        <v>0.001568041048020523</v>
       </c>
       <c r="X6">
-        <v>0.001031662872673629</v>
+        <v>0.0009593366554349594</v>
       </c>
       <c r="Y6">
-        <v>0.0007669080296863745</v>
+        <v>0.0006904037247731781</v>
       </c>
       <c r="Z6">
-        <v>0.0009874526738446554</v>
+        <v>0.0009144287768780851</v>
       </c>
       <c r="AA6">
-        <v>0.0006145515237219471</v>
+        <v>0.000535642885681086</v>
       </c>
       <c r="AB6">
-        <v>2.653346529718968E-05</v>
+        <v>0</v>
       </c>
       <c r="AC6">
-        <v>0.0009655763744241083</v>
+        <v>0.000892207248278944</v>
       </c>
       <c r="AD6">
-        <v>0.001161762669227586</v>
+        <v>0.001091489552700153</v>
       </c>
       <c r="AE6">
-        <v>0.001312748165228328</v>
+        <v>0.001244857745964353</v>
       </c>
       <c r="AF6">
-        <v>0.0009843038739280599</v>
+        <v>0.0009112302858511302</v>
       </c>
       <c r="AG6">
-        <v>0.0009655763744241083</v>
+        <v>0.000892207248278944</v>
       </c>
       <c r="AH6">
-        <v>0.001516548659830123</v>
+        <v>0.001451874409626365</v>
       </c>
       <c r="AI6">
-        <v>0.001045440372308695</v>
+        <v>0.0009733315773492991</v>
       </c>
       <c r="AJ6">
-        <v>0.0007371842804736881</v>
+        <v>0.0006602109060287506</v>
       </c>
       <c r="AK6">
-        <v>0.0007107190811746903</v>
+        <v>0.0006333280602695506</v>
       </c>
       <c r="AL6">
-        <v>0.0006216015135352092</v>
+        <v>0.0005428041311571795</v>
       </c>
       <c r="AM6">
-        <v>0.0003773664300044334</v>
+        <v>0.0002947147816168635</v>
       </c>
       <c r="AN6">
-        <v>0.000110273887079099</v>
+        <v>2.340725984935547E-05</v>
       </c>
       <c r="AO6">
-        <v>6.068587839257101E-05</v>
+        <v>0</v>
       </c>
       <c r="AP6">
-        <v>2.95943312161144E-06</v>
+        <v>0</v>
       </c>
       <c r="AQ6">
-        <v>6.031265840245674E-05</v>
+        <v>0</v>
       </c>
       <c r="AR6">
-        <v>0.0001275285166220636</v>
+        <v>4.093418414700172E-05</v>
       </c>
       <c r="AS6">
-        <v>0.0001040654072435473</v>
+        <v>1.710080419290553E-05</v>
       </c>
       <c r="AT6">
-        <v>2.684648228889859E-06</v>
+        <v>0</v>
       </c>
       <c r="AU6">
-        <v>0.0003331538911755216</v>
+        <v>0.0002498045261325873</v>
       </c>
       <c r="AV6">
-        <v>0.0006295101833257267</v>
+        <v>0.0005508376074116725</v>
       </c>
       <c r="AW6">
-        <v>0.001076841271476957</v>
+        <v>0.00100522801309889</v>
       </c>
       <c r="AX6">
-        <v>0.001426533262214423</v>
+        <v>0.001360438481911754</v>
       </c>
       <c r="AY6">
-        <v>0.001783530652758385</v>
+        <v>0.001723069636810847</v>
       </c>
       <c r="AZ6">
-        <v>0.001350550864227022</v>
+        <v>0.001283257008141904</v>
       </c>
       <c r="BA6">
-        <v>0.0005067437865775255</v>
+        <v>0.0004261338380990556</v>
       </c>
       <c r="BB6">
-        <v>0.0002060346845426163</v>
+        <v>0.0001206792553822671</v>
       </c>
       <c r="BC6">
-        <v>0.0002087988644693995</v>
+        <v>0.0001234870567437028</v>
       </c>
       <c r="BD6">
-        <v>8.346262378926754E-05</v>
+        <v>0</v>
       </c>
       <c r="BE6">
-        <v>1.989712947297092E-06</v>
+        <v>0</v>
       </c>
       <c r="BF6">
-        <v>2.017559746559494E-06</v>
+        <v>0</v>
       </c>
       <c r="BG6">
-        <v>0.0001667266755837948</v>
+        <v>8.075092799645118E-05</v>
       </c>
       <c r="BH6">
-        <v>0.0003226495714537568</v>
+        <v>0.0002391344380786417</v>
       </c>
       <c r="BI6">
-        <v>0.0001428649962158357</v>
+        <v>5.651268823270892E-05</v>
       </c>
       <c r="BJ6">
-        <v>3.224961214578213E-05</v>
+        <v>0</v>
       </c>
       <c r="BK6">
-        <v>7.885924191120052E-08</v>
+        <v>0</v>
       </c>
       <c r="BL6">
-        <v>3.008334620316152E-06</v>
+        <v>0</v>
       </c>
       <c r="BM6">
-        <v>0.0001158861309304436</v>
+        <v>2.910807034067979E-05</v>
       </c>
       <c r="BN6">
-        <v>0.0002160789642765664</v>
+        <v>0.0001308820435721247</v>
       </c>
       <c r="BO6">
-        <v>0.0002410978736138732</v>
+        <v>0.0001562957755141962</v>
       </c>
       <c r="BP6">
-        <v>0.0003494725607432776</v>
+        <v>0.0002663807201007148</v>
       </c>
       <c r="BQ6">
-        <v>0.0004494943880939301</v>
+        <v>0.0003679809886965666</v>
       </c>
       <c r="BR6">
-        <v>0.0004721534374937441</v>
+        <v>0.0003909976198272591</v>
       </c>
       <c r="BS6">
-        <v>0.0005844891245182308</v>
+        <v>0.000505106072720996</v>
       </c>
       <c r="BT6">
-        <v>0.000446954758161199</v>
+        <v>0.0003654012809454279</v>
       </c>
       <c r="BU6">
-        <v>0.0001755134053510546</v>
+        <v>8.967632086398047E-05</v>
       </c>
       <c r="BV6">
-        <v>8.496414774949563E-05</v>
+        <v>0</v>
       </c>
       <c r="BW6">
-        <v>2.728013127741222E-05</v>
+        <v>0</v>
       </c>
       <c r="BX6">
-        <v>2.251853940353581E-05</v>
+        <v>0</v>
       </c>
       <c r="BY6">
-        <v>7.409729803733343E-05</v>
+        <v>0</v>
       </c>
       <c r="BZ6">
-        <v>0.0001968416147861195</v>
+        <v>0.0001113411100871804</v>
       </c>
       <c r="CA6">
-        <v>0.000449077328104977</v>
+        <v>0.0003675573470973219</v>
       </c>
       <c r="CB6">
-        <v>0.0001689583255246835</v>
+        <v>8.301779553338715E-05</v>
       </c>
       <c r="CC6">
-        <v>0.0001475423960919421</v>
+        <v>6.126390200604456E-05</v>
       </c>
       <c r="CD6">
-        <v>4.174131689436876E-05</v>
+        <v>0</v>
       </c>
       <c r="CE6">
-        <v>2.588131131446374E-07</v>
+        <v>0</v>
       </c>
       <c r="CF6">
-        <v>0.000124030726714712</v>
+        <v>3.738119572945442E-05</v>
       </c>
       <c r="CG6">
-        <v>2.971292521297312E-05</v>
+        <v>0</v>
       </c>
       <c r="CH6">
-        <v>3.483477207730721E-06</v>
+        <v>0</v>
       </c>
       <c r="CI6">
-        <v>2.98674392088804E-05</v>
+        <v>0</v>
       </c>
       <c r="CJ6">
-        <v>0.0001849105251021466</v>
+        <v>9.922173626007403E-05</v>
       </c>
       <c r="CK6">
-        <v>0.0001689583255246835</v>
+        <v>8.301779553338715E-05</v>
       </c>
       <c r="CL6">
-        <v>0.0001794060452479475</v>
+        <v>9.363039038607334E-05</v>
       </c>
       <c r="CM6">
-        <v>2.414061536057076E-05</v>
+        <v>0</v>
       </c>
       <c r="CN6">
-        <v>0.05905071843588262</v>
+        <v>0.05989398907119325</v>
       </c>
       <c r="CO6">
-        <v>0.0113151637002874</v>
+        <v>0.0114051210793526</v>
       </c>
       <c r="CP6">
-        <v>0.1553612558848386</v>
+        <v>0.1577244000185988</v>
       </c>
       <c r="CQ6">
-        <v>3.37657061056243E-05</v>
+        <v>0</v>
       </c>
       <c r="CR6">
-        <v>0.007759704794463312</v>
+        <v>0.007793553590719979</v>
       </c>
       <c r="CS6">
-        <v>0.01855149050861379</v>
+        <v>0.01875564412864508</v>
       </c>
       <c r="CT6">
-        <v>0.0003765186600268888</v>
+        <v>0.0002938536330085297</v>
       </c>
       <c r="CU6">
-        <v>0.002097143744451498</v>
+        <v>0.002041631846632221</v>
       </c>
       <c r="CV6">
-        <v>0.0007166028210188436</v>
+        <v>0.000639304651223227</v>
       </c>
       <c r="CW6">
-        <v>0.0007280930107144949</v>
+        <v>0.0006509761672334554</v>
       </c>
       <c r="CX6">
-        <v>0.006292059433337853</v>
+        <v>0.006302747365284327</v>
       </c>
       <c r="CY6">
-        <v>0.01814585551935812</v>
+        <v>0.01834360782665102</v>
       </c>
       <c r="CZ6">
-        <v>0.01472130061006669</v>
+        <v>0.01486501012631634</v>
       </c>
       <c r="DA6">
-        <v>0.002592513731330289</v>
+        <v>0.002544819251365039</v>
       </c>
       <c r="DB6">
-        <v>0.0034484806086577</v>
+        <v>0.003414294114494005</v>
       </c>
       <c r="DC6">
-        <v>0.002482543434243149</v>
+        <v>0.002433113516551285</v>
       </c>
       <c r="DD6">
-        <v>0.009332742752797163</v>
+        <v>0.009391415610555865</v>
       </c>
       <c r="DE6">
-        <v>0.01946434148443447</v>
+        <v>0.0196829007763988</v>
       </c>
       <c r="DF6">
-        <v>0.003878380297270648</v>
+        <v>0.003850978036286639</v>
       </c>
       <c r="DG6">
-        <v>0.0002043164345881287</v>
+        <v>0.0001189338897804298</v>
       </c>
       <c r="DH6">
-        <v>0.02780784626343427</v>
+        <v>0.02815807413636265</v>
       </c>
       <c r="DI6">
-        <v>2.610146230863245E-07</v>
+        <v>0</v>
       </c>
       <c r="DJ6">
-        <v>0.01723333254352876</v>
+        <v>0.01741668435504595</v>
       </c>
       <c r="DK6">
-        <v>0.0008592238772411406</v>
+        <v>0.0007841764057534638</v>
       </c>
       <c r="DL6">
-        <v>0.003402144809885029</v>
+        <v>0.003367227091968985</v>
       </c>
       <c r="DM6">
-        <v>0.005968658141904008</v>
+        <v>0.005974242488456461</v>
       </c>
       <c r="DN6">
-        <v>0.01353197414156921</v>
+        <v>0.01365691493501495</v>
       </c>
       <c r="DO6">
-        <v>8.808834266674292E-05</v>
+        <v>8.716060731212485E-07</v>
       </c>
       <c r="DP6">
-        <v>0.00530112845958533</v>
+        <v>0.005296178541658964</v>
       </c>
       <c r="DQ6">
-        <v>0.001544706959084274</v>
+        <v>0.001480477074096736</v>
       </c>
       <c r="DR6">
-        <v>0.006195038435907716</v>
+        <v>0.006204195282609594</v>
       </c>
       <c r="DS6">
-        <v>0.004984591867969655</v>
+        <v>0.004974646696256638</v>
       </c>
       <c r="DT6">
-        <v>0.0412520089073294</v>
+        <v>0.04181439867917909</v>
       </c>
       <c r="DU6">
-        <v>0.004176751889367472</v>
+        <v>0.004154058220896079</v>
       </c>
       <c r="DV6">
-        <v>0.01154296969425335</v>
+        <v>0.01163652207239328</v>
       </c>
       <c r="DW6">
-        <v>0.007373654504688894</v>
+        <v>0.007401411053720714</v>
       </c>
       <c r="DX6">
-        <v>0.0002674869529148874</v>
+        <v>0.0001831013000281691</v>
       </c>
       <c r="DY6">
-        <v>0.0004816784172414493</v>
+        <v>0.0004006729129744663</v>
       </c>
       <c r="DZ6">
-        <v>0.00183352275143421</v>
+        <v>0.001773850659190369</v>
       </c>
       <c r="EA6">
-        <v>0.0001090178021123698</v>
+        <v>2.213135264610573E-05</v>
       </c>
       <c r="EB6">
-        <v>0.005869318544535285</v>
+        <v>0.005873335216091975</v>
       </c>
       <c r="EC6">
-        <v>0.005441792155859473</v>
+        <v>0.005439062047206566</v>
       </c>
       <c r="ED6">
-        <v>0.001817961451846393</v>
+        <v>0.001758043787233511</v>
       </c>
       <c r="EE6">
-        <v>0.004025910393362917</v>
+        <v>0.00400083630008738</v>
       </c>
       <c r="EF6">
-        <v>0.001413875462549699</v>
+        <v>0.001347580929917029</v>
       </c>
       <c r="EG6">
-        <v>0.004444496882275526</v>
+        <v>0.00442602848893853</v>
       </c>
       <c r="EH6">
-        <v>0.02328069038334819</v>
+        <v>0.02355947535472346</v>
       </c>
       <c r="EI6">
-        <v>0.02124089643737763</v>
+        <v>0.02148749148599993</v>
       </c>
       <c r="EJ6">
-        <v>0.0002855083624375418</v>
+        <v>0.0002014071048357393</v>
       </c>
       <c r="EK6">
-        <v>0.0032609067136261</v>
+        <v>0.003223760121848884</v>
       </c>
       <c r="EL6">
-        <v>0.02555500432310686</v>
+        <v>0.0258696801697254</v>
       </c>
       <c r="EM6">
-        <v>0.06288788833424484</v>
+        <v>0.06379171322449004</v>
       </c>
       <c r="EN6">
-        <v>0.01848945551025696</v>
+        <v>0.01869263015797145</v>
       </c>
       <c r="EO6">
-        <v>0.001467435361131021</v>
+        <v>0.001401986055537776</v>
       </c>
       <c r="EP6">
-        <v>0.004281000086606179</v>
+        <v>0.004259951555587457</v>
       </c>
       <c r="EQ6">
-        <v>0.0001971177347788057</v>
+        <v>0.0001116215875206035</v>
       </c>
       <c r="ER6">
-        <v>0.001410106962649518</v>
+        <v>0.001343752959440949</v>
       </c>
       <c r="ES6">
-        <v>0.0001710918354681718</v>
+        <v>8.51849743287755E-05</v>
       </c>
       <c r="ET6">
-        <v>0.004282851886557129</v>
+        <v>0.004261832578733962</v>
       </c>
       <c r="EU6">
-        <v>0.008127851784711947</v>
+        <v>0.008167510296798613</v>
       </c>
       <c r="EV6">
-        <v>0.004145798890187347</v>
+        <v>0.004122616753429953</v>
       </c>
       <c r="EW6">
-        <v>0.014873057606047</v>
+        <v>0.0150191619945765</v>
       </c>
       <c r="EX6">
-        <v>0.01473003460983535</v>
+        <v>0.01487388195705485</v>
       </c>
       <c r="EY6">
-        <v>0.001772402853053135</v>
+        <v>0.00171176622965582</v>
       </c>
       <c r="EZ6">
-        <v>1.124845470205437E-05</v>
+        <v>0</v>
       </c>
       <c r="FA6">
-        <v>6.918785816737317E-05</v>
+        <v>0</v>
       </c>
       <c r="FB6">
-        <v>0.01077517171459054</v>
+        <v>0.01085660749747141</v>
       </c>
       <c r="FC6">
-        <v>0.02188494942031815</v>
+        <v>0.02214170824838035</v>
       </c>
       <c r="FD6">
-        <v>0.008706253769391412</v>
+        <v>0.008755040024622808</v>
       </c>
       <c r="FE6">
-        <v>0.004165627389662135</v>
+        <v>0.004142758165818157</v>
       </c>
       <c r="FF6">
-        <v>0.003667666502851971</v>
+        <v>0.003636938974245356</v>
       </c>
       <c r="FG6">
-        <v>0.01467185711137633</v>
+        <v>0.01481478636136103</v>
       </c>
       <c r="FH6">
-        <v>0.008056631786598399</v>
+        <v>0.008095166378182079</v>
       </c>
       <c r="FI6">
-        <v>0.004735406374570004</v>
+        <v>0.004721528814588289</v>
       </c>
       <c r="FJ6">
-        <v>0.001083148771309887</v>
+        <v>0.001011635051384116</v>
       </c>
       <c r="FK6">
-        <v>0.0002682722928940855</v>
+        <v>0.0001838990334323575</v>
       </c>
       <c r="FL6">
-        <v>0.0001001863833462937</v>
+        <v>1.3160565544105E-05</v>
       </c>
       <c r="FM6">
-        <v>6.260336834178112E-05</v>
+        <v>0</v>
       </c>
       <c r="FN6">
-        <v>7.784517793806074E-06</v>
+        <v>0</v>
       </c>
       <c r="FO6">
-        <v>0.000231575273866105</v>
+        <v>0.0001466228999256286</v>
       </c>
       <c r="FP6">
-        <v>0.0007902165790689849</v>
+        <v>0.0007140801056250368</v>
       </c>
       <c r="FQ6">
-        <v>0.002796492225927369</v>
+        <v>0.002752016724034544</v>
       </c>
       <c r="FR6">
-        <v>0.00172606605428049</v>
+        <v>0.00166469819134986</v>
       </c>
       <c r="FS6">
-        <v>0.008255573781328886</v>
+        <v>0.008297247870142346</v>
       </c>
       <c r="FT6">
-        <v>0.002991347920766091</v>
+        <v>0.002949947430335686</v>
       </c>
       <c r="FU6">
-        <v>0.002592513731330289</v>
+        <v>0.002544819251365039</v>
       </c>
       <c r="FV6">
-        <v>0.003151122116534041</v>
+        <v>0.00311224301755587</v>
       </c>
       <c r="FW6">
-        <v>0.002605968330973907</v>
+        <v>0.002558486177613536</v>
       </c>
       <c r="FX6">
-        <v>0.001601013457592845</v>
+        <v>0.001537672143649976</v>
       </c>
       <c r="FY6">
-        <v>0.0002577674131723356</v>
+        <v>0.000173228376541085</v>
       </c>
       <c r="FZ6">
-        <v>0.01046857672271154</v>
+        <v>0.01054517413987192</v>
       </c>
       <c r="GA6">
-        <v>0.01140932519779328</v>
+        <v>0.0115007685364266</v>
       </c>
       <c r="GB6">
-        <v>0.01456401161423291</v>
+        <v>0.01470523895789067</v>
       </c>
       <c r="GC6">
-        <v>0.0135152346420126</v>
+        <v>0.01363991126995343</v>
       </c>
       <c r="GD6">
-        <v>0.0008450908176154927</v>
+        <v>0.0007698203127677497</v>
       </c>
       <c r="GE6">
-        <v>8.921780763682598E-05</v>
+        <v>2.018895093624195E-06</v>
       </c>
       <c r="GF6">
-        <v>5.969751841875038E-07</v>
+        <v>0</v>
       </c>
       <c r="GG6">
-        <v>0.006766945420759219</v>
+        <v>0.006785127513222129</v>
       </c>
       <c r="GH6">
-        <v>0.008464355775798731</v>
+        <v>0.008509324646561843</v>
       </c>
       <c r="GI6">
-        <v>0.01537758859268314</v>
+        <v>0.01553165496850963</v>
       </c>
       <c r="GJ6">
-        <v>0.01329905564773868</v>
+        <v>0.01342032076191351</v>
       </c>
       <c r="GK6">
-        <v>0.004176751889367472</v>
+        <v>0.004154058220896079</v>
       </c>
       <c r="GL6">
-        <v>0.000741868840349605</v>
+        <v>0.0006649693927936236</v>
       </c>
       <c r="GM6">
-        <v>0.003077485918484494</v>
+        <v>0.003037444769029745</v>
       </c>
       <c r="GN6">
-        <v>0.003040332919468591</v>
+        <v>0.002999705459729548</v>
       </c>
       <c r="GO6">
-        <v>0.005618413251181188</v>
+        <v>0.00561847039436133</v>
       </c>
       <c r="GP6">
-        <v>0.008240713781722492</v>
+        <v>0.008282153365359396</v>
       </c>
       <c r="GQ6">
-        <v>0.000619318723595675</v>
+        <v>0.0005404853165829217</v>
       </c>
       <c r="GR6">
-        <v>0.0005689335349302624</v>
+        <v>0.0004893050008733107</v>
       </c>
       <c r="GS6">
-        <v>0.002898909823214563</v>
+        <v>0.002856050570135367</v>
       </c>
       <c r="GT6">
         <v>0</v>
@@ -6645,601 +6645,601 @@
         <v>257</v>
       </c>
       <c r="B2">
-        <v>0.0004264866425219234</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>0.0007962267233777311</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>0.001052422450899803</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>0.001177088014560065</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.001203495885335417</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>0.001204359867130784</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>0.001268843839024075</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>0.001456751704541171</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0.001869669316664699</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>0.002473610034396789</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0.003178098015081011</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>0.00406154584101961</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>0.00508801747115748</v>
+        <v>7.873759801109503E-05</v>
       </c>
       <c r="O2">
-        <v>0.006063297899792344</v>
+        <v>9.866743575289291E-05</v>
       </c>
       <c r="P2">
-        <v>0.007021229727917841</v>
+        <v>9.866743575289291E-05</v>
       </c>
       <c r="Q2">
-        <v>0.00786856595279618</v>
+        <v>9.866743575289291E-05</v>
       </c>
       <c r="R2">
-        <v>0.008469083230427756</v>
+        <v>9.866743575289291E-05</v>
       </c>
       <c r="S2">
-        <v>0.008779828639551441</v>
+        <v>9.866743575289291E-05</v>
       </c>
       <c r="T2">
-        <v>0.009013439346410402</v>
+        <v>9.866743575289291E-05</v>
       </c>
       <c r="U2">
-        <v>0.009143539710230233</v>
+        <v>9.866743575289291E-05</v>
       </c>
       <c r="V2">
-        <v>0.009158539932670649</v>
+        <v>9.866743575289291E-05</v>
       </c>
       <c r="W2">
-        <v>0.009160200386119401</v>
+        <v>9.866743575289291E-05</v>
       </c>
       <c r="X2">
-        <v>0.009195911467167901</v>
+        <v>9.866743575289291E-05</v>
       </c>
       <c r="Y2">
-        <v>0.009359332001966033</v>
+        <v>9.866743575289291E-05</v>
       </c>
       <c r="Z2">
-        <v>0.009707403172185627</v>
+        <v>9.866743575289291E-05</v>
       </c>
       <c r="AA2">
-        <v>0.01025756628833877</v>
+        <v>9.866743575289291E-05</v>
       </c>
       <c r="AB2">
-        <v>0.0109834981496526</v>
+        <v>9.866743575289291E-05</v>
       </c>
       <c r="AC2">
-        <v>0.01201600357996763</v>
+        <v>0.0001843365818408624</v>
       </c>
       <c r="AD2">
-        <v>0.01298063110828971</v>
+        <v>0.0001920285117123076</v>
       </c>
       <c r="AE2">
-        <v>0.01401044873852582</v>
+        <v>0.0002746099494040717</v>
       </c>
       <c r="AF2">
-        <v>0.01490950596492273</v>
+        <v>0.0002746099494040717</v>
       </c>
       <c r="AG2">
-        <v>0.0156152830856448</v>
+        <v>0.0002746099494040717</v>
       </c>
       <c r="AH2">
-        <v>0.01601233413730247</v>
+        <v>0.0002746099494040717</v>
       </c>
       <c r="AI2">
-        <v>0.01623990336398405</v>
+        <v>0.0002746099494040717</v>
       </c>
       <c r="AJ2">
-        <v>0.01632323533643074</v>
+        <v>0.0002746099494040717</v>
       </c>
       <c r="AK2">
-        <v>0.01632414503181745</v>
+        <v>0.0002746099494040717</v>
       </c>
       <c r="AL2">
-        <v>0.01634427661940852</v>
+        <v>0.0002746099494040717</v>
       </c>
       <c r="AM2">
-        <v>0.0163970267169573</v>
+        <v>0.0002746099494040717</v>
       </c>
       <c r="AN2">
-        <v>0.01665737445460128</v>
+        <v>0.0002746099494040717</v>
       </c>
       <c r="AO2">
-        <v>0.01717419876977557</v>
+        <v>0.0002746099494040717</v>
       </c>
       <c r="AP2">
-        <v>0.01800859019427384</v>
+        <v>0.0002746099494040717</v>
       </c>
       <c r="AQ2">
-        <v>0.01889452762028554</v>
+        <v>0.0002746099494040717</v>
       </c>
       <c r="AR2">
-        <v>0.01995070965129572</v>
+        <v>0.0003874784543035562</v>
       </c>
       <c r="AS2">
-        <v>0.02120490058811958</v>
+        <v>0.0007278169134605549</v>
       </c>
       <c r="AT2">
-        <v>0.02245317012476958</v>
+        <v>0.001061352948145015</v>
       </c>
       <c r="AU2">
-        <v>0.02360575775861029</v>
+        <v>0.0012849709063376</v>
       </c>
       <c r="AV2">
-        <v>0.02459327478760443</v>
+        <v>0.001318957985154256</v>
       </c>
       <c r="AW2">
-        <v>0.02544061101248277</v>
+        <v>0.001318957985154256</v>
       </c>
       <c r="AX2">
-        <v>0.02602956132977473</v>
+        <v>0.001318957985154256</v>
       </c>
       <c r="AY2">
-        <v>0.02629216483748494</v>
+        <v>0.001318957985154256</v>
       </c>
       <c r="AZ2">
-        <v>0.02647400317282383</v>
+        <v>0.001318957985154256</v>
       </c>
       <c r="BA2">
-        <v>0.02652180891922744</v>
+        <v>0.001318957985154256</v>
       </c>
       <c r="BB2">
-        <v>0.02652182984695205</v>
+        <v>0.001318957985154256</v>
       </c>
       <c r="BC2">
-        <v>0.02654094068351316</v>
+        <v>0.001318957985154256</v>
       </c>
       <c r="BD2">
-        <v>0.02663804295636415</v>
+        <v>0.001318957985154256</v>
       </c>
       <c r="BE2">
-        <v>0.02696358752592235</v>
+        <v>0.001318957985154256</v>
       </c>
       <c r="BF2">
-        <v>0.02743256863969194</v>
+        <v>0.001318957985154256</v>
       </c>
       <c r="BG2">
-        <v>0.02830176131521199</v>
+        <v>0.001318957985154256</v>
       </c>
       <c r="BH2">
-        <v>0.02934415204581726</v>
+        <v>0.001415983230583325</v>
       </c>
       <c r="BI2">
-        <v>0.03052220758040573</v>
+        <v>0.001668858368872537</v>
       </c>
       <c r="BJ2">
-        <v>0.03175646011664418</v>
+        <v>0.001986291862970046</v>
       </c>
       <c r="BK2">
-        <v>0.03271675964483919</v>
+        <v>0.001989011844802658</v>
       </c>
       <c r="BL2">
-        <v>0.0334411888161089</v>
+        <v>0.001989011844802658</v>
       </c>
       <c r="BM2">
-        <v>0.03401851040305943</v>
+        <v>0.001989011844802658</v>
       </c>
       <c r="BN2">
-        <v>0.0343140713917373</v>
+        <v>0.001989011844802658</v>
       </c>
       <c r="BO2">
-        <v>0.03444728985564868</v>
+        <v>0.001989011844802658</v>
       </c>
       <c r="BP2">
-        <v>0.03448979940989678</v>
+        <v>0.001989011844802658</v>
       </c>
       <c r="BQ2">
-        <v>0.03449156947164875</v>
+        <v>0.001989011844802658</v>
       </c>
       <c r="BR2">
-        <v>0.03450571767506416</v>
+        <v>0.001989011844802658</v>
       </c>
       <c r="BS2">
-        <v>0.03464752681922777</v>
+        <v>0.001989011844802658</v>
       </c>
       <c r="BT2">
-        <v>0.03486727689567977</v>
+        <v>0.001989011844802658</v>
       </c>
       <c r="BU2">
-        <v>0.03531846090892683</v>
+        <v>0.001989011844802658</v>
       </c>
       <c r="BV2">
-        <v>0.03603335452991657</v>
+        <v>0.001989011844802658</v>
       </c>
       <c r="BW2">
-        <v>0.03687178055453329</v>
+        <v>0.001989011844802658</v>
       </c>
       <c r="BX2">
-        <v>0.03791801198525133</v>
+        <v>0.002090449234601585</v>
       </c>
       <c r="BY2">
-        <v>0.0391692405219882</v>
+        <v>0.002427384528585238</v>
       </c>
       <c r="BZ2">
-        <v>0.04039885095809036</v>
+        <v>0.002739485240799413</v>
       </c>
       <c r="CA2">
-        <v>0.04145957138923379</v>
+        <v>0.00285756739842058</v>
       </c>
       <c r="CB2">
-        <v>0.04242269141751162</v>
+        <v>0.002863527532619996</v>
       </c>
       <c r="CC2">
-        <v>0.04317078543947615</v>
+        <v>0.002863527532619996</v>
       </c>
       <c r="CD2">
-        <v>0.04368444320455747</v>
+        <v>0.002863527532619996</v>
       </c>
       <c r="CE2">
-        <v>0.04395570744252197</v>
+        <v>0.002863527532619996</v>
       </c>
       <c r="CF2">
-        <v>0.04407983154616633</v>
+        <v>0.002863527532619996</v>
       </c>
       <c r="CG2">
-        <v>0.04414056296194944</v>
+        <v>0.002863527532619996</v>
       </c>
       <c r="CH2">
-        <v>0.0441435857668382</v>
+        <v>0.002863527532619996</v>
       </c>
       <c r="CI2">
-        <v>0.04418645991809701</v>
+        <v>0.002863527532619996</v>
       </c>
       <c r="CJ2">
-        <v>0.04436895348345513</v>
+        <v>0.002863527532619996</v>
       </c>
       <c r="CK2">
-        <v>0.04476878913519457</v>
+        <v>0.002863527532619996</v>
       </c>
       <c r="CL2">
-        <v>0.04539120355346905</v>
+        <v>0.002863527532619996</v>
       </c>
       <c r="CM2">
-        <v>0.04615289647583285</v>
+        <v>0.002863527532619996</v>
       </c>
       <c r="CN2">
-        <v>0.04702703144149802</v>
+        <v>0.002863527532619996</v>
       </c>
       <c r="CO2">
-        <v>0.04755773700707987</v>
+        <v>0.002863527532619996</v>
       </c>
       <c r="CP2">
-        <v>0.07177543471812713</v>
+        <v>0.02958403214672833</v>
       </c>
       <c r="CQ2">
-        <v>0.13265089650547</v>
+        <v>0.09841648058150729</v>
       </c>
       <c r="CR2">
-        <v>0.2264796392603425</v>
+        <v>0.2051052127198725</v>
       </c>
       <c r="CS2">
-        <v>0.2283506003152752</v>
+        <v>0.2061540883530374</v>
       </c>
       <c r="CT2">
-        <v>0.2328730367480568</v>
+        <v>0.2102489430568699</v>
       </c>
       <c r="CU2">
-        <v>0.2615008635885883</v>
+        <v>0.2420357443975382</v>
       </c>
       <c r="CV2">
-        <v>0.2633307076423137</v>
+        <v>0.2430373853755476</v>
       </c>
       <c r="CW2">
-        <v>0.2884422493796048</v>
+        <v>0.2707847259237647</v>
       </c>
       <c r="CX2">
-        <v>0.2927918745073126</v>
+        <v>0.2746810573364412</v>
       </c>
       <c r="CY2">
-        <v>0.2928203665071492</v>
+        <v>0.2746810573364412</v>
       </c>
       <c r="CZ2">
-        <v>0.3001675287228666</v>
+        <v>0.2820209188342563</v>
       </c>
       <c r="DA2">
-        <v>0.3159777991870663</v>
+        <v>0.2990830846812013</v>
       </c>
       <c r="DB2">
-        <v>0.3347535567383347</v>
+        <v>0.3195519620054649</v>
       </c>
       <c r="DC2">
-        <v>0.3522935522533203</v>
+        <v>0.3386012126078328</v>
       </c>
       <c r="DD2">
-        <v>0.3704786267872458</v>
+        <v>0.3583915212667955</v>
       </c>
       <c r="DE2">
-        <v>0.4135238810510823</v>
+        <v>0.4067408683324339</v>
       </c>
       <c r="DF2">
-        <v>0.4275369434625149</v>
+        <v>0.4217384258635343</v>
       </c>
       <c r="DG2">
-        <v>0.467799550644651</v>
+        <v>0.4668911055783375</v>
       </c>
       <c r="DH2">
-        <v>0.4679460494189523</v>
+        <v>0.4668911055783375</v>
       </c>
       <c r="DI2">
-        <v>0.4683449149306632</v>
+        <v>0.4668911055783375</v>
       </c>
       <c r="DJ2">
-        <v>0.4766448571743549</v>
+        <v>0.4753255078923355</v>
       </c>
       <c r="DK2">
-        <v>0.4791326082473969</v>
+        <v>0.4770829435603598</v>
       </c>
       <c r="DL2">
-        <v>0.4851213994232317</v>
+        <v>0.4828623267704074</v>
       </c>
       <c r="DM2">
-        <v>0.4857579960819225</v>
+        <v>0.4828623267704074</v>
       </c>
       <c r="DN2">
-        <v>0.4866505895781297</v>
+        <v>0.4828623267704074</v>
       </c>
       <c r="DO2">
-        <v>0.4866957327414551</v>
+        <v>0.4828623267704074</v>
       </c>
       <c r="DP2">
-        <v>0.4902951238471356</v>
+        <v>0.4858967994804578</v>
       </c>
       <c r="DQ2">
-        <v>0.4932987586353242</v>
+        <v>0.4882468753865785</v>
       </c>
       <c r="DR2">
-        <v>0.4933024987020341</v>
+        <v>0.4882468753865785</v>
       </c>
       <c r="DS2">
-        <v>0.4948137039464041</v>
+        <v>0.4888824684078512</v>
       </c>
       <c r="DT2">
-        <v>0.4949524531504778</v>
+        <v>0.4888824684078512</v>
       </c>
       <c r="DU2">
-        <v>0.5065399864906953</v>
+        <v>0.5010936109309378</v>
       </c>
       <c r="DV2">
-        <v>0.5250642710345803</v>
+        <v>0.5212735994638037</v>
       </c>
       <c r="DW2">
-        <v>0.5275869338086473</v>
+        <v>0.5230711412220193</v>
       </c>
       <c r="DX2">
-        <v>0.5277782995642659</v>
+        <v>0.5230711412220193</v>
       </c>
       <c r="DY2">
-        <v>0.5279361543389006</v>
+        <v>0.5230711412220193</v>
       </c>
       <c r="DZ2">
-        <v>0.5280555803124071</v>
+        <v>0.5230711412220193</v>
       </c>
       <c r="EA2">
-        <v>0.5281116224610525</v>
+        <v>0.5230711412220193</v>
       </c>
       <c r="EB2">
-        <v>0.5281468350990863</v>
+        <v>0.5230711412220193</v>
       </c>
       <c r="EC2">
-        <v>0.5281868360632608</v>
+        <v>0.5230711412220193</v>
       </c>
       <c r="ED2">
-        <v>0.5369891593217027</v>
+        <v>0.5320826720544316</v>
       </c>
       <c r="EE2">
-        <v>0.5379024945485188</v>
+        <v>0.5320826720544316</v>
       </c>
       <c r="EF2">
-        <v>0.544180258532838</v>
+        <v>0.5381940233204487</v>
       </c>
       <c r="EG2">
-        <v>0.5472314826224239</v>
+        <v>0.5405987691726888</v>
       </c>
       <c r="EH2">
-        <v>0.5505146467188198</v>
+        <v>0.5432699645693204</v>
       </c>
       <c r="EI2">
-        <v>0.5519921375621999</v>
+        <v>0.543866826942497</v>
       </c>
       <c r="EJ2">
-        <v>0.5590715437700559</v>
+        <v>0.5508990939580835</v>
       </c>
       <c r="EK2">
-        <v>0.5688966740585281</v>
+        <v>0.5610856116799955</v>
       </c>
       <c r="EL2">
-        <v>0.5695965338790764</v>
+        <v>0.5610856116799955</v>
       </c>
       <c r="EM2">
-        <v>0.5717918102435311</v>
+        <v>0.5625070563565518</v>
       </c>
       <c r="EN2">
-        <v>0.5953851399362465</v>
+        <v>0.5885102954315866</v>
       </c>
       <c r="EO2">
-        <v>0.6564966847305209</v>
+        <v>0.6576139528332907</v>
       </c>
       <c r="EP2">
-        <v>0.6912254027501785</v>
+        <v>0.6964093754869408</v>
       </c>
       <c r="EQ2">
-        <v>0.6976947199401219</v>
+        <v>0.7027407804861078</v>
       </c>
       <c r="ER2">
-        <v>0.7016331705557574</v>
+        <v>0.7061647601776907</v>
       </c>
       <c r="ES2">
-        <v>0.7017059724178949</v>
+        <v>0.7061647601776907</v>
       </c>
       <c r="ET2">
-        <v>0.7038415272805961</v>
+        <v>0.7075175976003651</v>
       </c>
       <c r="EU2">
-        <v>0.7048194233093078</v>
+        <v>0.7075405322041167</v>
       </c>
       <c r="EV2">
-        <v>0.7087802130255991</v>
+        <v>0.7109901747525467</v>
       </c>
       <c r="EW2">
-        <v>0.7278553535856576</v>
+        <v>0.7318029792301629</v>
       </c>
       <c r="EX2">
-        <v>0.7353225778049001</v>
+        <v>0.7392807663345951</v>
       </c>
       <c r="EY2">
-        <v>0.7513369772750932</v>
+        <v>0.7565774328241506</v>
       </c>
       <c r="EZ2">
-        <v>0.7833983182164349</v>
+        <v>0.7923086087486003</v>
       </c>
       <c r="FA2">
-        <v>0.7903818034214746</v>
+        <v>0.7992306830128391</v>
       </c>
       <c r="FB2">
-        <v>0.7908257509045091</v>
+        <v>0.7992306830128391</v>
       </c>
       <c r="FC2">
-        <v>0.7908310896956658</v>
+        <v>0.7992306830128391</v>
       </c>
       <c r="FD2">
-        <v>0.8009578989929955</v>
+        <v>0.8097637655019432</v>
       </c>
       <c r="FE2">
-        <v>0.8228021156343558</v>
+        <v>0.8337576471485936</v>
       </c>
       <c r="FF2">
-        <v>0.8288455708117956</v>
+        <v>0.8395998276247213</v>
       </c>
       <c r="FG2">
-        <v>0.8321612034091447</v>
+        <v>0.8423083223963296</v>
       </c>
       <c r="FH2">
-        <v>0.8330720108358866</v>
+        <v>0.8423083223963296</v>
       </c>
       <c r="FI2">
-        <v>0.8411742190737727</v>
+        <v>0.8505155705574832</v>
       </c>
       <c r="FJ2">
-        <v>0.847002169244885</v>
+        <v>0.8561101817956005</v>
       </c>
       <c r="FK2">
-        <v>0.8554751894936584</v>
+        <v>0.8647434137821182</v>
       </c>
       <c r="FL2">
-        <v>0.859622496215426</v>
+        <v>0.8684073245450489</v>
       </c>
       <c r="FM2">
-        <v>0.8600654213984306</v>
+        <v>0.8684073245450489</v>
       </c>
       <c r="FN2">
-        <v>0.8607945591598385</v>
+        <v>0.8684073245450489</v>
       </c>
       <c r="FO2">
-        <v>0.8609110338332583</v>
+        <v>0.8684073245450489</v>
       </c>
       <c r="FP2">
-        <v>0.8615040537506697</v>
+        <v>0.8684073245450489</v>
       </c>
       <c r="FQ2">
-        <v>0.8615182019540851</v>
+        <v>0.8684073245450489</v>
       </c>
       <c r="FR2">
-        <v>0.8645894938442602</v>
+        <v>0.8708351240153235</v>
       </c>
       <c r="FS2">
-        <v>0.8704906440175217</v>
+        <v>0.8765138264263712</v>
       </c>
       <c r="FT2">
-        <v>0.8720225271624988</v>
+        <v>0.8771731739403317</v>
       </c>
       <c r="FU2">
-        <v>0.8819955014553118</v>
+        <v>0.8875295328558327</v>
       </c>
       <c r="FV2">
-        <v>0.8876275929206736</v>
+        <v>0.892899144260458</v>
       </c>
       <c r="FW2">
-        <v>0.8878302119566226</v>
+        <v>0.892899144260458</v>
       </c>
       <c r="FX2">
-        <v>0.8887452343834883</v>
+        <v>0.892899144260458</v>
       </c>
       <c r="FY2">
-        <v>0.8933918589199162</v>
+        <v>0.8971366645789489</v>
       </c>
       <c r="FZ2">
-        <v>0.8981957460609614</v>
+        <v>0.9015548460517031</v>
       </c>
       <c r="GA2">
-        <v>0.89851278900027</v>
+        <v>0.9015548460517031</v>
       </c>
       <c r="GB2">
-        <v>0.9044611855749187</v>
+        <v>0.907287824489974</v>
       </c>
       <c r="GC2">
-        <v>0.9124913768106904</v>
+        <v>0.9154123404926451</v>
       </c>
       <c r="GD2">
-        <v>0.919951996029739</v>
+        <v>0.9228825398621427</v>
       </c>
       <c r="GE2">
-        <v>0.9293052113043554</v>
+        <v>0.93252692799562</v>
       </c>
       <c r="GF2">
-        <v>0.931335091563954</v>
+        <v>0.9337583678627897</v>
       </c>
       <c r="GG2">
-        <v>0.9316512706732373</v>
+        <v>0.9337583678627897</v>
       </c>
       <c r="GH2">
-        <v>0.9318004834976182</v>
+        <v>0.9337583678627897</v>
       </c>
       <c r="GI2">
-        <v>0.9387002843002008</v>
+        <v>0.9405843066167555</v>
       </c>
       <c r="GJ2">
-        <v>0.9518157766852802</v>
+        <v>0.9545507478351906</v>
       </c>
       <c r="GK2">
-        <v>0.9658345870968815</v>
+        <v>0.9695549085911817</v>
       </c>
       <c r="GL2">
-        <v>0.9780521554555972</v>
+        <v>0.9824898268265249</v>
       </c>
       <c r="GM2">
-        <v>0.9826835780915788</v>
+        <v>0.9867098834072866</v>
       </c>
       <c r="GN2">
-        <v>0.9840650879321409</v>
+        <v>0.9871964841019245</v>
       </c>
       <c r="GO2">
-        <v>0.9876808014383005</v>
+        <v>0.9902497077649945</v>
       </c>
       <c r="GP2">
-        <v>0.9906535368255819</v>
+        <v>0.99256428685706</v>
       </c>
       <c r="GQ2">
-        <v>0.9932268999011374</v>
+        <v>0.9944200724362444</v>
       </c>
       <c r="GR2">
-        <v>0.9988815023671602</v>
+        <v>0.9998155441741189</v>
       </c>
       <c r="GS2">
         <v>1</v>
@@ -7418,601 +7418,601 @@
         <v>258</v>
       </c>
       <c r="B3">
-        <v>0.00103660447073904</v>
+        <v>0.00101103349321049</v>
       </c>
       <c r="C3">
-        <v>0.002990686815579789</v>
+        <v>0.002945019716521127</v>
       </c>
       <c r="D3">
-        <v>0.004380310976353895</v>
+        <v>0.004311179470423166</v>
       </c>
       <c r="E3">
-        <v>0.006224923124284737</v>
+        <v>0.006135042256477594</v>
       </c>
       <c r="F3">
-        <v>0.008491785760296418</v>
+        <v>0.008383675221477097</v>
       </c>
       <c r="G3">
-        <v>0.01010086301487587</v>
+        <v>0.009970597609306277</v>
       </c>
       <c r="H3">
-        <v>0.01076463702613905</v>
+        <v>0.01060657585578982</v>
       </c>
       <c r="I3">
-        <v>0.01076492566333091</v>
+        <v>0.01060657585578982</v>
       </c>
       <c r="J3">
-        <v>0.01172748653616003</v>
+        <v>0.01154312391151299</v>
       </c>
       <c r="K3">
-        <v>0.01309233499763349</v>
+        <v>0.01288436012234643</v>
       </c>
       <c r="L3">
-        <v>0.01431752236304927</v>
+        <v>0.01408510183894323</v>
       </c>
       <c r="M3">
-        <v>0.01548089253021001</v>
+        <v>0.01522365747617272</v>
       </c>
       <c r="N3">
-        <v>0.01595177805691799</v>
+        <v>0.01566559621669062</v>
       </c>
       <c r="O3">
-        <v>0.01605514626400014</v>
+        <v>0.01573782455537474</v>
       </c>
       <c r="P3">
-        <v>0.01608671458310904</v>
+        <v>0.01573782455537474</v>
       </c>
       <c r="Q3">
-        <v>0.01611576878928891</v>
+        <v>0.01573782455537474</v>
       </c>
       <c r="R3">
-        <v>0.01614261002153124</v>
+        <v>0.01573782455537474</v>
       </c>
       <c r="S3">
-        <v>0.0163141627466887</v>
+        <v>0.01587864428888653</v>
       </c>
       <c r="T3">
-        <v>0.01633125385020626</v>
+        <v>0.01587864428888653</v>
       </c>
       <c r="U3">
-        <v>0.0163323010040767</v>
+        <v>0.01587864428888653</v>
       </c>
       <c r="V3">
-        <v>0.01633646550595914</v>
+        <v>0.01587864428888653</v>
       </c>
       <c r="W3">
-        <v>0.01634599769969007</v>
+        <v>0.01587864428888653</v>
       </c>
       <c r="X3">
-        <v>0.016412105687824</v>
+        <v>0.01591339006611262</v>
       </c>
       <c r="Y3">
-        <v>0.01731423960235883</v>
+        <v>0.01678915057839344</v>
       </c>
       <c r="Z3">
-        <v>0.01870593596307444</v>
+        <v>0.01815739489765374</v>
       </c>
       <c r="AA3">
-        <v>0.01982431153150527</v>
+        <v>0.019250687440361</v>
       </c>
       <c r="AB3">
-        <v>0.02014381407248645</v>
+        <v>0.01954033984906511</v>
       </c>
       <c r="AC3">
-        <v>0.0202129073865361</v>
+        <v>0.01957808876651064</v>
       </c>
       <c r="AD3">
-        <v>0.02122272695803122</v>
+        <v>0.0205621775272317</v>
       </c>
       <c r="AE3">
-        <v>0.02197247129686766</v>
+        <v>0.02128463911111346</v>
       </c>
       <c r="AF3">
-        <v>0.02233739231656678</v>
+        <v>0.0216199810237424</v>
       </c>
       <c r="AG3">
-        <v>0.02258197798966268</v>
+        <v>0.02183426951392917</v>
       </c>
       <c r="AH3">
-        <v>0.02296307051890532</v>
+        <v>0.02218587943617921</v>
       </c>
       <c r="AI3">
-        <v>0.02421577578354433</v>
+        <v>0.02341430325926775</v>
       </c>
       <c r="AJ3">
-        <v>0.02508118240911589</v>
+        <v>0.02425311732022295</v>
       </c>
       <c r="AK3">
-        <v>0.02521916506522096</v>
+        <v>0.02436016666236493</v>
       </c>
       <c r="AL3">
-        <v>0.02581835944830708</v>
+        <v>0.02493117991534034</v>
       </c>
       <c r="AM3">
-        <v>0.02618799263787319</v>
+        <v>0.02527126211671759</v>
       </c>
       <c r="AN3">
-        <v>0.02676412072161041</v>
+        <v>0.02581907142706036</v>
       </c>
       <c r="AO3">
-        <v>0.02679920345262011</v>
+        <v>0.02582260681047406</v>
       </c>
       <c r="AP3">
-        <v>0.02694952190837696</v>
+        <v>0.02594206556355441</v>
       </c>
       <c r="AQ3">
-        <v>0.027259570559625</v>
+        <v>0.02622220766842932</v>
       </c>
       <c r="AR3">
-        <v>0.02726664607892528</v>
+        <v>0.02622220766842932</v>
       </c>
       <c r="AS3">
-        <v>0.02731070244468167</v>
+        <v>0.02623477023486528</v>
       </c>
       <c r="AT3">
-        <v>0.02731798190317619</v>
+        <v>0.02623477023486528</v>
       </c>
       <c r="AU3">
-        <v>0.02735784808505086</v>
+        <v>0.02624311761337962</v>
       </c>
       <c r="AV3">
-        <v>0.02746181310211616</v>
+        <v>0.02631594632338478</v>
       </c>
       <c r="AW3">
-        <v>0.02760913205795769</v>
+        <v>0.02643238767766573</v>
       </c>
       <c r="AX3">
-        <v>0.02772629866465035</v>
+        <v>0.02651849675500417</v>
       </c>
       <c r="AY3">
-        <v>0.02776688907750457</v>
+        <v>0.02652757268619392</v>
       </c>
       <c r="AZ3">
-        <v>0.02785181374510734</v>
+        <v>0.02658124742746091</v>
       </c>
       <c r="BA3">
-        <v>0.0281382042370232</v>
+        <v>0.02683759019792009</v>
       </c>
       <c r="BB3">
-        <v>0.0286678045920738</v>
+        <v>0.02733859413515375</v>
       </c>
       <c r="BC3">
-        <v>0.02876695983927488</v>
+        <v>0.02740658437400592</v>
       </c>
       <c r="BD3">
-        <v>0.02876859686962867</v>
+        <v>0.02740658437400592</v>
       </c>
       <c r="BE3">
-        <v>0.02877227471032485</v>
+        <v>0.02740658437400592</v>
       </c>
       <c r="BF3">
-        <v>0.0288986806167567</v>
+        <v>0.02750198788465901</v>
       </c>
       <c r="BG3">
-        <v>0.02908788479141591</v>
+        <v>0.02766056439898015</v>
       </c>
       <c r="BH3">
-        <v>0.02922035278767664</v>
+        <v>0.02776206617370653</v>
       </c>
       <c r="BI3">
-        <v>0.02922256933581407</v>
+        <v>0.02776206617370653</v>
       </c>
       <c r="BJ3">
-        <v>0.02960029592515172</v>
+        <v>0.02811029007051405</v>
       </c>
       <c r="BK3">
-        <v>0.03021732340773445</v>
+        <v>0.02869924283825177</v>
       </c>
       <c r="BL3">
-        <v>0.03066295259515536</v>
+        <v>0.02911577452759673</v>
       </c>
       <c r="BM3">
-        <v>0.03122636127925163</v>
+        <v>0.02965078853795982</v>
       </c>
       <c r="BN3">
-        <v>0.03164198072751965</v>
+        <v>0.03003713141135336</v>
       </c>
       <c r="BO3">
-        <v>0.03191942438968805</v>
+        <v>0.03028447396374272</v>
       </c>
       <c r="BP3">
-        <v>0.03230383807883694</v>
+        <v>0.03063942486422133</v>
       </c>
       <c r="BQ3">
-        <v>0.03249119338354833</v>
+        <v>0.03079614147585261</v>
       </c>
       <c r="BR3">
-        <v>0.03252319086264511</v>
+        <v>0.03079657319676235</v>
       </c>
       <c r="BS3">
-        <v>0.03257681160113152</v>
+        <v>0.03081875720930839</v>
       </c>
       <c r="BT3">
-        <v>0.03299986681918964</v>
+        <v>0.03121258022388233</v>
       </c>
       <c r="BU3">
-        <v>0.03318646228392248</v>
+        <v>0.03136853246135001</v>
       </c>
       <c r="BV3">
-        <v>0.0332423359363453</v>
+        <v>0.03139298283162192</v>
       </c>
       <c r="BW3">
-        <v>0.03347749008970743</v>
+        <v>0.03159778352146713</v>
       </c>
       <c r="BX3">
-        <v>0.03372386483275285</v>
+        <v>0.03181387175750156</v>
       </c>
       <c r="BY3">
-        <v>0.03394805989642433</v>
+        <v>0.0320076479615963</v>
       </c>
       <c r="BZ3">
-        <v>0.03430144002644923</v>
+        <v>0.03233138011672233</v>
       </c>
       <c r="CA3">
-        <v>0.03446053489195835</v>
+        <v>0.03245966765093188</v>
       </c>
       <c r="CB3">
-        <v>0.03465981731633307</v>
+        <v>0.03262838255480129</v>
       </c>
       <c r="CC3">
-        <v>0.03481747516188275</v>
+        <v>0.03275522449393743</v>
       </c>
       <c r="CD3">
-        <v>0.03495480582800622</v>
+        <v>0.0328616179554849</v>
       </c>
       <c r="CE3">
-        <v>0.0350732116946639</v>
+        <v>0.03294897368781122</v>
       </c>
       <c r="CF3">
-        <v>0.03518387901154002</v>
+        <v>0.03302854469218984</v>
       </c>
       <c r="CG3">
-        <v>0.0355133504622398</v>
+        <v>0.0333282254979819</v>
       </c>
       <c r="CH3">
-        <v>0.03576998631499556</v>
+        <v>0.03355463607473794</v>
       </c>
       <c r="CI3">
-        <v>0.03623719536180733</v>
+        <v>0.03399287639674008</v>
       </c>
       <c r="CJ3">
-        <v>0.03644902765582779</v>
+        <v>0.03417421605895943</v>
       </c>
       <c r="CK3">
-        <v>0.03645731101359397</v>
+        <v>0.03417421605895943</v>
       </c>
       <c r="CL3">
-        <v>0.03656301413661021</v>
+        <v>0.03424879324669676</v>
       </c>
       <c r="CM3">
-        <v>0.0375481427088023</v>
+        <v>0.03520804366977623</v>
       </c>
       <c r="CN3">
-        <v>0.03959320895107479</v>
+        <v>0.03723355671776587</v>
       </c>
       <c r="CO3">
-        <v>0.04304295405369642</v>
+        <v>0.04067213075138696</v>
       </c>
       <c r="CP3">
-        <v>0.04541328848678733</v>
+        <v>0.04302485295962423</v>
       </c>
       <c r="CQ3">
-        <v>0.04990404236002367</v>
+        <v>0.04751064776446856</v>
       </c>
       <c r="CR3">
-        <v>0.09242959715962507</v>
+        <v>0.09025820816030813</v>
       </c>
       <c r="CS3">
-        <v>0.09441316730363344</v>
+        <v>0.09222185814501799</v>
       </c>
       <c r="CT3">
-        <v>0.1177917926437086</v>
+        <v>0.1157082338120086</v>
       </c>
       <c r="CU3">
-        <v>0.118307937729139</v>
+        <v>0.1161957021881342</v>
       </c>
       <c r="CV3">
-        <v>0.186726085797852</v>
+        <v>0.1849903644505961</v>
       </c>
       <c r="CW3">
-        <v>0.1983421459699574</v>
+        <v>0.1966439843191017</v>
       </c>
       <c r="CX3">
-        <v>0.2011852673897026</v>
+        <v>0.1994723147707701</v>
       </c>
       <c r="CY3">
-        <v>0.2016512102765501</v>
+        <v>0.199909281377265</v>
       </c>
       <c r="CZ3">
-        <v>0.2025608364508735</v>
+        <v>0.2007925788578168</v>
       </c>
       <c r="DA3">
-        <v>0.2029385630402111</v>
+        <v>0.2011408027546243</v>
       </c>
       <c r="DB3">
-        <v>0.2308001502537426</v>
+        <v>0.2291368914259666</v>
       </c>
       <c r="DC3">
-        <v>0.2861647606909269</v>
+        <v>0.2848001218200794</v>
       </c>
       <c r="DD3">
-        <v>0.2880637134373239</v>
+        <v>0.2866786494706774</v>
       </c>
       <c r="DE3">
-        <v>0.2972975191766748</v>
+        <v>0.2959357993047894</v>
       </c>
       <c r="DF3">
-        <v>0.3059042589337263</v>
+        <v>0.304562141272409</v>
       </c>
       <c r="DG3">
-        <v>0.3426736878958099</v>
+        <v>0.3415192273620005</v>
       </c>
       <c r="DH3">
-        <v>0.343606952869466</v>
+        <v>0.3424263047014418</v>
       </c>
       <c r="DI3">
-        <v>0.3459809948024522</v>
+        <v>0.3447827565332993</v>
       </c>
       <c r="DJ3">
-        <v>0.3461867771866434</v>
+        <v>0.3449580101841265</v>
       </c>
       <c r="DK3">
-        <v>0.3478535566395941</v>
+        <v>0.3466029790960439</v>
       </c>
       <c r="DL3">
-        <v>0.3478701076271268</v>
+        <v>0.3466029790960439</v>
       </c>
       <c r="DM3">
-        <v>0.3548335518305648</v>
+        <v>0.3535762194899018</v>
       </c>
       <c r="DN3">
-        <v>0.3548581807658696</v>
+        <v>0.3535762194899018</v>
       </c>
       <c r="DO3">
-        <v>0.3571915980000026</v>
+        <v>0.3558918042035709</v>
       </c>
       <c r="DP3">
-        <v>0.3602759893129374</v>
+        <v>0.3589628442757065</v>
       </c>
       <c r="DQ3">
-        <v>0.3625093780498939</v>
+        <v>0.3611778035932077</v>
       </c>
       <c r="DR3">
-        <v>0.3690366678656435</v>
+        <v>0.3677122869399201</v>
       </c>
       <c r="DS3">
-        <v>0.3778046826181427</v>
+        <v>0.3765008662775591</v>
       </c>
       <c r="DT3">
-        <v>0.3955732011165782</v>
+        <v>0.394343657971787</v>
       </c>
       <c r="DU3">
-        <v>0.4068310662987946</v>
+        <v>0.4056369453972352</v>
       </c>
       <c r="DV3">
-        <v>0.4068996732468579</v>
+        <v>0.4056742050464078</v>
       </c>
       <c r="DW3">
-        <v>0.4089993887875878</v>
+        <v>0.4077546935010346</v>
       </c>
       <c r="DX3">
-        <v>0.4098315300640983</v>
+        <v>0.4085600437089638</v>
       </c>
       <c r="DY3">
-        <v>0.4098784092757751</v>
+        <v>0.4085754459660586</v>
       </c>
       <c r="DZ3">
-        <v>0.4101341069685573</v>
+        <v>0.408800912784569</v>
       </c>
       <c r="EA3">
-        <v>0.4110855290917008</v>
+        <v>0.4097262556224636</v>
       </c>
       <c r="EB3">
-        <v>0.4110957794104115</v>
+        <v>0.4097262556224636</v>
       </c>
       <c r="EC3">
-        <v>0.4131219556532172</v>
+        <v>0.4117327659488928</v>
       </c>
       <c r="ED3">
-        <v>0.4141603500239057</v>
+        <v>0.4127456000229038</v>
       </c>
       <c r="EE3">
-        <v>0.4157786010782262</v>
+        <v>0.414341750953192</v>
       </c>
       <c r="EF3">
-        <v>0.4239840508466052</v>
+        <v>0.4225644083186409</v>
       </c>
       <c r="EG3">
-        <v>0.4240039216560443</v>
+        <v>0.4225644083186409</v>
       </c>
       <c r="EH3">
-        <v>0.4249723959987065</v>
+        <v>0.4235069051315831</v>
       </c>
       <c r="EI3">
-        <v>0.4311375008246798</v>
+        <v>0.4296770422258667</v>
       </c>
       <c r="EJ3">
-        <v>0.4440148539611817</v>
+        <v>0.4425994815589133</v>
       </c>
       <c r="EK3">
-        <v>0.4604620434969154</v>
+        <v>0.4591130595381183</v>
       </c>
       <c r="EL3">
-        <v>0.4822762828811496</v>
+        <v>0.4810257141055266</v>
       </c>
       <c r="EM3">
-        <v>0.495549686506472</v>
+        <v>0.4943465672752798</v>
       </c>
       <c r="EN3">
-        <v>0.5080497496536239</v>
+        <v>0.50688946522042</v>
       </c>
       <c r="EO3">
-        <v>0.5082961243966694</v>
+        <v>0.5071055534564545</v>
       </c>
       <c r="EP3">
-        <v>0.5204264350542586</v>
+        <v>0.5192764924919181</v>
       </c>
       <c r="EQ3">
-        <v>0.5558326740548218</v>
+        <v>0.5548622540709734</v>
       </c>
       <c r="ER3">
-        <v>0.5847618692382172</v>
+        <v>0.583932321437908</v>
       </c>
       <c r="ES3">
-        <v>0.601579469763495</v>
+        <v>0.6008185207562309</v>
       </c>
       <c r="ET3">
-        <v>0.6097211215336749</v>
+        <v>0.6089769994223618</v>
       </c>
       <c r="EU3">
-        <v>0.6190760202696076</v>
+        <v>0.6183559648500113</v>
       </c>
       <c r="EV3">
-        <v>0.6305367159460985</v>
+        <v>0.6298532931179938</v>
       </c>
       <c r="EW3">
-        <v>0.6309354394348434</v>
+        <v>0.630222639208784</v>
       </c>
       <c r="EX3">
-        <v>0.6363592030817431</v>
+        <v>0.6356470113266297</v>
       </c>
       <c r="EY3">
-        <v>0.6460092128093455</v>
+        <v>0.6453228487586431</v>
       </c>
       <c r="EZ3">
-        <v>0.6522342346336275</v>
+        <v>0.6515532603933046</v>
       </c>
       <c r="FA3">
-        <v>0.6668281842216739</v>
+        <v>0.6662025396057155</v>
       </c>
       <c r="FB3">
-        <v>0.6788979528809721</v>
+        <v>0.6783125753712631</v>
       </c>
       <c r="FC3">
-        <v>0.684004144736836</v>
+        <v>0.6834174806552888</v>
       </c>
       <c r="FD3">
-        <v>0.6848036726142672</v>
+        <v>0.6841900228505478</v>
       </c>
       <c r="FE3">
-        <v>0.6890951831931278</v>
+        <v>0.6884753854186165</v>
       </c>
       <c r="FF3">
-        <v>0.7125728485304073</v>
+        <v>0.7120613920831376</v>
       </c>
       <c r="FG3">
-        <v>0.7378448338170372</v>
+        <v>0.737452425923434</v>
       </c>
       <c r="FH3">
-        <v>0.7576096932591208</v>
+        <v>0.7573034713054737</v>
       </c>
       <c r="FI3">
-        <v>0.7666145140049354</v>
+        <v>0.7663302697263233</v>
       </c>
       <c r="FJ3">
-        <v>0.7666578157137131</v>
+        <v>0.766342073132524</v>
       </c>
       <c r="FK3">
-        <v>0.7668603350779964</v>
+        <v>0.7665140442920593</v>
       </c>
       <c r="FL3">
-        <v>0.7757914078258928</v>
+        <v>0.7754666546393439</v>
       </c>
       <c r="FM3">
-        <v>0.7947174262916549</v>
+        <v>0.7944738534381909</v>
       </c>
       <c r="FN3">
-        <v>0.8063070019645078</v>
+        <v>0.8061008307667723</v>
       </c>
       <c r="FO3">
-        <v>0.810914664434444</v>
+        <v>0.8107042317957471</v>
       </c>
       <c r="FP3">
-        <v>0.8118625676676869</v>
+        <v>0.8116260347455067</v>
       </c>
       <c r="FQ3">
-        <v>0.812130919590112</v>
+        <v>0.8118642313051104</v>
       </c>
       <c r="FR3">
-        <v>0.8136660530467786</v>
+        <v>0.813376768650985</v>
       </c>
       <c r="FS3">
-        <v>0.813688108456156</v>
+        <v>0.813376768650985</v>
       </c>
       <c r="FT3">
-        <v>0.8145833961008841</v>
+        <v>0.8142456420397858</v>
       </c>
       <c r="FU3">
-        <v>0.8153201281800879</v>
+        <v>0.8149550137161158</v>
       </c>
       <c r="FV3">
-        <v>0.8156582642105431</v>
+        <v>0.8152634108057183</v>
       </c>
       <c r="FW3">
-        <v>0.817215037566599</v>
+        <v>0.8167977171825244</v>
       </c>
       <c r="FX3">
-        <v>0.8178453726488061</v>
+        <v>0.8174000569601847</v>
       </c>
       <c r="FY3">
-        <v>0.8178518537356231</v>
+        <v>0.8174000569601847</v>
       </c>
       <c r="FZ3">
-        <v>0.8199272226770402</v>
+        <v>0.8194560535322946</v>
       </c>
       <c r="GA3">
-        <v>0.8260208105050323</v>
+        <v>0.8255542468659725</v>
       </c>
       <c r="GB3">
-        <v>0.831751538343267</v>
+        <v>0.8312874149193203</v>
       </c>
       <c r="GC3">
-        <v>0.8318148904174787</v>
+        <v>0.8313193883372882</v>
       </c>
       <c r="GD3">
-        <v>0.8379933317430756</v>
+        <v>0.8375029415139483</v>
       </c>
       <c r="GE3">
-        <v>0.8519437163492882</v>
+        <v>0.8515048154060273</v>
       </c>
       <c r="GF3">
-        <v>0.8756786956793043</v>
+        <v>0.8753496715303478</v>
       </c>
       <c r="GG3">
-        <v>0.8987209940288733</v>
+        <v>0.8984977132463448</v>
       </c>
       <c r="GH3">
-        <v>0.9158659495449106</v>
+        <v>0.9157132209773955</v>
       </c>
       <c r="GI3">
-        <v>0.9297310481535308</v>
+        <v>0.929629299945652</v>
       </c>
       <c r="GJ3">
-        <v>0.9330897440587226</v>
+        <v>0.9329762814649319</v>
       </c>
       <c r="GK3">
-        <v>0.933789290168976</v>
+        <v>0.933648245272873</v>
       </c>
       <c r="GL3">
-        <v>0.9400865942912177</v>
+        <v>0.9399513705348851</v>
       </c>
       <c r="GM3">
-        <v>0.9531764589217209</v>
+        <v>0.9530875894795199</v>
       </c>
       <c r="GN3">
-        <v>0.9657105885679113</v>
+        <v>0.9656647572083573</v>
       </c>
       <c r="GO3">
-        <v>0.975297139297305</v>
+        <v>0.9752767569639543</v>
       </c>
       <c r="GP3">
-        <v>0.9848836900266987</v>
+        <v>0.9848887567195513</v>
       </c>
       <c r="GQ3">
-        <v>0.9929552247988579</v>
+        <v>0.9929766999792421</v>
       </c>
       <c r="GR3">
-        <v>0.9962755163051337</v>
+        <v>0.9962850479294433</v>
       </c>
       <c r="GS3">
         <v>1</v>
@@ -8191,772 +8191,772 @@
         <v>259</v>
       </c>
       <c r="B4">
-        <v>2.156403543200183E-06</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>1.095436953543883E-05</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>0.0001491455251207009</v>
+        <v>2.362666825940258E-05</v>
       </c>
       <c r="E4">
-        <v>0.0007557507335339152</v>
+        <v>0.000525777369755427</v>
       </c>
       <c r="F4">
-        <v>0.00229932410761883</v>
+        <v>0.001985119220715586</v>
       </c>
       <c r="G4">
-        <v>0.004418582146629726</v>
+        <v>0.004032570984411512</v>
       </c>
       <c r="H4">
-        <v>0.006690936602906906</v>
+        <v>0.006236423510685001</v>
       </c>
       <c r="I4">
-        <v>0.008825543543648858</v>
+        <v>0.008299555458008541</v>
       </c>
       <c r="J4">
-        <v>0.01021958250086921</v>
+        <v>0.009606135426967696</v>
       </c>
       <c r="K4">
-        <v>0.01112502343298526</v>
+        <v>0.01041357175112625</v>
       </c>
       <c r="L4">
-        <v>0.01163930839098655</v>
+        <v>0.01082140961484592</v>
       </c>
       <c r="M4">
-        <v>0.01200383303209781</v>
+        <v>0.01107625482084246</v>
       </c>
       <c r="N4">
-        <v>0.01228736691407489</v>
+        <v>0.01124836120958575</v>
       </c>
       <c r="O4">
-        <v>0.01242949815010452</v>
+        <v>0.01127601299872727</v>
       </c>
       <c r="P4">
-        <v>0.01254456180808145</v>
+        <v>0.01127601299872727</v>
       </c>
       <c r="Q4">
-        <v>0.01260110691945863</v>
+        <v>0.01127601299872727</v>
       </c>
       <c r="R4">
-        <v>0.01260660018937817</v>
+        <v>0.01127601299872727</v>
       </c>
       <c r="S4">
-        <v>0.01284326956606985</v>
+        <v>0.01140024338556708</v>
       </c>
       <c r="T4">
-        <v>0.01368949656150772</v>
+        <v>0.01214718773338123</v>
       </c>
       <c r="U4">
-        <v>0.01511176002191125</v>
+        <v>0.01348260138702121</v>
       </c>
       <c r="V4">
-        <v>0.01713989655064542</v>
+        <v>0.01543696492599591</v>
       </c>
       <c r="W4">
-        <v>0.01974813204480342</v>
+        <v>0.01798394795393576</v>
       </c>
       <c r="X4">
-        <v>0.02236564684000794</v>
+        <v>0.02054041056203679</v>
       </c>
       <c r="Y4">
-        <v>0.0251338733522098</v>
+        <v>0.0232508377624428</v>
       </c>
       <c r="Z4">
-        <v>0.02763809363463691</v>
+        <v>0.02569156057394609</v>
       </c>
       <c r="AA4">
-        <v>0.02943992273784803</v>
+        <v>0.02741473219765076</v>
       </c>
       <c r="AB4">
-        <v>0.03044526395123087</v>
+        <v>0.02832422499348145</v>
       </c>
       <c r="AC4">
-        <v>0.030809707632333</v>
+        <v>0.02857898749207442</v>
       </c>
       <c r="AD4">
-        <v>0.03087917051016705</v>
+        <v>0.02857898749207442</v>
       </c>
       <c r="AE4">
-        <v>0.03089559918801989</v>
+        <v>0.02857898749207442</v>
       </c>
       <c r="AF4">
-        <v>0.03089591367688535</v>
+        <v>0.02857898749207442</v>
       </c>
       <c r="AG4">
-        <v>0.03095360207739148</v>
+        <v>0.02857898749207442</v>
       </c>
       <c r="AH4">
-        <v>0.03111975596613039</v>
+        <v>0.02863118042509087</v>
       </c>
       <c r="AI4">
-        <v>0.03143360856152683</v>
+        <v>0.02883425990898446</v>
       </c>
       <c r="AJ4">
-        <v>0.03185569780913024</v>
+        <v>0.0291479121629421</v>
       </c>
       <c r="AK4">
-        <v>0.03235838452582349</v>
+        <v>0.02954390145556175</v>
       </c>
       <c r="AL4">
-        <v>0.03293047166034373</v>
+        <v>0.03001078906484459</v>
       </c>
       <c r="AM4">
-        <v>0.03365726261231155</v>
+        <v>0.03063571953009039</v>
       </c>
       <c r="AN4">
-        <v>0.0348679781488566</v>
+        <v>0.03175501933074832</v>
       </c>
       <c r="AO4">
-        <v>0.0361556789940841</v>
+        <v>0.03295296604686123</v>
       </c>
       <c r="AP4">
-        <v>0.03730918462417699</v>
+        <v>0.0340138211552404</v>
       </c>
       <c r="AQ4">
-        <v>0.03844834885265246</v>
+        <v>0.0350600253254105</v>
       </c>
       <c r="AR4">
-        <v>0.03961628568437291</v>
+        <v>0.0361356231102008</v>
       </c>
       <c r="AS4">
-        <v>0.04093676403329706</v>
+        <v>0.03736705478086121</v>
       </c>
       <c r="AT4">
-        <v>0.04148734699539206</v>
+        <v>0.03781197408398795</v>
       </c>
       <c r="AU4">
-        <v>0.04162553815097732</v>
+        <v>0.03783560075224736</v>
       </c>
       <c r="AV4">
-        <v>0.04162959062543437</v>
+        <v>0.03783560075224736</v>
       </c>
       <c r="AW4">
-        <v>0.04173726678757813</v>
+        <v>0.03783560075224736</v>
       </c>
       <c r="AX4">
-        <v>0.04240875616330901</v>
+        <v>0.03840403604373508</v>
       </c>
       <c r="AY4">
-        <v>0.04380829052114914</v>
+        <v>0.03971623002289087</v>
       </c>
       <c r="AZ4">
-        <v>0.04547902760957563</v>
+        <v>0.04130548021690929</v>
       </c>
       <c r="BA4">
-        <v>0.04724634730889476</v>
+        <v>0.04299339760553009</v>
       </c>
       <c r="BB4">
-        <v>0.0488364590882283</v>
+        <v>0.04450028232000069</v>
       </c>
       <c r="BC4">
-        <v>0.05015348733676335</v>
+        <v>0.0457281894252829</v>
       </c>
       <c r="BD4">
-        <v>0.05134936227163468</v>
+        <v>0.04683232831322761</v>
       </c>
       <c r="BE4">
-        <v>0.05222936517088181</v>
+        <v>0.04761377756459758</v>
       </c>
       <c r="BF4">
-        <v>0.05291424909812333</v>
+        <v>0.04819589650791763</v>
       </c>
       <c r="BG4">
-        <v>0.05320334266072744</v>
+        <v>0.04837368257424764</v>
       </c>
       <c r="BH4">
-        <v>0.05331196274297766</v>
+        <v>0.04837368257424764</v>
       </c>
       <c r="BI4">
-        <v>0.05350228209444197</v>
+        <v>0.04845056254348466</v>
       </c>
       <c r="BJ4">
-        <v>0.05362724081853487</v>
+        <v>0.04846067117903555</v>
       </c>
       <c r="BK4">
-        <v>0.05371690344364707</v>
+        <v>0.04846067117903555</v>
       </c>
       <c r="BL4">
-        <v>0.05378436364125526</v>
+        <v>0.04846067117903555</v>
       </c>
       <c r="BM4">
-        <v>0.0537998258929991</v>
+        <v>0.04846067117903555</v>
       </c>
       <c r="BN4">
-        <v>0.05380009153968906</v>
+        <v>0.04846067117903555</v>
       </c>
       <c r="BO4">
-        <v>0.0538711113476987</v>
+        <v>0.04846067117903555</v>
       </c>
       <c r="BP4">
-        <v>0.05404039989679114</v>
+        <v>0.04851606642911773</v>
       </c>
       <c r="BQ4">
-        <v>0.05469951232112615</v>
+        <v>0.04907185763218545</v>
       </c>
       <c r="BR4">
-        <v>0.05642151471533437</v>
+        <v>0.05071347961295893</v>
       </c>
       <c r="BS4">
-        <v>0.05822737881900055</v>
+        <v>0.05244077332625551</v>
       </c>
       <c r="BT4">
-        <v>0.05988840970633238</v>
+        <v>0.05402010782609869</v>
       </c>
       <c r="BU4">
-        <v>0.06132570616843133</v>
+        <v>0.05537087894512537</v>
       </c>
       <c r="BV4">
-        <v>0.06237677878697179</v>
+        <v>0.05632709018654811</v>
       </c>
       <c r="BW4">
-        <v>0.06293305589970898</v>
+        <v>0.05677782653960046</v>
       </c>
       <c r="BX4">
-        <v>0.06308733968710917</v>
+        <v>0.05681789317381516</v>
       </c>
       <c r="BY4">
-        <v>0.06311504376423364</v>
+        <v>0.05681789317381516</v>
       </c>
       <c r="BZ4">
-        <v>0.06338741024495126</v>
+        <v>0.05697859113051167</v>
       </c>
       <c r="CA4">
-        <v>0.06380260319177691</v>
+        <v>0.05728519823788869</v>
       </c>
       <c r="CB4">
-        <v>0.06442560736203962</v>
+        <v>0.05780410184702643</v>
       </c>
       <c r="CC4">
-        <v>0.06522582961228905</v>
+        <v>0.05850404850960315</v>
       </c>
       <c r="CD4">
-        <v>0.06603119540311858</v>
+        <v>0.05920924972799144</v>
       </c>
       <c r="CE4">
-        <v>0.06683141765336802</v>
+        <v>0.05990919639056816</v>
       </c>
       <c r="CF4">
-        <v>0.0673158622080039</v>
+        <v>0.0602865497927615</v>
       </c>
       <c r="CG4">
-        <v>0.06758972875889069</v>
+        <v>0.06044878019628182</v>
       </c>
       <c r="CH4">
-        <v>0.06787064996057311</v>
+        <v>0.06061821751413664</v>
       </c>
       <c r="CI4">
-        <v>0.06802188980763001</v>
+        <v>0.06065517450934454</v>
       </c>
       <c r="CJ4">
-        <v>0.06818682133623107</v>
+        <v>0.06070611869950261</v>
       </c>
       <c r="CK4">
-        <v>0.06832213246149152</v>
+        <v>0.06072680317651358</v>
       </c>
       <c r="CL4">
-        <v>0.06849692111120427</v>
+        <v>0.06078781723823504</v>
       </c>
       <c r="CM4">
-        <v>0.06861096794006652</v>
+        <v>0.06078781723823504</v>
       </c>
       <c r="CN4">
-        <v>0.1656624488855772</v>
+        <v>0.1598164545899339</v>
       </c>
       <c r="CO4">
-        <v>0.206040718439457</v>
+        <v>0.2009486784419384</v>
       </c>
       <c r="CP4">
-        <v>0.2228565023359488</v>
+        <v>0.2180098574527781</v>
       </c>
       <c r="CQ4">
-        <v>0.2239400543581523</v>
+        <v>0.2189992491146945</v>
       </c>
       <c r="CR4">
-        <v>0.2773232603787348</v>
+        <v>0.2734171005273187</v>
       </c>
       <c r="CS4">
-        <v>0.277367782413756</v>
+        <v>0.2734171005273187</v>
       </c>
       <c r="CT4">
-        <v>0.2775316045322319</v>
+        <v>0.2734669113624794</v>
       </c>
       <c r="CU4">
-        <v>0.2829394421421303</v>
+        <v>0.2788739215134184</v>
       </c>
       <c r="CV4">
-        <v>0.2875225446590148</v>
+        <v>0.2834383959618562</v>
       </c>
       <c r="CW4">
-        <v>0.2875256812018685</v>
+        <v>0.2834383959618562</v>
       </c>
       <c r="CX4">
-        <v>0.3542423087262004</v>
+        <v>0.3514774498048898</v>
       </c>
       <c r="CY4">
-        <v>0.3702984275370169</v>
+        <v>0.3677625675543055</v>
       </c>
       <c r="CZ4">
-        <v>0.3710406832707289</v>
+        <v>0.3684032965842797</v>
       </c>
       <c r="DA4">
-        <v>0.3717035760454902</v>
+        <v>0.3689629497306904</v>
       </c>
       <c r="DB4">
-        <v>0.3744943575602358</v>
+        <v>0.3716964187478859</v>
       </c>
       <c r="DC4">
-        <v>0.3866802389345651</v>
+        <v>0.3840277660745098</v>
       </c>
       <c r="DD4">
-        <v>0.3971629031168048</v>
+        <v>0.3946191349455</v>
       </c>
       <c r="DE4">
-        <v>0.4252582202854076</v>
+        <v>0.4232032982088632</v>
       </c>
       <c r="DF4">
-        <v>0.4259744461661839</v>
+        <v>0.4238174355724771</v>
       </c>
       <c r="DG4">
-        <v>0.4265038393258891</v>
+        <v>0.4242407077246658</v>
       </c>
       <c r="DH4">
-        <v>0.4278662706795447</v>
+        <v>0.4255149978896632</v>
       </c>
       <c r="DI4">
-        <v>0.433728254340662</v>
+        <v>0.4313859561198617</v>
       </c>
       <c r="DJ4">
-        <v>0.4351404263999274</v>
+        <v>0.4327110605653461</v>
       </c>
       <c r="DK4">
-        <v>0.4367041060762799</v>
+        <v>0.4341909426814766</v>
       </c>
       <c r="DL4">
-        <v>0.4389604217307482</v>
+        <v>0.4363784102336368</v>
       </c>
       <c r="DM4">
-        <v>0.441389510604702</v>
+        <v>0.4387423800434136</v>
       </c>
       <c r="DN4">
-        <v>0.4484564248017118</v>
+        <v>0.4458442753394928</v>
       </c>
       <c r="DO4">
-        <v>0.4530044879146445</v>
+        <v>0.4503729541135694</v>
       </c>
       <c r="DP4">
-        <v>0.4643144711901896</v>
+        <v>0.4618094984589333</v>
       </c>
       <c r="DQ4">
-        <v>0.4705263608907694</v>
+        <v>0.4680379148999746</v>
       </c>
       <c r="DR4">
-        <v>0.4707696576482085</v>
+        <v>0.4681689157091489</v>
       </c>
       <c r="DS4">
-        <v>0.4809422102954737</v>
+        <v>0.478443479775558</v>
       </c>
       <c r="DT4">
-        <v>0.4830894165376366</v>
+        <v>0.4805194829604021</v>
       </c>
       <c r="DU4">
-        <v>0.4838524229236888</v>
+        <v>0.481181410512902</v>
       </c>
       <c r="DV4">
-        <v>0.4838537423546376</v>
+        <v>0.481181410512902</v>
       </c>
       <c r="DW4">
-        <v>0.4869885766081857</v>
+        <v>0.4842663581059939</v>
       </c>
       <c r="DX4">
-        <v>0.4874730211628215</v>
+        <v>0.4846437115081873</v>
       </c>
       <c r="DY4">
-        <v>0.4886459883951093</v>
+        <v>0.4857244482668272</v>
       </c>
       <c r="DZ4">
-        <v>0.4886927588233841</v>
+        <v>0.4857244482668272</v>
       </c>
       <c r="EA4">
-        <v>0.4978166208523774</v>
+        <v>0.4949276873777974</v>
       </c>
       <c r="EB4">
-        <v>0.5061851637961855</v>
+        <v>0.5033593050294171</v>
       </c>
       <c r="EC4">
-        <v>0.5082365300275395</v>
+        <v>0.5053373996475971</v>
       </c>
       <c r="ED4">
-        <v>0.5100383591307507</v>
+        <v>0.5070605712713018</v>
       </c>
       <c r="EE4">
-        <v>0.5148789676766767</v>
+        <v>0.5118881096113026</v>
       </c>
       <c r="EF4">
-        <v>0.5198232727342977</v>
+        <v>0.5168215825890652</v>
       </c>
       <c r="EG4">
-        <v>0.5297863558579389</v>
+        <v>0.5268821560617258</v>
       </c>
       <c r="EH4">
-        <v>0.5397645449832836</v>
+        <v>0.5369581615753718</v>
       </c>
       <c r="EI4">
-        <v>0.5483027759462292</v>
+        <v>0.5455631296950643</v>
       </c>
       <c r="EJ4">
-        <v>0.5567545598994253</v>
+        <v>0.5540797849823025</v>
       </c>
       <c r="EK4">
-        <v>0.5605453857269564</v>
+        <v>0.5578348826954783</v>
       </c>
       <c r="EL4">
-        <v>0.6071015769775852</v>
+        <v>0.6052783689647829</v>
       </c>
       <c r="EM4">
-        <v>0.6436536340999429</v>
+        <v>0.6425017976094316</v>
       </c>
       <c r="EN4">
-        <v>0.6650665585149024</v>
+        <v>0.6642593391844847</v>
       </c>
       <c r="EO4">
-        <v>0.6772052598839107</v>
+        <v>0.6765424881995975</v>
       </c>
       <c r="EP4">
-        <v>0.6799433229927107</v>
+        <v>0.6792221009669931</v>
       </c>
       <c r="EQ4">
-        <v>0.6830965808483366</v>
+        <v>0.6823258698066292</v>
       </c>
       <c r="ER4">
-        <v>0.6856129283321314</v>
+        <v>0.684778981566063</v>
       </c>
       <c r="ES4">
-        <v>0.686326727112634</v>
+        <v>0.685390639444262</v>
       </c>
       <c r="ET4">
-        <v>0.6911085740519329</v>
+        <v>0.690158147900802</v>
       </c>
       <c r="EU4">
-        <v>0.6980795201381195</v>
+        <v>0.6971620037653653</v>
       </c>
       <c r="EV4">
-        <v>0.7144244619815096</v>
+        <v>0.7137421783381285</v>
       </c>
       <c r="EW4">
-        <v>0.7346119642582654</v>
+        <v>0.7342478489659918</v>
       </c>
       <c r="EX4">
-        <v>0.7445992223846329</v>
+        <v>0.74433311922078</v>
       </c>
       <c r="EY4">
-        <v>0.7528546713156863</v>
+        <v>0.7526492019033021</v>
       </c>
       <c r="EZ4">
-        <v>0.7530196572542934</v>
+        <v>0.7527002016778207</v>
       </c>
       <c r="FA4">
-        <v>0.7611897241757173</v>
+        <v>0.7609290595143607</v>
       </c>
       <c r="FB4">
-        <v>0.791957507645722</v>
+        <v>0.7922433700598457</v>
       </c>
       <c r="FC4">
-        <v>0.817797586559978</v>
+        <v>0.8185236192991436</v>
       </c>
       <c r="FD4">
-        <v>0.8318604431459935</v>
+        <v>0.8327724533944898</v>
       </c>
       <c r="FE4">
-        <v>0.83297407947159</v>
+        <v>0.8337925786821584</v>
       </c>
       <c r="FF4">
-        <v>0.8338327975684365</v>
+        <v>0.8345522837321538</v>
       </c>
       <c r="FG4">
-        <v>0.8348731078857632</v>
+        <v>0.8354975003850227</v>
       </c>
       <c r="FH4">
-        <v>0.8454089340739985</v>
+        <v>0.846143178680272</v>
       </c>
       <c r="FI4">
-        <v>0.8529677349264836</v>
+        <v>0.8537475772314355</v>
       </c>
       <c r="FJ4">
-        <v>0.856438038617866</v>
+        <v>0.8571752348424079</v>
       </c>
       <c r="FK4">
-        <v>0.8567551155136262</v>
+        <v>0.8573816082181159</v>
       </c>
       <c r="FL4">
-        <v>0.8568120845900512</v>
+        <v>0.8573816082181159</v>
       </c>
       <c r="FM4">
-        <v>0.8571184778746064</v>
+        <v>0.8575770673936789</v>
       </c>
       <c r="FN4">
-        <v>0.8581617177922635</v>
+        <v>0.8585252768776923</v>
       </c>
       <c r="FO4">
-        <v>0.8590715885648791</v>
+        <v>0.8593372386534885</v>
       </c>
       <c r="FP4">
-        <v>0.8604284419179057</v>
+        <v>0.8606058304254888</v>
       </c>
       <c r="FQ4">
-        <v>0.861567463146365</v>
+        <v>0.8616518885092124</v>
       </c>
       <c r="FR4">
-        <v>0.8660221506487668</v>
+        <v>0.8660851763071058</v>
       </c>
       <c r="FS4">
-        <v>0.8685430534330754</v>
+        <v>0.8685429416860483</v>
       </c>
       <c r="FT4">
-        <v>0.8686794224684551</v>
+        <v>0.8685647069065041</v>
       </c>
       <c r="FU4">
-        <v>0.8689815936025341</v>
+        <v>0.8687558528031153</v>
       </c>
       <c r="FV4">
-        <v>0.8732645826855716</v>
+        <v>0.8730137363413831</v>
       </c>
       <c r="FW4">
-        <v>0.8778640864043058</v>
+        <v>0.8775949659858098</v>
       </c>
       <c r="FX4">
-        <v>0.8811082748701868</v>
+        <v>0.880791628029869</v>
       </c>
       <c r="FY4">
-        <v>0.8811082833023378</v>
+        <v>0.880791628029869</v>
       </c>
       <c r="FZ4">
-        <v>0.8856788188178049</v>
+        <v>0.8853432642379346</v>
       </c>
       <c r="GA4">
-        <v>0.8957080299489039</v>
+        <v>0.8954713929870599</v>
       </c>
       <c r="GB4">
-        <v>0.9085260043945209</v>
+        <v>0.9084484761194894</v>
       </c>
       <c r="GC4">
-        <v>0.9171002283615258</v>
+        <v>0.9170902140956086</v>
       </c>
       <c r="GD4">
-        <v>0.924096105150524</v>
+        <v>0.9241195387529823</v>
       </c>
       <c r="GE4">
-        <v>0.9283629926317455</v>
+        <v>0.9283609731616904</v>
       </c>
       <c r="GF4">
-        <v>0.9287751948582339</v>
+        <v>0.9286645249987368</v>
       </c>
       <c r="GG4">
-        <v>0.9322259202474082</v>
+        <v>0.9320721817406491</v>
       </c>
       <c r="GH4">
-        <v>0.9449622916838221</v>
+        <v>0.9449659005913017</v>
       </c>
       <c r="GI4">
-        <v>0.9572787790728812</v>
+        <v>0.9574306728580104</v>
       </c>
       <c r="GJ4">
-        <v>0.9628096816966589</v>
+        <v>0.9629634041875441</v>
       </c>
       <c r="GK4">
-        <v>0.9671045595810372</v>
+        <v>0.9672334331282259</v>
       </c>
       <c r="GL4">
-        <v>0.9719979371329146</v>
+        <v>0.9721148794101538</v>
       </c>
       <c r="GM4">
-        <v>0.974642051131119</v>
+        <v>0.974698515323205</v>
       </c>
       <c r="GN4">
-        <v>0.9775703461613735</v>
+        <v>0.9775724658688016</v>
       </c>
       <c r="GO4">
-        <v>0.9834531968248441</v>
+        <v>0.9834647414827709</v>
       </c>
       <c r="GP4">
-        <v>0.9859274383038902</v>
+        <v>0.9858748384455857</v>
       </c>
       <c r="GQ4">
-        <v>0.9859431394146609</v>
+        <v>0.9858748384455857</v>
       </c>
       <c r="GR4">
-        <v>0.9895173358177605</v>
+        <v>0.9894086311290108</v>
       </c>
       <c r="GS4">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="GT4">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="GU4">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="GV4">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="GW4">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="GX4">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="GY4">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="GZ4">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HA4">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HB4">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HC4">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HD4">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HE4">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HF4">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HG4">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HH4">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HI4">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HJ4">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HK4">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HL4">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HM4">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HN4">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HO4">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HP4">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HQ4">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HR4">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HS4">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HT4">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HU4">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HV4">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HW4">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HX4">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HY4">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HZ4">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IA4">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IB4">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IC4">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="ID4">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IE4">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IF4">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IG4">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IH4">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="II4">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IJ4">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IK4">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IL4">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IM4">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IN4">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IO4">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IP4">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IQ4">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IR4">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IS4">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IT4">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IU4">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IV4">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IW4">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:257">
@@ -8964,772 +8964,772 @@
         <v>260</v>
       </c>
       <c r="B5">
-        <v>6.11950808591576E-05</v>
+        <v>4.62551384813629E-05</v>
       </c>
       <c r="C5">
-        <v>6.149929240342862E-05</v>
+        <v>4.62551384813629E-05</v>
       </c>
       <c r="D5">
-        <v>0.0002361822148559159</v>
+        <v>0.0002063221568596961</v>
       </c>
       <c r="E5">
-        <v>0.0006147143501703752</v>
+        <v>0.0005708204324159992</v>
       </c>
       <c r="F5">
-        <v>0.001180365658111922</v>
+        <v>0.001122972156151955</v>
       </c>
       <c r="G5">
-        <v>0.001880356507939549</v>
+        <v>0.001809846997288809</v>
       </c>
       <c r="H5">
-        <v>0.002345993214476926</v>
+        <v>0.002261698551040531</v>
       </c>
       <c r="I5">
-        <v>0.002520056666920717</v>
+        <v>0.002421144330656723</v>
       </c>
       <c r="J5">
-        <v>0.002532350320593315</v>
+        <v>0.002421144330656723</v>
       </c>
       <c r="K5">
-        <v>0.002532509596305551</v>
+        <v>0.002421144330656723</v>
       </c>
       <c r="L5">
-        <v>0.002536917959367443</v>
+        <v>0.002421144330656723</v>
       </c>
       <c r="M5">
-        <v>0.002537631555627462</v>
+        <v>0.002421144330656723</v>
       </c>
       <c r="N5">
-        <v>0.002570793636093046</v>
+        <v>0.002439286426990559</v>
       </c>
       <c r="O5">
-        <v>0.002594599010427265</v>
+        <v>0.002448045101281088</v>
       </c>
       <c r="P5">
-        <v>0.002609670647638865</v>
+        <v>0.002448045101281088</v>
       </c>
       <c r="Q5">
-        <v>0.002654048711261918</v>
+        <v>0.002477435205420188</v>
       </c>
       <c r="R5">
-        <v>0.002716720472141808</v>
+        <v>0.002525171240240808</v>
       </c>
       <c r="S5">
-        <v>0.002721030890902324</v>
+        <v>0.002525171240240808</v>
       </c>
       <c r="T5">
-        <v>0.002774066423646925</v>
+        <v>0.002563243532903715</v>
       </c>
       <c r="U5">
-        <v>0.002926562155787912</v>
+        <v>0.002701060010576267</v>
       </c>
       <c r="V5">
-        <v>0.002956811493212602</v>
+        <v>0.002716281047204616</v>
       </c>
       <c r="W5">
-        <v>0.003031321874258702</v>
+        <v>0.002775889504635323</v>
       </c>
       <c r="X5">
-        <v>0.003261988837497186</v>
+        <v>0.002992100413289718</v>
       </c>
       <c r="Y5">
-        <v>0.003775917614712567</v>
+        <v>0.003492381924566547</v>
       </c>
       <c r="Z5">
-        <v>0.004357896222883344</v>
+        <v>0.004060907567364156</v>
       </c>
       <c r="AA5">
-        <v>0.004762915328569671</v>
+        <v>0.004451968440714853</v>
       </c>
       <c r="AB5">
-        <v>0.005002211141929301</v>
+        <v>0.004676832837177712</v>
       </c>
       <c r="AC5">
-        <v>0.005335224546604693</v>
+        <v>0.004995682413879383</v>
       </c>
       <c r="AD5">
-        <v>0.005474150638555168</v>
+        <v>0.00511989050638992</v>
       </c>
       <c r="AE5">
-        <v>0.005479929022236294</v>
+        <v>0.00511989050638992</v>
       </c>
       <c r="AF5">
-        <v>0.005647251044585437</v>
+        <v>0.005272575607315831</v>
       </c>
       <c r="AG5">
-        <v>0.005960841148988132</v>
+        <v>0.005571946424999771</v>
       </c>
       <c r="AH5">
-        <v>0.006568526517519823</v>
+        <v>0.006166252227871448</v>
       </c>
       <c r="AI5">
-        <v>0.007165275625897972</v>
+        <v>0.006749590544626181</v>
       </c>
       <c r="AJ5">
-        <v>0.007986122237422372</v>
+        <v>0.007557666223156513</v>
       </c>
       <c r="AK5">
-        <v>0.008657250286844775</v>
+        <v>0.00821559585283203</v>
       </c>
       <c r="AL5">
-        <v>0.009036695692172057</v>
+        <v>0.008581010006032612</v>
       </c>
       <c r="AM5">
-        <v>0.009425334017628403</v>
+        <v>0.008955643327621124</v>
       </c>
       <c r="AN5">
-        <v>0.009683469571252537</v>
+        <v>0.009199401256872783</v>
       </c>
       <c r="AO5">
-        <v>0.009820450673175704</v>
+        <v>0.009321658805886493</v>
       </c>
       <c r="AP5">
-        <v>0.009940682949863723</v>
+        <v>0.009427119707265397</v>
       </c>
       <c r="AQ5">
-        <v>0.009940702854628003</v>
+        <v>0.009427119707265397</v>
       </c>
       <c r="AR5">
-        <v>0.009949370018249687</v>
+        <v>0.009427119707265397</v>
       </c>
       <c r="AS5">
-        <v>0.009959398837390488</v>
+        <v>0.009427119707265397</v>
       </c>
       <c r="AT5">
-        <v>0.009984245319739325</v>
+        <v>0.00943692246221387</v>
       </c>
       <c r="AU5">
-        <v>0.009999045017947107</v>
+        <v>0.00943692246221387</v>
       </c>
       <c r="AV5">
-        <v>0.01001037633210619</v>
+        <v>0.00943692246221387</v>
       </c>
       <c r="AW5">
-        <v>0.0100741671630018</v>
+        <v>0.009485780762296005</v>
       </c>
       <c r="AX5">
-        <v>0.01039111404745162</v>
+        <v>0.009788517944536716</v>
       </c>
       <c r="AY5">
-        <v>0.01106227855687454</v>
+        <v>0.01044648413831585</v>
       </c>
       <c r="AZ5">
-        <v>0.01179494892716097</v>
+        <v>0.01116613180872966</v>
       </c>
       <c r="BA5">
-        <v>0.01288022064239781</v>
+        <v>0.01223938759574513</v>
       </c>
       <c r="BB5">
-        <v>0.01417231796053841</v>
+        <v>0.01352005952837426</v>
       </c>
       <c r="BC5">
-        <v>0.01518467787475159</v>
+        <v>0.01452019533156881</v>
       </c>
       <c r="BD5">
-        <v>0.01551640839940897</v>
+        <v>0.01483775836528506</v>
       </c>
       <c r="BE5">
-        <v>0.01565533449135944</v>
+        <v>0.01496196645779559</v>
       </c>
       <c r="BF5">
-        <v>0.01570685394008275</v>
+        <v>0.01499851833760968</v>
       </c>
       <c r="BG5">
-        <v>0.01571171666865102</v>
+        <v>0.01499851833760968</v>
       </c>
       <c r="BH5">
-        <v>0.01575577342226956</v>
+        <v>0.0150275862143178</v>
       </c>
       <c r="BI5">
-        <v>0.01588173043403796</v>
+        <v>0.01513878819643507</v>
       </c>
       <c r="BJ5">
-        <v>0.01615554797788226</v>
+        <v>0.01539827289220573</v>
       </c>
       <c r="BK5">
-        <v>0.01648426928249739</v>
+        <v>0.01571281811374736</v>
       </c>
       <c r="BL5">
-        <v>0.01681299058711252</v>
+        <v>0.01602736333528899</v>
       </c>
       <c r="BM5">
-        <v>0.01700513979981023</v>
+        <v>0.01620494651486772</v>
       </c>
       <c r="BN5">
-        <v>0.01710310678118565</v>
+        <v>0.01628807854752897</v>
       </c>
       <c r="BO5">
-        <v>0.01726531071346294</v>
+        <v>0.01643563094485966</v>
       </c>
       <c r="BP5">
-        <v>0.01754970793745578</v>
+        <v>0.01670572552861046</v>
       </c>
       <c r="BQ5">
-        <v>0.01784086932154358</v>
+        <v>0.01698260358595212</v>
       </c>
       <c r="BR5">
-        <v>0.01813524138567646</v>
+        <v>0.01726270149069371</v>
       </c>
       <c r="BS5">
-        <v>0.01835706747879082</v>
+        <v>0.01747004628616255</v>
       </c>
       <c r="BT5">
-        <v>0.01871934943387714</v>
+        <v>0.01781824798285662</v>
       </c>
       <c r="BU5">
-        <v>0.01919772549059337</v>
+        <v>0.01828287526105746</v>
       </c>
       <c r="BV5">
-        <v>0.01948768742466433</v>
+        <v>0.01855855044362996</v>
       </c>
       <c r="BW5">
-        <v>0.01971940288791754</v>
+        <v>0.01877581284604855</v>
       </c>
       <c r="BX5">
-        <v>0.01984092454962366</v>
+        <v>0.01888256681398649</v>
       </c>
       <c r="BY5">
-        <v>0.0198734066900797</v>
+        <v>0.01890002702889922</v>
       </c>
       <c r="BZ5">
-        <v>0.01987565907241132</v>
+        <v>0.01890002702889922</v>
       </c>
       <c r="CA5">
-        <v>0.01989733972571571</v>
+        <v>0.01890665491551006</v>
       </c>
       <c r="CB5">
-        <v>0.01996473959666198</v>
+        <v>0.01895913256042265</v>
       </c>
       <c r="CC5">
-        <v>0.02020731208006761</v>
+        <v>0.01918728298270556</v>
       </c>
       <c r="CD5">
-        <v>0.02081792668864043</v>
+        <v>0.01978452638938633</v>
       </c>
       <c r="CE5">
-        <v>0.0213999052968112</v>
+        <v>0.02035305203218394</v>
       </c>
       <c r="CF5">
-        <v>0.02211678945687601</v>
+        <v>0.02105686841850116</v>
       </c>
       <c r="CG5">
-        <v>0.02265601356444653</v>
+        <v>0.02158251748510298</v>
       </c>
       <c r="CH5">
-        <v>0.02299375190918826</v>
+        <v>0.02190610549284537</v>
       </c>
       <c r="CI5">
-        <v>0.02310123985069735</v>
+        <v>0.02199878567054157</v>
       </c>
       <c r="CJ5">
-        <v>0.02313440193116293</v>
+        <v>0.02201692776687541</v>
       </c>
       <c r="CK5">
-        <v>0.02325439258784756</v>
+        <v>0.02212214635836084</v>
       </c>
       <c r="CL5">
-        <v>0.02334778504915876</v>
+        <v>0.02220069080947303</v>
       </c>
       <c r="CM5">
-        <v>0.02558046638050483</v>
+        <v>0.02442463237558017</v>
       </c>
       <c r="CN5">
-        <v>0.1449334080561785</v>
+        <v>0.1441032441219154</v>
       </c>
       <c r="CO5">
-        <v>0.1901369046908198</v>
+        <v>0.1894206942234865</v>
       </c>
       <c r="CP5">
-        <v>0.2212483111276131</v>
+        <v>0.2206058174204544</v>
       </c>
       <c r="CQ5">
-        <v>0.2220880817394032</v>
+        <v>0.2214328711323597</v>
       </c>
       <c r="CR5">
-        <v>0.2598558762696499</v>
+        <v>0.2592933882006326</v>
       </c>
       <c r="CS5">
-        <v>0.2601158995033006</v>
+        <v>0.2595390391997448</v>
       </c>
       <c r="CT5">
-        <v>0.2809310397955379</v>
+        <v>0.2803984976437378</v>
       </c>
       <c r="CU5">
-        <v>0.2810786512576103</v>
+        <v>0.2805314159054374</v>
       </c>
       <c r="CV5">
-        <v>0.2847491875091434</v>
+        <v>0.2841973178541553</v>
       </c>
       <c r="CW5">
-        <v>0.2870398722413038</v>
+        <v>0.2864794284363827</v>
       </c>
       <c r="CX5">
-        <v>0.3045681404873946</v>
+        <v>0.3040426299307262</v>
       </c>
       <c r="CY5">
-        <v>0.3172332506652083</v>
+        <v>0.3167287877328469</v>
       </c>
       <c r="CZ5">
-        <v>0.3182916005800672</v>
+        <v>0.3177750448505053</v>
       </c>
       <c r="DA5">
-        <v>0.3558454591073102</v>
+        <v>0.3554210150709605</v>
       </c>
       <c r="DB5">
-        <v>0.3728314443457876</v>
+        <v>0.3724403851938886</v>
       </c>
       <c r="DC5">
-        <v>0.3785516874260978</v>
+        <v>0.3781618464355281</v>
       </c>
       <c r="DD5">
-        <v>0.4230448710507666</v>
+        <v>0.4227669553924862</v>
       </c>
       <c r="DE5">
-        <v>0.4256128312868199</v>
+        <v>0.425327133174727</v>
       </c>
       <c r="DF5">
-        <v>0.4273540165112655</v>
+        <v>0.4270581752803895</v>
       </c>
       <c r="DG5">
-        <v>0.4333125247949209</v>
+        <v>0.4330185820365972</v>
       </c>
       <c r="DH5">
-        <v>0.4335267525979286</v>
+        <v>0.433218306846798</v>
       </c>
       <c r="DI5">
-        <v>0.4479488438004097</v>
+        <v>0.4476664623268484</v>
       </c>
       <c r="DJ5">
-        <v>0.4480866497123444</v>
+        <v>0.4477895470409281</v>
       </c>
       <c r="DK5">
-        <v>0.4502434480426251</v>
+        <v>0.4499373889395976</v>
       </c>
       <c r="DL5">
-        <v>0.4502493968117086</v>
+        <v>0.4499373889395976</v>
       </c>
       <c r="DM5">
-        <v>0.4514888736291104</v>
+        <v>0.4511652901258091</v>
       </c>
       <c r="DN5">
-        <v>0.4591882877372075</v>
+        <v>0.4588715734607017</v>
       </c>
       <c r="DO5">
-        <v>0.4592199727536524</v>
+        <v>0.4588882342755998</v>
       </c>
       <c r="DP5">
-        <v>0.4599653574241173</v>
+        <v>0.4596206325489379</v>
       </c>
       <c r="DQ5">
-        <v>0.4600466862452591</v>
+        <v>0.4596870789149443</v>
       </c>
       <c r="DR5">
-        <v>0.4644715793073831</v>
+        <v>0.4641094915657873</v>
       </c>
       <c r="DS5">
-        <v>0.4883059386420092</v>
+        <v>0.4879967897343768</v>
       </c>
       <c r="DT5">
-        <v>0.4944139467277635</v>
+        <v>0.4941071231548176</v>
       </c>
       <c r="DU5">
-        <v>0.4944387932101123</v>
+        <v>0.4941169259097661</v>
       </c>
       <c r="DV5">
-        <v>0.4952562832215896</v>
+        <v>0.4949216354042536</v>
       </c>
       <c r="DW5">
-        <v>0.495412585243784</v>
+        <v>0.4950632690399612</v>
       </c>
       <c r="DX5">
-        <v>0.4958591874300541</v>
+        <v>0.4954960317247721</v>
       </c>
       <c r="DY5">
-        <v>0.4963238123965773</v>
+        <v>0.4959468686497198</v>
       </c>
       <c r="DZ5">
-        <v>0.4963238985648635</v>
+        <v>0.4959468686497198</v>
       </c>
       <c r="EA5">
-        <v>0.499770670813255</v>
+        <v>0.499388367688899</v>
       </c>
       <c r="EB5">
-        <v>0.5028205920560749</v>
+        <v>0.5024318826061759</v>
       </c>
       <c r="EC5">
-        <v>0.5062494042042142</v>
+        <v>0.5058553702641874</v>
       </c>
       <c r="ED5">
-        <v>0.512357303289967</v>
+        <v>0.5119655943734023</v>
       </c>
       <c r="EE5">
-        <v>0.5133304960036302</v>
+        <v>0.5129264511431576</v>
       </c>
       <c r="EF5">
-        <v>0.5158066513383945</v>
+        <v>0.5153945618964308</v>
       </c>
       <c r="EG5">
-        <v>0.5216696934207096</v>
+        <v>0.5212592298696234</v>
       </c>
       <c r="EH5">
-        <v>0.5338796665921334</v>
+        <v>0.5334889511268185</v>
       </c>
       <c r="EI5">
-        <v>0.536353488226865</v>
+        <v>0.5359547215167179</v>
       </c>
       <c r="EJ5">
-        <v>0.5363681026280702</v>
+        <v>0.5359547215167179</v>
       </c>
       <c r="EK5">
-        <v>0.5496231308141661</v>
+        <v>0.5492324817016583</v>
       </c>
       <c r="EL5">
-        <v>0.6052675175953939</v>
+        <v>0.6050206334986487</v>
       </c>
       <c r="EM5">
-        <v>0.6558799783059752</v>
+        <v>0.6557624917230198</v>
       </c>
       <c r="EN5">
-        <v>0.6645596034278342</v>
+        <v>0.6644517848376887</v>
       </c>
       <c r="EO5">
-        <v>0.6662108985510178</v>
+        <v>0.6660926801816794</v>
       </c>
       <c r="EP5">
-        <v>0.6662681128658211</v>
+        <v>0.6661349431879474</v>
       </c>
       <c r="EQ5">
-        <v>0.6663686502172326</v>
+        <v>0.6662206529297423</v>
       </c>
       <c r="ER5">
-        <v>0.6669990947860838</v>
+        <v>0.6668377829165701</v>
       </c>
       <c r="ES5">
-        <v>0.671677148851762</v>
+        <v>0.6715140794137054</v>
       </c>
       <c r="ET5">
-        <v>0.6940991071665584</v>
+        <v>0.6939849437777714</v>
       </c>
       <c r="EU5">
-        <v>0.7102876433938399</v>
+        <v>0.7102045879581496</v>
       </c>
       <c r="EV5">
-        <v>0.7258555366124076</v>
+        <v>0.7258018170271388</v>
       </c>
       <c r="EW5">
-        <v>0.754781202018514</v>
+        <v>0.7547949583150503</v>
       </c>
       <c r="EX5">
-        <v>0.7672072421929712</v>
+        <v>0.7672413635046711</v>
       </c>
       <c r="EY5">
-        <v>0.7690296085185566</v>
+        <v>0.7690538185053459</v>
       </c>
       <c r="EZ5">
-        <v>0.7690470425938014</v>
+        <v>0.7690561876887749</v>
       </c>
       <c r="FA5">
-        <v>0.7760488482921043</v>
+        <v>0.7760628707542826</v>
       </c>
       <c r="FB5">
-        <v>0.8038798236828415</v>
+        <v>0.8039581963924787</v>
       </c>
       <c r="FC5">
-        <v>0.8206310539180229</v>
+        <v>0.8207421412234529</v>
       </c>
       <c r="FD5">
-        <v>0.8269889290072853</v>
+        <v>0.8271030550848838</v>
       </c>
       <c r="FE5">
-        <v>0.8273929762429579</v>
+        <v>0.8274931413132707</v>
       </c>
       <c r="FF5">
-        <v>0.8342971083398896</v>
+        <v>0.8344018718930115</v>
       </c>
       <c r="FG5">
-        <v>0.8380693177928501</v>
+        <v>0.838169737347486</v>
       </c>
       <c r="FH5">
-        <v>0.8430108718622278</v>
+        <v>0.8431102862116842</v>
       </c>
       <c r="FI5">
-        <v>0.8462822938081574</v>
+        <v>0.8463759342761378</v>
       </c>
       <c r="FJ5">
-        <v>0.8463372249459287</v>
+        <v>0.8464159075862894</v>
       </c>
       <c r="FK5">
-        <v>0.8499964015973023</v>
+        <v>0.8500704175001349</v>
       </c>
       <c r="FL5">
-        <v>0.8515041755184709</v>
+        <v>0.8515673818504873</v>
       </c>
       <c r="FM5">
-        <v>0.8527920100365517</v>
+        <v>0.8528437788116162</v>
       </c>
       <c r="FN5">
-        <v>0.8528126059158408</v>
+        <v>0.8528493188268903</v>
       </c>
       <c r="FO5">
-        <v>0.8541807784350495</v>
+        <v>0.8542062831757425</v>
       </c>
       <c r="FP5">
-        <v>0.8591337825045879</v>
+        <v>0.8591583147329307</v>
       </c>
       <c r="FQ5">
-        <v>0.8607566073273718</v>
+        <v>0.8607706584861586</v>
       </c>
       <c r="FR5">
-        <v>0.8644784793796256</v>
+        <v>0.8644880428131121</v>
       </c>
       <c r="FS5">
-        <v>0.8682275892322618</v>
+        <v>0.868232742711692</v>
       </c>
       <c r="FT5">
-        <v>0.8683604997341279</v>
+        <v>0.8683509180379909</v>
       </c>
       <c r="FU5">
-        <v>0.8719999239852241</v>
+        <v>0.871985619153145</v>
       </c>
       <c r="FV5">
-        <v>0.8822150041286403</v>
+        <v>0.8822147514263282</v>
       </c>
       <c r="FW5">
-        <v>0.8917885612630497</v>
+        <v>0.891800528969814</v>
       </c>
       <c r="FX5">
-        <v>0.8973292889408396</v>
+        <v>0.8973419622441888</v>
       </c>
       <c r="FY5">
-        <v>0.8986078811587906</v>
+        <v>0.8986090905159358</v>
       </c>
       <c r="FZ5">
-        <v>0.9045609589423698</v>
+        <v>0.9045640512665294</v>
       </c>
       <c r="GA5">
-        <v>0.9096085020132355</v>
+        <v>0.9096108917593143</v>
       </c>
       <c r="GB5">
-        <v>0.9175589631248572</v>
+        <v>0.9175689389044309</v>
       </c>
       <c r="GC5">
-        <v>0.9200071168592284</v>
+        <v>0.9200089681052125</v>
       </c>
       <c r="GD5">
-        <v>0.9203439678039577</v>
+        <v>0.9203316661791767</v>
       </c>
       <c r="GE5">
-        <v>0.9205220773964583</v>
+        <v>0.9204951696516676</v>
       </c>
       <c r="GF5">
-        <v>0.922916057430069</v>
+        <v>0.922880870471206</v>
       </c>
       <c r="GG5">
-        <v>0.9336544715808326</v>
+        <v>0.9336348310110476</v>
       </c>
       <c r="GH5">
-        <v>0.9510278158247483</v>
+        <v>0.9510426661535321</v>
       </c>
       <c r="GI5">
-        <v>0.9641994255096731</v>
+        <v>0.9642367696550499</v>
       </c>
       <c r="GJ5">
-        <v>0.9726404696281824</v>
+        <v>0.9726868005534522</v>
       </c>
       <c r="GK5">
-        <v>0.9736693146426271</v>
+        <v>0.9737034685262721</v>
       </c>
       <c r="GL5">
-        <v>0.9741674151796202</v>
+        <v>0.9741878766034447</v>
       </c>
       <c r="GM5">
-        <v>0.9749211866502029</v>
+        <v>0.97492868562347</v>
       </c>
       <c r="GN5">
-        <v>0.9749247089679524</v>
+        <v>0.97492868562347</v>
       </c>
       <c r="GO5">
-        <v>0.9758169739804794</v>
+        <v>0.9758083836217417</v>
       </c>
       <c r="GP5">
-        <v>0.9759377366621749</v>
+        <v>0.9759143764425769</v>
       </c>
       <c r="GQ5">
-        <v>0.9785654706990673</v>
+        <v>0.978534498695931</v>
       </c>
       <c r="GR5">
-        <v>0.9887377798418829</v>
+        <v>0.9887207378458063</v>
       </c>
       <c r="GS5">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GT5">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GU5">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GV5">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GW5">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GX5">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GY5">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GZ5">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HA5">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HB5">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HC5">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HD5">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HE5">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HF5">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HG5">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HH5">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HI5">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HJ5">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HK5">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HL5">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HM5">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HN5">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HO5">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HP5">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HQ5">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HR5">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HS5">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HT5">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HU5">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HV5">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HW5">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HX5">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HY5">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HZ5">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IA5">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IB5">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IC5">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="ID5">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IE5">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IF5">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IG5">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IH5">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="II5">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IJ5">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IK5">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IL5">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IM5">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IN5">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IO5">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IP5">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IQ5">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IR5">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IS5">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IT5">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IU5">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IV5">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IW5">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
     </row>
     <row r="6" spans="1:257">
@@ -9737,601 +9737,601 @@
         <v>261</v>
       </c>
       <c r="B6">
-        <v>0.002477549634375423</v>
+        <v>0.002428040909688223</v>
       </c>
       <c r="C6">
-        <v>0.005165997263164643</v>
+        <v>0.005070307988267057</v>
       </c>
       <c r="D6">
-        <v>0.007881881691227128</v>
+        <v>0.007740444845367347</v>
       </c>
       <c r="E6">
-        <v>0.009739956342011014</v>
+        <v>0.00953923485664254</v>
       </c>
       <c r="F6">
-        <v>0.01067520907723833</v>
+        <v>0.01040063992934837</v>
       </c>
       <c r="G6">
-        <v>0.01111761060552013</v>
+        <v>0.01076141612603991</v>
       </c>
       <c r="H6">
-        <v>0.01135647852919307</v>
+        <v>0.01091544676084476</v>
       </c>
       <c r="I6">
-        <v>0.01147444001606854</v>
+        <v>0.01094666293825599</v>
       </c>
       <c r="J6">
-        <v>0.01157534810339572</v>
+        <v>0.01096055659696833</v>
       </c>
       <c r="K6">
-        <v>0.01158165832322858</v>
+        <v>0.01096055659696833</v>
       </c>
       <c r="L6">
-        <v>0.01166888860091805</v>
+        <v>0.01096055659696833</v>
       </c>
       <c r="M6">
-        <v>0.01173359745920406</v>
+        <v>0.01096055659696833</v>
       </c>
       <c r="N6">
-        <v>0.01183551542650449</v>
+        <v>0.01097547607253734</v>
       </c>
       <c r="O6">
-        <v>0.01204431429097389</v>
+        <v>0.01109896312928104</v>
       </c>
       <c r="P6">
-        <v>0.01213020530869883</v>
+        <v>0.01109896312928104</v>
       </c>
       <c r="Q6">
-        <v>0.01215070165515593</v>
+        <v>0.01109896312928104</v>
       </c>
       <c r="R6">
-        <v>0.01215129863034012</v>
+        <v>0.01109896312928104</v>
       </c>
       <c r="S6">
-        <v>0.01222937168827214</v>
+        <v>0.01109896312928104</v>
       </c>
       <c r="T6">
-        <v>0.0129268369297979</v>
+        <v>0.0117188281914838</v>
       </c>
       <c r="U6">
-        <v>0.01516242887058222</v>
+        <v>0.01390109308098889</v>
       </c>
       <c r="V6">
-        <v>0.01776105420175062</v>
+        <v>0.01645212037915281</v>
       </c>
       <c r="W6">
-        <v>0.01939196475855157</v>
+        <v>0.01802016142717334</v>
       </c>
       <c r="X6">
-        <v>0.0204236276312252</v>
+        <v>0.0189794980826083</v>
       </c>
       <c r="Y6">
-        <v>0.02119053566091157</v>
+        <v>0.01966990180738147</v>
       </c>
       <c r="Z6">
-        <v>0.02217798833475623</v>
+        <v>0.02058433058425956</v>
       </c>
       <c r="AA6">
-        <v>0.02279253985847817</v>
+        <v>0.02111997346994065</v>
       </c>
       <c r="AB6">
-        <v>0.02281907332377536</v>
+        <v>0.02111997346994065</v>
       </c>
       <c r="AC6">
-        <v>0.02378464969819947</v>
+        <v>0.02201218071821959</v>
       </c>
       <c r="AD6">
-        <v>0.02494641236742706</v>
+        <v>0.02310367027091974</v>
       </c>
       <c r="AE6">
-        <v>0.02625916053265539</v>
+        <v>0.0243485280168841</v>
       </c>
       <c r="AF6">
-        <v>0.02724346440658345</v>
+        <v>0.02525975830273523</v>
       </c>
       <c r="AG6">
-        <v>0.02820904078100755</v>
+        <v>0.02615196555101417</v>
       </c>
       <c r="AH6">
-        <v>0.02972558944083768</v>
+        <v>0.02760383996064054</v>
       </c>
       <c r="AI6">
-        <v>0.03077102981314637</v>
+        <v>0.02857717153798984</v>
       </c>
       <c r="AJ6">
-        <v>0.03150821409362006</v>
+        <v>0.02923738244401859</v>
       </c>
       <c r="AK6">
-        <v>0.03221893317479475</v>
+        <v>0.02987071050428814</v>
       </c>
       <c r="AL6">
-        <v>0.03284053468832996</v>
+        <v>0.03041351463544532</v>
       </c>
       <c r="AM6">
-        <v>0.03321790111833439</v>
+        <v>0.03070822941706218</v>
       </c>
       <c r="AN6">
-        <v>0.03332817500541349</v>
+        <v>0.03073163667691154</v>
       </c>
       <c r="AO6">
-        <v>0.03338886088380606</v>
+        <v>0.03073163667691154</v>
       </c>
       <c r="AP6">
-        <v>0.03339182031692767</v>
+        <v>0.03073163667691154</v>
       </c>
       <c r="AQ6">
-        <v>0.03345213297533013</v>
+        <v>0.03073163667691154</v>
       </c>
       <c r="AR6">
-        <v>0.0335796614919522</v>
+        <v>0.03077257086105854</v>
       </c>
       <c r="AS6">
-        <v>0.03368372689919574</v>
+        <v>0.03078967166525145</v>
       </c>
       <c r="AT6">
-        <v>0.03368641154742463</v>
+        <v>0.03078967166525145</v>
       </c>
       <c r="AU6">
-        <v>0.03401956543860016</v>
+        <v>0.03103947619138403</v>
       </c>
       <c r="AV6">
-        <v>0.03464907562192589</v>
+        <v>0.03159031379879571</v>
       </c>
       <c r="AW6">
-        <v>0.03572591689340285</v>
+        <v>0.03259554181189459</v>
       </c>
       <c r="AX6">
-        <v>0.03715245015561727</v>
+        <v>0.03395598029380634</v>
       </c>
       <c r="AY6">
-        <v>0.03893598080837566</v>
+        <v>0.03567904993061719</v>
       </c>
       <c r="AZ6">
-        <v>0.04028653167260268</v>
+        <v>0.0369623069387591</v>
       </c>
       <c r="BA6">
-        <v>0.0407932754591802</v>
+        <v>0.03738844077685816</v>
       </c>
       <c r="BB6">
-        <v>0.04099931014372282</v>
+        <v>0.03750912003224043</v>
       </c>
       <c r="BC6">
-        <v>0.04120810900819222</v>
+        <v>0.03763260708898413</v>
       </c>
       <c r="BD6">
-        <v>0.04129157163198149</v>
+        <v>0.03763260708898413</v>
       </c>
       <c r="BE6">
-        <v>0.04129356134492879</v>
+        <v>0.03763260708898413</v>
       </c>
       <c r="BF6">
-        <v>0.04129557890467535</v>
+        <v>0.03763260708898413</v>
       </c>
       <c r="BG6">
-        <v>0.04146230558025915</v>
+        <v>0.03771335801698058</v>
       </c>
       <c r="BH6">
-        <v>0.0417849551517129</v>
+        <v>0.03795249245505922</v>
       </c>
       <c r="BI6">
-        <v>0.04192782014792874</v>
+        <v>0.03800900514329193</v>
       </c>
       <c r="BJ6">
-        <v>0.04196006976007453</v>
+        <v>0.03800900514329193</v>
       </c>
       <c r="BK6">
-        <v>0.04196014861931644</v>
+        <v>0.03800900514329193</v>
       </c>
       <c r="BL6">
-        <v>0.04196315695393676</v>
+        <v>0.03800900514329193</v>
       </c>
       <c r="BM6">
-        <v>0.0420790430848672</v>
+        <v>0.03803811321363261</v>
       </c>
       <c r="BN6">
-        <v>0.04229512204914377</v>
+        <v>0.03816899525720473</v>
       </c>
       <c r="BO6">
-        <v>0.04253621992275764</v>
+        <v>0.03832529103271893</v>
       </c>
       <c r="BP6">
-        <v>0.04288569248350092</v>
+        <v>0.03859167175281964</v>
       </c>
       <c r="BQ6">
-        <v>0.04333518687159484</v>
+        <v>0.03895965274151621</v>
       </c>
       <c r="BR6">
-        <v>0.04380734030908859</v>
+        <v>0.03935065036134346</v>
       </c>
       <c r="BS6">
-        <v>0.04439182943360682</v>
+        <v>0.03985575643406446</v>
       </c>
       <c r="BT6">
-        <v>0.04483878419176802</v>
+        <v>0.04022115771500989</v>
       </c>
       <c r="BU6">
-        <v>0.04501429759711907</v>
+        <v>0.04031083403587386</v>
       </c>
       <c r="BV6">
-        <v>0.04509926174486856</v>
+        <v>0.04031083403587386</v>
       </c>
       <c r="BW6">
-        <v>0.04512654187614597</v>
+        <v>0.04031083403587386</v>
       </c>
       <c r="BX6">
-        <v>0.04514906041554951</v>
+        <v>0.04031083403587386</v>
       </c>
       <c r="BY6">
-        <v>0.04522315771358684</v>
+        <v>0.04031083403587386</v>
       </c>
       <c r="BZ6">
-        <v>0.04541999932837296</v>
+        <v>0.04042217514596105</v>
       </c>
       <c r="CA6">
-        <v>0.04586907665647794</v>
+        <v>0.04078973249305837</v>
       </c>
       <c r="CB6">
-        <v>0.04603803498200262</v>
+        <v>0.04087275028859175</v>
       </c>
       <c r="CC6">
-        <v>0.04618557737809457</v>
+        <v>0.0409340141905978</v>
       </c>
       <c r="CD6">
-        <v>0.04622731869498894</v>
+        <v>0.0409340141905978</v>
       </c>
       <c r="CE6">
-        <v>0.04622757750810208</v>
+        <v>0.0409340141905978</v>
       </c>
       <c r="CF6">
-        <v>0.04635160823481679</v>
+        <v>0.04097139538632726</v>
       </c>
       <c r="CG6">
-        <v>0.04638132116002976</v>
+        <v>0.04097139538632726</v>
       </c>
       <c r="CH6">
-        <v>0.04638480463723749</v>
+        <v>0.04097139538632726</v>
       </c>
       <c r="CI6">
-        <v>0.04641467207644637</v>
+        <v>0.04097139538632726</v>
       </c>
       <c r="CJ6">
-        <v>0.04659958260154852</v>
+        <v>0.04107061712258733</v>
       </c>
       <c r="CK6">
-        <v>0.0467685409270732</v>
+        <v>0.04115363491812072</v>
       </c>
       <c r="CL6">
-        <v>0.04694794697232114</v>
+        <v>0.04124726530850679</v>
       </c>
       <c r="CM6">
-        <v>0.04697208758768172</v>
+        <v>0.04124726530850679</v>
       </c>
       <c r="CN6">
-        <v>0.1060228060235643</v>
+        <v>0.1011412543797</v>
       </c>
       <c r="CO6">
-        <v>0.1173379697238517</v>
+        <v>0.1125463754590526</v>
       </c>
       <c r="CP6">
-        <v>0.2726992256086903</v>
+        <v>0.2702707754776514</v>
       </c>
       <c r="CQ6">
-        <v>0.2727329913147959</v>
+        <v>0.2702707754776514</v>
       </c>
       <c r="CR6">
-        <v>0.2804926961092593</v>
+        <v>0.2780643290683714</v>
       </c>
       <c r="CS6">
-        <v>0.299044186617873</v>
+        <v>0.2968199731970165</v>
       </c>
       <c r="CT6">
-        <v>0.2994207052778999</v>
+        <v>0.297113826830025</v>
       </c>
       <c r="CU6">
-        <v>0.3015178490223515</v>
+        <v>0.2991554586766572</v>
       </c>
       <c r="CV6">
-        <v>0.3022344518433703</v>
+        <v>0.2997947633278805</v>
       </c>
       <c r="CW6">
-        <v>0.3029625448540847</v>
+        <v>0.3004457394951139</v>
       </c>
       <c r="CX6">
-        <v>0.3092546042874226</v>
+        <v>0.3067484868603982</v>
       </c>
       <c r="CY6">
-        <v>0.3274004598067807</v>
+        <v>0.3250920946870492</v>
       </c>
       <c r="CZ6">
-        <v>0.3421217604168474</v>
+        <v>0.3399571048133656</v>
       </c>
       <c r="DA6">
-        <v>0.3447142741481777</v>
+        <v>0.3425019240647306</v>
       </c>
       <c r="DB6">
-        <v>0.3481627547568354</v>
+        <v>0.3459162181792246</v>
       </c>
       <c r="DC6">
-        <v>0.3506452981910785</v>
+        <v>0.3483493316957759</v>
       </c>
       <c r="DD6">
-        <v>0.3599780409438757</v>
+        <v>0.3577407473063318</v>
       </c>
       <c r="DE6">
-        <v>0.3794423824283102</v>
+        <v>0.3774236480827305</v>
       </c>
       <c r="DF6">
-        <v>0.3833207627255809</v>
+        <v>0.3812746261190172</v>
       </c>
       <c r="DG6">
-        <v>0.383525079160169</v>
+        <v>0.3813935600087976</v>
       </c>
       <c r="DH6">
-        <v>0.4113329254236032</v>
+        <v>0.4095516341451603</v>
       </c>
       <c r="DI6">
-        <v>0.4113331864382263</v>
+        <v>0.4095516341451603</v>
       </c>
       <c r="DJ6">
-        <v>0.4285665189817551</v>
+        <v>0.4269683185002062</v>
       </c>
       <c r="DK6">
-        <v>0.4294257428589962</v>
+        <v>0.4277524949059597</v>
       </c>
       <c r="DL6">
-        <v>0.4328278876688813</v>
+        <v>0.4311197219979286</v>
       </c>
       <c r="DM6">
-        <v>0.4387965458107853</v>
+        <v>0.4370939644863851</v>
       </c>
       <c r="DN6">
-        <v>0.4523285199523545</v>
+        <v>0.4507508794214001</v>
       </c>
       <c r="DO6">
-        <v>0.4524166082950212</v>
+        <v>0.4507517510274732</v>
       </c>
       <c r="DP6">
-        <v>0.4577177367546066</v>
+        <v>0.4560479295691321</v>
       </c>
       <c r="DQ6">
-        <v>0.4592624437136908</v>
+        <v>0.4575284066432289</v>
       </c>
       <c r="DR6">
-        <v>0.4654574821495986</v>
+        <v>0.4637326019258384</v>
       </c>
       <c r="DS6">
-        <v>0.4704420740175683</v>
+        <v>0.4687072486220951</v>
       </c>
       <c r="DT6">
-        <v>0.5116940829248977</v>
+        <v>0.5105216473012741</v>
       </c>
       <c r="DU6">
-        <v>0.5158708348142652</v>
+        <v>0.5146757055221702</v>
       </c>
       <c r="DV6">
-        <v>0.5274138045085186</v>
+        <v>0.5263122275945635</v>
       </c>
       <c r="DW6">
-        <v>0.5347874590132075</v>
+        <v>0.5337136386482842</v>
       </c>
       <c r="DX6">
-        <v>0.5350549459661224</v>
+        <v>0.5338967399483124</v>
       </c>
       <c r="DY6">
-        <v>0.5355366243833638</v>
+        <v>0.534297412861287</v>
       </c>
       <c r="DZ6">
-        <v>0.537370147134798</v>
+        <v>0.5360712635204773</v>
       </c>
       <c r="EA6">
-        <v>0.5374791649369104</v>
+        <v>0.5360933948731234</v>
       </c>
       <c r="EB6">
-        <v>0.5433484834814457</v>
+        <v>0.5419667300892154</v>
       </c>
       <c r="EC6">
-        <v>0.5487902756373052</v>
+        <v>0.5474057921364219</v>
       </c>
       <c r="ED6">
-        <v>0.5506082370891516</v>
+        <v>0.5491638359236555</v>
       </c>
       <c r="EE6">
-        <v>0.5546341474825145</v>
+        <v>0.5531646722237429</v>
       </c>
       <c r="EF6">
-        <v>0.5560480229450642</v>
+        <v>0.5545122531536599</v>
       </c>
       <c r="EG6">
-        <v>0.5604925198273397</v>
+        <v>0.5589382816425985</v>
       </c>
       <c r="EH6">
-        <v>0.583773210210688</v>
+        <v>0.582497756997322</v>
       </c>
       <c r="EI6">
-        <v>0.6050141066480655</v>
+        <v>0.6039852484833219</v>
       </c>
       <c r="EJ6">
-        <v>0.6052996150105031</v>
+        <v>0.6041866555881577</v>
       </c>
       <c r="EK6">
-        <v>0.6085605217241292</v>
+        <v>0.6074104157100065</v>
       </c>
       <c r="EL6">
-        <v>0.6341155260472361</v>
+        <v>0.6332800958797319</v>
       </c>
       <c r="EM6">
-        <v>0.6970034143814809</v>
+        <v>0.697071809104222</v>
       </c>
       <c r="EN6">
-        <v>0.7154928698917379</v>
+        <v>0.7157644392621934</v>
       </c>
       <c r="EO6">
-        <v>0.7169603052528689</v>
+        <v>0.7171664253177311</v>
       </c>
       <c r="EP6">
-        <v>0.7212413053394751</v>
+        <v>0.7214263768733186</v>
       </c>
       <c r="EQ6">
-        <v>0.7214384230742539</v>
+        <v>0.7215379984608392</v>
       </c>
       <c r="ER6">
-        <v>0.7228485300369034</v>
+        <v>0.7228817514202802</v>
       </c>
       <c r="ES6">
-        <v>0.7230196218723716</v>
+        <v>0.722966936394609</v>
       </c>
       <c r="ET6">
-        <v>0.7273024737589286</v>
+        <v>0.7272287689733429</v>
       </c>
       <c r="EU6">
-        <v>0.7354303255436406</v>
+        <v>0.7353962792701415</v>
       </c>
       <c r="EV6">
-        <v>0.7395761244338279</v>
+        <v>0.7395188960235715</v>
       </c>
       <c r="EW6">
-        <v>0.7544491820398749</v>
+        <v>0.754538058018148</v>
       </c>
       <c r="EX6">
-        <v>0.7691792166497102</v>
+        <v>0.7694119399752029</v>
       </c>
       <c r="EY6">
-        <v>0.7709516195027634</v>
+        <v>0.7711237062048587</v>
       </c>
       <c r="EZ6">
-        <v>0.7709628679574654</v>
+        <v>0.7711237062048587</v>
       </c>
       <c r="FA6">
-        <v>0.7710320558156327</v>
+        <v>0.7711237062048587</v>
       </c>
       <c r="FB6">
-        <v>0.7818072275302232</v>
+        <v>0.7819803137023301</v>
       </c>
       <c r="FC6">
-        <v>0.8036921769505414</v>
+        <v>0.8041220219507105</v>
       </c>
       <c r="FD6">
-        <v>0.8123984307199328</v>
+        <v>0.8128770619753333</v>
       </c>
       <c r="FE6">
-        <v>0.8165640581095949</v>
+        <v>0.8170198201411514</v>
       </c>
       <c r="FF6">
-        <v>0.8202317246124469</v>
+        <v>0.8206567591153967</v>
       </c>
       <c r="FG6">
-        <v>0.8349035817238232</v>
+        <v>0.8354715454767577</v>
       </c>
       <c r="FH6">
-        <v>0.8429602135104216</v>
+        <v>0.8435667118549398</v>
       </c>
       <c r="FI6">
-        <v>0.8476956198849916</v>
+        <v>0.8482882406695281</v>
       </c>
       <c r="FJ6">
-        <v>0.8487787686563015</v>
+        <v>0.8492998757209123</v>
       </c>
       <c r="FK6">
-        <v>0.8490470409491956</v>
+        <v>0.8494837747543447</v>
       </c>
       <c r="FL6">
-        <v>0.8491472273325419</v>
+        <v>0.8494969353198888</v>
       </c>
       <c r="FM6">
-        <v>0.8492098307008836</v>
+        <v>0.8494969353198888</v>
       </c>
       <c r="FN6">
-        <v>0.8492176152186774</v>
+        <v>0.8494969353198888</v>
       </c>
       <c r="FO6">
-        <v>0.8494491904925435</v>
+        <v>0.8496435582198144</v>
       </c>
       <c r="FP6">
-        <v>0.8502394070716125</v>
+        <v>0.8503576383254394</v>
       </c>
       <c r="FQ6">
-        <v>0.8530358992975399</v>
+        <v>0.853109655049474</v>
       </c>
       <c r="FR6">
-        <v>0.8547619653518204</v>
+        <v>0.8547743532408238</v>
       </c>
       <c r="FS6">
-        <v>0.8630175391331493</v>
+        <v>0.8630716011109661</v>
       </c>
       <c r="FT6">
-        <v>0.8660088870539153</v>
+        <v>0.8660215485413019</v>
       </c>
       <c r="FU6">
-        <v>0.8686014007852456</v>
+        <v>0.8685663677926669</v>
       </c>
       <c r="FV6">
-        <v>0.8717525229017796</v>
+        <v>0.8716786108102228</v>
       </c>
       <c r="FW6">
-        <v>0.8743584912327536</v>
+        <v>0.8742370969878364</v>
       </c>
       <c r="FX6">
-        <v>0.8759595046903464</v>
+        <v>0.8757747691314863</v>
       </c>
       <c r="FY6">
-        <v>0.8762172721035187</v>
+        <v>0.8759479975080274</v>
       </c>
       <c r="FZ6">
-        <v>0.8866858488262302</v>
+        <v>0.8864931716478993</v>
       </c>
       <c r="GA6">
-        <v>0.8980951740240235</v>
+        <v>0.8979939401843259</v>
       </c>
       <c r="GB6">
-        <v>0.9126591856382564</v>
+        <v>0.9126991791422165</v>
       </c>
       <c r="GC6">
-        <v>0.9261744202802691</v>
+        <v>0.92633909041217</v>
       </c>
       <c r="GD6">
-        <v>0.9270195110978846</v>
+        <v>0.9271089107249377</v>
       </c>
       <c r="GE6">
-        <v>0.9271087289055214</v>
+        <v>0.9271109296200314</v>
       </c>
       <c r="GF6">
-        <v>0.9271093258807056</v>
+        <v>0.9271109296200314</v>
       </c>
       <c r="GG6">
-        <v>0.9338762713014648</v>
+        <v>0.9338960571332535</v>
       </c>
       <c r="GH6">
-        <v>0.9423406270772635</v>
+        <v>0.9424053817798154</v>
       </c>
       <c r="GI6">
-        <v>0.9577182156699466</v>
+        <v>0.957937036748325</v>
       </c>
       <c r="GJ6">
-        <v>0.9710172713176853</v>
+        <v>0.9713573575102384</v>
       </c>
       <c r="GK6">
-        <v>0.9751940232070528</v>
+        <v>0.9755114157311345</v>
       </c>
       <c r="GL6">
-        <v>0.9759358920474025</v>
+        <v>0.9761763851239281</v>
       </c>
       <c r="GM6">
-        <v>0.9790133779658869</v>
+        <v>0.9792138298929579</v>
       </c>
       <c r="GN6">
-        <v>0.9820537108853555</v>
+        <v>0.9822135353526874</v>
       </c>
       <c r="GO6">
-        <v>0.9876721241365367</v>
+        <v>0.9878320057470488</v>
       </c>
       <c r="GP6">
-        <v>0.9959128379182592</v>
+        <v>0.9961141591124082</v>
       </c>
       <c r="GQ6">
-        <v>0.9965321566418549</v>
+        <v>0.9966546444289911</v>
       </c>
       <c r="GR6">
-        <v>0.9971010901767852</v>
+        <v>0.9971439494298644</v>
       </c>
       <c r="GS6">
         <v>0.9999999999999998</v>
@@ -10567,19 +10567,19 @@
         <v>0.5</v>
       </c>
       <c r="C2">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D2">
         <v>124</v>
       </c>
       <c r="E2">
-        <v>0.04615289647583285</v>
+        <v>0.002863527532619996</v>
       </c>
       <c r="F2">
-        <v>0.5065399864906953</v>
+        <v>0.5010936109309378</v>
       </c>
       <c r="G2">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H2">
         <v>4</v>
@@ -10608,19 +10608,19 @@
         <v>0.5</v>
       </c>
       <c r="C3">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D3">
         <v>143</v>
       </c>
       <c r="E3">
-        <v>0.03959320895107479</v>
+        <v>0.04302485295962423</v>
       </c>
       <c r="F3">
-        <v>0.5080497496536239</v>
+        <v>0.50688946522042</v>
       </c>
       <c r="G3">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H3">
         <v>4</v>
@@ -10649,19 +10649,19 @@
         <v>0.5</v>
       </c>
       <c r="C4">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D4">
         <v>131</v>
       </c>
       <c r="E4">
-        <v>0.06818682133623107</v>
+        <v>0.06078781723823504</v>
       </c>
       <c r="F4">
-        <v>0.5061851637961855</v>
+        <v>0.5033593050294171</v>
       </c>
       <c r="G4">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H4">
         <v>4</v>
@@ -10690,19 +10690,19 @@
         <v>0.5</v>
       </c>
       <c r="C5">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D5">
         <v>131</v>
       </c>
       <c r="E5">
-        <v>0.02313440193116293</v>
+        <v>0.02220069080947303</v>
       </c>
       <c r="F5">
-        <v>0.5028205920560749</v>
+        <v>0.5024318826061759</v>
       </c>
       <c r="G5">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H5">
         <v>4</v>
@@ -10731,19 +10731,19 @@
         <v>0.5</v>
       </c>
       <c r="C6">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D6">
         <v>123</v>
       </c>
       <c r="E6">
-        <v>0.04659958260154852</v>
+        <v>0.04124726530850679</v>
       </c>
       <c r="F6">
-        <v>0.5116940829248977</v>
+        <v>0.5105216473012741</v>
       </c>
       <c r="G6">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H6">
         <v>4</v>
@@ -10826,19 +10826,19 @@
         <v>0.7</v>
       </c>
       <c r="C2">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E2">
-        <v>0.04615289647583285</v>
+        <v>0.002863527532619996</v>
       </c>
       <c r="F2">
-        <v>0.7016331705557574</v>
+        <v>0.7027407804861078</v>
       </c>
       <c r="G2">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="H2">
         <v>4</v>
@@ -10867,19 +10867,19 @@
         <v>0.7</v>
       </c>
       <c r="C3">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D3">
         <v>161</v>
       </c>
       <c r="E3">
-        <v>0.03959320895107479</v>
+        <v>0.04302485295962423</v>
       </c>
       <c r="F3">
-        <v>0.7125728485304073</v>
+        <v>0.7120613920831376</v>
       </c>
       <c r="G3">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H3">
         <v>4</v>
@@ -10908,19 +10908,19 @@
         <v>0.7</v>
       </c>
       <c r="C4">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D4">
         <v>151</v>
       </c>
       <c r="E4">
-        <v>0.06818682133623107</v>
+        <v>0.06078781723823504</v>
       </c>
       <c r="F4">
-        <v>0.7144244619815096</v>
+        <v>0.7137421783381285</v>
       </c>
       <c r="G4">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H4">
         <v>4</v>
@@ -10949,19 +10949,19 @@
         <v>0.7</v>
       </c>
       <c r="C5">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D5">
         <v>150</v>
       </c>
       <c r="E5">
-        <v>0.02313440193116293</v>
+        <v>0.02220069080947303</v>
       </c>
       <c r="F5">
-        <v>0.7102876433938399</v>
+        <v>0.7102045879581496</v>
       </c>
       <c r="G5">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H5">
         <v>4</v>
@@ -10990,19 +10990,19 @@
         <v>0.7</v>
       </c>
       <c r="C6">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D6">
         <v>143</v>
       </c>
       <c r="E6">
-        <v>0.04659958260154852</v>
+        <v>0.04124726530850679</v>
       </c>
       <c r="F6">
-        <v>0.7154928698917379</v>
+        <v>0.7157644392621934</v>
       </c>
       <c r="G6">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H6">
         <v>4</v>
@@ -11085,19 +11085,19 @@
         <v>0.8</v>
       </c>
       <c r="C2">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D2">
         <v>159</v>
       </c>
       <c r="E2">
-        <v>0.04615289647583285</v>
+        <v>0.002863527532619996</v>
       </c>
       <c r="F2">
-        <v>0.8009578989929955</v>
+        <v>0.8097637655019432</v>
       </c>
       <c r="G2">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H2">
         <v>4</v>
@@ -11126,19 +11126,19 @@
         <v>0.8</v>
       </c>
       <c r="C3">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D3">
         <v>169</v>
       </c>
       <c r="E3">
-        <v>0.03959320895107479</v>
+        <v>0.04302485295962423</v>
       </c>
       <c r="F3">
-        <v>0.8063070019645078</v>
+        <v>0.8061008307667723</v>
       </c>
       <c r="G3">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H3">
         <v>4</v>
@@ -11167,19 +11167,19 @@
         <v>0.8</v>
       </c>
       <c r="C4">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D4">
         <v>158</v>
       </c>
       <c r="E4">
-        <v>0.06818682133623107</v>
+        <v>0.06078781723823504</v>
       </c>
       <c r="F4">
-        <v>0.817797586559978</v>
+        <v>0.8185236192991436</v>
       </c>
       <c r="G4">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H4">
         <v>4</v>
@@ -11208,19 +11208,19 @@
         <v>0.8</v>
       </c>
       <c r="C5">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D5">
         <v>157</v>
       </c>
       <c r="E5">
-        <v>0.02313440193116293</v>
+        <v>0.02220069080947303</v>
       </c>
       <c r="F5">
-        <v>0.8038798236828415</v>
+        <v>0.8039581963924787</v>
       </c>
       <c r="G5">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H5">
         <v>4</v>
@@ -11249,19 +11249,19 @@
         <v>0.8</v>
       </c>
       <c r="C6">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D6">
         <v>158</v>
       </c>
       <c r="E6">
-        <v>0.04659958260154852</v>
+        <v>0.04124726530850679</v>
       </c>
       <c r="F6">
-        <v>0.8036921769505414</v>
+        <v>0.8041220219507105</v>
       </c>
       <c r="G6">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H6">
         <v>4</v>
@@ -11344,19 +11344,19 @@
         <v>0.9</v>
       </c>
       <c r="C2">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D2">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E2">
-        <v>0.04615289647583285</v>
+        <v>0.002863527532619996</v>
       </c>
       <c r="F2">
-        <v>0.9044611855749187</v>
+        <v>0.9015548460517031</v>
       </c>
       <c r="G2">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="H2">
         <v>4</v>
@@ -11385,19 +11385,19 @@
         <v>0.9</v>
       </c>
       <c r="C3">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D3">
         <v>189</v>
       </c>
       <c r="E3">
-        <v>0.03959320895107479</v>
+        <v>0.04302485295962423</v>
       </c>
       <c r="F3">
-        <v>0.9158659495449106</v>
+        <v>0.9157132209773955</v>
       </c>
       <c r="G3">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="H3">
         <v>4</v>
@@ -11426,19 +11426,19 @@
         <v>0.9</v>
       </c>
       <c r="C4">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D4">
         <v>183</v>
       </c>
       <c r="E4">
-        <v>0.06818682133623107</v>
+        <v>0.06078781723823504</v>
       </c>
       <c r="F4">
-        <v>0.9085260043945209</v>
+        <v>0.9084484761194894</v>
       </c>
       <c r="G4">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="H4">
         <v>4</v>
@@ -11467,19 +11467,19 @@
         <v>0.9</v>
       </c>
       <c r="C5">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D5">
         <v>181</v>
       </c>
       <c r="E5">
-        <v>0.02313440193116293</v>
+        <v>0.02220069080947303</v>
       </c>
       <c r="F5">
-        <v>0.9045609589423698</v>
+        <v>0.9045640512665294</v>
       </c>
       <c r="G5">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H5">
         <v>4</v>
@@ -11508,19 +11508,19 @@
         <v>0.9</v>
       </c>
       <c r="C6">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D6">
         <v>183</v>
       </c>
       <c r="E6">
-        <v>0.04659958260154852</v>
+        <v>0.04124726530850679</v>
       </c>
       <c r="F6">
-        <v>0.9126591856382564</v>
+        <v>0.9126991791422165</v>
       </c>
       <c r="G6">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="H6">
         <v>4</v>

--- a/on_trucks/Processed_Stand_Alone/4_455-55R22.xlsx
+++ b/on_trucks/Processed_Stand_Alone/4_455-55R22.xlsx
@@ -2030,10 +2030,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>7.873759801109503E-05</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>1.992983774179788E-05</v>
+        <v>0</v>
       </c>
       <c r="P2">
         <v>0</v>
@@ -2075,13 +2075,13 @@
         <v>0</v>
       </c>
       <c r="AC2">
-        <v>8.566914608796946E-05</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>7.691929871445229E-06</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>8.258143769176403E-05</v>
+        <v>0</v>
       </c>
       <c r="AF2">
         <v>0</v>
@@ -2120,19 +2120,19 @@
         <v>0</v>
       </c>
       <c r="AR2">
-        <v>0.0001128685048994846</v>
+        <v>0</v>
       </c>
       <c r="AS2">
-        <v>0.0003403384591569986</v>
+        <v>0</v>
       </c>
       <c r="AT2">
-        <v>0.0003335360346844599</v>
+        <v>0</v>
       </c>
       <c r="AU2">
-        <v>0.000223617958192585</v>
+        <v>0</v>
       </c>
       <c r="AV2">
-        <v>3.398707881665618E-05</v>
+        <v>0</v>
       </c>
       <c r="AW2">
         <v>0</v>
@@ -2168,16 +2168,16 @@
         <v>0</v>
       </c>
       <c r="BH2">
-        <v>9.702524542906867E-05</v>
+        <v>0</v>
       </c>
       <c r="BI2">
-        <v>0.0002528751382892118</v>
+        <v>0</v>
       </c>
       <c r="BJ2">
-        <v>0.0003174334940975089</v>
+        <v>0</v>
       </c>
       <c r="BK2">
-        <v>2.719981832612138E-06</v>
+        <v>0</v>
       </c>
       <c r="BL2">
         <v>0</v>
@@ -2216,19 +2216,19 @@
         <v>0</v>
       </c>
       <c r="BX2">
-        <v>0.000101437389798927</v>
+        <v>0</v>
       </c>
       <c r="BY2">
-        <v>0.0003369352939836531</v>
+        <v>0</v>
       </c>
       <c r="BZ2">
-        <v>0.0003121007122141753</v>
+        <v>0</v>
       </c>
       <c r="CA2">
-        <v>0.0001180821576211668</v>
+        <v>0</v>
       </c>
       <c r="CB2">
-        <v>5.960134199416442E-06</v>
+        <v>0</v>
       </c>
       <c r="CC2">
         <v>0</v>
@@ -2270,58 +2270,58 @@
         <v>0</v>
       </c>
       <c r="CP2">
-        <v>0.02672050461410833</v>
+        <v>0</v>
       </c>
       <c r="CQ2">
-        <v>0.06883244843477895</v>
+        <v>0.1980292160279785</v>
       </c>
       <c r="CR2">
-        <v>0.1066887321383652</v>
+        <v>0.4093851607745199</v>
       </c>
       <c r="CS2">
-        <v>0.001048875633164845</v>
+        <v>0</v>
       </c>
       <c r="CT2">
-        <v>0.004094854703832518</v>
+        <v>0</v>
       </c>
       <c r="CU2">
-        <v>0.03178680134066827</v>
+        <v>0</v>
       </c>
       <c r="CV2">
-        <v>0.001001640978009414</v>
+        <v>0</v>
       </c>
       <c r="CW2">
-        <v>0.02774734054821712</v>
+        <v>0</v>
       </c>
       <c r="CX2">
-        <v>0.003896331412676507</v>
+        <v>0</v>
       </c>
       <c r="CY2">
         <v>0</v>
       </c>
       <c r="CZ2">
-        <v>0.007339861497815132</v>
+        <v>0</v>
       </c>
       <c r="DA2">
-        <v>0.0170621658469449</v>
+        <v>0</v>
       </c>
       <c r="DB2">
-        <v>0.02046887732426361</v>
+        <v>0</v>
       </c>
       <c r="DC2">
-        <v>0.0190492506023679</v>
+        <v>0</v>
       </c>
       <c r="DD2">
-        <v>0.01979030865896274</v>
+        <v>0</v>
       </c>
       <c r="DE2">
-        <v>0.04834934706563845</v>
+        <v>0.08366972751844634</v>
       </c>
       <c r="DF2">
-        <v>0.01499755753110031</v>
+        <v>0</v>
       </c>
       <c r="DG2">
-        <v>0.04515267971480316</v>
+        <v>0.06582236951398882</v>
       </c>
       <c r="DH2">
         <v>0</v>
@@ -2330,13 +2330,13 @@
         <v>0</v>
       </c>
       <c r="DJ2">
-        <v>0.00843440231399801</v>
+        <v>0</v>
       </c>
       <c r="DK2">
-        <v>0.001757435668024349</v>
+        <v>0</v>
       </c>
       <c r="DL2">
-        <v>0.005779383210047595</v>
+        <v>0</v>
       </c>
       <c r="DM2">
         <v>0</v>
@@ -2348,28 +2348,28 @@
         <v>0</v>
       </c>
       <c r="DP2">
-        <v>0.003034472710050353</v>
+        <v>0</v>
       </c>
       <c r="DQ2">
-        <v>0.002350075906120703</v>
+        <v>0</v>
       </c>
       <c r="DR2">
         <v>0</v>
       </c>
       <c r="DS2">
-        <v>0.000635593021272777</v>
+        <v>0</v>
       </c>
       <c r="DT2">
         <v>0</v>
       </c>
       <c r="DU2">
-        <v>0.01221114252308667</v>
+        <v>0</v>
       </c>
       <c r="DV2">
-        <v>0.02017998853286584</v>
+        <v>0</v>
       </c>
       <c r="DW2">
-        <v>0.001797541758215508</v>
+        <v>0</v>
       </c>
       <c r="DX2">
         <v>0</v>
@@ -2390,76 +2390,76 @@
         <v>0</v>
       </c>
       <c r="ED2">
-        <v>0.009011530832412306</v>
+        <v>0</v>
       </c>
       <c r="EE2">
         <v>0</v>
       </c>
       <c r="EF2">
-        <v>0.006111351266017128</v>
+        <v>0</v>
       </c>
       <c r="EG2">
-        <v>0.002404745852240029</v>
+        <v>0</v>
       </c>
       <c r="EH2">
-        <v>0.002671195396631659</v>
+        <v>0</v>
       </c>
       <c r="EI2">
-        <v>0.0005968623731765575</v>
+        <v>0</v>
       </c>
       <c r="EJ2">
-        <v>0.00703226701558643</v>
+        <v>0</v>
       </c>
       <c r="EK2">
-        <v>0.01018651772191204</v>
+        <v>0</v>
       </c>
       <c r="EL2">
         <v>0</v>
       </c>
       <c r="EM2">
-        <v>0.001421444676556389</v>
+        <v>0</v>
       </c>
       <c r="EN2">
-        <v>0.02600323907503481</v>
+        <v>0</v>
       </c>
       <c r="EO2">
-        <v>0.06910365740170406</v>
+        <v>0.1995434065881776</v>
       </c>
       <c r="EP2">
-        <v>0.03879542265365005</v>
+        <v>0.03032907908227784</v>
       </c>
       <c r="EQ2">
-        <v>0.006331404999166903</v>
+        <v>0</v>
       </c>
       <c r="ER2">
-        <v>0.003423979691582879</v>
+        <v>0</v>
       </c>
       <c r="ES2">
         <v>0</v>
       </c>
       <c r="ET2">
-        <v>0.001352837422674417</v>
+        <v>0</v>
       </c>
       <c r="EU2">
-        <v>2.293460375158827E-05</v>
+        <v>0</v>
       </c>
       <c r="EV2">
-        <v>0.00344964254842999</v>
+        <v>0</v>
       </c>
       <c r="EW2">
-        <v>0.02081280447761619</v>
+        <v>0</v>
       </c>
       <c r="EX2">
-        <v>0.007477787104432135</v>
+        <v>0</v>
       </c>
       <c r="EY2">
-        <v>0.01729666648955556</v>
+        <v>0</v>
       </c>
       <c r="EZ2">
-        <v>0.03573117592444978</v>
+        <v>0.01322104049461082</v>
       </c>
       <c r="FA2">
-        <v>0.006922074264238713</v>
+        <v>0</v>
       </c>
       <c r="FB2">
         <v>0</v>
@@ -2468,31 +2468,31 @@
         <v>0</v>
       </c>
       <c r="FD2">
-        <v>0.01053308248910409</v>
+        <v>0</v>
       </c>
       <c r="FE2">
-        <v>0.02399388164665041</v>
+        <v>0</v>
       </c>
       <c r="FF2">
-        <v>0.005842180476127719</v>
+        <v>0</v>
       </c>
       <c r="FG2">
-        <v>0.002708494771608289</v>
+        <v>0</v>
       </c>
       <c r="FH2">
         <v>0</v>
       </c>
       <c r="FI2">
-        <v>0.008207248161153591</v>
+        <v>0</v>
       </c>
       <c r="FJ2">
-        <v>0.00559461123811738</v>
+        <v>0</v>
       </c>
       <c r="FK2">
-        <v>0.00863323198651769</v>
+        <v>0</v>
       </c>
       <c r="FL2">
-        <v>0.003663910762930695</v>
+        <v>0</v>
       </c>
       <c r="FM2">
         <v>0</v>
@@ -2510,19 +2510,19 @@
         <v>0</v>
       </c>
       <c r="FR2">
-        <v>0.002427799470274617</v>
+        <v>0</v>
       </c>
       <c r="FS2">
-        <v>0.005678702411047738</v>
+        <v>0</v>
       </c>
       <c r="FT2">
-        <v>0.0006593475139604363</v>
+        <v>0</v>
       </c>
       <c r="FU2">
-        <v>0.01035635891550106</v>
+        <v>0</v>
       </c>
       <c r="FV2">
-        <v>0.005369611404625369</v>
+        <v>0</v>
       </c>
       <c r="FW2">
         <v>0</v>
@@ -2531,28 +2531,28 @@
         <v>0</v>
       </c>
       <c r="FY2">
-        <v>0.004237520318490887</v>
+        <v>0</v>
       </c>
       <c r="FZ2">
-        <v>0.004418181472754244</v>
+        <v>0</v>
       </c>
       <c r="GA2">
         <v>0</v>
       </c>
       <c r="GB2">
-        <v>0.005732978438270919</v>
+        <v>0</v>
       </c>
       <c r="GC2">
-        <v>0.008124516002671004</v>
+        <v>0</v>
       </c>
       <c r="GD2">
-        <v>0.00747019936949764</v>
+        <v>0</v>
       </c>
       <c r="GE2">
-        <v>0.009644388133477209</v>
+        <v>0</v>
       </c>
       <c r="GF2">
-        <v>0.001231439867169684</v>
+        <v>0</v>
       </c>
       <c r="GG2">
         <v>0</v>
@@ -2561,37 +2561,37 @@
         <v>0</v>
       </c>
       <c r="GI2">
-        <v>0.006825938753965853</v>
+        <v>0</v>
       </c>
       <c r="GJ2">
-        <v>0.01396644121843499</v>
+        <v>0</v>
       </c>
       <c r="GK2">
-        <v>0.01500416075599107</v>
+        <v>0</v>
       </c>
       <c r="GL2">
-        <v>0.0129349182353432</v>
+        <v>0</v>
       </c>
       <c r="GM2">
-        <v>0.004220056580761788</v>
+        <v>0</v>
       </c>
       <c r="GN2">
-        <v>0.0004866006946379139</v>
+        <v>0</v>
       </c>
       <c r="GO2">
-        <v>0.003053223663070005</v>
+        <v>0</v>
       </c>
       <c r="GP2">
-        <v>0.002314579092065452</v>
+        <v>0</v>
       </c>
       <c r="GQ2">
-        <v>0.001855785579184374</v>
+        <v>0</v>
       </c>
       <c r="GR2">
-        <v>0.005395471737874486</v>
+        <v>0</v>
       </c>
       <c r="GS2">
-        <v>0.0001844558258811654</v>
+        <v>0</v>
       </c>
       <c r="GT2">
         <v>0</v>
@@ -2767,46 +2767,46 @@
         <v>258</v>
       </c>
       <c r="B3">
-        <v>0.00101103349321049</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>0.001933986223310638</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>0.001366159753902039</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>0.001823862786054428</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0.002248632964999503</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>0.001586922387829179</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>0.0006359782464835422</v>
+        <v>0</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.0009365480557231741</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0.001341236210833435</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0.0012007417165968</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0.001138555637229497</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>0.0004419387405178996</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>7.222833868411472E-05</v>
+        <v>0</v>
       </c>
       <c r="P3">
         <v>0</v>
@@ -2818,7 +2818,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.000140819733511792</v>
+        <v>0</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -2833,100 +2833,100 @@
         <v>0</v>
       </c>
       <c r="X3">
-        <v>3.474577722608707E-05</v>
+        <v>0</v>
       </c>
       <c r="Y3">
-        <v>0.000875760512280817</v>
+        <v>0</v>
       </c>
       <c r="Z3">
-        <v>0.001368244319260304</v>
+        <v>0</v>
       </c>
       <c r="AA3">
-        <v>0.001093292542707259</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>0.0002896524087041051</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>3.774891744552882E-05</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>0.0009840887607210644</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>0.0007224615838817625</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>0.0003353419126289396</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>0.0002142884901867676</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>0.0003516099222500344</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>0.001228423823088545</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>0.0008388140609551994</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>0.0001070493421419801</v>
+        <v>0</v>
       </c>
       <c r="AL3">
-        <v>0.000571013252975407</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>0.0003400822013772528</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>0.0005478093103427734</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>3.535383413700459E-06</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>0.0001194587530803465</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
-        <v>0.0002801421048749158</v>
+        <v>0</v>
       </c>
       <c r="AR3">
         <v>0</v>
       </c>
       <c r="AS3">
-        <v>1.256256643595335E-05</v>
+        <v>0</v>
       </c>
       <c r="AT3">
         <v>0</v>
       </c>
       <c r="AU3">
-        <v>8.347378514345694E-06</v>
+        <v>0</v>
       </c>
       <c r="AV3">
-        <v>7.282871000515806E-05</v>
+        <v>0</v>
       </c>
       <c r="AW3">
-        <v>0.0001164413542809472</v>
+        <v>0</v>
       </c>
       <c r="AX3">
-        <v>8.610907733843423E-05</v>
+        <v>0</v>
       </c>
       <c r="AY3">
-        <v>9.07593118975418E-06</v>
+        <v>0</v>
       </c>
       <c r="AZ3">
-        <v>5.367474126698751E-05</v>
+        <v>0</v>
       </c>
       <c r="BA3">
-        <v>0.0002563427704591809</v>
+        <v>0</v>
       </c>
       <c r="BB3">
-        <v>0.0005010039372336637</v>
+        <v>0</v>
       </c>
       <c r="BC3">
-        <v>6.799023885217031E-05</v>
+        <v>0</v>
       </c>
       <c r="BD3">
         <v>0</v>
@@ -2935,436 +2935,436 @@
         <v>0</v>
       </c>
       <c r="BF3">
-        <v>9.540351065308333E-05</v>
+        <v>0</v>
       </c>
       <c r="BG3">
-        <v>0.0001585765143211458</v>
+        <v>0</v>
       </c>
       <c r="BH3">
-        <v>0.0001015017747263791</v>
+        <v>0</v>
       </c>
       <c r="BI3">
         <v>0</v>
       </c>
       <c r="BJ3">
-        <v>0.0003482238968075106</v>
+        <v>0</v>
       </c>
       <c r="BK3">
-        <v>0.0005889527677377233</v>
+        <v>0</v>
       </c>
       <c r="BL3">
-        <v>0.000416531689344964</v>
+        <v>0</v>
       </c>
       <c r="BM3">
-        <v>0.0005350140103630837</v>
+        <v>0</v>
       </c>
       <c r="BN3">
-        <v>0.0003863428733935436</v>
+        <v>0</v>
       </c>
       <c r="BO3">
-        <v>0.0002473425523893595</v>
+        <v>0</v>
       </c>
       <c r="BP3">
-        <v>0.0003549509004786101</v>
+        <v>0</v>
       </c>
       <c r="BQ3">
-        <v>0.0001567166116312824</v>
+        <v>0</v>
       </c>
       <c r="BR3">
-        <v>4.317209097350227E-07</v>
+        <v>0</v>
       </c>
       <c r="BS3">
-        <v>2.218401254604074E-05</v>
+        <v>0</v>
       </c>
       <c r="BT3">
-        <v>0.0003938230145739434</v>
+        <v>0</v>
       </c>
       <c r="BU3">
-        <v>0.0001559522374676766</v>
+        <v>0</v>
       </c>
       <c r="BV3">
-        <v>2.445037027191168E-05</v>
+        <v>0</v>
       </c>
       <c r="BW3">
-        <v>0.0002048006898452072</v>
+        <v>0</v>
       </c>
       <c r="BX3">
-        <v>0.0002160882360344226</v>
+        <v>0</v>
       </c>
       <c r="BY3">
-        <v>0.0001937762040947458</v>
+        <v>0</v>
       </c>
       <c r="BZ3">
-        <v>0.0003237321551260227</v>
+        <v>0</v>
       </c>
       <c r="CA3">
-        <v>0.0001282875342095467</v>
+        <v>0</v>
       </c>
       <c r="CB3">
-        <v>0.0001687149038694192</v>
+        <v>0</v>
       </c>
       <c r="CC3">
-        <v>0.0001268419391361302</v>
+        <v>0</v>
       </c>
       <c r="CD3">
-        <v>0.0001063934615474742</v>
+        <v>0</v>
       </c>
       <c r="CE3">
-        <v>8.735573232631339E-05</v>
+        <v>0</v>
       </c>
       <c r="CF3">
-        <v>7.957100437862496E-05</v>
+        <v>0</v>
       </c>
       <c r="CG3">
-        <v>0.0002996808057920596</v>
+        <v>0</v>
       </c>
       <c r="CH3">
-        <v>0.0002264105767560443</v>
+        <v>0</v>
       </c>
       <c r="CI3">
-        <v>0.0004382403220021418</v>
+        <v>0</v>
       </c>
       <c r="CJ3">
-        <v>0.0001813396622193499</v>
+        <v>0</v>
       </c>
       <c r="CK3">
         <v>0</v>
       </c>
       <c r="CL3">
-        <v>7.457718773732299E-05</v>
+        <v>0</v>
       </c>
       <c r="CM3">
-        <v>0.0009592504230794681</v>
+        <v>0</v>
       </c>
       <c r="CN3">
-        <v>0.00202551304798964</v>
+        <v>0</v>
       </c>
       <c r="CO3">
-        <v>0.00343857403362109</v>
+        <v>0</v>
       </c>
       <c r="CP3">
-        <v>0.002352722208237272</v>
+        <v>0</v>
       </c>
       <c r="CQ3">
-        <v>0.00448579480484433</v>
+        <v>0</v>
       </c>
       <c r="CR3">
-        <v>0.04274756039583957</v>
+        <v>0.1415573148957143</v>
       </c>
       <c r="CS3">
-        <v>0.001963649984709847</v>
+        <v>0</v>
       </c>
       <c r="CT3">
-        <v>0.0234863756669906</v>
+        <v>0</v>
       </c>
       <c r="CU3">
-        <v>0.0004874683761256145</v>
+        <v>0</v>
       </c>
       <c r="CV3">
-        <v>0.06879466226246189</v>
+        <v>0.434181956079587</v>
       </c>
       <c r="CW3">
-        <v>0.01165361986850563</v>
+        <v>0</v>
       </c>
       <c r="CX3">
-        <v>0.002828330451668376</v>
+        <v>0</v>
       </c>
       <c r="CY3">
-        <v>0.0004369666064949415</v>
+        <v>0</v>
       </c>
       <c r="CZ3">
-        <v>0.0008832974805517914</v>
+        <v>0</v>
       </c>
       <c r="DA3">
-        <v>0.0003482238968075106</v>
+        <v>0</v>
       </c>
       <c r="DB3">
-        <v>0.02799608867134223</v>
+        <v>0</v>
       </c>
       <c r="DC3">
-        <v>0.05566323039411276</v>
+        <v>0.2866576534380654</v>
       </c>
       <c r="DD3">
-        <v>0.001878527650598064</v>
+        <v>0</v>
       </c>
       <c r="DE3">
-        <v>0.009257149834112034</v>
+        <v>0</v>
       </c>
       <c r="DF3">
-        <v>0.008626341967619576</v>
+        <v>0</v>
       </c>
       <c r="DG3">
-        <v>0.03695708608959149</v>
+        <v>0.07650457026305371</v>
       </c>
       <c r="DH3">
-        <v>0.000907077339441353</v>
+        <v>0</v>
       </c>
       <c r="DI3">
-        <v>0.002356451831857466</v>
+        <v>0</v>
       </c>
       <c r="DJ3">
-        <v>0.0001752536508272933</v>
+        <v>0</v>
       </c>
       <c r="DK3">
-        <v>0.001644968911917426</v>
+        <v>0</v>
       </c>
       <c r="DL3">
         <v>0</v>
       </c>
       <c r="DM3">
-        <v>0.006973240393857895</v>
+        <v>0</v>
       </c>
       <c r="DN3">
         <v>0</v>
       </c>
       <c r="DO3">
-        <v>0.002315584713669116</v>
+        <v>0</v>
       </c>
       <c r="DP3">
-        <v>0.003071040072135517</v>
+        <v>0</v>
       </c>
       <c r="DQ3">
-        <v>0.002214959317501183</v>
+        <v>0</v>
       </c>
       <c r="DR3">
-        <v>0.006534483346712462</v>
+        <v>0</v>
       </c>
       <c r="DS3">
-        <v>0.008788579337638953</v>
+        <v>0</v>
       </c>
       <c r="DT3">
-        <v>0.01784279169422793</v>
+        <v>0</v>
       </c>
       <c r="DU3">
-        <v>0.01129328742544817</v>
+        <v>0</v>
       </c>
       <c r="DV3">
-        <v>3.725964917266046E-05</v>
+        <v>0</v>
       </c>
       <c r="DW3">
-        <v>0.00208048845462675</v>
+        <v>0</v>
       </c>
       <c r="DX3">
-        <v>0.0008053502079291625</v>
+        <v>0</v>
       </c>
       <c r="DY3">
-        <v>1.54022570948262E-05</v>
+        <v>0</v>
       </c>
       <c r="DZ3">
-        <v>0.0002254668185104552</v>
+        <v>0</v>
       </c>
       <c r="EA3">
-        <v>0.0009253428378945996</v>
+        <v>0</v>
       </c>
       <c r="EB3">
         <v>0</v>
       </c>
       <c r="EC3">
-        <v>0.002006510326429162</v>
+        <v>0</v>
       </c>
       <c r="ED3">
-        <v>0.001012834074010971</v>
+        <v>0</v>
       </c>
       <c r="EE3">
-        <v>0.001596150930288232</v>
+        <v>0</v>
       </c>
       <c r="EF3">
-        <v>0.008222657365448898</v>
+        <v>0</v>
       </c>
       <c r="EG3">
         <v>0</v>
       </c>
       <c r="EH3">
-        <v>0.0009424968129421385</v>
+        <v>0</v>
       </c>
       <c r="EI3">
-        <v>0.006170137094283578</v>
+        <v>0</v>
       </c>
       <c r="EJ3">
-        <v>0.01292243933304663</v>
+        <v>0</v>
       </c>
       <c r="EK3">
-        <v>0.01651357797920493</v>
+        <v>0</v>
       </c>
       <c r="EL3">
-        <v>0.02191265456740831</v>
+        <v>0</v>
       </c>
       <c r="EM3">
-        <v>0.01332085316975325</v>
+        <v>0</v>
       </c>
       <c r="EN3">
-        <v>0.01254289794514019</v>
+        <v>0</v>
       </c>
       <c r="EO3">
-        <v>0.0002160882360344226</v>
+        <v>0</v>
       </c>
       <c r="EP3">
-        <v>0.01217093903546362</v>
+        <v>0</v>
       </c>
       <c r="EQ3">
-        <v>0.03558576157905536</v>
+        <v>0.0610985053235794</v>
       </c>
       <c r="ER3">
-        <v>0.02907006736693452</v>
+        <v>0</v>
       </c>
       <c r="ES3">
-        <v>0.01688619931832288</v>
+        <v>0</v>
       </c>
       <c r="ET3">
-        <v>0.008158478666130984</v>
+        <v>0</v>
       </c>
       <c r="EU3">
-        <v>0.009378965427649507</v>
+        <v>0</v>
       </c>
       <c r="EV3">
-        <v>0.01149732826798245</v>
+        <v>0</v>
       </c>
       <c r="EW3">
-        <v>0.0003693460907902101</v>
+        <v>0</v>
       </c>
       <c r="EX3">
-        <v>0.005424372117845759</v>
+        <v>0</v>
       </c>
       <c r="EY3">
-        <v>0.009675837432013411</v>
+        <v>0</v>
       </c>
       <c r="EZ3">
-        <v>0.006230411634661511</v>
+        <v>0</v>
       </c>
       <c r="FA3">
-        <v>0.01464927921241088</v>
+        <v>0</v>
       </c>
       <c r="FB3">
-        <v>0.01211003576554755</v>
+        <v>0</v>
       </c>
       <c r="FC3">
-        <v>0.005104905284025764</v>
+        <v>0</v>
       </c>
       <c r="FD3">
-        <v>0.0007725421952589412</v>
+        <v>0</v>
       </c>
       <c r="FE3">
-        <v>0.004285362568068749</v>
+        <v>0</v>
       </c>
       <c r="FF3">
-        <v>0.02358600666452103</v>
+        <v>0</v>
       </c>
       <c r="FG3">
-        <v>0.02539103384029637</v>
+        <v>0</v>
       </c>
       <c r="FH3">
-        <v>0.01985104538203977</v>
+        <v>0</v>
       </c>
       <c r="FI3">
-        <v>0.009026798420849672</v>
+        <v>0</v>
       </c>
       <c r="FJ3">
-        <v>1.180340620066137E-05</v>
+        <v>0</v>
       </c>
       <c r="FK3">
-        <v>0.0001719711595352727</v>
+        <v>0</v>
       </c>
       <c r="FL3">
-        <v>0.008952610347284711</v>
+        <v>0</v>
       </c>
       <c r="FM3">
-        <v>0.01900719879884693</v>
+        <v>0</v>
       </c>
       <c r="FN3">
-        <v>0.01162697732858141</v>
+        <v>0</v>
       </c>
       <c r="FO3">
-        <v>0.004603401028974836</v>
+        <v>0</v>
       </c>
       <c r="FP3">
-        <v>0.0009218029497595043</v>
+        <v>0</v>
       </c>
       <c r="FQ3">
-        <v>0.000238196559603745</v>
+        <v>0</v>
       </c>
       <c r="FR3">
-        <v>0.001512537345874512</v>
+        <v>0</v>
       </c>
       <c r="FS3">
         <v>0</v>
       </c>
       <c r="FT3">
-        <v>0.0008688733888007825</v>
+        <v>0</v>
       </c>
       <c r="FU3">
-        <v>0.0007093716763300134</v>
+        <v>0</v>
       </c>
       <c r="FV3">
-        <v>0.0003083970896024611</v>
+        <v>0</v>
       </c>
       <c r="FW3">
-        <v>0.001534306376806041</v>
+        <v>0</v>
       </c>
       <c r="FX3">
-        <v>0.0006023397776603391</v>
+        <v>0</v>
       </c>
       <c r="FY3">
         <v>0</v>
       </c>
       <c r="FZ3">
-        <v>0.002055996572109845</v>
+        <v>0</v>
       </c>
       <c r="GA3">
-        <v>0.00609819333367793</v>
+        <v>0</v>
       </c>
       <c r="GB3">
-        <v>0.005733168053347865</v>
+        <v>0</v>
       </c>
       <c r="GC3">
-        <v>3.197341796792812E-05</v>
+        <v>0</v>
       </c>
       <c r="GD3">
-        <v>0.006183553176660038</v>
+        <v>0</v>
       </c>
       <c r="GE3">
-        <v>0.01400187389207902</v>
+        <v>0</v>
       </c>
       <c r="GF3">
-        <v>0.02384485612432053</v>
+        <v>0</v>
       </c>
       <c r="GG3">
-        <v>0.02314804171599691</v>
+        <v>0</v>
       </c>
       <c r="GH3">
-        <v>0.01721550773105079</v>
+        <v>0</v>
       </c>
       <c r="GI3">
-        <v>0.01391607896825652</v>
+        <v>0</v>
       </c>
       <c r="GJ3">
-        <v>0.003346981519279944</v>
+        <v>0</v>
       </c>
       <c r="GK3">
-        <v>0.0006719638079411157</v>
+        <v>0</v>
       </c>
       <c r="GL3">
-        <v>0.006303125262012009</v>
+        <v>0</v>
       </c>
       <c r="GM3">
-        <v>0.01313621894463475</v>
+        <v>0</v>
       </c>
       <c r="GN3">
-        <v>0.01257716772883739</v>
+        <v>0</v>
       </c>
       <c r="GO3">
-        <v>0.009611999755596982</v>
+        <v>0</v>
       </c>
       <c r="GP3">
-        <v>0.009611999755596982</v>
+        <v>0</v>
       </c>
       <c r="GQ3">
-        <v>0.008087943259690752</v>
+        <v>0</v>
       </c>
       <c r="GR3">
-        <v>0.003308347950201214</v>
+        <v>0</v>
       </c>
       <c r="GS3">
-        <v>0.003714952070556794</v>
+        <v>0</v>
       </c>
       <c r="GT3">
         <v>0</v>
@@ -3546,40 +3546,40 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>2.362666825940258E-05</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>0.0005021507014960244</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.001459341850960159</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>0.002047451763695926</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>0.002203852526273489</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0.00206313194732354</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0.001306579968959155</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0.0008074363241585596</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0.0004078378637196707</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0.0002548452059965317</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>0.0001721063887432922</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>2.765178914151744E-05</v>
+        <v>0</v>
       </c>
       <c r="P4">
         <v>0</v>
@@ -3591,37 +3591,37 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.0001242303868398101</v>
+        <v>0</v>
       </c>
       <c r="T4">
-        <v>0.0007469443478141486</v>
+        <v>0</v>
       </c>
       <c r="U4">
-        <v>0.001335413653639986</v>
+        <v>0</v>
       </c>
       <c r="V4">
-        <v>0.001954363538974694</v>
+        <v>0</v>
       </c>
       <c r="W4">
-        <v>0.002546983027939857</v>
+        <v>0</v>
       </c>
       <c r="X4">
-        <v>0.002556462608101023</v>
+        <v>0</v>
       </c>
       <c r="Y4">
-        <v>0.002710427200406009</v>
+        <v>0</v>
       </c>
       <c r="Z4">
-        <v>0.002440722811503299</v>
+        <v>0</v>
       </c>
       <c r="AA4">
-        <v>0.001723171623704669</v>
+        <v>0</v>
       </c>
       <c r="AB4">
-        <v>0.0009094927958306862</v>
+        <v>0</v>
       </c>
       <c r="AC4">
-        <v>0.0002547624985929723</v>
+        <v>0</v>
       </c>
       <c r="AD4">
         <v>0</v>
@@ -3636,46 +3636,46 @@
         <v>0</v>
       </c>
       <c r="AH4">
-        <v>5.219293301644803E-05</v>
+        <v>0</v>
       </c>
       <c r="AI4">
-        <v>0.0002030794838935898</v>
+        <v>0</v>
       </c>
       <c r="AJ4">
-        <v>0.0003136522539576363</v>
+        <v>0</v>
       </c>
       <c r="AK4">
-        <v>0.0003959892926196474</v>
+        <v>0</v>
       </c>
       <c r="AL4">
-        <v>0.0004668876092828453</v>
+        <v>0</v>
       </c>
       <c r="AM4">
-        <v>0.0006249304652458005</v>
+        <v>0</v>
       </c>
       <c r="AN4">
-        <v>0.001119299800657929</v>
+        <v>0</v>
       </c>
       <c r="AO4">
-        <v>0.001197946716112914</v>
+        <v>0</v>
       </c>
       <c r="AP4">
-        <v>0.001060855108379167</v>
+        <v>0</v>
       </c>
       <c r="AQ4">
-        <v>0.001046204170170105</v>
+        <v>0</v>
       </c>
       <c r="AR4">
-        <v>0.0010755977847903</v>
+        <v>0</v>
       </c>
       <c r="AS4">
-        <v>0.001231431670660415</v>
+        <v>0</v>
       </c>
       <c r="AT4">
-        <v>0.0004449193031267399</v>
+        <v>0</v>
       </c>
       <c r="AU4">
-        <v>2.362666825940258E-05</v>
+        <v>0</v>
       </c>
       <c r="AV4">
         <v>0</v>
@@ -3684,43 +3684,43 @@
         <v>0</v>
       </c>
       <c r="AX4">
-        <v>0.0005684352914877204</v>
+        <v>0</v>
       </c>
       <c r="AY4">
-        <v>0.001312193979155794</v>
+        <v>0</v>
       </c>
       <c r="AZ4">
-        <v>0.001589250194018419</v>
+        <v>0</v>
       </c>
       <c r="BA4">
-        <v>0.001687917388620799</v>
+        <v>0</v>
       </c>
       <c r="BB4">
-        <v>0.001506884714470599</v>
+        <v>0</v>
       </c>
       <c r="BC4">
-        <v>0.001227907105282204</v>
+        <v>0</v>
       </c>
       <c r="BD4">
-        <v>0.001104138887944706</v>
+        <v>0</v>
       </c>
       <c r="BE4">
-        <v>0.0007814492513699706</v>
+        <v>0</v>
       </c>
       <c r="BF4">
-        <v>0.0005821189433200516</v>
+        <v>0</v>
       </c>
       <c r="BG4">
-        <v>0.0001777860663300103</v>
+        <v>0</v>
       </c>
       <c r="BH4">
         <v>0</v>
       </c>
       <c r="BI4">
-        <v>7.687996923700987E-05</v>
+        <v>0</v>
       </c>
       <c r="BJ4">
-        <v>1.010863555089842E-05</v>
+        <v>0</v>
       </c>
       <c r="BK4">
         <v>0</v>
@@ -3738,406 +3738,406 @@
         <v>0</v>
       </c>
       <c r="BP4">
-        <v>5.539525008217513E-05</v>
+        <v>0</v>
       </c>
       <c r="BQ4">
-        <v>0.0005557912030677158</v>
+        <v>0</v>
       </c>
       <c r="BR4">
-        <v>0.00164162198077348</v>
+        <v>0</v>
       </c>
       <c r="BS4">
-        <v>0.00172729371329659</v>
+        <v>0</v>
       </c>
       <c r="BT4">
-        <v>0.001579334499843178</v>
+        <v>0</v>
       </c>
       <c r="BU4">
-        <v>0.001350771119026687</v>
+        <v>0</v>
       </c>
       <c r="BV4">
-        <v>0.000956211241422742</v>
+        <v>0</v>
       </c>
       <c r="BW4">
-        <v>0.0004507363530523491</v>
+        <v>0</v>
       </c>
       <c r="BX4">
-        <v>4.006663421469993E-05</v>
+        <v>0</v>
       </c>
       <c r="BY4">
         <v>0</v>
       </c>
       <c r="BZ4">
-        <v>0.0001606979566964989</v>
+        <v>0</v>
       </c>
       <c r="CA4">
-        <v>0.0003066071073770266</v>
+        <v>0</v>
       </c>
       <c r="CB4">
-        <v>0.0005189036091377388</v>
+        <v>0</v>
       </c>
       <c r="CC4">
-        <v>0.0006999466625767257</v>
+        <v>0</v>
       </c>
       <c r="CD4">
-        <v>0.000705201218388281</v>
+        <v>0</v>
       </c>
       <c r="CE4">
-        <v>0.0006999466625767257</v>
+        <v>0</v>
       </c>
       <c r="CF4">
-        <v>0.0003773534021933413</v>
+        <v>0</v>
       </c>
       <c r="CG4">
-        <v>0.0001622304035203283</v>
+        <v>0</v>
       </c>
       <c r="CH4">
-        <v>0.0001694373178548118</v>
+        <v>0</v>
       </c>
       <c r="CI4">
-        <v>3.695699520790193E-05</v>
+        <v>0</v>
       </c>
       <c r="CJ4">
-        <v>5.094419015806393E-05</v>
+        <v>0</v>
       </c>
       <c r="CK4">
-        <v>2.068447701097177E-05</v>
+        <v>0</v>
       </c>
       <c r="CL4">
-        <v>6.101406172146164E-05</v>
+        <v>0</v>
       </c>
       <c r="CM4">
         <v>0</v>
       </c>
       <c r="CN4">
-        <v>0.09902863735169891</v>
+        <v>0.4154222303660756</v>
       </c>
       <c r="CO4">
-        <v>0.04113222385200446</v>
+        <v>0.0642993088984375</v>
       </c>
       <c r="CP4">
-        <v>0.01706117901083973</v>
+        <v>0</v>
       </c>
       <c r="CQ4">
-        <v>0.0009893916619163768</v>
+        <v>0</v>
       </c>
       <c r="CR4">
-        <v>0.05441785141262413</v>
+        <v>0.1448723199130208</v>
       </c>
       <c r="CS4">
         <v>0</v>
       </c>
       <c r="CT4">
-        <v>4.981083516074738E-05</v>
+        <v>0</v>
       </c>
       <c r="CU4">
-        <v>0.00540701015093897</v>
+        <v>0</v>
       </c>
       <c r="CV4">
-        <v>0.004564474448437752</v>
+        <v>0</v>
       </c>
       <c r="CW4">
         <v>0</v>
       </c>
       <c r="CX4">
-        <v>0.06803905384303363</v>
+        <v>0.2274804833926588</v>
       </c>
       <c r="CY4">
-        <v>0.01628511774941565</v>
+        <v>0</v>
       </c>
       <c r="CZ4">
-        <v>0.000640729029974261</v>
+        <v>0</v>
       </c>
       <c r="DA4">
-        <v>0.0005596531464106691</v>
+        <v>0</v>
       </c>
       <c r="DB4">
-        <v>0.002733469017195542</v>
+        <v>0</v>
       </c>
       <c r="DC4">
-        <v>0.01233134732662384</v>
+        <v>0</v>
       </c>
       <c r="DD4">
-        <v>0.01059136887099019</v>
+        <v>0</v>
       </c>
       <c r="DE4">
-        <v>0.02858416326336322</v>
+        <v>0</v>
       </c>
       <c r="DF4">
-        <v>0.0006141373636138526</v>
+        <v>0</v>
       </c>
       <c r="DG4">
-        <v>0.0004232721521887291</v>
+        <v>0</v>
       </c>
       <c r="DH4">
-        <v>0.001274290164997425</v>
+        <v>0</v>
       </c>
       <c r="DI4">
-        <v>0.005870958230198511</v>
+        <v>0</v>
       </c>
       <c r="DJ4">
-        <v>0.001325104445484372</v>
+        <v>0</v>
       </c>
       <c r="DK4">
-        <v>0.001479882116130426</v>
+        <v>0</v>
       </c>
       <c r="DL4">
-        <v>0.002187467552160257</v>
+        <v>0</v>
       </c>
       <c r="DM4">
-        <v>0.002363969809776805</v>
+        <v>0</v>
       </c>
       <c r="DN4">
-        <v>0.007101895296079155</v>
+        <v>0</v>
       </c>
       <c r="DO4">
-        <v>0.004528678774076628</v>
+        <v>0</v>
       </c>
       <c r="DP4">
-        <v>0.0114365443453639</v>
+        <v>0</v>
       </c>
       <c r="DQ4">
-        <v>0.006228416441041255</v>
+        <v>0</v>
       </c>
       <c r="DR4">
-        <v>0.0001310008091743085</v>
+        <v>0</v>
       </c>
       <c r="DS4">
-        <v>0.01027456406640907</v>
+        <v>0</v>
       </c>
       <c r="DT4">
-        <v>0.002076003184844106</v>
+        <v>0</v>
       </c>
       <c r="DU4">
-        <v>0.0006619275524998078</v>
+        <v>0</v>
       </c>
       <c r="DV4">
         <v>0</v>
       </c>
       <c r="DW4">
-        <v>0.003084947593091969</v>
+        <v>0</v>
       </c>
       <c r="DX4">
-        <v>0.0003773534021933413</v>
+        <v>0</v>
       </c>
       <c r="DY4">
-        <v>0.001080736758639915</v>
+        <v>0</v>
       </c>
       <c r="DZ4">
         <v>0</v>
       </c>
       <c r="EA4">
-        <v>0.009203239110970233</v>
+        <v>0</v>
       </c>
       <c r="EB4">
-        <v>0.008431617651619632</v>
+        <v>0</v>
       </c>
       <c r="EC4">
-        <v>0.001978094618180006</v>
+        <v>0</v>
       </c>
       <c r="ED4">
-        <v>0.001723171623704669</v>
+        <v>0</v>
       </c>
       <c r="EE4">
-        <v>0.004827538340000833</v>
+        <v>0</v>
       </c>
       <c r="EF4">
-        <v>0.00493347297776256</v>
+        <v>0</v>
       </c>
       <c r="EG4">
-        <v>0.01006057347266068</v>
+        <v>0</v>
       </c>
       <c r="EH4">
-        <v>0.01007600551364595</v>
+        <v>0</v>
       </c>
       <c r="EI4">
-        <v>0.008604968119692441</v>
+        <v>0</v>
       </c>
       <c r="EJ4">
-        <v>0.008516655287238228</v>
+        <v>0</v>
       </c>
       <c r="EK4">
-        <v>0.003755097713175787</v>
+        <v>0</v>
       </c>
       <c r="EL4">
-        <v>0.04744348626930459</v>
+        <v>0.1025750632009562</v>
       </c>
       <c r="EM4">
-        <v>0.03722342864464865</v>
+        <v>0.0405937370043734</v>
       </c>
       <c r="EN4">
-        <v>0.02175754157505302</v>
+        <v>0</v>
       </c>
       <c r="EO4">
-        <v>0.01228314901511286</v>
+        <v>0</v>
       </c>
       <c r="EP4">
-        <v>0.002679612767395618</v>
+        <v>0</v>
       </c>
       <c r="EQ4">
-        <v>0.003103768839636134</v>
+        <v>0</v>
       </c>
       <c r="ER4">
-        <v>0.002453111759433692</v>
+        <v>0</v>
       </c>
       <c r="ES4">
-        <v>0.0006116578781990942</v>
+        <v>0</v>
       </c>
       <c r="ET4">
-        <v>0.00476750845653997</v>
+        <v>0</v>
       </c>
       <c r="EU4">
-        <v>0.007003855864563326</v>
+        <v>0</v>
       </c>
       <c r="EV4">
-        <v>0.01658017457276316</v>
+        <v>0</v>
       </c>
       <c r="EW4">
-        <v>0.02050567062786338</v>
+        <v>0</v>
       </c>
       <c r="EX4">
-        <v>0.01008527025478824</v>
+        <v>0</v>
       </c>
       <c r="EY4">
-        <v>0.008316082682522078</v>
+        <v>0</v>
       </c>
       <c r="EZ4">
-        <v>5.099977451858349E-05</v>
+        <v>0</v>
       </c>
       <c r="FA4">
-        <v>0.008228857836540085</v>
+        <v>0</v>
       </c>
       <c r="FB4">
-        <v>0.03131431054548489</v>
+        <v>0.004756857224477772</v>
       </c>
       <c r="FC4">
-        <v>0.02628024923929798</v>
+        <v>0</v>
       </c>
       <c r="FD4">
-        <v>0.01424883409534618</v>
+        <v>0</v>
       </c>
       <c r="FE4">
-        <v>0.001020125287668597</v>
+        <v>0</v>
       </c>
       <c r="FF4">
-        <v>0.0007597050499954709</v>
+        <v>0</v>
       </c>
       <c r="FG4">
-        <v>0.0009452166528688081</v>
+        <v>0</v>
       </c>
       <c r="FH4">
-        <v>0.01064567829524934</v>
+        <v>0</v>
       </c>
       <c r="FI4">
-        <v>0.007604398551163437</v>
+        <v>0</v>
       </c>
       <c r="FJ4">
-        <v>0.003427657610972455</v>
+        <v>0</v>
       </c>
       <c r="FK4">
-        <v>0.0002063733757080207</v>
+        <v>0</v>
       </c>
       <c r="FL4">
         <v>0</v>
       </c>
       <c r="FM4">
-        <v>0.0001954591755630056</v>
+        <v>0</v>
       </c>
       <c r="FN4">
-        <v>0.0009482094840134148</v>
+        <v>0</v>
       </c>
       <c r="FO4">
-        <v>0.0008119617757961985</v>
+        <v>0</v>
       </c>
       <c r="FP4">
-        <v>0.001268591772000217</v>
+        <v>0</v>
       </c>
       <c r="FQ4">
-        <v>0.001046058083723601</v>
+        <v>0</v>
       </c>
       <c r="FR4">
-        <v>0.004433287797893403</v>
+        <v>0</v>
       </c>
       <c r="FS4">
-        <v>0.002457765378942508</v>
+        <v>0</v>
       </c>
       <c r="FT4">
-        <v>2.176522045587599E-05</v>
+        <v>0</v>
       </c>
       <c r="FU4">
-        <v>0.0001911458966112023</v>
+        <v>0</v>
       </c>
       <c r="FV4">
-        <v>0.004257883538267783</v>
+        <v>0</v>
       </c>
       <c r="FW4">
-        <v>0.0045812296444266</v>
+        <v>0</v>
       </c>
       <c r="FX4">
-        <v>0.0031966620440592</v>
+        <v>0</v>
       </c>
       <c r="FY4">
         <v>0</v>
       </c>
       <c r="FZ4">
-        <v>0.004551636208065592</v>
+        <v>0</v>
       </c>
       <c r="GA4">
-        <v>0.01012812874912525</v>
+        <v>0</v>
       </c>
       <c r="GB4">
-        <v>0.01297708313242946</v>
+        <v>0</v>
       </c>
       <c r="GC4">
-        <v>0.008641737976119203</v>
+        <v>0</v>
       </c>
       <c r="GD4">
-        <v>0.007029324657373558</v>
+        <v>0</v>
       </c>
       <c r="GE4">
-        <v>0.004241434408708115</v>
+        <v>0</v>
       </c>
       <c r="GF4">
-        <v>0.0003035518370463332</v>
+        <v>0</v>
       </c>
       <c r="GG4">
-        <v>0.003407656741912357</v>
+        <v>0</v>
       </c>
       <c r="GH4">
-        <v>0.01289371885065264</v>
+        <v>0</v>
       </c>
       <c r="GI4">
-        <v>0.01246477226670868</v>
+        <v>0</v>
       </c>
       <c r="GJ4">
-        <v>0.005532731329533684</v>
+        <v>0</v>
       </c>
       <c r="GK4">
-        <v>0.004270028940681766</v>
+        <v>0</v>
       </c>
       <c r="GL4">
-        <v>0.004881446281927982</v>
+        <v>0</v>
       </c>
       <c r="GM4">
-        <v>0.002583635913051061</v>
+        <v>0</v>
       </c>
       <c r="GN4">
-        <v>0.002873950545596665</v>
+        <v>0</v>
       </c>
       <c r="GO4">
-        <v>0.005892275613969168</v>
+        <v>0</v>
       </c>
       <c r="GP4">
-        <v>0.002410096962814758</v>
+        <v>0</v>
       </c>
       <c r="GQ4">
         <v>0</v>
       </c>
       <c r="GR4">
-        <v>0.003533792683425119</v>
+        <v>0</v>
       </c>
       <c r="GS4">
-        <v>0.01059136887099019</v>
+        <v>0</v>
       </c>
       <c r="GT4">
         <v>0</v>
@@ -4313,28 +4313,28 @@
         <v>260</v>
       </c>
       <c r="B5">
-        <v>4.62551384813629E-05</v>
+        <v>0</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.0001600670183783332</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>0.000364498275556303</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.0005521517237359562</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>0.0006868748411368533</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>0.0004518515537517223</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>0.0001594457796161912</v>
+        <v>0</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -4349,91 +4349,91 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.814209633383618E-05</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>8.758674290529506E-06</v>
+        <v>0</v>
       </c>
       <c r="P5">
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>2.939010413909938E-05</v>
+        <v>0</v>
       </c>
       <c r="R5">
-        <v>4.773603482062055E-05</v>
+        <v>0</v>
       </c>
       <c r="S5">
         <v>0</v>
       </c>
       <c r="T5">
-        <v>3.807229266290724E-05</v>
+        <v>0</v>
       </c>
       <c r="U5">
-        <v>0.0001378164776725513</v>
+        <v>0</v>
       </c>
       <c r="V5">
-        <v>1.522103662834931E-05</v>
+        <v>0</v>
       </c>
       <c r="W5">
-        <v>5.960845743070698E-05</v>
+        <v>0</v>
       </c>
       <c r="X5">
-        <v>0.0002162109086543943</v>
+        <v>0</v>
       </c>
       <c r="Y5">
-        <v>0.0005002815112768289</v>
+        <v>0</v>
       </c>
       <c r="Z5">
-        <v>0.000568525642797609</v>
+        <v>0</v>
       </c>
       <c r="AA5">
-        <v>0.000391060873350698</v>
+        <v>0</v>
       </c>
       <c r="AB5">
-        <v>0.0002248643964628589</v>
+        <v>0</v>
       </c>
       <c r="AC5">
-        <v>0.0003188495767016713</v>
+        <v>0</v>
       </c>
       <c r="AD5">
-        <v>0.0001242080925105364</v>
+        <v>0</v>
       </c>
       <c r="AE5">
         <v>0</v>
       </c>
       <c r="AF5">
-        <v>0.0001526851009259118</v>
+        <v>0</v>
       </c>
       <c r="AG5">
-        <v>0.0002993708176839402</v>
+        <v>0</v>
       </c>
       <c r="AH5">
-        <v>0.0005943058028716772</v>
+        <v>0</v>
       </c>
       <c r="AI5">
-        <v>0.0005833383167547324</v>
+        <v>0</v>
       </c>
       <c r="AJ5">
-        <v>0.0008080756785303315</v>
+        <v>0</v>
       </c>
       <c r="AK5">
-        <v>0.0006579296296755173</v>
+        <v>0</v>
       </c>
       <c r="AL5">
-        <v>0.0003654141532005819</v>
+        <v>0</v>
       </c>
       <c r="AM5">
-        <v>0.0003746333215885119</v>
+        <v>0</v>
       </c>
       <c r="AN5">
-        <v>0.0002437579292516594</v>
+        <v>0</v>
       </c>
       <c r="AO5">
-        <v>0.0001222575490137106</v>
+        <v>0</v>
       </c>
       <c r="AP5">
-        <v>0.0001054609013789034</v>
+        <v>0</v>
       </c>
       <c r="AQ5">
         <v>0</v>
@@ -4445,7 +4445,7 @@
         <v>0</v>
       </c>
       <c r="AT5">
-        <v>9.802754948472904E-06</v>
+        <v>0</v>
       </c>
       <c r="AU5">
         <v>0</v>
@@ -4454,463 +4454,463 @@
         <v>0</v>
       </c>
       <c r="AW5">
-        <v>4.885830008213494E-05</v>
+        <v>0</v>
       </c>
       <c r="AX5">
-        <v>0.0003027371822407117</v>
+        <v>0</v>
       </c>
       <c r="AY5">
-        <v>0.0006579661937791344</v>
+        <v>0</v>
       </c>
       <c r="AZ5">
-        <v>0.0007196476704138106</v>
+        <v>0</v>
       </c>
       <c r="BA5">
-        <v>0.001073255787015473</v>
+        <v>0</v>
       </c>
       <c r="BB5">
-        <v>0.001280671932629125</v>
+        <v>0</v>
       </c>
       <c r="BC5">
-        <v>0.001000135803194546</v>
+        <v>0</v>
       </c>
       <c r="BD5">
-        <v>0.0003175630337162535</v>
+        <v>0</v>
       </c>
       <c r="BE5">
-        <v>0.0001242080925105364</v>
+        <v>0</v>
       </c>
       <c r="BF5">
-        <v>3.655187981407941E-05</v>
+        <v>0</v>
       </c>
       <c r="BG5">
         <v>0</v>
       </c>
       <c r="BH5">
-        <v>2.906787670812796E-05</v>
+        <v>0</v>
       </c>
       <c r="BI5">
-        <v>0.0001112019821172626</v>
+        <v>0</v>
       </c>
       <c r="BJ5">
-        <v>0.0002594846957706582</v>
+        <v>0</v>
       </c>
       <c r="BK5">
-        <v>0.0003145452215416314</v>
+        <v>0</v>
       </c>
       <c r="BL5">
-        <v>0.0003145452215416314</v>
+        <v>0</v>
       </c>
       <c r="BM5">
-        <v>0.0001775831795787372</v>
+        <v>0</v>
       </c>
       <c r="BN5">
-        <v>8.313203266124512E-05</v>
+        <v>0</v>
       </c>
       <c r="BO5">
-        <v>0.0001475523973306906</v>
+        <v>0</v>
       </c>
       <c r="BP5">
-        <v>0.0002700945837508011</v>
+        <v>0</v>
       </c>
       <c r="BQ5">
-        <v>0.0002768780573416624</v>
+        <v>0</v>
       </c>
       <c r="BR5">
-        <v>0.0002800979047415918</v>
+        <v>0</v>
       </c>
       <c r="BS5">
-        <v>0.0002073447954688343</v>
+        <v>0</v>
       </c>
       <c r="BT5">
-        <v>0.0003482016966940729</v>
+        <v>0</v>
       </c>
       <c r="BU5">
-        <v>0.0004646272782008393</v>
+        <v>0</v>
       </c>
       <c r="BV5">
-        <v>0.0002756751825725028</v>
+        <v>0</v>
       </c>
       <c r="BW5">
-        <v>0.0002172624024185895</v>
+        <v>0</v>
       </c>
       <c r="BX5">
-        <v>0.000106753967937937</v>
+        <v>0</v>
       </c>
       <c r="BY5">
-        <v>1.746021491273287E-05</v>
+        <v>0</v>
       </c>
       <c r="BZ5">
         <v>0</v>
       </c>
       <c r="CA5">
-        <v>6.627886610840027E-06</v>
+        <v>0</v>
       </c>
       <c r="CB5">
-        <v>5.247764491258868E-05</v>
+        <v>0</v>
       </c>
       <c r="CC5">
-        <v>0.0002281504222829115</v>
+        <v>0</v>
       </c>
       <c r="CD5">
-        <v>0.0005972434066807671</v>
+        <v>0</v>
       </c>
       <c r="CE5">
-        <v>0.000568525642797609</v>
+        <v>0</v>
       </c>
       <c r="CF5">
-        <v>0.0007038163863172206</v>
+        <v>0</v>
       </c>
       <c r="CG5">
-        <v>0.0005256490666018242</v>
+        <v>0</v>
       </c>
       <c r="CH5">
-        <v>0.0003235880077423924</v>
+        <v>0</v>
       </c>
       <c r="CI5">
-        <v>9.268017769620091E-05</v>
+        <v>0</v>
       </c>
       <c r="CJ5">
-        <v>1.814209633383618E-05</v>
+        <v>0</v>
       </c>
       <c r="CK5">
-        <v>0.000105218591485432</v>
+        <v>0</v>
       </c>
       <c r="CL5">
-        <v>7.85444511121885E-05</v>
+        <v>0</v>
       </c>
       <c r="CM5">
-        <v>0.002223941566107142</v>
+        <v>0</v>
       </c>
       <c r="CN5">
-        <v>0.1196786117463352</v>
+        <v>0.4916538642205736</v>
       </c>
       <c r="CO5">
-        <v>0.04531745010157109</v>
+        <v>0.0836554200668351</v>
       </c>
       <c r="CP5">
-        <v>0.03118512319696795</v>
+        <v>0.006115380860681949</v>
       </c>
       <c r="CQ5">
-        <v>0.0008270537119052752</v>
+        <v>0</v>
       </c>
       <c r="CR5">
-        <v>0.03786051706827288</v>
+        <v>0.04274135944096118</v>
       </c>
       <c r="CS5">
-        <v>0.0002456509991122182</v>
+        <v>0</v>
       </c>
       <c r="CT5">
-        <v>0.02085945844399301</v>
+        <v>0</v>
       </c>
       <c r="CU5">
-        <v>0.0001329182616995944</v>
+        <v>0</v>
       </c>
       <c r="CV5">
-        <v>0.003665901948717916</v>
+        <v>0</v>
       </c>
       <c r="CW5">
-        <v>0.002282110582227424</v>
+        <v>0</v>
       </c>
       <c r="CX5">
-        <v>0.01756320149434348</v>
+        <v>0</v>
       </c>
       <c r="CY5">
-        <v>0.01268615780212068</v>
+        <v>0</v>
       </c>
       <c r="CZ5">
-        <v>0.001046257117658384</v>
+        <v>0</v>
       </c>
       <c r="DA5">
-        <v>0.03764597022045519</v>
+        <v>0.04156420219688971</v>
       </c>
       <c r="DB5">
-        <v>0.0170193701229281</v>
+        <v>0</v>
       </c>
       <c r="DC5">
-        <v>0.005721461241639548</v>
+        <v>0</v>
       </c>
       <c r="DD5">
-        <v>0.04460510895695809</v>
+        <v>0.07974700776825902</v>
       </c>
       <c r="DE5">
-        <v>0.002560177782240856</v>
+        <v>0</v>
       </c>
       <c r="DF5">
-        <v>0.001731042105662488</v>
+        <v>0</v>
       </c>
       <c r="DG5">
-        <v>0.005960406756207696</v>
+        <v>0</v>
       </c>
       <c r="DH5">
-        <v>0.0001997248102007884</v>
+        <v>0</v>
       </c>
       <c r="DI5">
-        <v>0.01444815548005039</v>
+        <v>0</v>
       </c>
       <c r="DJ5">
-        <v>0.0001230847140796579</v>
+        <v>0</v>
       </c>
       <c r="DK5">
-        <v>0.002147841898669452</v>
+        <v>0</v>
       </c>
       <c r="DL5">
         <v>0</v>
       </c>
       <c r="DM5">
-        <v>0.001227901186211548</v>
+        <v>0</v>
       </c>
       <c r="DN5">
-        <v>0.007706283334892593</v>
+        <v>0</v>
       </c>
       <c r="DO5">
-        <v>1.666081489814988E-05</v>
+        <v>0</v>
       </c>
       <c r="DP5">
-        <v>0.0007323982733380891</v>
+        <v>0</v>
       </c>
       <c r="DQ5">
-        <v>6.644636600632793E-05</v>
+        <v>0</v>
       </c>
       <c r="DR5">
-        <v>0.004422412650843033</v>
+        <v>0</v>
       </c>
       <c r="DS5">
-        <v>0.0238872981685895</v>
+        <v>0</v>
       </c>
       <c r="DT5">
-        <v>0.006110333420440808</v>
+        <v>0</v>
       </c>
       <c r="DU5">
-        <v>9.802754948472904E-06</v>
+        <v>0</v>
       </c>
       <c r="DV5">
-        <v>0.0008047094944875111</v>
+        <v>0</v>
       </c>
       <c r="DW5">
-        <v>0.0001416336357075711</v>
+        <v>0</v>
       </c>
       <c r="DX5">
-        <v>0.0004327626848109047</v>
+        <v>0</v>
       </c>
       <c r="DY5">
-        <v>0.0004508369249477292</v>
+        <v>0</v>
       </c>
       <c r="DZ5">
         <v>0</v>
       </c>
       <c r="EA5">
-        <v>0.003441499039179188</v>
+        <v>0</v>
       </c>
       <c r="EB5">
-        <v>0.003043514917276855</v>
+        <v>0</v>
       </c>
       <c r="EC5">
-        <v>0.0034234876580115</v>
+        <v>0</v>
       </c>
       <c r="ED5">
-        <v>0.006110224109214964</v>
+        <v>0</v>
       </c>
       <c r="EE5">
-        <v>0.0009608567697553636</v>
+        <v>0</v>
       </c>
       <c r="EF5">
-        <v>0.00246811075327323</v>
+        <v>0</v>
       </c>
       <c r="EG5">
-        <v>0.005864667973192527</v>
+        <v>0</v>
       </c>
       <c r="EH5">
-        <v>0.01222972125719509</v>
+        <v>0</v>
       </c>
       <c r="EI5">
-        <v>0.00246577038989936</v>
+        <v>0</v>
       </c>
       <c r="EJ5">
         <v>0</v>
       </c>
       <c r="EK5">
-        <v>0.01327776018494038</v>
+        <v>0</v>
       </c>
       <c r="EL5">
-        <v>0.05578815179699042</v>
+        <v>0.1411051681132308</v>
       </c>
       <c r="EM5">
-        <v>0.05074185822437117</v>
+        <v>0.1134175973325686</v>
       </c>
       <c r="EN5">
-        <v>0.008689293114668902</v>
+        <v>0</v>
       </c>
       <c r="EO5">
-        <v>0.001640895343990694</v>
+        <v>0</v>
       </c>
       <c r="EP5">
-        <v>4.226300626799147E-05</v>
+        <v>0</v>
       </c>
       <c r="EQ5">
-        <v>8.570974179493533E-05</v>
+        <v>0</v>
       </c>
       <c r="ER5">
-        <v>0.0006171299868278713</v>
+        <v>0</v>
       </c>
       <c r="ES5">
-        <v>0.004676296497135259</v>
+        <v>0</v>
       </c>
       <c r="ET5">
-        <v>0.02247086436406594</v>
+        <v>0</v>
       </c>
       <c r="EU5">
-        <v>0.01621964418037814</v>
+        <v>0</v>
       </c>
       <c r="EV5">
-        <v>0.01559722906898915</v>
+        <v>0</v>
       </c>
       <c r="EW5">
-        <v>0.02899314128791158</v>
+        <v>0</v>
       </c>
       <c r="EX5">
-        <v>0.01244640518962079</v>
+        <v>0</v>
       </c>
       <c r="EY5">
-        <v>0.001812455000674887</v>
+        <v>0</v>
       </c>
       <c r="EZ5">
-        <v>2.369183428991502E-06</v>
+        <v>0</v>
       </c>
       <c r="FA5">
-        <v>0.00700668306550763</v>
+        <v>0</v>
       </c>
       <c r="FB5">
-        <v>0.02789532563819603</v>
+        <v>0</v>
       </c>
       <c r="FC5">
-        <v>0.01678394483097424</v>
+        <v>0</v>
       </c>
       <c r="FD5">
-        <v>0.006360913861430928</v>
+        <v>0</v>
       </c>
       <c r="FE5">
-        <v>0.0003900862283868369</v>
+        <v>0</v>
       </c>
       <c r="FF5">
-        <v>0.006908730579740832</v>
+        <v>0</v>
       </c>
       <c r="FG5">
-        <v>0.003767865454474485</v>
+        <v>0</v>
       </c>
       <c r="FH5">
-        <v>0.004940548864198125</v>
+        <v>0</v>
       </c>
       <c r="FI5">
-        <v>0.003265648064453634</v>
+        <v>0</v>
       </c>
       <c r="FJ5">
-        <v>3.997331015158354E-05</v>
+        <v>0</v>
       </c>
       <c r="FK5">
-        <v>0.003654509913845478</v>
+        <v>0</v>
       </c>
       <c r="FL5">
-        <v>0.001496964350352353</v>
+        <v>0</v>
       </c>
       <c r="FM5">
-        <v>0.001276396961128876</v>
+        <v>0</v>
       </c>
       <c r="FN5">
-        <v>5.540015274110419E-06</v>
+        <v>0</v>
       </c>
       <c r="FO5">
-        <v>0.001356964348852202</v>
+        <v>0</v>
       </c>
       <c r="FP5">
-        <v>0.004952031557188143</v>
+        <v>0</v>
       </c>
       <c r="FQ5">
-        <v>0.001612343753227924</v>
+        <v>0</v>
       </c>
       <c r="FR5">
-        <v>0.00371738432695346</v>
+        <v>0</v>
       </c>
       <c r="FS5">
-        <v>0.003744699898579968</v>
+        <v>0</v>
       </c>
       <c r="FT5">
-        <v>0.0001181753262988488</v>
+        <v>0</v>
       </c>
       <c r="FU5">
-        <v>0.003634701115154122</v>
+        <v>0</v>
       </c>
       <c r="FV5">
-        <v>0.01022913227318318</v>
+        <v>0</v>
       </c>
       <c r="FW5">
-        <v>0.009585777543485757</v>
+        <v>0</v>
       </c>
       <c r="FX5">
-        <v>0.005541433274374892</v>
+        <v>0</v>
       </c>
       <c r="FY5">
-        <v>0.001267128271747073</v>
+        <v>0</v>
       </c>
       <c r="FZ5">
-        <v>0.005954960750593523</v>
+        <v>0</v>
       </c>
       <c r="GA5">
-        <v>0.00504684049278494</v>
+        <v>0</v>
       </c>
       <c r="GB5">
-        <v>0.007958047145116619</v>
+        <v>0</v>
       </c>
       <c r="GC5">
-        <v>0.002440029200781589</v>
+        <v>0</v>
       </c>
       <c r="GD5">
-        <v>0.000322698073964284</v>
+        <v>0</v>
       </c>
       <c r="GE5">
-        <v>0.0001635034724908315</v>
+        <v>0</v>
       </c>
       <c r="GF5">
-        <v>0.002385700819538501</v>
+        <v>0</v>
       </c>
       <c r="GG5">
-        <v>0.01075396053984154</v>
+        <v>0</v>
       </c>
       <c r="GH5">
-        <v>0.01740783514248447</v>
+        <v>0</v>
       </c>
       <c r="GI5">
-        <v>0.01319410350151786</v>
+        <v>0</v>
       </c>
       <c r="GJ5">
-        <v>0.008450030898402393</v>
+        <v>0</v>
       </c>
       <c r="GK5">
-        <v>0.001016667972819852</v>
+        <v>0</v>
       </c>
       <c r="GL5">
-        <v>0.0004844080771726956</v>
+        <v>0</v>
       </c>
       <c r="GM5">
-        <v>0.0007408090200253104</v>
+        <v>0</v>
       </c>
       <c r="GN5">
         <v>0</v>
       </c>
       <c r="GO5">
-        <v>0.0008796979982716695</v>
+        <v>0</v>
       </c>
       <c r="GP5">
-        <v>0.0001059928208352677</v>
+        <v>0</v>
       </c>
       <c r="GQ5">
-        <v>0.00262012225335411</v>
+        <v>0</v>
       </c>
       <c r="GR5">
-        <v>0.01018623914987522</v>
+        <v>0</v>
       </c>
       <c r="GS5">
-        <v>0.01127926215419345</v>
+        <v>0</v>
       </c>
       <c r="GT5">
         <v>0</v>
@@ -5086,31 +5086,31 @@
         <v>261</v>
       </c>
       <c r="B6">
-        <v>0.002428040909688223</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>0.002642267078578834</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>0.00267013685710029</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>0.001798790011275194</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.0008614050727058324</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>0.0003607761966915336</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>0.0001540306348048598</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>3.121617741122641E-05</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>1.389365871233339E-05</v>
+        <v>0</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -5122,10 +5122,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.491947556900936E-05</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0.0001234870567437028</v>
+        <v>0</v>
       </c>
       <c r="P6">
         <v>0</v>
@@ -5140,67 +5140,67 @@
         <v>0</v>
       </c>
       <c r="T6">
-        <v>0.0006198650622027639</v>
+        <v>0</v>
       </c>
       <c r="U6">
-        <v>0.002182264889505084</v>
+        <v>0</v>
       </c>
       <c r="V6">
-        <v>0.002551027298163927</v>
+        <v>0</v>
       </c>
       <c r="W6">
-        <v>0.001568041048020523</v>
+        <v>0</v>
       </c>
       <c r="X6">
-        <v>0.0009593366554349594</v>
+        <v>0</v>
       </c>
       <c r="Y6">
-        <v>0.0006904037247731781</v>
+        <v>0</v>
       </c>
       <c r="Z6">
-        <v>0.0009144287768780851</v>
+        <v>0</v>
       </c>
       <c r="AA6">
-        <v>0.000535642885681086</v>
+        <v>0</v>
       </c>
       <c r="AB6">
         <v>0</v>
       </c>
       <c r="AC6">
-        <v>0.000892207248278944</v>
+        <v>0</v>
       </c>
       <c r="AD6">
-        <v>0.001091489552700153</v>
+        <v>0</v>
       </c>
       <c r="AE6">
-        <v>0.001244857745964353</v>
+        <v>0</v>
       </c>
       <c r="AF6">
-        <v>0.0009112302858511302</v>
+        <v>0</v>
       </c>
       <c r="AG6">
-        <v>0.000892207248278944</v>
+        <v>0</v>
       </c>
       <c r="AH6">
-        <v>0.001451874409626365</v>
+        <v>0</v>
       </c>
       <c r="AI6">
-        <v>0.0009733315773492991</v>
+        <v>0</v>
       </c>
       <c r="AJ6">
-        <v>0.0006602109060287506</v>
+        <v>0</v>
       </c>
       <c r="AK6">
-        <v>0.0006333280602695506</v>
+        <v>0</v>
       </c>
       <c r="AL6">
-        <v>0.0005428041311571795</v>
+        <v>0</v>
       </c>
       <c r="AM6">
-        <v>0.0002947147816168635</v>
+        <v>0</v>
       </c>
       <c r="AN6">
-        <v>2.340725984935547E-05</v>
+        <v>0</v>
       </c>
       <c r="AO6">
         <v>0</v>
@@ -5212,40 +5212,40 @@
         <v>0</v>
       </c>
       <c r="AR6">
-        <v>4.093418414700172E-05</v>
+        <v>0</v>
       </c>
       <c r="AS6">
-        <v>1.710080419290553E-05</v>
+        <v>0</v>
       </c>
       <c r="AT6">
         <v>0</v>
       </c>
       <c r="AU6">
-        <v>0.0002498045261325873</v>
+        <v>0</v>
       </c>
       <c r="AV6">
-        <v>0.0005508376074116725</v>
+        <v>0</v>
       </c>
       <c r="AW6">
-        <v>0.00100522801309889</v>
+        <v>0</v>
       </c>
       <c r="AX6">
-        <v>0.001360438481911754</v>
+        <v>0</v>
       </c>
       <c r="AY6">
-        <v>0.001723069636810847</v>
+        <v>0</v>
       </c>
       <c r="AZ6">
-        <v>0.001283257008141904</v>
+        <v>0</v>
       </c>
       <c r="BA6">
-        <v>0.0004261338380990556</v>
+        <v>0</v>
       </c>
       <c r="BB6">
-        <v>0.0001206792553822671</v>
+        <v>0</v>
       </c>
       <c r="BC6">
-        <v>0.0001234870567437028</v>
+        <v>0</v>
       </c>
       <c r="BD6">
         <v>0</v>
@@ -5257,13 +5257,13 @@
         <v>0</v>
       </c>
       <c r="BG6">
-        <v>8.075092799645118E-05</v>
+        <v>0</v>
       </c>
       <c r="BH6">
-        <v>0.0002391344380786417</v>
+        <v>0</v>
       </c>
       <c r="BI6">
-        <v>5.651268823270892E-05</v>
+        <v>0</v>
       </c>
       <c r="BJ6">
         <v>0</v>
@@ -5275,31 +5275,31 @@
         <v>0</v>
       </c>
       <c r="BM6">
-        <v>2.910807034067979E-05</v>
+        <v>0</v>
       </c>
       <c r="BN6">
-        <v>0.0001308820435721247</v>
+        <v>0</v>
       </c>
       <c r="BO6">
-        <v>0.0001562957755141962</v>
+        <v>0</v>
       </c>
       <c r="BP6">
-        <v>0.0002663807201007148</v>
+        <v>0</v>
       </c>
       <c r="BQ6">
-        <v>0.0003679809886965666</v>
+        <v>0</v>
       </c>
       <c r="BR6">
-        <v>0.0003909976198272591</v>
+        <v>0</v>
       </c>
       <c r="BS6">
-        <v>0.000505106072720996</v>
+        <v>0</v>
       </c>
       <c r="BT6">
-        <v>0.0003654012809454279</v>
+        <v>0</v>
       </c>
       <c r="BU6">
-        <v>8.967632086398047E-05</v>
+        <v>0</v>
       </c>
       <c r="BV6">
         <v>0</v>
@@ -5314,16 +5314,16 @@
         <v>0</v>
       </c>
       <c r="BZ6">
-        <v>0.0001113411100871804</v>
+        <v>0</v>
       </c>
       <c r="CA6">
-        <v>0.0003675573470973219</v>
+        <v>0</v>
       </c>
       <c r="CB6">
-        <v>8.301779553338715E-05</v>
+        <v>0</v>
       </c>
       <c r="CC6">
-        <v>6.126390200604456E-05</v>
+        <v>0</v>
       </c>
       <c r="CD6">
         <v>0</v>
@@ -5332,7 +5332,7 @@
         <v>0</v>
       </c>
       <c r="CF6">
-        <v>3.738119572945442E-05</v>
+        <v>0</v>
       </c>
       <c r="CG6">
         <v>0</v>
@@ -5344,208 +5344,208 @@
         <v>0</v>
       </c>
       <c r="CJ6">
-        <v>9.922173626007403E-05</v>
+        <v>0</v>
       </c>
       <c r="CK6">
-        <v>8.301779553338715E-05</v>
+        <v>0</v>
       </c>
       <c r="CL6">
-        <v>9.363039038607334E-05</v>
+        <v>0</v>
       </c>
       <c r="CM6">
         <v>0</v>
       </c>
       <c r="CN6">
-        <v>0.05989398907119325</v>
+        <v>0.1463129922034907</v>
       </c>
       <c r="CO6">
-        <v>0.0114051210793526</v>
+        <v>0</v>
       </c>
       <c r="CP6">
-        <v>0.1577244000185988</v>
+        <v>0.631377860598542</v>
       </c>
       <c r="CQ6">
         <v>0</v>
       </c>
       <c r="CR6">
-        <v>0.007793553590719979</v>
+        <v>0</v>
       </c>
       <c r="CS6">
-        <v>0.01875564412864508</v>
+        <v>0</v>
       </c>
       <c r="CT6">
-        <v>0.0002938536330085297</v>
+        <v>0</v>
       </c>
       <c r="CU6">
-        <v>0.002041631846632221</v>
+        <v>0</v>
       </c>
       <c r="CV6">
-        <v>0.000639304651223227</v>
+        <v>0</v>
       </c>
       <c r="CW6">
-        <v>0.0006509761672334554</v>
+        <v>0</v>
       </c>
       <c r="CX6">
-        <v>0.006302747365284327</v>
+        <v>0</v>
       </c>
       <c r="CY6">
-        <v>0.01834360782665102</v>
+        <v>0</v>
       </c>
       <c r="CZ6">
-        <v>0.01486501012631634</v>
+        <v>0</v>
       </c>
       <c r="DA6">
-        <v>0.002544819251365039</v>
+        <v>0</v>
       </c>
       <c r="DB6">
-        <v>0.003414294114494005</v>
+        <v>0</v>
       </c>
       <c r="DC6">
-        <v>0.002433113516551285</v>
+        <v>0</v>
       </c>
       <c r="DD6">
-        <v>0.009391415610555865</v>
+        <v>0</v>
       </c>
       <c r="DE6">
-        <v>0.0196829007763988</v>
+        <v>0</v>
       </c>
       <c r="DF6">
-        <v>0.003850978036286639</v>
+        <v>0</v>
       </c>
       <c r="DG6">
-        <v>0.0001189338897804298</v>
+        <v>0</v>
       </c>
       <c r="DH6">
-        <v>0.02815807413636265</v>
+        <v>0</v>
       </c>
       <c r="DI6">
         <v>0</v>
       </c>
       <c r="DJ6">
-        <v>0.01741668435504595</v>
+        <v>0</v>
       </c>
       <c r="DK6">
-        <v>0.0007841764057534638</v>
+        <v>0</v>
       </c>
       <c r="DL6">
-        <v>0.003367227091968985</v>
+        <v>0</v>
       </c>
       <c r="DM6">
-        <v>0.005974242488456461</v>
+        <v>0</v>
       </c>
       <c r="DN6">
-        <v>0.01365691493501495</v>
+        <v>0</v>
       </c>
       <c r="DO6">
-        <v>8.716060731212485E-07</v>
+        <v>0</v>
       </c>
       <c r="DP6">
-        <v>0.005296178541658964</v>
+        <v>0</v>
       </c>
       <c r="DQ6">
-        <v>0.001480477074096736</v>
+        <v>0</v>
       </c>
       <c r="DR6">
-        <v>0.006204195282609594</v>
+        <v>0</v>
       </c>
       <c r="DS6">
-        <v>0.004974646696256638</v>
+        <v>0</v>
       </c>
       <c r="DT6">
-        <v>0.04181439867917909</v>
+        <v>0.05667037444066144</v>
       </c>
       <c r="DU6">
-        <v>0.004154058220896079</v>
+        <v>0</v>
       </c>
       <c r="DV6">
-        <v>0.01163652207239328</v>
+        <v>0</v>
       </c>
       <c r="DW6">
-        <v>0.007401411053720714</v>
+        <v>0</v>
       </c>
       <c r="DX6">
-        <v>0.0001831013000281691</v>
+        <v>0</v>
       </c>
       <c r="DY6">
-        <v>0.0004006729129744663</v>
+        <v>0</v>
       </c>
       <c r="DZ6">
-        <v>0.001773850659190369</v>
+        <v>0</v>
       </c>
       <c r="EA6">
-        <v>2.213135264610573E-05</v>
+        <v>0</v>
       </c>
       <c r="EB6">
-        <v>0.005873335216091975</v>
+        <v>0</v>
       </c>
       <c r="EC6">
-        <v>0.005439062047206566</v>
+        <v>0</v>
       </c>
       <c r="ED6">
-        <v>0.001758043787233511</v>
+        <v>0</v>
       </c>
       <c r="EE6">
-        <v>0.00400083630008738</v>
+        <v>0</v>
       </c>
       <c r="EF6">
-        <v>0.001347580929917029</v>
+        <v>0</v>
       </c>
       <c r="EG6">
-        <v>0.00442602848893853</v>
+        <v>0</v>
       </c>
       <c r="EH6">
-        <v>0.02355947535472346</v>
+        <v>0</v>
       </c>
       <c r="EI6">
-        <v>0.02148749148599993</v>
+        <v>0</v>
       </c>
       <c r="EJ6">
-        <v>0.0002014071048357393</v>
+        <v>0</v>
       </c>
       <c r="EK6">
-        <v>0.003223760121848884</v>
+        <v>0</v>
       </c>
       <c r="EL6">
-        <v>0.0258696801697254</v>
+        <v>0</v>
       </c>
       <c r="EM6">
-        <v>0.06379171322449004</v>
+        <v>0.1656387727573059</v>
       </c>
       <c r="EN6">
-        <v>0.01869263015797145</v>
+        <v>0</v>
       </c>
       <c r="EO6">
-        <v>0.001401986055537776</v>
+        <v>0</v>
       </c>
       <c r="EP6">
-        <v>0.004259951555587457</v>
+        <v>0</v>
       </c>
       <c r="EQ6">
-        <v>0.0001116215875206035</v>
+        <v>0</v>
       </c>
       <c r="ER6">
-        <v>0.001343752959440949</v>
+        <v>0</v>
       </c>
       <c r="ES6">
-        <v>8.51849743287755E-05</v>
+        <v>0</v>
       </c>
       <c r="ET6">
-        <v>0.004261832578733962</v>
+        <v>0</v>
       </c>
       <c r="EU6">
-        <v>0.008167510296798613</v>
+        <v>0</v>
       </c>
       <c r="EV6">
-        <v>0.004122616753429953</v>
+        <v>0</v>
       </c>
       <c r="EW6">
-        <v>0.0150191619945765</v>
+        <v>0</v>
       </c>
       <c r="EX6">
-        <v>0.01487388195705485</v>
+        <v>0</v>
       </c>
       <c r="EY6">
-        <v>0.00171176622965582</v>
+        <v>0</v>
       </c>
       <c r="EZ6">
         <v>0</v>
@@ -5554,37 +5554,37 @@
         <v>0</v>
       </c>
       <c r="FB6">
-        <v>0.01085660749747141</v>
+        <v>0</v>
       </c>
       <c r="FC6">
-        <v>0.02214170824838035</v>
+        <v>0</v>
       </c>
       <c r="FD6">
-        <v>0.008755040024622808</v>
+        <v>0</v>
       </c>
       <c r="FE6">
-        <v>0.004142758165818157</v>
+        <v>0</v>
       </c>
       <c r="FF6">
-        <v>0.003636938974245356</v>
+        <v>0</v>
       </c>
       <c r="FG6">
-        <v>0.01481478636136103</v>
+        <v>0</v>
       </c>
       <c r="FH6">
-        <v>0.008095166378182079</v>
+        <v>0</v>
       </c>
       <c r="FI6">
-        <v>0.004721528814588289</v>
+        <v>0</v>
       </c>
       <c r="FJ6">
-        <v>0.001011635051384116</v>
+        <v>0</v>
       </c>
       <c r="FK6">
-        <v>0.0001838990334323575</v>
+        <v>0</v>
       </c>
       <c r="FL6">
-        <v>1.3160565544105E-05</v>
+        <v>0</v>
       </c>
       <c r="FM6">
         <v>0</v>
@@ -5593,97 +5593,97 @@
         <v>0</v>
       </c>
       <c r="FO6">
-        <v>0.0001466228999256286</v>
+        <v>0</v>
       </c>
       <c r="FP6">
-        <v>0.0007140801056250368</v>
+        <v>0</v>
       </c>
       <c r="FQ6">
-        <v>0.002752016724034544</v>
+        <v>0</v>
       </c>
       <c r="FR6">
-        <v>0.00166469819134986</v>
+        <v>0</v>
       </c>
       <c r="FS6">
-        <v>0.008297247870142346</v>
+        <v>0</v>
       </c>
       <c r="FT6">
-        <v>0.002949947430335686</v>
+        <v>0</v>
       </c>
       <c r="FU6">
-        <v>0.002544819251365039</v>
+        <v>0</v>
       </c>
       <c r="FV6">
-        <v>0.00311224301755587</v>
+        <v>0</v>
       </c>
       <c r="FW6">
-        <v>0.002558486177613536</v>
+        <v>0</v>
       </c>
       <c r="FX6">
-        <v>0.001537672143649976</v>
+        <v>0</v>
       </c>
       <c r="FY6">
-        <v>0.000173228376541085</v>
+        <v>0</v>
       </c>
       <c r="FZ6">
-        <v>0.01054517413987192</v>
+        <v>0</v>
       </c>
       <c r="GA6">
-        <v>0.0115007685364266</v>
+        <v>0</v>
       </c>
       <c r="GB6">
-        <v>0.01470523895789067</v>
+        <v>0</v>
       </c>
       <c r="GC6">
-        <v>0.01363991126995343</v>
+        <v>0</v>
       </c>
       <c r="GD6">
-        <v>0.0007698203127677497</v>
+        <v>0</v>
       </c>
       <c r="GE6">
-        <v>2.018895093624195E-06</v>
+        <v>0</v>
       </c>
       <c r="GF6">
         <v>0</v>
       </c>
       <c r="GG6">
-        <v>0.006785127513222129</v>
+        <v>0</v>
       </c>
       <c r="GH6">
-        <v>0.008509324646561843</v>
+        <v>0</v>
       </c>
       <c r="GI6">
-        <v>0.01553165496850963</v>
+        <v>0</v>
       </c>
       <c r="GJ6">
-        <v>0.01342032076191351</v>
+        <v>0</v>
       </c>
       <c r="GK6">
-        <v>0.004154058220896079</v>
+        <v>0</v>
       </c>
       <c r="GL6">
-        <v>0.0006649693927936236</v>
+        <v>0</v>
       </c>
       <c r="GM6">
-        <v>0.003037444769029745</v>
+        <v>0</v>
       </c>
       <c r="GN6">
-        <v>0.002999705459729548</v>
+        <v>0</v>
       </c>
       <c r="GO6">
-        <v>0.00561847039436133</v>
+        <v>0</v>
       </c>
       <c r="GP6">
-        <v>0.008282153365359396</v>
+        <v>0</v>
       </c>
       <c r="GQ6">
-        <v>0.0005404853165829217</v>
+        <v>0</v>
       </c>
       <c r="GR6">
-        <v>0.0004893050008733107</v>
+        <v>0</v>
       </c>
       <c r="GS6">
-        <v>0.002856050570135367</v>
+        <v>0</v>
       </c>
       <c r="GT6">
         <v>0</v>
@@ -6681,736 +6681,736 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>7.873759801109503E-05</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>9.866743575289291E-05</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>9.866743575289291E-05</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>9.866743575289291E-05</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>9.866743575289291E-05</v>
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>9.866743575289291E-05</v>
+        <v>0</v>
       </c>
       <c r="T2">
-        <v>9.866743575289291E-05</v>
+        <v>0</v>
       </c>
       <c r="U2">
-        <v>9.866743575289291E-05</v>
+        <v>0</v>
       </c>
       <c r="V2">
-        <v>9.866743575289291E-05</v>
+        <v>0</v>
       </c>
       <c r="W2">
-        <v>9.866743575289291E-05</v>
+        <v>0</v>
       </c>
       <c r="X2">
-        <v>9.866743575289291E-05</v>
+        <v>0</v>
       </c>
       <c r="Y2">
-        <v>9.866743575289291E-05</v>
+        <v>0</v>
       </c>
       <c r="Z2">
-        <v>9.866743575289291E-05</v>
+        <v>0</v>
       </c>
       <c r="AA2">
-        <v>9.866743575289291E-05</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>9.866743575289291E-05</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>0.0001843365818408624</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>0.0001920285117123076</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>0.0002746099494040717</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>0.0002746099494040717</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>0.0002746099494040717</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>0.0002746099494040717</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>0.0002746099494040717</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <v>0.0002746099494040717</v>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <v>0.0002746099494040717</v>
+        <v>0</v>
       </c>
       <c r="AL2">
-        <v>0.0002746099494040717</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>0.0002746099494040717</v>
+        <v>0</v>
       </c>
       <c r="AN2">
-        <v>0.0002746099494040717</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>0.0002746099494040717</v>
+        <v>0</v>
       </c>
       <c r="AP2">
-        <v>0.0002746099494040717</v>
+        <v>0</v>
       </c>
       <c r="AQ2">
-        <v>0.0002746099494040717</v>
+        <v>0</v>
       </c>
       <c r="AR2">
-        <v>0.0003874784543035562</v>
+        <v>0</v>
       </c>
       <c r="AS2">
-        <v>0.0007278169134605549</v>
+        <v>0</v>
       </c>
       <c r="AT2">
-        <v>0.001061352948145015</v>
+        <v>0</v>
       </c>
       <c r="AU2">
-        <v>0.0012849709063376</v>
+        <v>0</v>
       </c>
       <c r="AV2">
-        <v>0.001318957985154256</v>
+        <v>0</v>
       </c>
       <c r="AW2">
-        <v>0.001318957985154256</v>
+        <v>0</v>
       </c>
       <c r="AX2">
-        <v>0.001318957985154256</v>
+        <v>0</v>
       </c>
       <c r="AY2">
-        <v>0.001318957985154256</v>
+        <v>0</v>
       </c>
       <c r="AZ2">
-        <v>0.001318957985154256</v>
+        <v>0</v>
       </c>
       <c r="BA2">
-        <v>0.001318957985154256</v>
+        <v>0</v>
       </c>
       <c r="BB2">
-        <v>0.001318957985154256</v>
+        <v>0</v>
       </c>
       <c r="BC2">
-        <v>0.001318957985154256</v>
+        <v>0</v>
       </c>
       <c r="BD2">
-        <v>0.001318957985154256</v>
+        <v>0</v>
       </c>
       <c r="BE2">
-        <v>0.001318957985154256</v>
+        <v>0</v>
       </c>
       <c r="BF2">
-        <v>0.001318957985154256</v>
+        <v>0</v>
       </c>
       <c r="BG2">
-        <v>0.001318957985154256</v>
+        <v>0</v>
       </c>
       <c r="BH2">
-        <v>0.001415983230583325</v>
+        <v>0</v>
       </c>
       <c r="BI2">
-        <v>0.001668858368872537</v>
+        <v>0</v>
       </c>
       <c r="BJ2">
-        <v>0.001986291862970046</v>
+        <v>0</v>
       </c>
       <c r="BK2">
-        <v>0.001989011844802658</v>
+        <v>0</v>
       </c>
       <c r="BL2">
-        <v>0.001989011844802658</v>
+        <v>0</v>
       </c>
       <c r="BM2">
-        <v>0.001989011844802658</v>
+        <v>0</v>
       </c>
       <c r="BN2">
-        <v>0.001989011844802658</v>
+        <v>0</v>
       </c>
       <c r="BO2">
-        <v>0.001989011844802658</v>
+        <v>0</v>
       </c>
       <c r="BP2">
-        <v>0.001989011844802658</v>
+        <v>0</v>
       </c>
       <c r="BQ2">
-        <v>0.001989011844802658</v>
+        <v>0</v>
       </c>
       <c r="BR2">
-        <v>0.001989011844802658</v>
+        <v>0</v>
       </c>
       <c r="BS2">
-        <v>0.001989011844802658</v>
+        <v>0</v>
       </c>
       <c r="BT2">
-        <v>0.001989011844802658</v>
+        <v>0</v>
       </c>
       <c r="BU2">
-        <v>0.001989011844802658</v>
+        <v>0</v>
       </c>
       <c r="BV2">
-        <v>0.001989011844802658</v>
+        <v>0</v>
       </c>
       <c r="BW2">
-        <v>0.001989011844802658</v>
+        <v>0</v>
       </c>
       <c r="BX2">
-        <v>0.002090449234601585</v>
+        <v>0</v>
       </c>
       <c r="BY2">
-        <v>0.002427384528585238</v>
+        <v>0</v>
       </c>
       <c r="BZ2">
-        <v>0.002739485240799413</v>
+        <v>0</v>
       </c>
       <c r="CA2">
-        <v>0.00285756739842058</v>
+        <v>0</v>
       </c>
       <c r="CB2">
-        <v>0.002863527532619996</v>
+        <v>0</v>
       </c>
       <c r="CC2">
-        <v>0.002863527532619996</v>
+        <v>0</v>
       </c>
       <c r="CD2">
-        <v>0.002863527532619996</v>
+        <v>0</v>
       </c>
       <c r="CE2">
-        <v>0.002863527532619996</v>
+        <v>0</v>
       </c>
       <c r="CF2">
-        <v>0.002863527532619996</v>
+        <v>0</v>
       </c>
       <c r="CG2">
-        <v>0.002863527532619996</v>
+        <v>0</v>
       </c>
       <c r="CH2">
-        <v>0.002863527532619996</v>
+        <v>0</v>
       </c>
       <c r="CI2">
-        <v>0.002863527532619996</v>
+        <v>0</v>
       </c>
       <c r="CJ2">
-        <v>0.002863527532619996</v>
+        <v>0</v>
       </c>
       <c r="CK2">
-        <v>0.002863527532619996</v>
+        <v>0</v>
       </c>
       <c r="CL2">
-        <v>0.002863527532619996</v>
+        <v>0</v>
       </c>
       <c r="CM2">
-        <v>0.002863527532619996</v>
+        <v>0</v>
       </c>
       <c r="CN2">
-        <v>0.002863527532619996</v>
+        <v>0</v>
       </c>
       <c r="CO2">
-        <v>0.002863527532619996</v>
+        <v>0</v>
       </c>
       <c r="CP2">
-        <v>0.02958403214672833</v>
+        <v>0</v>
       </c>
       <c r="CQ2">
-        <v>0.09841648058150729</v>
+        <v>0.1980292160279785</v>
       </c>
       <c r="CR2">
-        <v>0.2051052127198725</v>
+        <v>0.6074143768024984</v>
       </c>
       <c r="CS2">
-        <v>0.2061540883530374</v>
+        <v>0.6074143768024984</v>
       </c>
       <c r="CT2">
-        <v>0.2102489430568699</v>
+        <v>0.6074143768024984</v>
       </c>
       <c r="CU2">
-        <v>0.2420357443975382</v>
+        <v>0.6074143768024984</v>
       </c>
       <c r="CV2">
-        <v>0.2430373853755476</v>
+        <v>0.6074143768024984</v>
       </c>
       <c r="CW2">
-        <v>0.2707847259237647</v>
+        <v>0.6074143768024984</v>
       </c>
       <c r="CX2">
-        <v>0.2746810573364412</v>
+        <v>0.6074143768024984</v>
       </c>
       <c r="CY2">
-        <v>0.2746810573364412</v>
+        <v>0.6074143768024984</v>
       </c>
       <c r="CZ2">
-        <v>0.2820209188342563</v>
+        <v>0.6074143768024984</v>
       </c>
       <c r="DA2">
-        <v>0.2990830846812013</v>
+        <v>0.6074143768024984</v>
       </c>
       <c r="DB2">
-        <v>0.3195519620054649</v>
+        <v>0.6074143768024984</v>
       </c>
       <c r="DC2">
-        <v>0.3386012126078328</v>
+        <v>0.6074143768024984</v>
       </c>
       <c r="DD2">
-        <v>0.3583915212667955</v>
+        <v>0.6074143768024984</v>
       </c>
       <c r="DE2">
-        <v>0.4067408683324339</v>
+        <v>0.6910841043209448</v>
       </c>
       <c r="DF2">
-        <v>0.4217384258635343</v>
+        <v>0.6910841043209448</v>
       </c>
       <c r="DG2">
-        <v>0.4668911055783375</v>
+        <v>0.7569064738349336</v>
       </c>
       <c r="DH2">
-        <v>0.4668911055783375</v>
+        <v>0.7569064738349336</v>
       </c>
       <c r="DI2">
-        <v>0.4668911055783375</v>
+        <v>0.7569064738349336</v>
       </c>
       <c r="DJ2">
-        <v>0.4753255078923355</v>
+        <v>0.7569064738349336</v>
       </c>
       <c r="DK2">
-        <v>0.4770829435603598</v>
+        <v>0.7569064738349336</v>
       </c>
       <c r="DL2">
-        <v>0.4828623267704074</v>
+        <v>0.7569064738349336</v>
       </c>
       <c r="DM2">
-        <v>0.4828623267704074</v>
+        <v>0.7569064738349336</v>
       </c>
       <c r="DN2">
-        <v>0.4828623267704074</v>
+        <v>0.7569064738349336</v>
       </c>
       <c r="DO2">
-        <v>0.4828623267704074</v>
+        <v>0.7569064738349336</v>
       </c>
       <c r="DP2">
-        <v>0.4858967994804578</v>
+        <v>0.7569064738349336</v>
       </c>
       <c r="DQ2">
-        <v>0.4882468753865785</v>
+        <v>0.7569064738349336</v>
       </c>
       <c r="DR2">
-        <v>0.4882468753865785</v>
+        <v>0.7569064738349336</v>
       </c>
       <c r="DS2">
-        <v>0.4888824684078512</v>
+        <v>0.7569064738349336</v>
       </c>
       <c r="DT2">
-        <v>0.4888824684078512</v>
+        <v>0.7569064738349336</v>
       </c>
       <c r="DU2">
-        <v>0.5010936109309378</v>
+        <v>0.7569064738349336</v>
       </c>
       <c r="DV2">
-        <v>0.5212735994638037</v>
+        <v>0.7569064738349336</v>
       </c>
       <c r="DW2">
-        <v>0.5230711412220193</v>
+        <v>0.7569064738349336</v>
       </c>
       <c r="DX2">
-        <v>0.5230711412220193</v>
+        <v>0.7569064738349336</v>
       </c>
       <c r="DY2">
-        <v>0.5230711412220193</v>
+        <v>0.7569064738349336</v>
       </c>
       <c r="DZ2">
-        <v>0.5230711412220193</v>
+        <v>0.7569064738349336</v>
       </c>
       <c r="EA2">
-        <v>0.5230711412220193</v>
+        <v>0.7569064738349336</v>
       </c>
       <c r="EB2">
-        <v>0.5230711412220193</v>
+        <v>0.7569064738349336</v>
       </c>
       <c r="EC2">
-        <v>0.5230711412220193</v>
+        <v>0.7569064738349336</v>
       </c>
       <c r="ED2">
-        <v>0.5320826720544316</v>
+        <v>0.7569064738349336</v>
       </c>
       <c r="EE2">
-        <v>0.5320826720544316</v>
+        <v>0.7569064738349336</v>
       </c>
       <c r="EF2">
-        <v>0.5381940233204487</v>
+        <v>0.7569064738349336</v>
       </c>
       <c r="EG2">
-        <v>0.5405987691726888</v>
+        <v>0.7569064738349336</v>
       </c>
       <c r="EH2">
-        <v>0.5432699645693204</v>
+        <v>0.7569064738349336</v>
       </c>
       <c r="EI2">
-        <v>0.543866826942497</v>
+        <v>0.7569064738349336</v>
       </c>
       <c r="EJ2">
-        <v>0.5508990939580835</v>
+        <v>0.7569064738349336</v>
       </c>
       <c r="EK2">
-        <v>0.5610856116799955</v>
+        <v>0.7569064738349336</v>
       </c>
       <c r="EL2">
-        <v>0.5610856116799955</v>
+        <v>0.7569064738349336</v>
       </c>
       <c r="EM2">
-        <v>0.5625070563565518</v>
+        <v>0.7569064738349336</v>
       </c>
       <c r="EN2">
-        <v>0.5885102954315866</v>
+        <v>0.7569064738349336</v>
       </c>
       <c r="EO2">
-        <v>0.6576139528332907</v>
+        <v>0.9564498804231112</v>
       </c>
       <c r="EP2">
-        <v>0.6964093754869408</v>
+        <v>0.9867789595053891</v>
       </c>
       <c r="EQ2">
-        <v>0.7027407804861078</v>
+        <v>0.9867789595053891</v>
       </c>
       <c r="ER2">
-        <v>0.7061647601776907</v>
+        <v>0.9867789595053891</v>
       </c>
       <c r="ES2">
-        <v>0.7061647601776907</v>
+        <v>0.9867789595053891</v>
       </c>
       <c r="ET2">
-        <v>0.7075175976003651</v>
+        <v>0.9867789595053891</v>
       </c>
       <c r="EU2">
-        <v>0.7075405322041167</v>
+        <v>0.9867789595053891</v>
       </c>
       <c r="EV2">
-        <v>0.7109901747525467</v>
+        <v>0.9867789595053891</v>
       </c>
       <c r="EW2">
-        <v>0.7318029792301629</v>
+        <v>0.9867789595053891</v>
       </c>
       <c r="EX2">
-        <v>0.7392807663345951</v>
+        <v>0.9867789595053891</v>
       </c>
       <c r="EY2">
-        <v>0.7565774328241506</v>
+        <v>0.9867789595053891</v>
       </c>
       <c r="EZ2">
-        <v>0.7923086087486003</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FA2">
-        <v>0.7992306830128391</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FB2">
-        <v>0.7992306830128391</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FC2">
-        <v>0.7992306830128391</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FD2">
-        <v>0.8097637655019432</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FE2">
-        <v>0.8337576471485936</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FF2">
-        <v>0.8395998276247213</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FG2">
-        <v>0.8423083223963296</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FH2">
-        <v>0.8423083223963296</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FI2">
-        <v>0.8505155705574832</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FJ2">
-        <v>0.8561101817956005</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FK2">
-        <v>0.8647434137821182</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FL2">
-        <v>0.8684073245450489</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FM2">
-        <v>0.8684073245450489</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FN2">
-        <v>0.8684073245450489</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FO2">
-        <v>0.8684073245450489</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FP2">
-        <v>0.8684073245450489</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FQ2">
-        <v>0.8684073245450489</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FR2">
-        <v>0.8708351240153235</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FS2">
-        <v>0.8765138264263712</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FT2">
-        <v>0.8771731739403317</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FU2">
-        <v>0.8875295328558327</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FV2">
-        <v>0.892899144260458</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FW2">
-        <v>0.892899144260458</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FX2">
-        <v>0.892899144260458</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FY2">
-        <v>0.8971366645789489</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FZ2">
-        <v>0.9015548460517031</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GA2">
-        <v>0.9015548460517031</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GB2">
-        <v>0.907287824489974</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GC2">
-        <v>0.9154123404926451</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GD2">
-        <v>0.9228825398621427</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GE2">
-        <v>0.93252692799562</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GF2">
-        <v>0.9337583678627897</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GG2">
-        <v>0.9337583678627897</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GH2">
-        <v>0.9337583678627897</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GI2">
-        <v>0.9405843066167555</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GJ2">
-        <v>0.9545507478351906</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GK2">
-        <v>0.9695549085911817</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GL2">
-        <v>0.9824898268265249</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GM2">
-        <v>0.9867098834072866</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GN2">
-        <v>0.9871964841019245</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GO2">
-        <v>0.9902497077649945</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GP2">
-        <v>0.99256428685706</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GQ2">
-        <v>0.9944200724362444</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GR2">
-        <v>0.9998155441741189</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GS2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GT2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GU2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GV2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GW2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GX2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GY2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GZ2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HA2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HB2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HC2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HD2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HE2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HF2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HG2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HH2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HI2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HJ2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HK2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HL2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HM2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HN2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HO2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HP2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HQ2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HR2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HS2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HT2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HU2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HV2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HW2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HX2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HY2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HZ2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IA2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IB2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IC2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="ID2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IE2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IF2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IG2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IH2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="II2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IJ2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IK2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IL2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IM2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IN2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IO2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IP2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IQ2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IR2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IS2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IT2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IU2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IV2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IW2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:257">
@@ -7418,772 +7418,772 @@
         <v>258</v>
       </c>
       <c r="B3">
-        <v>0.00101103349321049</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>0.002945019716521127</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>0.004311179470423166</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>0.006135042256477594</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0.008383675221477097</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>0.009970597609306277</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>0.01060657585578982</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0.01060657585578982</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0.01154312391151299</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0.01288436012234643</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0.01408510183894323</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0.01522365747617272</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>0.01566559621669062</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0.01573782455537474</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>0.01573782455537474</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>0.01573782455537474</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>0.01573782455537474</v>
+        <v>0</v>
       </c>
       <c r="S3">
-        <v>0.01587864428888653</v>
+        <v>0</v>
       </c>
       <c r="T3">
-        <v>0.01587864428888653</v>
+        <v>0</v>
       </c>
       <c r="U3">
-        <v>0.01587864428888653</v>
+        <v>0</v>
       </c>
       <c r="V3">
-        <v>0.01587864428888653</v>
+        <v>0</v>
       </c>
       <c r="W3">
-        <v>0.01587864428888653</v>
+        <v>0</v>
       </c>
       <c r="X3">
-        <v>0.01591339006611262</v>
+        <v>0</v>
       </c>
       <c r="Y3">
-        <v>0.01678915057839344</v>
+        <v>0</v>
       </c>
       <c r="Z3">
-        <v>0.01815739489765374</v>
+        <v>0</v>
       </c>
       <c r="AA3">
-        <v>0.019250687440361</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>0.01954033984906511</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>0.01957808876651064</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>0.0205621775272317</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>0.02128463911111346</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>0.0216199810237424</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>0.02183426951392917</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>0.02218587943617921</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>0.02341430325926775</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>0.02425311732022295</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>0.02436016666236493</v>
+        <v>0</v>
       </c>
       <c r="AL3">
-        <v>0.02493117991534034</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>0.02527126211671759</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>0.02581907142706036</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>0.02582260681047406</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>0.02594206556355441</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
-        <v>0.02622220766842932</v>
+        <v>0</v>
       </c>
       <c r="AR3">
-        <v>0.02622220766842932</v>
+        <v>0</v>
       </c>
       <c r="AS3">
-        <v>0.02623477023486528</v>
+        <v>0</v>
       </c>
       <c r="AT3">
-        <v>0.02623477023486528</v>
+        <v>0</v>
       </c>
       <c r="AU3">
-        <v>0.02624311761337962</v>
+        <v>0</v>
       </c>
       <c r="AV3">
-        <v>0.02631594632338478</v>
+        <v>0</v>
       </c>
       <c r="AW3">
-        <v>0.02643238767766573</v>
+        <v>0</v>
       </c>
       <c r="AX3">
-        <v>0.02651849675500417</v>
+        <v>0</v>
       </c>
       <c r="AY3">
-        <v>0.02652757268619392</v>
+        <v>0</v>
       </c>
       <c r="AZ3">
-        <v>0.02658124742746091</v>
+        <v>0</v>
       </c>
       <c r="BA3">
-        <v>0.02683759019792009</v>
+        <v>0</v>
       </c>
       <c r="BB3">
-        <v>0.02733859413515375</v>
+        <v>0</v>
       </c>
       <c r="BC3">
-        <v>0.02740658437400592</v>
+        <v>0</v>
       </c>
       <c r="BD3">
-        <v>0.02740658437400592</v>
+        <v>0</v>
       </c>
       <c r="BE3">
-        <v>0.02740658437400592</v>
+        <v>0</v>
       </c>
       <c r="BF3">
-        <v>0.02750198788465901</v>
+        <v>0</v>
       </c>
       <c r="BG3">
-        <v>0.02766056439898015</v>
+        <v>0</v>
       </c>
       <c r="BH3">
-        <v>0.02776206617370653</v>
+        <v>0</v>
       </c>
       <c r="BI3">
-        <v>0.02776206617370653</v>
+        <v>0</v>
       </c>
       <c r="BJ3">
-        <v>0.02811029007051405</v>
+        <v>0</v>
       </c>
       <c r="BK3">
-        <v>0.02869924283825177</v>
+        <v>0</v>
       </c>
       <c r="BL3">
-        <v>0.02911577452759673</v>
+        <v>0</v>
       </c>
       <c r="BM3">
-        <v>0.02965078853795982</v>
+        <v>0</v>
       </c>
       <c r="BN3">
-        <v>0.03003713141135336</v>
+        <v>0</v>
       </c>
       <c r="BO3">
-        <v>0.03028447396374272</v>
+        <v>0</v>
       </c>
       <c r="BP3">
-        <v>0.03063942486422133</v>
+        <v>0</v>
       </c>
       <c r="BQ3">
-        <v>0.03079614147585261</v>
+        <v>0</v>
       </c>
       <c r="BR3">
-        <v>0.03079657319676235</v>
+        <v>0</v>
       </c>
       <c r="BS3">
-        <v>0.03081875720930839</v>
+        <v>0</v>
       </c>
       <c r="BT3">
-        <v>0.03121258022388233</v>
+        <v>0</v>
       </c>
       <c r="BU3">
-        <v>0.03136853246135001</v>
+        <v>0</v>
       </c>
       <c r="BV3">
-        <v>0.03139298283162192</v>
+        <v>0</v>
       </c>
       <c r="BW3">
-        <v>0.03159778352146713</v>
+        <v>0</v>
       </c>
       <c r="BX3">
-        <v>0.03181387175750156</v>
+        <v>0</v>
       </c>
       <c r="BY3">
-        <v>0.0320076479615963</v>
+        <v>0</v>
       </c>
       <c r="BZ3">
-        <v>0.03233138011672233</v>
+        <v>0</v>
       </c>
       <c r="CA3">
-        <v>0.03245966765093188</v>
+        <v>0</v>
       </c>
       <c r="CB3">
-        <v>0.03262838255480129</v>
+        <v>0</v>
       </c>
       <c r="CC3">
-        <v>0.03275522449393743</v>
+        <v>0</v>
       </c>
       <c r="CD3">
-        <v>0.0328616179554849</v>
+        <v>0</v>
       </c>
       <c r="CE3">
-        <v>0.03294897368781122</v>
+        <v>0</v>
       </c>
       <c r="CF3">
-        <v>0.03302854469218984</v>
+        <v>0</v>
       </c>
       <c r="CG3">
-        <v>0.0333282254979819</v>
+        <v>0</v>
       </c>
       <c r="CH3">
-        <v>0.03355463607473794</v>
+        <v>0</v>
       </c>
       <c r="CI3">
-        <v>0.03399287639674008</v>
+        <v>0</v>
       </c>
       <c r="CJ3">
-        <v>0.03417421605895943</v>
+        <v>0</v>
       </c>
       <c r="CK3">
-        <v>0.03417421605895943</v>
+        <v>0</v>
       </c>
       <c r="CL3">
-        <v>0.03424879324669676</v>
+        <v>0</v>
       </c>
       <c r="CM3">
-        <v>0.03520804366977623</v>
+        <v>0</v>
       </c>
       <c r="CN3">
-        <v>0.03723355671776587</v>
+        <v>0</v>
       </c>
       <c r="CO3">
-        <v>0.04067213075138696</v>
+        <v>0</v>
       </c>
       <c r="CP3">
-        <v>0.04302485295962423</v>
+        <v>0</v>
       </c>
       <c r="CQ3">
-        <v>0.04751064776446856</v>
+        <v>0</v>
       </c>
       <c r="CR3">
-        <v>0.09025820816030813</v>
+        <v>0.1415573148957143</v>
       </c>
       <c r="CS3">
-        <v>0.09222185814501799</v>
+        <v>0.1415573148957143</v>
       </c>
       <c r="CT3">
-        <v>0.1157082338120086</v>
+        <v>0.1415573148957143</v>
       </c>
       <c r="CU3">
-        <v>0.1161957021881342</v>
+        <v>0.1415573148957143</v>
       </c>
       <c r="CV3">
-        <v>0.1849903644505961</v>
+        <v>0.5757392709753013</v>
       </c>
       <c r="CW3">
-        <v>0.1966439843191017</v>
+        <v>0.5757392709753013</v>
       </c>
       <c r="CX3">
-        <v>0.1994723147707701</v>
+        <v>0.5757392709753013</v>
       </c>
       <c r="CY3">
-        <v>0.199909281377265</v>
+        <v>0.5757392709753013</v>
       </c>
       <c r="CZ3">
-        <v>0.2007925788578168</v>
+        <v>0.5757392709753013</v>
       </c>
       <c r="DA3">
-        <v>0.2011408027546243</v>
+        <v>0.5757392709753013</v>
       </c>
       <c r="DB3">
-        <v>0.2291368914259666</v>
+        <v>0.5757392709753013</v>
       </c>
       <c r="DC3">
-        <v>0.2848001218200794</v>
+        <v>0.8623969244133667</v>
       </c>
       <c r="DD3">
-        <v>0.2866786494706774</v>
+        <v>0.8623969244133667</v>
       </c>
       <c r="DE3">
-        <v>0.2959357993047894</v>
+        <v>0.8623969244133667</v>
       </c>
       <c r="DF3">
-        <v>0.304562141272409</v>
+        <v>0.8623969244133667</v>
       </c>
       <c r="DG3">
-        <v>0.3415192273620005</v>
+        <v>0.9389014946764204</v>
       </c>
       <c r="DH3">
-        <v>0.3424263047014418</v>
+        <v>0.9389014946764204</v>
       </c>
       <c r="DI3">
-        <v>0.3447827565332993</v>
+        <v>0.9389014946764204</v>
       </c>
       <c r="DJ3">
-        <v>0.3449580101841265</v>
+        <v>0.9389014946764204</v>
       </c>
       <c r="DK3">
-        <v>0.3466029790960439</v>
+        <v>0.9389014946764204</v>
       </c>
       <c r="DL3">
-        <v>0.3466029790960439</v>
+        <v>0.9389014946764204</v>
       </c>
       <c r="DM3">
-        <v>0.3535762194899018</v>
+        <v>0.9389014946764204</v>
       </c>
       <c r="DN3">
-        <v>0.3535762194899018</v>
+        <v>0.9389014946764204</v>
       </c>
       <c r="DO3">
-        <v>0.3558918042035709</v>
+        <v>0.9389014946764204</v>
       </c>
       <c r="DP3">
-        <v>0.3589628442757065</v>
+        <v>0.9389014946764204</v>
       </c>
       <c r="DQ3">
-        <v>0.3611778035932077</v>
+        <v>0.9389014946764204</v>
       </c>
       <c r="DR3">
-        <v>0.3677122869399201</v>
+        <v>0.9389014946764204</v>
       </c>
       <c r="DS3">
-        <v>0.3765008662775591</v>
+        <v>0.9389014946764204</v>
       </c>
       <c r="DT3">
-        <v>0.394343657971787</v>
+        <v>0.9389014946764204</v>
       </c>
       <c r="DU3">
-        <v>0.4056369453972352</v>
+        <v>0.9389014946764204</v>
       </c>
       <c r="DV3">
-        <v>0.4056742050464078</v>
+        <v>0.9389014946764204</v>
       </c>
       <c r="DW3">
-        <v>0.4077546935010346</v>
+        <v>0.9389014946764204</v>
       </c>
       <c r="DX3">
-        <v>0.4085600437089638</v>
+        <v>0.9389014946764204</v>
       </c>
       <c r="DY3">
-        <v>0.4085754459660586</v>
+        <v>0.9389014946764204</v>
       </c>
       <c r="DZ3">
-        <v>0.408800912784569</v>
+        <v>0.9389014946764204</v>
       </c>
       <c r="EA3">
-        <v>0.4097262556224636</v>
+        <v>0.9389014946764204</v>
       </c>
       <c r="EB3">
-        <v>0.4097262556224636</v>
+        <v>0.9389014946764204</v>
       </c>
       <c r="EC3">
-        <v>0.4117327659488928</v>
+        <v>0.9389014946764204</v>
       </c>
       <c r="ED3">
-        <v>0.4127456000229038</v>
+        <v>0.9389014946764204</v>
       </c>
       <c r="EE3">
-        <v>0.414341750953192</v>
+        <v>0.9389014946764204</v>
       </c>
       <c r="EF3">
-        <v>0.4225644083186409</v>
+        <v>0.9389014946764204</v>
       </c>
       <c r="EG3">
-        <v>0.4225644083186409</v>
+        <v>0.9389014946764204</v>
       </c>
       <c r="EH3">
-        <v>0.4235069051315831</v>
+        <v>0.9389014946764204</v>
       </c>
       <c r="EI3">
-        <v>0.4296770422258667</v>
+        <v>0.9389014946764204</v>
       </c>
       <c r="EJ3">
-        <v>0.4425994815589133</v>
+        <v>0.9389014946764204</v>
       </c>
       <c r="EK3">
-        <v>0.4591130595381183</v>
+        <v>0.9389014946764204</v>
       </c>
       <c r="EL3">
-        <v>0.4810257141055266</v>
+        <v>0.9389014946764204</v>
       </c>
       <c r="EM3">
-        <v>0.4943465672752798</v>
+        <v>0.9389014946764204</v>
       </c>
       <c r="EN3">
-        <v>0.50688946522042</v>
+        <v>0.9389014946764204</v>
       </c>
       <c r="EO3">
-        <v>0.5071055534564545</v>
+        <v>0.9389014946764204</v>
       </c>
       <c r="EP3">
-        <v>0.5192764924919181</v>
+        <v>0.9389014946764204</v>
       </c>
       <c r="EQ3">
-        <v>0.5548622540709734</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="ER3">
-        <v>0.583932321437908</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="ES3">
-        <v>0.6008185207562309</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="ET3">
-        <v>0.6089769994223618</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="EU3">
-        <v>0.6183559648500113</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="EV3">
-        <v>0.6298532931179938</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="EW3">
-        <v>0.630222639208784</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="EX3">
-        <v>0.6356470113266297</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="EY3">
-        <v>0.6453228487586431</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="EZ3">
-        <v>0.6515532603933046</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FA3">
-        <v>0.6662025396057155</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FB3">
-        <v>0.6783125753712631</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FC3">
-        <v>0.6834174806552888</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FD3">
-        <v>0.6841900228505478</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FE3">
-        <v>0.6884753854186165</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FF3">
-        <v>0.7120613920831376</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FG3">
-        <v>0.737452425923434</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FH3">
-        <v>0.7573034713054737</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FI3">
-        <v>0.7663302697263233</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FJ3">
-        <v>0.766342073132524</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FK3">
-        <v>0.7665140442920593</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FL3">
-        <v>0.7754666546393439</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FM3">
-        <v>0.7944738534381909</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FN3">
-        <v>0.8061008307667723</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FO3">
-        <v>0.8107042317957471</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FP3">
-        <v>0.8116260347455067</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FQ3">
-        <v>0.8118642313051104</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FR3">
-        <v>0.813376768650985</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FS3">
-        <v>0.813376768650985</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FT3">
-        <v>0.8142456420397858</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FU3">
-        <v>0.8149550137161158</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FV3">
-        <v>0.8152634108057183</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FW3">
-        <v>0.8167977171825244</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FX3">
-        <v>0.8174000569601847</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FY3">
-        <v>0.8174000569601847</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FZ3">
-        <v>0.8194560535322946</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GA3">
-        <v>0.8255542468659725</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GB3">
-        <v>0.8312874149193203</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GC3">
-        <v>0.8313193883372882</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GD3">
-        <v>0.8375029415139483</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GE3">
-        <v>0.8515048154060273</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GF3">
-        <v>0.8753496715303478</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GG3">
-        <v>0.8984977132463448</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GH3">
-        <v>0.9157132209773955</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GI3">
-        <v>0.929629299945652</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GJ3">
-        <v>0.9329762814649319</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GK3">
-        <v>0.933648245272873</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GL3">
-        <v>0.9399513705348851</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GM3">
-        <v>0.9530875894795199</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GN3">
-        <v>0.9656647572083573</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GO3">
-        <v>0.9752767569639543</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GP3">
-        <v>0.9848887567195513</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GQ3">
-        <v>0.9929766999792421</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GR3">
-        <v>0.9962850479294433</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GS3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GT3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GU3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GV3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GW3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GX3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GY3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GZ3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HA3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HB3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HC3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HD3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HE3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HF3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HG3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HH3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HI3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HJ3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HK3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HL3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HM3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HN3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HO3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HP3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HQ3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HR3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HS3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HT3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HU3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HV3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HW3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HX3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HY3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HZ3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IA3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IB3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IC3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="ID3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IE3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IF3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IG3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IH3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="II3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IJ3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IK3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IL3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IM3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IN3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IO3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IP3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IQ3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IR3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IS3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IT3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IU3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IV3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IW3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
     </row>
     <row r="4" spans="1:257">
@@ -8197,766 +8197,766 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>2.362666825940258E-05</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>0.000525777369755427</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.001985119220715586</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>0.004032570984411512</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>0.006236423510685001</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0.008299555458008541</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0.009606135426967696</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0.01041357175112625</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0.01082140961484592</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0.01107625482084246</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>0.01124836120958575</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0.01127601299872727</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>0.01127601299872727</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>0.01127601299872727</v>
+        <v>0</v>
       </c>
       <c r="R4">
-        <v>0.01127601299872727</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>0.01140024338556708</v>
+        <v>0</v>
       </c>
       <c r="T4">
-        <v>0.01214718773338123</v>
+        <v>0</v>
       </c>
       <c r="U4">
-        <v>0.01348260138702121</v>
+        <v>0</v>
       </c>
       <c r="V4">
-        <v>0.01543696492599591</v>
+        <v>0</v>
       </c>
       <c r="W4">
-        <v>0.01798394795393576</v>
+        <v>0</v>
       </c>
       <c r="X4">
-        <v>0.02054041056203679</v>
+        <v>0</v>
       </c>
       <c r="Y4">
-        <v>0.0232508377624428</v>
+        <v>0</v>
       </c>
       <c r="Z4">
-        <v>0.02569156057394609</v>
+        <v>0</v>
       </c>
       <c r="AA4">
-        <v>0.02741473219765076</v>
+        <v>0</v>
       </c>
       <c r="AB4">
-        <v>0.02832422499348145</v>
+        <v>0</v>
       </c>
       <c r="AC4">
-        <v>0.02857898749207442</v>
+        <v>0</v>
       </c>
       <c r="AD4">
-        <v>0.02857898749207442</v>
+        <v>0</v>
       </c>
       <c r="AE4">
-        <v>0.02857898749207442</v>
+        <v>0</v>
       </c>
       <c r="AF4">
-        <v>0.02857898749207442</v>
+        <v>0</v>
       </c>
       <c r="AG4">
-        <v>0.02857898749207442</v>
+        <v>0</v>
       </c>
       <c r="AH4">
-        <v>0.02863118042509087</v>
+        <v>0</v>
       </c>
       <c r="AI4">
-        <v>0.02883425990898446</v>
+        <v>0</v>
       </c>
       <c r="AJ4">
-        <v>0.0291479121629421</v>
+        <v>0</v>
       </c>
       <c r="AK4">
-        <v>0.02954390145556175</v>
+        <v>0</v>
       </c>
       <c r="AL4">
-        <v>0.03001078906484459</v>
+        <v>0</v>
       </c>
       <c r="AM4">
-        <v>0.03063571953009039</v>
+        <v>0</v>
       </c>
       <c r="AN4">
-        <v>0.03175501933074832</v>
+        <v>0</v>
       </c>
       <c r="AO4">
-        <v>0.03295296604686123</v>
+        <v>0</v>
       </c>
       <c r="AP4">
-        <v>0.0340138211552404</v>
+        <v>0</v>
       </c>
       <c r="AQ4">
-        <v>0.0350600253254105</v>
+        <v>0</v>
       </c>
       <c r="AR4">
-        <v>0.0361356231102008</v>
+        <v>0</v>
       </c>
       <c r="AS4">
-        <v>0.03736705478086121</v>
+        <v>0</v>
       </c>
       <c r="AT4">
-        <v>0.03781197408398795</v>
+        <v>0</v>
       </c>
       <c r="AU4">
-        <v>0.03783560075224736</v>
+        <v>0</v>
       </c>
       <c r="AV4">
-        <v>0.03783560075224736</v>
+        <v>0</v>
       </c>
       <c r="AW4">
-        <v>0.03783560075224736</v>
+        <v>0</v>
       </c>
       <c r="AX4">
-        <v>0.03840403604373508</v>
+        <v>0</v>
       </c>
       <c r="AY4">
-        <v>0.03971623002289087</v>
+        <v>0</v>
       </c>
       <c r="AZ4">
-        <v>0.04130548021690929</v>
+        <v>0</v>
       </c>
       <c r="BA4">
-        <v>0.04299339760553009</v>
+        <v>0</v>
       </c>
       <c r="BB4">
-        <v>0.04450028232000069</v>
+        <v>0</v>
       </c>
       <c r="BC4">
-        <v>0.0457281894252829</v>
+        <v>0</v>
       </c>
       <c r="BD4">
-        <v>0.04683232831322761</v>
+        <v>0</v>
       </c>
       <c r="BE4">
-        <v>0.04761377756459758</v>
+        <v>0</v>
       </c>
       <c r="BF4">
-        <v>0.04819589650791763</v>
+        <v>0</v>
       </c>
       <c r="BG4">
-        <v>0.04837368257424764</v>
+        <v>0</v>
       </c>
       <c r="BH4">
-        <v>0.04837368257424764</v>
+        <v>0</v>
       </c>
       <c r="BI4">
-        <v>0.04845056254348466</v>
+        <v>0</v>
       </c>
       <c r="BJ4">
-        <v>0.04846067117903555</v>
+        <v>0</v>
       </c>
       <c r="BK4">
-        <v>0.04846067117903555</v>
+        <v>0</v>
       </c>
       <c r="BL4">
-        <v>0.04846067117903555</v>
+        <v>0</v>
       </c>
       <c r="BM4">
-        <v>0.04846067117903555</v>
+        <v>0</v>
       </c>
       <c r="BN4">
-        <v>0.04846067117903555</v>
+        <v>0</v>
       </c>
       <c r="BO4">
-        <v>0.04846067117903555</v>
+        <v>0</v>
       </c>
       <c r="BP4">
-        <v>0.04851606642911773</v>
+        <v>0</v>
       </c>
       <c r="BQ4">
-        <v>0.04907185763218545</v>
+        <v>0</v>
       </c>
       <c r="BR4">
-        <v>0.05071347961295893</v>
+        <v>0</v>
       </c>
       <c r="BS4">
-        <v>0.05244077332625551</v>
+        <v>0</v>
       </c>
       <c r="BT4">
-        <v>0.05402010782609869</v>
+        <v>0</v>
       </c>
       <c r="BU4">
-        <v>0.05537087894512537</v>
+        <v>0</v>
       </c>
       <c r="BV4">
-        <v>0.05632709018654811</v>
+        <v>0</v>
       </c>
       <c r="BW4">
-        <v>0.05677782653960046</v>
+        <v>0</v>
       </c>
       <c r="BX4">
-        <v>0.05681789317381516</v>
+        <v>0</v>
       </c>
       <c r="BY4">
-        <v>0.05681789317381516</v>
+        <v>0</v>
       </c>
       <c r="BZ4">
-        <v>0.05697859113051167</v>
+        <v>0</v>
       </c>
       <c r="CA4">
-        <v>0.05728519823788869</v>
+        <v>0</v>
       </c>
       <c r="CB4">
-        <v>0.05780410184702643</v>
+        <v>0</v>
       </c>
       <c r="CC4">
-        <v>0.05850404850960315</v>
+        <v>0</v>
       </c>
       <c r="CD4">
-        <v>0.05920924972799144</v>
+        <v>0</v>
       </c>
       <c r="CE4">
-        <v>0.05990919639056816</v>
+        <v>0</v>
       </c>
       <c r="CF4">
-        <v>0.0602865497927615</v>
+        <v>0</v>
       </c>
       <c r="CG4">
-        <v>0.06044878019628182</v>
+        <v>0</v>
       </c>
       <c r="CH4">
-        <v>0.06061821751413664</v>
+        <v>0</v>
       </c>
       <c r="CI4">
-        <v>0.06065517450934454</v>
+        <v>0</v>
       </c>
       <c r="CJ4">
-        <v>0.06070611869950261</v>
+        <v>0</v>
       </c>
       <c r="CK4">
-        <v>0.06072680317651358</v>
+        <v>0</v>
       </c>
       <c r="CL4">
-        <v>0.06078781723823504</v>
+        <v>0</v>
       </c>
       <c r="CM4">
-        <v>0.06078781723823504</v>
+        <v>0</v>
       </c>
       <c r="CN4">
-        <v>0.1598164545899339</v>
+        <v>0.4154222303660756</v>
       </c>
       <c r="CO4">
-        <v>0.2009486784419384</v>
+        <v>0.4797215392645131</v>
       </c>
       <c r="CP4">
-        <v>0.2180098574527781</v>
+        <v>0.4797215392645131</v>
       </c>
       <c r="CQ4">
-        <v>0.2189992491146945</v>
+        <v>0.4797215392645131</v>
       </c>
       <c r="CR4">
-        <v>0.2734171005273187</v>
+        <v>0.6245938591775338</v>
       </c>
       <c r="CS4">
-        <v>0.2734171005273187</v>
+        <v>0.6245938591775338</v>
       </c>
       <c r="CT4">
-        <v>0.2734669113624794</v>
+        <v>0.6245938591775338</v>
       </c>
       <c r="CU4">
-        <v>0.2788739215134184</v>
+        <v>0.6245938591775338</v>
       </c>
       <c r="CV4">
-        <v>0.2834383959618562</v>
+        <v>0.6245938591775338</v>
       </c>
       <c r="CW4">
-        <v>0.2834383959618562</v>
+        <v>0.6245938591775338</v>
       </c>
       <c r="CX4">
-        <v>0.3514774498048898</v>
+        <v>0.8520743425701927</v>
       </c>
       <c r="CY4">
-        <v>0.3677625675543055</v>
+        <v>0.8520743425701927</v>
       </c>
       <c r="CZ4">
-        <v>0.3684032965842797</v>
+        <v>0.8520743425701927</v>
       </c>
       <c r="DA4">
-        <v>0.3689629497306904</v>
+        <v>0.8520743425701927</v>
       </c>
       <c r="DB4">
-        <v>0.3716964187478859</v>
+        <v>0.8520743425701927</v>
       </c>
       <c r="DC4">
-        <v>0.3840277660745098</v>
+        <v>0.8520743425701927</v>
       </c>
       <c r="DD4">
-        <v>0.3946191349455</v>
+        <v>0.8520743425701927</v>
       </c>
       <c r="DE4">
-        <v>0.4232032982088632</v>
+        <v>0.8520743425701927</v>
       </c>
       <c r="DF4">
-        <v>0.4238174355724771</v>
+        <v>0.8520743425701927</v>
       </c>
       <c r="DG4">
-        <v>0.4242407077246658</v>
+        <v>0.8520743425701927</v>
       </c>
       <c r="DH4">
-        <v>0.4255149978896632</v>
+        <v>0.8520743425701927</v>
       </c>
       <c r="DI4">
-        <v>0.4313859561198617</v>
+        <v>0.8520743425701927</v>
       </c>
       <c r="DJ4">
-        <v>0.4327110605653461</v>
+        <v>0.8520743425701927</v>
       </c>
       <c r="DK4">
-        <v>0.4341909426814766</v>
+        <v>0.8520743425701927</v>
       </c>
       <c r="DL4">
-        <v>0.4363784102336368</v>
+        <v>0.8520743425701927</v>
       </c>
       <c r="DM4">
-        <v>0.4387423800434136</v>
+        <v>0.8520743425701927</v>
       </c>
       <c r="DN4">
-        <v>0.4458442753394928</v>
+        <v>0.8520743425701927</v>
       </c>
       <c r="DO4">
-        <v>0.4503729541135694</v>
+        <v>0.8520743425701927</v>
       </c>
       <c r="DP4">
-        <v>0.4618094984589333</v>
+        <v>0.8520743425701927</v>
       </c>
       <c r="DQ4">
-        <v>0.4680379148999746</v>
+        <v>0.8520743425701927</v>
       </c>
       <c r="DR4">
-        <v>0.4681689157091489</v>
+        <v>0.8520743425701927</v>
       </c>
       <c r="DS4">
-        <v>0.478443479775558</v>
+        <v>0.8520743425701927</v>
       </c>
       <c r="DT4">
-        <v>0.4805194829604021</v>
+        <v>0.8520743425701927</v>
       </c>
       <c r="DU4">
-        <v>0.481181410512902</v>
+        <v>0.8520743425701927</v>
       </c>
       <c r="DV4">
-        <v>0.481181410512902</v>
+        <v>0.8520743425701927</v>
       </c>
       <c r="DW4">
-        <v>0.4842663581059939</v>
+        <v>0.8520743425701927</v>
       </c>
       <c r="DX4">
-        <v>0.4846437115081873</v>
+        <v>0.8520743425701927</v>
       </c>
       <c r="DY4">
-        <v>0.4857244482668272</v>
+        <v>0.8520743425701927</v>
       </c>
       <c r="DZ4">
-        <v>0.4857244482668272</v>
+        <v>0.8520743425701927</v>
       </c>
       <c r="EA4">
-        <v>0.4949276873777974</v>
+        <v>0.8520743425701927</v>
       </c>
       <c r="EB4">
-        <v>0.5033593050294171</v>
+        <v>0.8520743425701927</v>
       </c>
       <c r="EC4">
-        <v>0.5053373996475971</v>
+        <v>0.8520743425701927</v>
       </c>
       <c r="ED4">
-        <v>0.5070605712713018</v>
+        <v>0.8520743425701927</v>
       </c>
       <c r="EE4">
-        <v>0.5118881096113026</v>
+        <v>0.8520743425701927</v>
       </c>
       <c r="EF4">
-        <v>0.5168215825890652</v>
+        <v>0.8520743425701927</v>
       </c>
       <c r="EG4">
-        <v>0.5268821560617258</v>
+        <v>0.8520743425701927</v>
       </c>
       <c r="EH4">
-        <v>0.5369581615753718</v>
+        <v>0.8520743425701927</v>
       </c>
       <c r="EI4">
-        <v>0.5455631296950643</v>
+        <v>0.8520743425701927</v>
       </c>
       <c r="EJ4">
-        <v>0.5540797849823025</v>
+        <v>0.8520743425701927</v>
       </c>
       <c r="EK4">
-        <v>0.5578348826954783</v>
+        <v>0.8520743425701927</v>
       </c>
       <c r="EL4">
-        <v>0.6052783689647829</v>
+        <v>0.9546494057711488</v>
       </c>
       <c r="EM4">
-        <v>0.6425017976094316</v>
+        <v>0.9952431427755222</v>
       </c>
       <c r="EN4">
-        <v>0.6642593391844847</v>
+        <v>0.9952431427755222</v>
       </c>
       <c r="EO4">
-        <v>0.6765424881995975</v>
+        <v>0.9952431427755222</v>
       </c>
       <c r="EP4">
-        <v>0.6792221009669931</v>
+        <v>0.9952431427755222</v>
       </c>
       <c r="EQ4">
-        <v>0.6823258698066292</v>
+        <v>0.9952431427755222</v>
       </c>
       <c r="ER4">
-        <v>0.684778981566063</v>
+        <v>0.9952431427755222</v>
       </c>
       <c r="ES4">
-        <v>0.685390639444262</v>
+        <v>0.9952431427755222</v>
       </c>
       <c r="ET4">
-        <v>0.690158147900802</v>
+        <v>0.9952431427755222</v>
       </c>
       <c r="EU4">
-        <v>0.6971620037653653</v>
+        <v>0.9952431427755222</v>
       </c>
       <c r="EV4">
-        <v>0.7137421783381285</v>
+        <v>0.9952431427755222</v>
       </c>
       <c r="EW4">
-        <v>0.7342478489659918</v>
+        <v>0.9952431427755222</v>
       </c>
       <c r="EX4">
-        <v>0.74433311922078</v>
+        <v>0.9952431427755222</v>
       </c>
       <c r="EY4">
-        <v>0.7526492019033021</v>
+        <v>0.9952431427755222</v>
       </c>
       <c r="EZ4">
-        <v>0.7527002016778207</v>
+        <v>0.9952431427755222</v>
       </c>
       <c r="FA4">
-        <v>0.7609290595143607</v>
+        <v>0.9952431427755222</v>
       </c>
       <c r="FB4">
-        <v>0.7922433700598457</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FC4">
-        <v>0.8185236192991436</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FD4">
-        <v>0.8327724533944898</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FE4">
-        <v>0.8337925786821584</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FF4">
-        <v>0.8345522837321538</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FG4">
-        <v>0.8354975003850227</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FH4">
-        <v>0.846143178680272</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FI4">
-        <v>0.8537475772314355</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FJ4">
-        <v>0.8571752348424079</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FK4">
-        <v>0.8573816082181159</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FL4">
-        <v>0.8573816082181159</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FM4">
-        <v>0.8575770673936789</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FN4">
-        <v>0.8585252768776923</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FO4">
-        <v>0.8593372386534885</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FP4">
-        <v>0.8606058304254888</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FQ4">
-        <v>0.8616518885092124</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FR4">
-        <v>0.8660851763071058</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FS4">
-        <v>0.8685429416860483</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FT4">
-        <v>0.8685647069065041</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FU4">
-        <v>0.8687558528031153</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FV4">
-        <v>0.8730137363413831</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FW4">
-        <v>0.8775949659858098</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FX4">
-        <v>0.880791628029869</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FY4">
-        <v>0.880791628029869</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FZ4">
-        <v>0.8853432642379346</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GA4">
-        <v>0.8954713929870599</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GB4">
-        <v>0.9084484761194894</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GC4">
-        <v>0.9170902140956086</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GD4">
-        <v>0.9241195387529823</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GE4">
-        <v>0.9283609731616904</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GF4">
-        <v>0.9286645249987368</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GG4">
-        <v>0.9320721817406491</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GH4">
-        <v>0.9449659005913017</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GI4">
-        <v>0.9574306728580104</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GJ4">
-        <v>0.9629634041875441</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GK4">
-        <v>0.9672334331282259</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GL4">
-        <v>0.9721148794101538</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GM4">
-        <v>0.974698515323205</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GN4">
-        <v>0.9775724658688016</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GO4">
-        <v>0.9834647414827709</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GP4">
-        <v>0.9858748384455857</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GQ4">
-        <v>0.9858748384455857</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GR4">
-        <v>0.9894086311290108</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GS4">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GT4">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GU4">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GV4">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GW4">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GX4">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GY4">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GZ4">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HA4">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HB4">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HC4">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HD4">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HE4">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HF4">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HG4">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HH4">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HI4">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HJ4">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HK4">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HL4">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HM4">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HN4">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HO4">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HP4">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HQ4">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HR4">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HS4">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HT4">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HU4">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HV4">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HW4">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HX4">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HY4">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HZ4">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IA4">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IB4">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IC4">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="ID4">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IE4">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IF4">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IG4">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IH4">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="II4">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IJ4">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IK4">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IL4">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IM4">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IN4">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IO4">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IP4">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IQ4">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IR4">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IS4">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IT4">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IU4">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IV4">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IW4">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:257">
@@ -8964,772 +8964,772 @@
         <v>260</v>
       </c>
       <c r="B5">
-        <v>4.62551384813629E-05</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>4.62551384813629E-05</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>0.0002063221568596961</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>0.0005708204324159992</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.001122972156151955</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>0.001809846997288809</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>0.002261698551040531</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>0.002421144330656723</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0.002421144330656723</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0.002421144330656723</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0.002421144330656723</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0.002421144330656723</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>0.002439286426990559</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0.002448045101281088</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0.002448045101281088</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>0.002477435205420188</v>
+        <v>0</v>
       </c>
       <c r="R5">
-        <v>0.002525171240240808</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>0.002525171240240808</v>
+        <v>0</v>
       </c>
       <c r="T5">
-        <v>0.002563243532903715</v>
+        <v>0</v>
       </c>
       <c r="U5">
-        <v>0.002701060010576267</v>
+        <v>0</v>
       </c>
       <c r="V5">
-        <v>0.002716281047204616</v>
+        <v>0</v>
       </c>
       <c r="W5">
-        <v>0.002775889504635323</v>
+        <v>0</v>
       </c>
       <c r="X5">
-        <v>0.002992100413289718</v>
+        <v>0</v>
       </c>
       <c r="Y5">
-        <v>0.003492381924566547</v>
+        <v>0</v>
       </c>
       <c r="Z5">
-        <v>0.004060907567364156</v>
+        <v>0</v>
       </c>
       <c r="AA5">
-        <v>0.004451968440714853</v>
+        <v>0</v>
       </c>
       <c r="AB5">
-        <v>0.004676832837177712</v>
+        <v>0</v>
       </c>
       <c r="AC5">
-        <v>0.004995682413879383</v>
+        <v>0</v>
       </c>
       <c r="AD5">
-        <v>0.00511989050638992</v>
+        <v>0</v>
       </c>
       <c r="AE5">
-        <v>0.00511989050638992</v>
+        <v>0</v>
       </c>
       <c r="AF5">
-        <v>0.005272575607315831</v>
+        <v>0</v>
       </c>
       <c r="AG5">
-        <v>0.005571946424999771</v>
+        <v>0</v>
       </c>
       <c r="AH5">
-        <v>0.006166252227871448</v>
+        <v>0</v>
       </c>
       <c r="AI5">
-        <v>0.006749590544626181</v>
+        <v>0</v>
       </c>
       <c r="AJ5">
-        <v>0.007557666223156513</v>
+        <v>0</v>
       </c>
       <c r="AK5">
-        <v>0.00821559585283203</v>
+        <v>0</v>
       </c>
       <c r="AL5">
-        <v>0.008581010006032612</v>
+        <v>0</v>
       </c>
       <c r="AM5">
-        <v>0.008955643327621124</v>
+        <v>0</v>
       </c>
       <c r="AN5">
-        <v>0.009199401256872783</v>
+        <v>0</v>
       </c>
       <c r="AO5">
-        <v>0.009321658805886493</v>
+        <v>0</v>
       </c>
       <c r="AP5">
-        <v>0.009427119707265397</v>
+        <v>0</v>
       </c>
       <c r="AQ5">
-        <v>0.009427119707265397</v>
+        <v>0</v>
       </c>
       <c r="AR5">
-        <v>0.009427119707265397</v>
+        <v>0</v>
       </c>
       <c r="AS5">
-        <v>0.009427119707265397</v>
+        <v>0</v>
       </c>
       <c r="AT5">
-        <v>0.00943692246221387</v>
+        <v>0</v>
       </c>
       <c r="AU5">
-        <v>0.00943692246221387</v>
+        <v>0</v>
       </c>
       <c r="AV5">
-        <v>0.00943692246221387</v>
+        <v>0</v>
       </c>
       <c r="AW5">
-        <v>0.009485780762296005</v>
+        <v>0</v>
       </c>
       <c r="AX5">
-        <v>0.009788517944536716</v>
+        <v>0</v>
       </c>
       <c r="AY5">
-        <v>0.01044648413831585</v>
+        <v>0</v>
       </c>
       <c r="AZ5">
-        <v>0.01116613180872966</v>
+        <v>0</v>
       </c>
       <c r="BA5">
-        <v>0.01223938759574513</v>
+        <v>0</v>
       </c>
       <c r="BB5">
-        <v>0.01352005952837426</v>
+        <v>0</v>
       </c>
       <c r="BC5">
-        <v>0.01452019533156881</v>
+        <v>0</v>
       </c>
       <c r="BD5">
-        <v>0.01483775836528506</v>
+        <v>0</v>
       </c>
       <c r="BE5">
-        <v>0.01496196645779559</v>
+        <v>0</v>
       </c>
       <c r="BF5">
-        <v>0.01499851833760968</v>
+        <v>0</v>
       </c>
       <c r="BG5">
-        <v>0.01499851833760968</v>
+        <v>0</v>
       </c>
       <c r="BH5">
-        <v>0.0150275862143178</v>
+        <v>0</v>
       </c>
       <c r="BI5">
-        <v>0.01513878819643507</v>
+        <v>0</v>
       </c>
       <c r="BJ5">
-        <v>0.01539827289220573</v>
+        <v>0</v>
       </c>
       <c r="BK5">
-        <v>0.01571281811374736</v>
+        <v>0</v>
       </c>
       <c r="BL5">
-        <v>0.01602736333528899</v>
+        <v>0</v>
       </c>
       <c r="BM5">
-        <v>0.01620494651486772</v>
+        <v>0</v>
       </c>
       <c r="BN5">
-        <v>0.01628807854752897</v>
+        <v>0</v>
       </c>
       <c r="BO5">
-        <v>0.01643563094485966</v>
+        <v>0</v>
       </c>
       <c r="BP5">
-        <v>0.01670572552861046</v>
+        <v>0</v>
       </c>
       <c r="BQ5">
-        <v>0.01698260358595212</v>
+        <v>0</v>
       </c>
       <c r="BR5">
-        <v>0.01726270149069371</v>
+        <v>0</v>
       </c>
       <c r="BS5">
-        <v>0.01747004628616255</v>
+        <v>0</v>
       </c>
       <c r="BT5">
-        <v>0.01781824798285662</v>
+        <v>0</v>
       </c>
       <c r="BU5">
-        <v>0.01828287526105746</v>
+        <v>0</v>
       </c>
       <c r="BV5">
-        <v>0.01855855044362996</v>
+        <v>0</v>
       </c>
       <c r="BW5">
-        <v>0.01877581284604855</v>
+        <v>0</v>
       </c>
       <c r="BX5">
-        <v>0.01888256681398649</v>
+        <v>0</v>
       </c>
       <c r="BY5">
-        <v>0.01890002702889922</v>
+        <v>0</v>
       </c>
       <c r="BZ5">
-        <v>0.01890002702889922</v>
+        <v>0</v>
       </c>
       <c r="CA5">
-        <v>0.01890665491551006</v>
+        <v>0</v>
       </c>
       <c r="CB5">
-        <v>0.01895913256042265</v>
+        <v>0</v>
       </c>
       <c r="CC5">
-        <v>0.01918728298270556</v>
+        <v>0</v>
       </c>
       <c r="CD5">
-        <v>0.01978452638938633</v>
+        <v>0</v>
       </c>
       <c r="CE5">
-        <v>0.02035305203218394</v>
+        <v>0</v>
       </c>
       <c r="CF5">
-        <v>0.02105686841850116</v>
+        <v>0</v>
       </c>
       <c r="CG5">
-        <v>0.02158251748510298</v>
+        <v>0</v>
       </c>
       <c r="CH5">
-        <v>0.02190610549284537</v>
+        <v>0</v>
       </c>
       <c r="CI5">
-        <v>0.02199878567054157</v>
+        <v>0</v>
       </c>
       <c r="CJ5">
-        <v>0.02201692776687541</v>
+        <v>0</v>
       </c>
       <c r="CK5">
-        <v>0.02212214635836084</v>
+        <v>0</v>
       </c>
       <c r="CL5">
-        <v>0.02220069080947303</v>
+        <v>0</v>
       </c>
       <c r="CM5">
-        <v>0.02442463237558017</v>
+        <v>0</v>
       </c>
       <c r="CN5">
-        <v>0.1441032441219154</v>
+        <v>0.4916538642205736</v>
       </c>
       <c r="CO5">
-        <v>0.1894206942234865</v>
+        <v>0.5753092842874087</v>
       </c>
       <c r="CP5">
-        <v>0.2206058174204544</v>
+        <v>0.5814246651480907</v>
       </c>
       <c r="CQ5">
-        <v>0.2214328711323597</v>
+        <v>0.5814246651480907</v>
       </c>
       <c r="CR5">
-        <v>0.2592933882006326</v>
+        <v>0.6241660245890518</v>
       </c>
       <c r="CS5">
-        <v>0.2595390391997448</v>
+        <v>0.6241660245890518</v>
       </c>
       <c r="CT5">
-        <v>0.2803984976437378</v>
+        <v>0.6241660245890518</v>
       </c>
       <c r="CU5">
-        <v>0.2805314159054374</v>
+        <v>0.6241660245890518</v>
       </c>
       <c r="CV5">
-        <v>0.2841973178541553</v>
+        <v>0.6241660245890518</v>
       </c>
       <c r="CW5">
-        <v>0.2864794284363827</v>
+        <v>0.6241660245890518</v>
       </c>
       <c r="CX5">
-        <v>0.3040426299307262</v>
+        <v>0.6241660245890518</v>
       </c>
       <c r="CY5">
-        <v>0.3167287877328469</v>
+        <v>0.6241660245890518</v>
       </c>
       <c r="CZ5">
-        <v>0.3177750448505053</v>
+        <v>0.6241660245890518</v>
       </c>
       <c r="DA5">
-        <v>0.3554210150709605</v>
+        <v>0.6657302267859415</v>
       </c>
       <c r="DB5">
-        <v>0.3724403851938886</v>
+        <v>0.6657302267859415</v>
       </c>
       <c r="DC5">
-        <v>0.3781618464355281</v>
+        <v>0.6657302267859415</v>
       </c>
       <c r="DD5">
-        <v>0.4227669553924862</v>
+        <v>0.7454772345542006</v>
       </c>
       <c r="DE5">
-        <v>0.425327133174727</v>
+        <v>0.7454772345542006</v>
       </c>
       <c r="DF5">
-        <v>0.4270581752803895</v>
+        <v>0.7454772345542006</v>
       </c>
       <c r="DG5">
-        <v>0.4330185820365972</v>
+        <v>0.7454772345542006</v>
       </c>
       <c r="DH5">
-        <v>0.433218306846798</v>
+        <v>0.7454772345542006</v>
       </c>
       <c r="DI5">
-        <v>0.4476664623268484</v>
+        <v>0.7454772345542006</v>
       </c>
       <c r="DJ5">
-        <v>0.4477895470409281</v>
+        <v>0.7454772345542006</v>
       </c>
       <c r="DK5">
-        <v>0.4499373889395976</v>
+        <v>0.7454772345542006</v>
       </c>
       <c r="DL5">
-        <v>0.4499373889395976</v>
+        <v>0.7454772345542006</v>
       </c>
       <c r="DM5">
-        <v>0.4511652901258091</v>
+        <v>0.7454772345542006</v>
       </c>
       <c r="DN5">
-        <v>0.4588715734607017</v>
+        <v>0.7454772345542006</v>
       </c>
       <c r="DO5">
-        <v>0.4588882342755998</v>
+        <v>0.7454772345542006</v>
       </c>
       <c r="DP5">
-        <v>0.4596206325489379</v>
+        <v>0.7454772345542006</v>
       </c>
       <c r="DQ5">
-        <v>0.4596870789149443</v>
+        <v>0.7454772345542006</v>
       </c>
       <c r="DR5">
-        <v>0.4641094915657873</v>
+        <v>0.7454772345542006</v>
       </c>
       <c r="DS5">
-        <v>0.4879967897343768</v>
+        <v>0.7454772345542006</v>
       </c>
       <c r="DT5">
-        <v>0.4941071231548176</v>
+        <v>0.7454772345542006</v>
       </c>
       <c r="DU5">
-        <v>0.4941169259097661</v>
+        <v>0.7454772345542006</v>
       </c>
       <c r="DV5">
-        <v>0.4949216354042536</v>
+        <v>0.7454772345542006</v>
       </c>
       <c r="DW5">
-        <v>0.4950632690399612</v>
+        <v>0.7454772345542006</v>
       </c>
       <c r="DX5">
-        <v>0.4954960317247721</v>
+        <v>0.7454772345542006</v>
       </c>
       <c r="DY5">
-        <v>0.4959468686497198</v>
+        <v>0.7454772345542006</v>
       </c>
       <c r="DZ5">
-        <v>0.4959468686497198</v>
+        <v>0.7454772345542006</v>
       </c>
       <c r="EA5">
-        <v>0.499388367688899</v>
+        <v>0.7454772345542006</v>
       </c>
       <c r="EB5">
-        <v>0.5024318826061759</v>
+        <v>0.7454772345542006</v>
       </c>
       <c r="EC5">
-        <v>0.5058553702641874</v>
+        <v>0.7454772345542006</v>
       </c>
       <c r="ED5">
-        <v>0.5119655943734023</v>
+        <v>0.7454772345542006</v>
       </c>
       <c r="EE5">
-        <v>0.5129264511431576</v>
+        <v>0.7454772345542006</v>
       </c>
       <c r="EF5">
-        <v>0.5153945618964308</v>
+        <v>0.7454772345542006</v>
       </c>
       <c r="EG5">
-        <v>0.5212592298696234</v>
+        <v>0.7454772345542006</v>
       </c>
       <c r="EH5">
-        <v>0.5334889511268185</v>
+        <v>0.7454772345542006</v>
       </c>
       <c r="EI5">
-        <v>0.5359547215167179</v>
+        <v>0.7454772345542006</v>
       </c>
       <c r="EJ5">
-        <v>0.5359547215167179</v>
+        <v>0.7454772345542006</v>
       </c>
       <c r="EK5">
-        <v>0.5492324817016583</v>
+        <v>0.7454772345542006</v>
       </c>
       <c r="EL5">
-        <v>0.6050206334986487</v>
+        <v>0.8865824026674314</v>
       </c>
       <c r="EM5">
-        <v>0.6557624917230198</v>
+        <v>1</v>
       </c>
       <c r="EN5">
-        <v>0.6644517848376887</v>
+        <v>1</v>
       </c>
       <c r="EO5">
-        <v>0.6660926801816794</v>
+        <v>1</v>
       </c>
       <c r="EP5">
-        <v>0.6661349431879474</v>
+        <v>1</v>
       </c>
       <c r="EQ5">
-        <v>0.6662206529297423</v>
+        <v>1</v>
       </c>
       <c r="ER5">
-        <v>0.6668377829165701</v>
+        <v>1</v>
       </c>
       <c r="ES5">
-        <v>0.6715140794137054</v>
+        <v>1</v>
       </c>
       <c r="ET5">
-        <v>0.6939849437777714</v>
+        <v>1</v>
       </c>
       <c r="EU5">
-        <v>0.7102045879581496</v>
+        <v>1</v>
       </c>
       <c r="EV5">
-        <v>0.7258018170271388</v>
+        <v>1</v>
       </c>
       <c r="EW5">
-        <v>0.7547949583150503</v>
+        <v>1</v>
       </c>
       <c r="EX5">
-        <v>0.7672413635046711</v>
+        <v>1</v>
       </c>
       <c r="EY5">
-        <v>0.7690538185053459</v>
+        <v>1</v>
       </c>
       <c r="EZ5">
-        <v>0.7690561876887749</v>
+        <v>1</v>
       </c>
       <c r="FA5">
-        <v>0.7760628707542826</v>
+        <v>1</v>
       </c>
       <c r="FB5">
-        <v>0.8039581963924787</v>
+        <v>1</v>
       </c>
       <c r="FC5">
-        <v>0.8207421412234529</v>
+        <v>1</v>
       </c>
       <c r="FD5">
-        <v>0.8271030550848838</v>
+        <v>1</v>
       </c>
       <c r="FE5">
-        <v>0.8274931413132707</v>
+        <v>1</v>
       </c>
       <c r="FF5">
-        <v>0.8344018718930115</v>
+        <v>1</v>
       </c>
       <c r="FG5">
-        <v>0.838169737347486</v>
+        <v>1</v>
       </c>
       <c r="FH5">
-        <v>0.8431102862116842</v>
+        <v>1</v>
       </c>
       <c r="FI5">
-        <v>0.8463759342761378</v>
+        <v>1</v>
       </c>
       <c r="FJ5">
-        <v>0.8464159075862894</v>
+        <v>1</v>
       </c>
       <c r="FK5">
-        <v>0.8500704175001349</v>
+        <v>1</v>
       </c>
       <c r="FL5">
-        <v>0.8515673818504873</v>
+        <v>1</v>
       </c>
       <c r="FM5">
-        <v>0.8528437788116162</v>
+        <v>1</v>
       </c>
       <c r="FN5">
-        <v>0.8528493188268903</v>
+        <v>1</v>
       </c>
       <c r="FO5">
-        <v>0.8542062831757425</v>
+        <v>1</v>
       </c>
       <c r="FP5">
-        <v>0.8591583147329307</v>
+        <v>1</v>
       </c>
       <c r="FQ5">
-        <v>0.8607706584861586</v>
+        <v>1</v>
       </c>
       <c r="FR5">
-        <v>0.8644880428131121</v>
+        <v>1</v>
       </c>
       <c r="FS5">
-        <v>0.868232742711692</v>
+        <v>1</v>
       </c>
       <c r="FT5">
-        <v>0.8683509180379909</v>
+        <v>1</v>
       </c>
       <c r="FU5">
-        <v>0.871985619153145</v>
+        <v>1</v>
       </c>
       <c r="FV5">
-        <v>0.8822147514263282</v>
+        <v>1</v>
       </c>
       <c r="FW5">
-        <v>0.891800528969814</v>
+        <v>1</v>
       </c>
       <c r="FX5">
-        <v>0.8973419622441888</v>
+        <v>1</v>
       </c>
       <c r="FY5">
-        <v>0.8986090905159358</v>
+        <v>1</v>
       </c>
       <c r="FZ5">
-        <v>0.9045640512665294</v>
+        <v>1</v>
       </c>
       <c r="GA5">
-        <v>0.9096108917593143</v>
+        <v>1</v>
       </c>
       <c r="GB5">
-        <v>0.9175689389044309</v>
+        <v>1</v>
       </c>
       <c r="GC5">
-        <v>0.9200089681052125</v>
+        <v>1</v>
       </c>
       <c r="GD5">
-        <v>0.9203316661791767</v>
+        <v>1</v>
       </c>
       <c r="GE5">
-        <v>0.9204951696516676</v>
+        <v>1</v>
       </c>
       <c r="GF5">
-        <v>0.922880870471206</v>
+        <v>1</v>
       </c>
       <c r="GG5">
-        <v>0.9336348310110476</v>
+        <v>1</v>
       </c>
       <c r="GH5">
-        <v>0.9510426661535321</v>
+        <v>1</v>
       </c>
       <c r="GI5">
-        <v>0.9642367696550499</v>
+        <v>1</v>
       </c>
       <c r="GJ5">
-        <v>0.9726868005534522</v>
+        <v>1</v>
       </c>
       <c r="GK5">
-        <v>0.9737034685262721</v>
+        <v>1</v>
       </c>
       <c r="GL5">
-        <v>0.9741878766034447</v>
+        <v>1</v>
       </c>
       <c r="GM5">
-        <v>0.97492868562347</v>
+        <v>1</v>
       </c>
       <c r="GN5">
-        <v>0.97492868562347</v>
+        <v>1</v>
       </c>
       <c r="GO5">
-        <v>0.9758083836217417</v>
+        <v>1</v>
       </c>
       <c r="GP5">
-        <v>0.9759143764425769</v>
+        <v>1</v>
       </c>
       <c r="GQ5">
-        <v>0.978534498695931</v>
+        <v>1</v>
       </c>
       <c r="GR5">
-        <v>0.9887207378458063</v>
+        <v>1</v>
       </c>
       <c r="GS5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="GT5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="GU5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="GV5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="GW5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="GX5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="GY5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="GZ5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HA5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HB5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HC5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HD5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HE5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HF5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HG5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HH5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HI5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HJ5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HK5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HL5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HM5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HN5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HO5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HP5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HQ5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HR5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HS5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HT5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HU5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HV5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HW5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HX5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HY5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HZ5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IA5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IB5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IC5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="ID5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IE5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IF5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IG5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IH5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="II5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IJ5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IK5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IL5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IM5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IN5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IO5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IP5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IQ5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IR5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IS5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IT5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IU5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IV5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IW5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:257">
@@ -9737,772 +9737,772 @@
         <v>261</v>
       </c>
       <c r="B6">
-        <v>0.002428040909688223</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>0.005070307988267057</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>0.007740444845367347</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>0.00953923485664254</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.01040063992934837</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>0.01076141612603991</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>0.01091544676084476</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>0.01094666293825599</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0.01096055659696833</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>0.01096055659696833</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0.01096055659696833</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0.01096055659696833</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>0.01097547607253734</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0.01109896312928104</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>0.01109896312928104</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.01109896312928104</v>
+        <v>0</v>
       </c>
       <c r="R6">
-        <v>0.01109896312928104</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>0.01109896312928104</v>
+        <v>0</v>
       </c>
       <c r="T6">
-        <v>0.0117188281914838</v>
+        <v>0</v>
       </c>
       <c r="U6">
-        <v>0.01390109308098889</v>
+        <v>0</v>
       </c>
       <c r="V6">
-        <v>0.01645212037915281</v>
+        <v>0</v>
       </c>
       <c r="W6">
-        <v>0.01802016142717334</v>
+        <v>0</v>
       </c>
       <c r="X6">
-        <v>0.0189794980826083</v>
+        <v>0</v>
       </c>
       <c r="Y6">
-        <v>0.01966990180738147</v>
+        <v>0</v>
       </c>
       <c r="Z6">
-        <v>0.02058433058425956</v>
+        <v>0</v>
       </c>
       <c r="AA6">
-        <v>0.02111997346994065</v>
+        <v>0</v>
       </c>
       <c r="AB6">
-        <v>0.02111997346994065</v>
+        <v>0</v>
       </c>
       <c r="AC6">
-        <v>0.02201218071821959</v>
+        <v>0</v>
       </c>
       <c r="AD6">
-        <v>0.02310367027091974</v>
+        <v>0</v>
       </c>
       <c r="AE6">
-        <v>0.0243485280168841</v>
+        <v>0</v>
       </c>
       <c r="AF6">
-        <v>0.02525975830273523</v>
+        <v>0</v>
       </c>
       <c r="AG6">
-        <v>0.02615196555101417</v>
+        <v>0</v>
       </c>
       <c r="AH6">
-        <v>0.02760383996064054</v>
+        <v>0</v>
       </c>
       <c r="AI6">
-        <v>0.02857717153798984</v>
+        <v>0</v>
       </c>
       <c r="AJ6">
-        <v>0.02923738244401859</v>
+        <v>0</v>
       </c>
       <c r="AK6">
-        <v>0.02987071050428814</v>
+        <v>0</v>
       </c>
       <c r="AL6">
-        <v>0.03041351463544532</v>
+        <v>0</v>
       </c>
       <c r="AM6">
-        <v>0.03070822941706218</v>
+        <v>0</v>
       </c>
       <c r="AN6">
-        <v>0.03073163667691154</v>
+        <v>0</v>
       </c>
       <c r="AO6">
-        <v>0.03073163667691154</v>
+        <v>0</v>
       </c>
       <c r="AP6">
-        <v>0.03073163667691154</v>
+        <v>0</v>
       </c>
       <c r="AQ6">
-        <v>0.03073163667691154</v>
+        <v>0</v>
       </c>
       <c r="AR6">
-        <v>0.03077257086105854</v>
+        <v>0</v>
       </c>
       <c r="AS6">
-        <v>0.03078967166525145</v>
+        <v>0</v>
       </c>
       <c r="AT6">
-        <v>0.03078967166525145</v>
+        <v>0</v>
       </c>
       <c r="AU6">
-        <v>0.03103947619138403</v>
+        <v>0</v>
       </c>
       <c r="AV6">
-        <v>0.03159031379879571</v>
+        <v>0</v>
       </c>
       <c r="AW6">
-        <v>0.03259554181189459</v>
+        <v>0</v>
       </c>
       <c r="AX6">
-        <v>0.03395598029380634</v>
+        <v>0</v>
       </c>
       <c r="AY6">
-        <v>0.03567904993061719</v>
+        <v>0</v>
       </c>
       <c r="AZ6">
-        <v>0.0369623069387591</v>
+        <v>0</v>
       </c>
       <c r="BA6">
-        <v>0.03738844077685816</v>
+        <v>0</v>
       </c>
       <c r="BB6">
-        <v>0.03750912003224043</v>
+        <v>0</v>
       </c>
       <c r="BC6">
-        <v>0.03763260708898413</v>
+        <v>0</v>
       </c>
       <c r="BD6">
-        <v>0.03763260708898413</v>
+        <v>0</v>
       </c>
       <c r="BE6">
-        <v>0.03763260708898413</v>
+        <v>0</v>
       </c>
       <c r="BF6">
-        <v>0.03763260708898413</v>
+        <v>0</v>
       </c>
       <c r="BG6">
-        <v>0.03771335801698058</v>
+        <v>0</v>
       </c>
       <c r="BH6">
-        <v>0.03795249245505922</v>
+        <v>0</v>
       </c>
       <c r="BI6">
-        <v>0.03800900514329193</v>
+        <v>0</v>
       </c>
       <c r="BJ6">
-        <v>0.03800900514329193</v>
+        <v>0</v>
       </c>
       <c r="BK6">
-        <v>0.03800900514329193</v>
+        <v>0</v>
       </c>
       <c r="BL6">
-        <v>0.03800900514329193</v>
+        <v>0</v>
       </c>
       <c r="BM6">
-        <v>0.03803811321363261</v>
+        <v>0</v>
       </c>
       <c r="BN6">
-        <v>0.03816899525720473</v>
+        <v>0</v>
       </c>
       <c r="BO6">
-        <v>0.03832529103271893</v>
+        <v>0</v>
       </c>
       <c r="BP6">
-        <v>0.03859167175281964</v>
+        <v>0</v>
       </c>
       <c r="BQ6">
-        <v>0.03895965274151621</v>
+        <v>0</v>
       </c>
       <c r="BR6">
-        <v>0.03935065036134346</v>
+        <v>0</v>
       </c>
       <c r="BS6">
-        <v>0.03985575643406446</v>
+        <v>0</v>
       </c>
       <c r="BT6">
-        <v>0.04022115771500989</v>
+        <v>0</v>
       </c>
       <c r="BU6">
-        <v>0.04031083403587386</v>
+        <v>0</v>
       </c>
       <c r="BV6">
-        <v>0.04031083403587386</v>
+        <v>0</v>
       </c>
       <c r="BW6">
-        <v>0.04031083403587386</v>
+        <v>0</v>
       </c>
       <c r="BX6">
-        <v>0.04031083403587386</v>
+        <v>0</v>
       </c>
       <c r="BY6">
-        <v>0.04031083403587386</v>
+        <v>0</v>
       </c>
       <c r="BZ6">
-        <v>0.04042217514596105</v>
+        <v>0</v>
       </c>
       <c r="CA6">
-        <v>0.04078973249305837</v>
+        <v>0</v>
       </c>
       <c r="CB6">
-        <v>0.04087275028859175</v>
+        <v>0</v>
       </c>
       <c r="CC6">
-        <v>0.0409340141905978</v>
+        <v>0</v>
       </c>
       <c r="CD6">
-        <v>0.0409340141905978</v>
+        <v>0</v>
       </c>
       <c r="CE6">
-        <v>0.0409340141905978</v>
+        <v>0</v>
       </c>
       <c r="CF6">
-        <v>0.04097139538632726</v>
+        <v>0</v>
       </c>
       <c r="CG6">
-        <v>0.04097139538632726</v>
+        <v>0</v>
       </c>
       <c r="CH6">
-        <v>0.04097139538632726</v>
+        <v>0</v>
       </c>
       <c r="CI6">
-        <v>0.04097139538632726</v>
+        <v>0</v>
       </c>
       <c r="CJ6">
-        <v>0.04107061712258733</v>
+        <v>0</v>
       </c>
       <c r="CK6">
-        <v>0.04115363491812072</v>
+        <v>0</v>
       </c>
       <c r="CL6">
-        <v>0.04124726530850679</v>
+        <v>0</v>
       </c>
       <c r="CM6">
-        <v>0.04124726530850679</v>
+        <v>0</v>
       </c>
       <c r="CN6">
-        <v>0.1011412543797</v>
+        <v>0.1463129922034907</v>
       </c>
       <c r="CO6">
-        <v>0.1125463754590526</v>
+        <v>0.1463129922034907</v>
       </c>
       <c r="CP6">
-        <v>0.2702707754776514</v>
+        <v>0.7776908528020327</v>
       </c>
       <c r="CQ6">
-        <v>0.2702707754776514</v>
+        <v>0.7776908528020327</v>
       </c>
       <c r="CR6">
-        <v>0.2780643290683714</v>
+        <v>0.7776908528020327</v>
       </c>
       <c r="CS6">
-        <v>0.2968199731970165</v>
+        <v>0.7776908528020327</v>
       </c>
       <c r="CT6">
-        <v>0.297113826830025</v>
+        <v>0.7776908528020327</v>
       </c>
       <c r="CU6">
-        <v>0.2991554586766572</v>
+        <v>0.7776908528020327</v>
       </c>
       <c r="CV6">
-        <v>0.2997947633278805</v>
+        <v>0.7776908528020327</v>
       </c>
       <c r="CW6">
-        <v>0.3004457394951139</v>
+        <v>0.7776908528020327</v>
       </c>
       <c r="CX6">
-        <v>0.3067484868603982</v>
+        <v>0.7776908528020327</v>
       </c>
       <c r="CY6">
-        <v>0.3250920946870492</v>
+        <v>0.7776908528020327</v>
       </c>
       <c r="CZ6">
-        <v>0.3399571048133656</v>
+        <v>0.7776908528020327</v>
       </c>
       <c r="DA6">
-        <v>0.3425019240647306</v>
+        <v>0.7776908528020327</v>
       </c>
       <c r="DB6">
-        <v>0.3459162181792246</v>
+        <v>0.7776908528020327</v>
       </c>
       <c r="DC6">
-        <v>0.3483493316957759</v>
+        <v>0.7776908528020327</v>
       </c>
       <c r="DD6">
-        <v>0.3577407473063318</v>
+        <v>0.7776908528020327</v>
       </c>
       <c r="DE6">
-        <v>0.3774236480827305</v>
+        <v>0.7776908528020327</v>
       </c>
       <c r="DF6">
-        <v>0.3812746261190172</v>
+        <v>0.7776908528020327</v>
       </c>
       <c r="DG6">
-        <v>0.3813935600087976</v>
+        <v>0.7776908528020327</v>
       </c>
       <c r="DH6">
-        <v>0.4095516341451603</v>
+        <v>0.7776908528020327</v>
       </c>
       <c r="DI6">
-        <v>0.4095516341451603</v>
+        <v>0.7776908528020327</v>
       </c>
       <c r="DJ6">
-        <v>0.4269683185002062</v>
+        <v>0.7776908528020327</v>
       </c>
       <c r="DK6">
-        <v>0.4277524949059597</v>
+        <v>0.7776908528020327</v>
       </c>
       <c r="DL6">
-        <v>0.4311197219979286</v>
+        <v>0.7776908528020327</v>
       </c>
       <c r="DM6">
-        <v>0.4370939644863851</v>
+        <v>0.7776908528020327</v>
       </c>
       <c r="DN6">
-        <v>0.4507508794214001</v>
+        <v>0.7776908528020327</v>
       </c>
       <c r="DO6">
-        <v>0.4507517510274732</v>
+        <v>0.7776908528020327</v>
       </c>
       <c r="DP6">
-        <v>0.4560479295691321</v>
+        <v>0.7776908528020327</v>
       </c>
       <c r="DQ6">
-        <v>0.4575284066432289</v>
+        <v>0.7776908528020327</v>
       </c>
       <c r="DR6">
-        <v>0.4637326019258384</v>
+        <v>0.7776908528020327</v>
       </c>
       <c r="DS6">
-        <v>0.4687072486220951</v>
+        <v>0.7776908528020327</v>
       </c>
       <c r="DT6">
-        <v>0.5105216473012741</v>
+        <v>0.8343612272426941</v>
       </c>
       <c r="DU6">
-        <v>0.5146757055221702</v>
+        <v>0.8343612272426941</v>
       </c>
       <c r="DV6">
-        <v>0.5263122275945635</v>
+        <v>0.8343612272426941</v>
       </c>
       <c r="DW6">
-        <v>0.5337136386482842</v>
+        <v>0.8343612272426941</v>
       </c>
       <c r="DX6">
-        <v>0.5338967399483124</v>
+        <v>0.8343612272426941</v>
       </c>
       <c r="DY6">
-        <v>0.534297412861287</v>
+        <v>0.8343612272426941</v>
       </c>
       <c r="DZ6">
-        <v>0.5360712635204773</v>
+        <v>0.8343612272426941</v>
       </c>
       <c r="EA6">
-        <v>0.5360933948731234</v>
+        <v>0.8343612272426941</v>
       </c>
       <c r="EB6">
-        <v>0.5419667300892154</v>
+        <v>0.8343612272426941</v>
       </c>
       <c r="EC6">
-        <v>0.5474057921364219</v>
+        <v>0.8343612272426941</v>
       </c>
       <c r="ED6">
-        <v>0.5491638359236555</v>
+        <v>0.8343612272426941</v>
       </c>
       <c r="EE6">
-        <v>0.5531646722237429</v>
+        <v>0.8343612272426941</v>
       </c>
       <c r="EF6">
-        <v>0.5545122531536599</v>
+        <v>0.8343612272426941</v>
       </c>
       <c r="EG6">
-        <v>0.5589382816425985</v>
+        <v>0.8343612272426941</v>
       </c>
       <c r="EH6">
-        <v>0.582497756997322</v>
+        <v>0.8343612272426941</v>
       </c>
       <c r="EI6">
-        <v>0.6039852484833219</v>
+        <v>0.8343612272426941</v>
       </c>
       <c r="EJ6">
-        <v>0.6041866555881577</v>
+        <v>0.8343612272426941</v>
       </c>
       <c r="EK6">
-        <v>0.6074104157100065</v>
+        <v>0.8343612272426941</v>
       </c>
       <c r="EL6">
-        <v>0.6332800958797319</v>
+        <v>0.8343612272426941</v>
       </c>
       <c r="EM6">
-        <v>0.697071809104222</v>
+        <v>1</v>
       </c>
       <c r="EN6">
-        <v>0.7157644392621934</v>
+        <v>1</v>
       </c>
       <c r="EO6">
-        <v>0.7171664253177311</v>
+        <v>1</v>
       </c>
       <c r="EP6">
-        <v>0.7214263768733186</v>
+        <v>1</v>
       </c>
       <c r="EQ6">
-        <v>0.7215379984608392</v>
+        <v>1</v>
       </c>
       <c r="ER6">
-        <v>0.7228817514202802</v>
+        <v>1</v>
       </c>
       <c r="ES6">
-        <v>0.722966936394609</v>
+        <v>1</v>
       </c>
       <c r="ET6">
-        <v>0.7272287689733429</v>
+        <v>1</v>
       </c>
       <c r="EU6">
-        <v>0.7353962792701415</v>
+        <v>1</v>
       </c>
       <c r="EV6">
-        <v>0.7395188960235715</v>
+        <v>1</v>
       </c>
       <c r="EW6">
-        <v>0.754538058018148</v>
+        <v>1</v>
       </c>
       <c r="EX6">
-        <v>0.7694119399752029</v>
+        <v>1</v>
       </c>
       <c r="EY6">
-        <v>0.7711237062048587</v>
+        <v>1</v>
       </c>
       <c r="EZ6">
-        <v>0.7711237062048587</v>
+        <v>1</v>
       </c>
       <c r="FA6">
-        <v>0.7711237062048587</v>
+        <v>1</v>
       </c>
       <c r="FB6">
-        <v>0.7819803137023301</v>
+        <v>1</v>
       </c>
       <c r="FC6">
-        <v>0.8041220219507105</v>
+        <v>1</v>
       </c>
       <c r="FD6">
-        <v>0.8128770619753333</v>
+        <v>1</v>
       </c>
       <c r="FE6">
-        <v>0.8170198201411514</v>
+        <v>1</v>
       </c>
       <c r="FF6">
-        <v>0.8206567591153967</v>
+        <v>1</v>
       </c>
       <c r="FG6">
-        <v>0.8354715454767577</v>
+        <v>1</v>
       </c>
       <c r="FH6">
-        <v>0.8435667118549398</v>
+        <v>1</v>
       </c>
       <c r="FI6">
-        <v>0.8482882406695281</v>
+        <v>1</v>
       </c>
       <c r="FJ6">
-        <v>0.8492998757209123</v>
+        <v>1</v>
       </c>
       <c r="FK6">
-        <v>0.8494837747543447</v>
+        <v>1</v>
       </c>
       <c r="FL6">
-        <v>0.8494969353198888</v>
+        <v>1</v>
       </c>
       <c r="FM6">
-        <v>0.8494969353198888</v>
+        <v>1</v>
       </c>
       <c r="FN6">
-        <v>0.8494969353198888</v>
+        <v>1</v>
       </c>
       <c r="FO6">
-        <v>0.8496435582198144</v>
+        <v>1</v>
       </c>
       <c r="FP6">
-        <v>0.8503576383254394</v>
+        <v>1</v>
       </c>
       <c r="FQ6">
-        <v>0.853109655049474</v>
+        <v>1</v>
       </c>
       <c r="FR6">
-        <v>0.8547743532408238</v>
+        <v>1</v>
       </c>
       <c r="FS6">
-        <v>0.8630716011109661</v>
+        <v>1</v>
       </c>
       <c r="FT6">
-        <v>0.8660215485413019</v>
+        <v>1</v>
       </c>
       <c r="FU6">
-        <v>0.8685663677926669</v>
+        <v>1</v>
       </c>
       <c r="FV6">
-        <v>0.8716786108102228</v>
+        <v>1</v>
       </c>
       <c r="FW6">
-        <v>0.8742370969878364</v>
+        <v>1</v>
       </c>
       <c r="FX6">
-        <v>0.8757747691314863</v>
+        <v>1</v>
       </c>
       <c r="FY6">
-        <v>0.8759479975080274</v>
+        <v>1</v>
       </c>
       <c r="FZ6">
-        <v>0.8864931716478993</v>
+        <v>1</v>
       </c>
       <c r="GA6">
-        <v>0.8979939401843259</v>
+        <v>1</v>
       </c>
       <c r="GB6">
-        <v>0.9126991791422165</v>
+        <v>1</v>
       </c>
       <c r="GC6">
-        <v>0.92633909041217</v>
+        <v>1</v>
       </c>
       <c r="GD6">
-        <v>0.9271089107249377</v>
+        <v>1</v>
       </c>
       <c r="GE6">
-        <v>0.9271109296200314</v>
+        <v>1</v>
       </c>
       <c r="GF6">
-        <v>0.9271109296200314</v>
+        <v>1</v>
       </c>
       <c r="GG6">
-        <v>0.9338960571332535</v>
+        <v>1</v>
       </c>
       <c r="GH6">
-        <v>0.9424053817798154</v>
+        <v>1</v>
       </c>
       <c r="GI6">
-        <v>0.957937036748325</v>
+        <v>1</v>
       </c>
       <c r="GJ6">
-        <v>0.9713573575102384</v>
+        <v>1</v>
       </c>
       <c r="GK6">
-        <v>0.9755114157311345</v>
+        <v>1</v>
       </c>
       <c r="GL6">
-        <v>0.9761763851239281</v>
+        <v>1</v>
       </c>
       <c r="GM6">
-        <v>0.9792138298929579</v>
+        <v>1</v>
       </c>
       <c r="GN6">
-        <v>0.9822135353526874</v>
+        <v>1</v>
       </c>
       <c r="GO6">
-        <v>0.9878320057470488</v>
+        <v>1</v>
       </c>
       <c r="GP6">
-        <v>0.9961141591124082</v>
+        <v>1</v>
       </c>
       <c r="GQ6">
-        <v>0.9966546444289911</v>
+        <v>1</v>
       </c>
       <c r="GR6">
-        <v>0.9971439494298644</v>
+        <v>1</v>
       </c>
       <c r="GS6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="GT6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="GU6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="GV6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="GW6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="GX6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="GY6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="GZ6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HA6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HB6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HC6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HD6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HE6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HF6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HG6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HH6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HI6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HJ6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HK6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HL6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HM6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HN6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HO6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HP6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HQ6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HR6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HS6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HT6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HU6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HV6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HW6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HX6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HY6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HZ6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IA6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IB6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IC6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="ID6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IE6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IF6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IG6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IH6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="II6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IJ6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IK6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IL6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IM6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IN6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IO6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IP6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IQ6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IR6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IS6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IT6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IU6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IV6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IW6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -10570,16 +10570,16 @@
         <v>92</v>
       </c>
       <c r="D2">
-        <v>124</v>
+        <v>95</v>
       </c>
       <c r="E2">
-        <v>0.002863527532619996</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.5010936109309378</v>
+        <v>0.6074143768024984</v>
       </c>
       <c r="G2">
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="H2">
         <v>4</v>
@@ -10611,16 +10611,16 @@
         <v>93</v>
       </c>
       <c r="D3">
-        <v>143</v>
+        <v>99</v>
       </c>
       <c r="E3">
-        <v>0.04302485295962423</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0.50688946522042</v>
+        <v>0.5757392709753013</v>
       </c>
       <c r="G3">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="H3">
         <v>4</v>
@@ -10652,16 +10652,16 @@
         <v>89</v>
       </c>
       <c r="D4">
-        <v>131</v>
+        <v>95</v>
       </c>
       <c r="E4">
-        <v>0.06078781723823504</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.5033593050294171</v>
+        <v>0.6245938591775338</v>
       </c>
       <c r="G4">
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="H4">
         <v>4</v>
@@ -10693,16 +10693,16 @@
         <v>89</v>
       </c>
       <c r="D5">
-        <v>131</v>
+        <v>92</v>
       </c>
       <c r="E5">
-        <v>0.02220069080947303</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.5024318826061759</v>
+        <v>0.5753092842874087</v>
       </c>
       <c r="G5">
-        <v>42</v>
+        <v>3</v>
       </c>
       <c r="H5">
         <v>4</v>
@@ -10734,16 +10734,16 @@
         <v>89</v>
       </c>
       <c r="D6">
-        <v>123</v>
+        <v>93</v>
       </c>
       <c r="E6">
-        <v>0.04124726530850679</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.5105216473012741</v>
+        <v>0.7776908528020327</v>
       </c>
       <c r="G6">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="H6">
         <v>4</v>
@@ -10829,16 +10829,16 @@
         <v>92</v>
       </c>
       <c r="D2">
-        <v>146</v>
+        <v>110</v>
       </c>
       <c r="E2">
-        <v>0.002863527532619996</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.7027407804861078</v>
+        <v>0.7569064738349336</v>
       </c>
       <c r="G2">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="H2">
         <v>4</v>
@@ -10870,16 +10870,16 @@
         <v>93</v>
       </c>
       <c r="D3">
-        <v>161</v>
+        <v>106</v>
       </c>
       <c r="E3">
-        <v>0.04302485295962423</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0.7120613920831376</v>
+        <v>0.8623969244133667</v>
       </c>
       <c r="G3">
-        <v>68</v>
+        <v>13</v>
       </c>
       <c r="H3">
         <v>4</v>
@@ -10911,16 +10911,16 @@
         <v>89</v>
       </c>
       <c r="D4">
-        <v>151</v>
+        <v>101</v>
       </c>
       <c r="E4">
-        <v>0.06078781723823504</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.7137421783381285</v>
+        <v>0.8520743425701927</v>
       </c>
       <c r="G4">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="H4">
         <v>4</v>
@@ -10952,16 +10952,16 @@
         <v>89</v>
       </c>
       <c r="D5">
-        <v>150</v>
+        <v>107</v>
       </c>
       <c r="E5">
-        <v>0.02220069080947303</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.7102045879581496</v>
+        <v>0.7454772345542006</v>
       </c>
       <c r="G5">
-        <v>61</v>
+        <v>18</v>
       </c>
       <c r="H5">
         <v>4</v>
@@ -10993,16 +10993,16 @@
         <v>89</v>
       </c>
       <c r="D6">
-        <v>143</v>
+        <v>93</v>
       </c>
       <c r="E6">
-        <v>0.04124726530850679</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.7157644392621934</v>
+        <v>0.7776908528020327</v>
       </c>
       <c r="G6">
-        <v>54</v>
+        <v>4</v>
       </c>
       <c r="H6">
         <v>4</v>
@@ -11088,16 +11088,16 @@
         <v>92</v>
       </c>
       <c r="D2">
-        <v>159</v>
+        <v>144</v>
       </c>
       <c r="E2">
-        <v>0.002863527532619996</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.8097637655019432</v>
+        <v>0.9564498804231112</v>
       </c>
       <c r="G2">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="H2">
         <v>4</v>
@@ -11129,16 +11129,16 @@
         <v>93</v>
       </c>
       <c r="D3">
-        <v>169</v>
+        <v>106</v>
       </c>
       <c r="E3">
-        <v>0.04302485295962423</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0.8061008307667723</v>
+        <v>0.8623969244133667</v>
       </c>
       <c r="G3">
-        <v>76</v>
+        <v>13</v>
       </c>
       <c r="H3">
         <v>4</v>
@@ -11170,16 +11170,16 @@
         <v>89</v>
       </c>
       <c r="D4">
-        <v>158</v>
+        <v>101</v>
       </c>
       <c r="E4">
-        <v>0.06078781723823504</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.8185236192991436</v>
+        <v>0.8520743425701927</v>
       </c>
       <c r="G4">
-        <v>69</v>
+        <v>12</v>
       </c>
       <c r="H4">
         <v>4</v>
@@ -11211,16 +11211,16 @@
         <v>89</v>
       </c>
       <c r="D5">
-        <v>157</v>
+        <v>141</v>
       </c>
       <c r="E5">
-        <v>0.02220069080947303</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.8039581963924787</v>
+        <v>0.8865824026674314</v>
       </c>
       <c r="G5">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="H5">
         <v>4</v>
@@ -11252,16 +11252,16 @@
         <v>89</v>
       </c>
       <c r="D6">
-        <v>158</v>
+        <v>123</v>
       </c>
       <c r="E6">
-        <v>0.04124726530850679</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.8041220219507105</v>
+        <v>0.8343612272426941</v>
       </c>
       <c r="G6">
-        <v>69</v>
+        <v>34</v>
       </c>
       <c r="H6">
         <v>4</v>
@@ -11347,16 +11347,16 @@
         <v>92</v>
       </c>
       <c r="D2">
-        <v>181</v>
+        <v>144</v>
       </c>
       <c r="E2">
-        <v>0.002863527532619996</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.9015548460517031</v>
+        <v>0.9564498804231112</v>
       </c>
       <c r="G2">
-        <v>89</v>
+        <v>52</v>
       </c>
       <c r="H2">
         <v>4</v>
@@ -11388,16 +11388,16 @@
         <v>93</v>
       </c>
       <c r="D3">
-        <v>189</v>
+        <v>110</v>
       </c>
       <c r="E3">
-        <v>0.04302485295962423</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0.9157132209773955</v>
+        <v>0.9389014946764204</v>
       </c>
       <c r="G3">
-        <v>96</v>
+        <v>17</v>
       </c>
       <c r="H3">
         <v>4</v>
@@ -11429,16 +11429,16 @@
         <v>89</v>
       </c>
       <c r="D4">
-        <v>183</v>
+        <v>141</v>
       </c>
       <c r="E4">
-        <v>0.06078781723823504</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.9084484761194894</v>
+        <v>0.9546494057711488</v>
       </c>
       <c r="G4">
-        <v>94</v>
+        <v>52</v>
       </c>
       <c r="H4">
         <v>4</v>
@@ -11470,16 +11470,16 @@
         <v>89</v>
       </c>
       <c r="D5">
-        <v>181</v>
+        <v>142</v>
       </c>
       <c r="E5">
-        <v>0.02220069080947303</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.9045640512665294</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>92</v>
+        <v>53</v>
       </c>
       <c r="H5">
         <v>4</v>
@@ -11511,16 +11511,16 @@
         <v>89</v>
       </c>
       <c r="D6">
-        <v>183</v>
+        <v>142</v>
       </c>
       <c r="E6">
-        <v>0.04124726530850679</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.9126991791422165</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>94</v>
+        <v>53</v>
       </c>
       <c r="H6">
         <v>4</v>

--- a/on_trucks/Processed_Stand_Alone/4_455-55R22.xlsx
+++ b/on_trucks/Processed_Stand_Alone/4_455-55R22.xlsx
@@ -686,13 +686,13 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.0444492653776807</v>
+        <v>0.05450982865424624</v>
       </c>
       <c r="G2">
-        <v>0.2004001439715431</v>
+        <v>0.1563144517545752</v>
       </c>
       <c r="H2">
-        <v>0.34059126716009</v>
+        <v>0.2478311176875075</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -701,13 +701,13 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.06321100739293328</v>
+        <v>0.06675748055457717</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.04825189122601336</v>
+        <v>0.0569921801149857</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -716,28 +716,28 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>0.007657584637722158</v>
       </c>
       <c r="Q2">
-        <v>0.008682063015557278</v>
+        <v>0.03116102428289033</v>
       </c>
       <c r="R2">
-        <v>0.02129795294612061</v>
+        <v>0.03939666829488105</v>
       </c>
       <c r="S2">
-        <v>0.01604072626720654</v>
+        <v>0.03596475444209879</v>
       </c>
       <c r="T2">
-        <v>0.01878504639422713</v>
+        <v>0.03775624467746688</v>
       </c>
       <c r="U2">
-        <v>0.1245461850935713</v>
+        <v>0.1067970411194569</v>
       </c>
       <c r="V2">
-        <v>0.001036310965277543</v>
+        <v>0.02616988275925463</v>
       </c>
       <c r="W2">
-        <v>0.1127081401897791</v>
+        <v>0.09906917379006581</v>
       </c>
       <c r="X2">
         <v>0</v>
@@ -746,13 +746,13 @@
         <v>0</v>
       </c>
       <c r="Z2">
-        <v>0</v>
+        <v>0.01030361104139364</v>
       </c>
       <c r="AA2">
         <v>0</v>
       </c>
       <c r="AB2">
-        <v>0</v>
+        <v>0.003885165472771558</v>
       </c>
       <c r="AC2">
         <v>0</v>
@@ -779,7 +779,7 @@
         <v>0</v>
       </c>
       <c r="AK2">
-        <v>0</v>
+        <v>0.01943379071610629</v>
       </c>
     </row>
     <row r="3" spans="1:37">
@@ -802,25 +802,25 @@
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>0.003343278705746478</v>
       </c>
       <c r="H3">
-        <v>0.1606222980446241</v>
+        <v>0.1399353623404185</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.06405102258161943</v>
+        <v>0.0711741508608054</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.2912166454217619</v>
+        <v>0.2329218688868863</v>
       </c>
       <c r="M3">
-        <v>0.004724229562992678</v>
+        <v>0.02893196091764999</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -835,22 +835,22 @@
         <v>0</v>
       </c>
       <c r="R3">
-        <v>0.08666171568971469</v>
+        <v>0.08727354110963743</v>
       </c>
       <c r="S3">
-        <v>0.2253785808357004</v>
+        <v>0.1860434874975374</v>
       </c>
       <c r="T3">
         <v>0</v>
       </c>
       <c r="U3">
-        <v>0</v>
+        <v>0.02037671443830526</v>
       </c>
       <c r="V3">
-        <v>0</v>
+        <v>0.01812477024476222</v>
       </c>
       <c r="W3">
-        <v>0.1315901540118333</v>
+        <v>0.1192637352341775</v>
       </c>
       <c r="X3">
         <v>0</v>
@@ -868,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="AC3">
-        <v>0</v>
+        <v>0.0122233021621444</v>
       </c>
       <c r="AD3">
         <v>0</v>
@@ -883,13 +883,13 @@
         <v>0</v>
       </c>
       <c r="AH3">
-        <v>0</v>
+        <v>0.01065696724912368</v>
       </c>
       <c r="AI3">
-        <v>0</v>
+        <v>0.01870394739647138</v>
       </c>
       <c r="AJ3">
-        <v>0.03575535385175356</v>
+        <v>0.05102691295633416</v>
       </c>
       <c r="AK3">
         <v>0</v>
@@ -906,19 +906,19 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.365152647110326</v>
+        <v>0.2848535686402829</v>
       </c>
       <c r="E4">
-        <v>0.1207738573310888</v>
+        <v>0.1111326531420197</v>
       </c>
       <c r="F4">
-        <v>0.01917079677127302</v>
+        <v>0.03890634940337882</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.1768520388360459</v>
+        <v>0.1509968043611965</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -927,19 +927,19 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.003937466853788869</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.001409398796874491</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.234346670438728</v>
+        <v>0.1918678637820084</v>
       </c>
       <c r="O4">
-        <v>0.01589506861477219</v>
+        <v>0.03657774103771488</v>
       </c>
       <c r="P4">
         <v>0</v>
@@ -951,13 +951,13 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0</v>
+        <v>0.02471426667032641</v>
       </c>
       <c r="T4">
-        <v>0</v>
+        <v>0.01949337936507862</v>
       </c>
       <c r="U4">
-        <v>0.06780892089776594</v>
+        <v>0.07348160636002976</v>
       </c>
       <c r="V4">
         <v>0</v>
@@ -969,7 +969,7 @@
         <v>0</v>
       </c>
       <c r="Y4">
-        <v>0</v>
+        <v>0.005329564916530762</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -984,22 +984,22 @@
         <v>0</v>
       </c>
       <c r="AD4">
-        <v>0</v>
+        <v>0.009023049557106293</v>
       </c>
       <c r="AE4">
-        <v>0</v>
+        <v>0.001301992190057215</v>
       </c>
       <c r="AF4">
-        <v>0</v>
+        <v>0.02202936818182381</v>
       </c>
       <c r="AG4">
-        <v>0</v>
+        <v>0.006402135113651874</v>
       </c>
       <c r="AH4">
         <v>0</v>
       </c>
       <c r="AI4">
-        <v>0</v>
+        <v>0.01854279162813063</v>
       </c>
       <c r="AJ4">
         <v>0</v>
@@ -1019,25 +1019,25 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.4114035947474924</v>
+        <v>0.3086488216535676</v>
       </c>
       <c r="E5">
-        <v>0.1221743573461361</v>
+        <v>0.1091630792187044</v>
       </c>
       <c r="F5">
-        <v>0.06720638693099344</v>
+        <v>0.07125084570136453</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.09317046597503238</v>
+        <v>0.08915866038591584</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.02704450570014412</v>
+        <v>0.04355059393256044</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -1049,25 +1049,25 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.01422364783914829</v>
+        <v>0.03470785599903846</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>0.02162440409604045</v>
       </c>
       <c r="P5">
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>0.09233598168499919</v>
+        <v>0.08858310405681452</v>
       </c>
       <c r="R5">
-        <v>0.01210840475592678</v>
+        <v>0.03324894112349596</v>
       </c>
       <c r="S5">
-        <v>0</v>
+        <v>0.002940488548320609</v>
       </c>
       <c r="T5">
-        <v>0.1194036921027626</v>
+        <v>0.107252109850328</v>
       </c>
       <c r="U5">
         <v>0</v>
@@ -1076,13 +1076,13 @@
         <v>0</v>
       </c>
       <c r="W5">
-        <v>0</v>
+        <v>0.003581498214129987</v>
       </c>
       <c r="X5">
         <v>0</v>
       </c>
       <c r="Y5">
-        <v>0.002107613564587401</v>
+        <v>0.02635124546290152</v>
       </c>
       <c r="Z5">
         <v>0</v>
@@ -1097,7 +1097,7 @@
         <v>0</v>
       </c>
       <c r="AD5">
-        <v>0</v>
+        <v>0.00826509214670431</v>
       </c>
       <c r="AE5">
         <v>0</v>
@@ -1112,7 +1112,7 @@
         <v>0</v>
       </c>
       <c r="AI5">
-        <v>0.03882134935277739</v>
+        <v>0.05167325961011354</v>
       </c>
       <c r="AJ5">
         <v>0</v>
@@ -1132,22 +1132,22 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.2019185844682323</v>
+        <v>0.1666002112624654</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>0.02151938067832306</v>
       </c>
       <c r="F6">
-        <v>0.6215152643673721</v>
+        <v>0.4593131135109963</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.0107134115422798</v>
       </c>
       <c r="I6">
-        <v>0.02547536208701665</v>
+        <v>0.0435124696776102</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -1162,13 +1162,13 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>0.006252853596018612</v>
       </c>
       <c r="O6">
-        <v>0.02370812976487529</v>
+        <v>0.04227963889809652</v>
       </c>
       <c r="P6">
-        <v>0.008788351429793801</v>
+        <v>0.03187152123039663</v>
       </c>
       <c r="Q6">
         <v>0</v>
@@ -1180,10 +1180,10 @@
         <v>0</v>
       </c>
       <c r="T6">
-        <v>0</v>
+        <v>0.01549428514476634</v>
       </c>
       <c r="U6">
-        <v>0.02945238525439386</v>
+        <v>0.04628686244428427</v>
       </c>
       <c r="V6">
         <v>0</v>
@@ -1192,13 +1192,13 @@
         <v>0</v>
       </c>
       <c r="X6">
-        <v>0.06580258115945133</v>
+        <v>0.07164495475147234</v>
       </c>
       <c r="Y6">
         <v>0</v>
       </c>
       <c r="Z6">
-        <v>0.01973253559697214</v>
+        <v>0.03950624300914671</v>
       </c>
       <c r="AA6">
         <v>0</v>
@@ -1207,25 +1207,25 @@
         <v>0</v>
       </c>
       <c r="AC6">
-        <v>0</v>
+        <v>0.005269952522948645</v>
       </c>
       <c r="AD6">
-        <v>0.003606805871892612</v>
+        <v>0.0282568471611194</v>
       </c>
       <c r="AE6">
         <v>0</v>
       </c>
       <c r="AF6">
-        <v>0</v>
+        <v>0.003241155302788825</v>
       </c>
       <c r="AG6">
         <v>0</v>
       </c>
       <c r="AH6">
-        <v>0</v>
+        <v>0.005957981420148195</v>
       </c>
       <c r="AI6">
-        <v>0</v>
+        <v>0.002279117847138778</v>
       </c>
       <c r="AJ6">
         <v>0</v>
@@ -1377,100 +1377,100 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.0444492653776807</v>
+        <v>0.05450982865424624</v>
       </c>
       <c r="G2">
-        <v>0.2448494093492238</v>
+        <v>0.2108242804088215</v>
       </c>
       <c r="H2">
-        <v>0.5854406765093139</v>
+        <v>0.458655398096329</v>
       </c>
       <c r="I2">
-        <v>0.5854406765093139</v>
+        <v>0.458655398096329</v>
       </c>
       <c r="J2">
-        <v>0.5854406765093139</v>
+        <v>0.458655398096329</v>
       </c>
       <c r="K2">
-        <v>0.6486516839022471</v>
+        <v>0.5254128786509061</v>
       </c>
       <c r="L2">
-        <v>0.6486516839022471</v>
+        <v>0.5254128786509061</v>
       </c>
       <c r="M2">
-        <v>0.6969035751282605</v>
+        <v>0.5824050587658919</v>
       </c>
       <c r="N2">
-        <v>0.6969035751282605</v>
+        <v>0.5824050587658919</v>
       </c>
       <c r="O2">
-        <v>0.6969035751282605</v>
+        <v>0.5824050587658919</v>
       </c>
       <c r="P2">
-        <v>0.6969035751282605</v>
+        <v>0.590062643403614</v>
       </c>
       <c r="Q2">
-        <v>0.7055856381438178</v>
+        <v>0.6212236676865044</v>
       </c>
       <c r="R2">
-        <v>0.7268835910899384</v>
+        <v>0.6606203359813855</v>
       </c>
       <c r="S2">
-        <v>0.7429243173571449</v>
+        <v>0.6965850904234843</v>
       </c>
       <c r="T2">
-        <v>0.7617093637513721</v>
+        <v>0.7343413351009511</v>
       </c>
       <c r="U2">
-        <v>0.8862555488449434</v>
+        <v>0.841138376220408</v>
       </c>
       <c r="V2">
-        <v>0.887291859810221</v>
+        <v>0.8673082589796626</v>
       </c>
       <c r="W2">
-        <v>1</v>
+        <v>0.9663774327697284</v>
       </c>
       <c r="X2">
-        <v>1</v>
+        <v>0.9663774327697284</v>
       </c>
       <c r="Y2">
-        <v>1</v>
+        <v>0.9663774327697284</v>
       </c>
       <c r="Z2">
-        <v>1</v>
+        <v>0.9766810438111221</v>
       </c>
       <c r="AA2">
-        <v>1</v>
+        <v>0.9766810438111221</v>
       </c>
       <c r="AB2">
-        <v>1</v>
+        <v>0.9805662092838936</v>
       </c>
       <c r="AC2">
-        <v>1</v>
+        <v>0.9805662092838936</v>
       </c>
       <c r="AD2">
-        <v>1</v>
+        <v>0.9805662092838936</v>
       </c>
       <c r="AE2">
-        <v>1</v>
+        <v>0.9805662092838936</v>
       </c>
       <c r="AF2">
-        <v>1</v>
+        <v>0.9805662092838936</v>
       </c>
       <c r="AG2">
-        <v>1</v>
+        <v>0.9805662092838936</v>
       </c>
       <c r="AH2">
-        <v>1</v>
+        <v>0.9805662092838936</v>
       </c>
       <c r="AI2">
-        <v>1</v>
+        <v>0.9805662092838936</v>
       </c>
       <c r="AJ2">
-        <v>1</v>
+        <v>0.9805662092838936</v>
       </c>
       <c r="AK2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:37">
@@ -1493,91 +1493,91 @@
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>0.003343278705746478</v>
       </c>
       <c r="H3">
-        <v>0.1606222980446241</v>
+        <v>0.1432786410461649</v>
       </c>
       <c r="I3">
-        <v>0.1606222980446241</v>
+        <v>0.1432786410461649</v>
       </c>
       <c r="J3">
-        <v>0.2246733206262435</v>
+        <v>0.2144527919069704</v>
       </c>
       <c r="K3">
-        <v>0.2246733206262435</v>
+        <v>0.2144527919069704</v>
       </c>
       <c r="L3">
-        <v>0.5158899660480054</v>
+        <v>0.4473746607938566</v>
       </c>
       <c r="M3">
-        <v>0.5206141956109981</v>
+        <v>0.4763066217115066</v>
       </c>
       <c r="N3">
-        <v>0.5206141956109981</v>
+        <v>0.4763066217115066</v>
       </c>
       <c r="O3">
-        <v>0.5206141956109981</v>
+        <v>0.4763066217115066</v>
       </c>
       <c r="P3">
-        <v>0.5206141956109981</v>
+        <v>0.4763066217115066</v>
       </c>
       <c r="Q3">
-        <v>0.5206141956109981</v>
+        <v>0.4763066217115066</v>
       </c>
       <c r="R3">
-        <v>0.6072759113007128</v>
+        <v>0.5635801628211441</v>
       </c>
       <c r="S3">
-        <v>0.8326544921364132</v>
+        <v>0.7496236503186815</v>
       </c>
       <c r="T3">
-        <v>0.8326544921364132</v>
+        <v>0.7496236503186815</v>
       </c>
       <c r="U3">
-        <v>0.8326544921364132</v>
+        <v>0.7700003647569867</v>
       </c>
       <c r="V3">
-        <v>0.8326544921364132</v>
+        <v>0.788125135001749</v>
       </c>
       <c r="W3">
-        <v>0.9642446461482465</v>
+        <v>0.9073888702359264</v>
       </c>
       <c r="X3">
-        <v>0.9642446461482465</v>
+        <v>0.9073888702359264</v>
       </c>
       <c r="Y3">
-        <v>0.9642446461482465</v>
+        <v>0.9073888702359264</v>
       </c>
       <c r="Z3">
-        <v>0.9642446461482465</v>
+        <v>0.9073888702359264</v>
       </c>
       <c r="AA3">
-        <v>0.9642446461482465</v>
+        <v>0.9073888702359264</v>
       </c>
       <c r="AB3">
-        <v>0.9642446461482465</v>
+        <v>0.9073888702359264</v>
       </c>
       <c r="AC3">
-        <v>0.9642446461482465</v>
+        <v>0.9196121723980708</v>
       </c>
       <c r="AD3">
-        <v>0.9642446461482465</v>
+        <v>0.9196121723980708</v>
       </c>
       <c r="AE3">
-        <v>0.9642446461482465</v>
+        <v>0.9196121723980708</v>
       </c>
       <c r="AF3">
-        <v>0.9642446461482465</v>
+        <v>0.9196121723980708</v>
       </c>
       <c r="AG3">
-        <v>0.9642446461482465</v>
+        <v>0.9196121723980708</v>
       </c>
       <c r="AH3">
-        <v>0.9642446461482465</v>
+        <v>0.9302691396471945</v>
       </c>
       <c r="AI3">
-        <v>0.9642446461482465</v>
+        <v>0.9489730870436659</v>
       </c>
       <c r="AJ3">
         <v>1</v>
@@ -1597,106 +1597,106 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.365152647110326</v>
+        <v>0.2848535686402829</v>
       </c>
       <c r="E4">
-        <v>0.4859265044414148</v>
+        <v>0.3959862217823027</v>
       </c>
       <c r="F4">
-        <v>0.5050973012126878</v>
+        <v>0.4348925711856815</v>
       </c>
       <c r="G4">
-        <v>0.5050973012126878</v>
+        <v>0.4348925711856815</v>
       </c>
       <c r="H4">
-        <v>0.6819493400487338</v>
+        <v>0.585889375546878</v>
       </c>
       <c r="I4">
-        <v>0.6819493400487338</v>
+        <v>0.585889375546878</v>
       </c>
       <c r="J4">
-        <v>0.6819493400487338</v>
+        <v>0.585889375546878</v>
       </c>
       <c r="K4">
-        <v>0.6819493400487338</v>
+        <v>0.5898268424006669</v>
       </c>
       <c r="L4">
-        <v>0.6819493400487338</v>
+        <v>0.5912362411975414</v>
       </c>
       <c r="M4">
-        <v>0.6819493400487338</v>
+        <v>0.5912362411975414</v>
       </c>
       <c r="N4">
-        <v>0.9162960104874618</v>
+        <v>0.7831041049795497</v>
       </c>
       <c r="O4">
-        <v>0.932191079102234</v>
+        <v>0.8196818460172646</v>
       </c>
       <c r="P4">
-        <v>0.932191079102234</v>
+        <v>0.8196818460172646</v>
       </c>
       <c r="Q4">
-        <v>0.932191079102234</v>
+        <v>0.8196818460172646</v>
       </c>
       <c r="R4">
-        <v>0.932191079102234</v>
+        <v>0.8196818460172646</v>
       </c>
       <c r="S4">
-        <v>0.932191079102234</v>
+        <v>0.844396112687591</v>
       </c>
       <c r="T4">
-        <v>0.932191079102234</v>
+        <v>0.8638894920526696</v>
       </c>
       <c r="U4">
-        <v>0.9999999999999999</v>
+        <v>0.9373710984126994</v>
       </c>
       <c r="V4">
-        <v>0.9999999999999999</v>
+        <v>0.9373710984126994</v>
       </c>
       <c r="W4">
-        <v>0.9999999999999999</v>
+        <v>0.9373710984126994</v>
       </c>
       <c r="X4">
-        <v>0.9999999999999999</v>
+        <v>0.9373710984126994</v>
       </c>
       <c r="Y4">
-        <v>0.9999999999999999</v>
+        <v>0.9427006633292302</v>
       </c>
       <c r="Z4">
-        <v>0.9999999999999999</v>
+        <v>0.9427006633292302</v>
       </c>
       <c r="AA4">
-        <v>0.9999999999999999</v>
+        <v>0.9427006633292302</v>
       </c>
       <c r="AB4">
-        <v>0.9999999999999999</v>
+        <v>0.9427006633292302</v>
       </c>
       <c r="AC4">
-        <v>0.9999999999999999</v>
+        <v>0.9427006633292302</v>
       </c>
       <c r="AD4">
-        <v>0.9999999999999999</v>
+        <v>0.9517237128863365</v>
       </c>
       <c r="AE4">
-        <v>0.9999999999999999</v>
+        <v>0.9530257050763937</v>
       </c>
       <c r="AF4">
-        <v>0.9999999999999999</v>
+        <v>0.9750550732582175</v>
       </c>
       <c r="AG4">
-        <v>0.9999999999999999</v>
+        <v>0.9814572083718693</v>
       </c>
       <c r="AH4">
-        <v>0.9999999999999999</v>
+        <v>0.9814572083718693</v>
       </c>
       <c r="AI4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AJ4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AK4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:37">
@@ -1710,97 +1710,97 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.4114035947474924</v>
+        <v>0.3086488216535676</v>
       </c>
       <c r="E5">
-        <v>0.5335779520936286</v>
+        <v>0.417811900872272</v>
       </c>
       <c r="F5">
-        <v>0.600784339024622</v>
+        <v>0.4890627465736365</v>
       </c>
       <c r="G5">
-        <v>0.600784339024622</v>
+        <v>0.4890627465736365</v>
       </c>
       <c r="H5">
-        <v>0.6939548049996545</v>
+        <v>0.5782214069595524</v>
       </c>
       <c r="I5">
-        <v>0.6939548049996545</v>
+        <v>0.5782214069595524</v>
       </c>
       <c r="J5">
-        <v>0.7209993106997986</v>
+        <v>0.6217720008921128</v>
       </c>
       <c r="K5">
-        <v>0.7209993106997986</v>
+        <v>0.6217720008921128</v>
       </c>
       <c r="L5">
-        <v>0.7209993106997986</v>
+        <v>0.6217720008921128</v>
       </c>
       <c r="M5">
-        <v>0.7209993106997986</v>
+        <v>0.6217720008921128</v>
       </c>
       <c r="N5">
-        <v>0.7352229585389469</v>
+        <v>0.6564798568911513</v>
       </c>
       <c r="O5">
-        <v>0.7352229585389469</v>
+        <v>0.6781042609871918</v>
       </c>
       <c r="P5">
-        <v>0.7352229585389469</v>
+        <v>0.6781042609871918</v>
       </c>
       <c r="Q5">
-        <v>0.8275589402239462</v>
+        <v>0.7666873650440063</v>
       </c>
       <c r="R5">
-        <v>0.8396673449798729</v>
+        <v>0.7999363061675022</v>
       </c>
       <c r="S5">
-        <v>0.8396673449798729</v>
+        <v>0.8028767947158229</v>
       </c>
       <c r="T5">
-        <v>0.9590710370826355</v>
+        <v>0.9101289045661509</v>
       </c>
       <c r="U5">
-        <v>0.9590710370826355</v>
+        <v>0.9101289045661509</v>
       </c>
       <c r="V5">
-        <v>0.9590710370826355</v>
+        <v>0.9101289045661509</v>
       </c>
       <c r="W5">
-        <v>0.9590710370826355</v>
+        <v>0.9137104027802809</v>
       </c>
       <c r="X5">
-        <v>0.9590710370826355</v>
+        <v>0.9137104027802809</v>
       </c>
       <c r="Y5">
-        <v>0.961178650647223</v>
+        <v>0.9400616482431825</v>
       </c>
       <c r="Z5">
-        <v>0.961178650647223</v>
+        <v>0.9400616482431825</v>
       </c>
       <c r="AA5">
-        <v>0.961178650647223</v>
+        <v>0.9400616482431825</v>
       </c>
       <c r="AB5">
-        <v>0.961178650647223</v>
+        <v>0.9400616482431825</v>
       </c>
       <c r="AC5">
-        <v>0.961178650647223</v>
+        <v>0.9400616482431825</v>
       </c>
       <c r="AD5">
-        <v>0.961178650647223</v>
+        <v>0.9483267403898868</v>
       </c>
       <c r="AE5">
-        <v>0.961178650647223</v>
+        <v>0.9483267403898868</v>
       </c>
       <c r="AF5">
-        <v>0.961178650647223</v>
+        <v>0.9483267403898868</v>
       </c>
       <c r="AG5">
-        <v>0.961178650647223</v>
+        <v>0.9483267403898868</v>
       </c>
       <c r="AH5">
-        <v>0.961178650647223</v>
+        <v>0.9483267403898868</v>
       </c>
       <c r="AI5">
         <v>1</v>
@@ -1823,106 +1823,106 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.2019185844682323</v>
+        <v>0.1666002112624654</v>
       </c>
       <c r="E6">
-        <v>0.2019185844682323</v>
+        <v>0.1881195919407885</v>
       </c>
       <c r="F6">
-        <v>0.8234338488356044</v>
+        <v>0.6474327054517848</v>
       </c>
       <c r="G6">
-        <v>0.8234338488356044</v>
+        <v>0.6474327054517848</v>
       </c>
       <c r="H6">
-        <v>0.8234338488356044</v>
+        <v>0.6581461169940646</v>
       </c>
       <c r="I6">
-        <v>0.8489092109226211</v>
+        <v>0.7016585866716748</v>
       </c>
       <c r="J6">
-        <v>0.8489092109226211</v>
+        <v>0.7016585866716748</v>
       </c>
       <c r="K6">
-        <v>0.8489092109226211</v>
+        <v>0.7016585866716748</v>
       </c>
       <c r="L6">
-        <v>0.8489092109226211</v>
+        <v>0.7016585866716748</v>
       </c>
       <c r="M6">
-        <v>0.8489092109226211</v>
+        <v>0.7016585866716748</v>
       </c>
       <c r="N6">
-        <v>0.8489092109226211</v>
+        <v>0.7079114402676934</v>
       </c>
       <c r="O6">
-        <v>0.8726173406874963</v>
+        <v>0.7501910791657899</v>
       </c>
       <c r="P6">
-        <v>0.8814056921172901</v>
+        <v>0.7820626003961865</v>
       </c>
       <c r="Q6">
-        <v>0.8814056921172901</v>
+        <v>0.7820626003961865</v>
       </c>
       <c r="R6">
-        <v>0.8814056921172901</v>
+        <v>0.7820626003961865</v>
       </c>
       <c r="S6">
-        <v>0.8814056921172901</v>
+        <v>0.7820626003961865</v>
       </c>
       <c r="T6">
-        <v>0.8814056921172901</v>
+        <v>0.7975568855409528</v>
       </c>
       <c r="U6">
-        <v>0.910858077371684</v>
+        <v>0.8438437479852371</v>
       </c>
       <c r="V6">
-        <v>0.910858077371684</v>
+        <v>0.8438437479852371</v>
       </c>
       <c r="W6">
-        <v>0.910858077371684</v>
+        <v>0.8438437479852371</v>
       </c>
       <c r="X6">
-        <v>0.9766606585311354</v>
+        <v>0.9154887027367095</v>
       </c>
       <c r="Y6">
-        <v>0.9766606585311354</v>
+        <v>0.9154887027367095</v>
       </c>
       <c r="Z6">
-        <v>0.9963931941281076</v>
+        <v>0.9549949457458562</v>
       </c>
       <c r="AA6">
-        <v>0.9963931941281076</v>
+        <v>0.9549949457458562</v>
       </c>
       <c r="AB6">
-        <v>0.9963931941281076</v>
+        <v>0.9549949457458562</v>
       </c>
       <c r="AC6">
-        <v>0.9963931941281076</v>
+        <v>0.9602648982688048</v>
       </c>
       <c r="AD6">
-        <v>1</v>
+        <v>0.9885217454299242</v>
       </c>
       <c r="AE6">
-        <v>1</v>
+        <v>0.9885217454299242</v>
       </c>
       <c r="AF6">
-        <v>1</v>
+        <v>0.991762900732713</v>
       </c>
       <c r="AG6">
-        <v>1</v>
+        <v>0.991762900732713</v>
       </c>
       <c r="AH6">
-        <v>1</v>
+        <v>0.9977208821528611</v>
       </c>
       <c r="AI6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AJ6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AK6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -1987,19 +1987,19 @@
         <v>0.5</v>
       </c>
       <c r="C2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D2">
+        <v>10</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0.5254128786509061</v>
+      </c>
+      <c r="G2">
         <v>7</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0.5854406765093139</v>
-      </c>
-      <c r="G2">
-        <v>3</v>
       </c>
       <c r="H2">
         <v>4</v>
@@ -2031,16 +2031,16 @@
         <v>5</v>
       </c>
       <c r="D3">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.5158899660480054</v>
+        <v>0.5635801628211441</v>
       </c>
       <c r="G3">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="H3">
         <v>4</v>
@@ -2072,16 +2072,16 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.5050973012126878</v>
+        <v>0.585889375546878</v>
       </c>
       <c r="G4">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H4">
         <v>4</v>
@@ -2113,16 +2113,16 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.5335779520936286</v>
+        <v>0.5782214069595524</v>
       </c>
       <c r="G5">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H5">
         <v>4</v>
@@ -2160,7 +2160,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.8234338488356044</v>
+        <v>0.6474327054517848</v>
       </c>
       <c r="G6">
         <v>4</v>
@@ -2246,19 +2246,19 @@
         <v>0.7</v>
       </c>
       <c r="C2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D2">
+        <v>19</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0.7343413351009511</v>
+      </c>
+      <c r="G2">
         <v>16</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0.7055856381438178</v>
-      </c>
-      <c r="G2">
-        <v>12</v>
       </c>
       <c r="H2">
         <v>4</v>
@@ -2296,7 +2296,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.8326544921364132</v>
+        <v>0.7496236503186815</v>
       </c>
       <c r="G3">
         <v>13</v>
@@ -2337,7 +2337,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.9162960104874618</v>
+        <v>0.7831041049795497</v>
       </c>
       <c r="G4">
         <v>12</v>
@@ -2372,16 +2372,16 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.7209993106997986</v>
+        <v>0.7666873650440063</v>
       </c>
       <c r="G5">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="H5">
         <v>4</v>
@@ -2413,16 +2413,16 @@
         <v>1</v>
       </c>
       <c r="D6">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.8234338488356044</v>
+        <v>0.7016585866716748</v>
       </c>
       <c r="G6">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H6">
         <v>4</v>
@@ -2505,7 +2505,7 @@
         <v>0.8</v>
       </c>
       <c r="C2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D2">
         <v>20</v>
@@ -2514,10 +2514,10 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.8862555488449434</v>
+        <v>0.841138376220408</v>
       </c>
       <c r="G2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H2">
         <v>4</v>
@@ -2549,16 +2549,16 @@
         <v>5</v>
       </c>
       <c r="D3">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.8326544921364132</v>
+        <v>0.9073888702359264</v>
       </c>
       <c r="G3">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H3">
         <v>4</v>
@@ -2590,16 +2590,16 @@
         <v>1</v>
       </c>
       <c r="D4">
+        <v>14</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0.8196818460172646</v>
+      </c>
+      <c r="G4">
         <v>13</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0.9162960104874618</v>
-      </c>
-      <c r="G4">
-        <v>12</v>
       </c>
       <c r="H4">
         <v>4</v>
@@ -2631,16 +2631,16 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.8275589402239462</v>
+        <v>0.8028767947158229</v>
       </c>
       <c r="G5">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H5">
         <v>4</v>
@@ -2672,16 +2672,16 @@
         <v>1</v>
       </c>
       <c r="D6">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.8234338488356044</v>
+        <v>0.8438437479852371</v>
       </c>
       <c r="G6">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="H6">
         <v>4</v>
@@ -2764,7 +2764,7 @@
         <v>0.9</v>
       </c>
       <c r="C2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D2">
         <v>22</v>
@@ -2773,10 +2773,10 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.9663774327697284</v>
       </c>
       <c r="G2">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H2">
         <v>4</v>
@@ -2814,7 +2814,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.9642446461482465</v>
+        <v>0.9073888702359264</v>
       </c>
       <c r="G3">
         <v>17</v>
@@ -2849,16 +2849,16 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.9162960104874618</v>
+        <v>0.9373710984126994</v>
       </c>
       <c r="G4">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="H4">
         <v>4</v>
@@ -2896,7 +2896,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.9590710370826355</v>
+        <v>0.9101289045661509</v>
       </c>
       <c r="G5">
         <v>18</v>
@@ -2931,16 +2931,16 @@
         <v>1</v>
       </c>
       <c r="D6">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.910858077371684</v>
+        <v>0.9154887027367095</v>
       </c>
       <c r="G6">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H6">
         <v>4</v>
